--- a/MF-Tracker-online.xlsx
+++ b/MF-Tracker-online.xlsx
@@ -105,15 +105,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="179" formatCode="[$-409]d/mmm/yy"/>
-    <numFmt numFmtId="180" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="0.000"/>
-    <numFmt numFmtId="182" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d/mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
+    <numFmt numFmtId="180" formatCode="0.000"/>
+    <numFmt numFmtId="181" formatCode="0.0"/>
+    <numFmt numFmtId="182" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -192,6 +192,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -207,21 +229,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +268,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,48 +304,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,22 +317,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -359,7 +359,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,97 +395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,13 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,13 +431,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +521,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,6 +692,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -707,11 +725,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,6 +751,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,49 +789,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -810,134 +810,134 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -954,7 +954,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -970,13 +970,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -998,15 +998,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1015,7 +1015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1032,50 +1032,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1090,28 +1093,25 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1131,11 +1131,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1146,9 +1146,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1543,12 +1540,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H1211"/>
+  <dimension ref="A1:H1217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D271" sqref="D271"/>
+      <selection pane="bottomLeft" activeCell="F279" sqref="F279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -2270,12 +2267,24 @@
     <row r="33" ht="24.75" customHeight="1" spans="1:8">
       <c r="A33" s="25"/>
       <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
+      <c r="C33" s="22">
+        <v>43461</v>
+      </c>
+      <c r="D33" s="23">
+        <v>29.91</v>
+      </c>
+      <c r="E33" s="32">
+        <v>-3.9</v>
+      </c>
+      <c r="F33" s="32">
+        <v>14</v>
+      </c>
+      <c r="G33" s="32">
+        <v>10.2</v>
+      </c>
+      <c r="H33" s="32">
+        <v>12.7</v>
+      </c>
     </row>
     <row r="34" ht="24.75" customHeight="1" spans="1:8">
       <c r="A34" s="25"/>
@@ -2349,26 +2358,26 @@
     </row>
     <row r="41" ht="24.75" customHeight="1" spans="1:8">
       <c r="A41" s="2"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
     </row>
     <row r="42" ht="28.5" customHeight="1" spans="1:8">
       <c r="A42" s="25" t="str">
         <f>HYPERLINK("http://www.moneycontrol.com/mutual-funds/nav/kotak-select-focus-fund-direct-plan/MKM520","Kotak Select Focus Fund - Direct Plan (G)")</f>
         <v>Kotak Select Focus Fund - Direct Plan (G)</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="37">
         <v>43196</v>
       </c>
-      <c r="D42" s="37">
+      <c r="D42" s="38">
         <v>34.444</v>
       </c>
       <c r="E42" s="14">
@@ -2380,17 +2389,17 @@
       <c r="G42" s="14">
         <v>13.3</v>
       </c>
-      <c r="H42" s="38">
+      <c r="H42" s="39">
         <v>23.4</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="1:8">
       <c r="A43" s="25"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="36">
+      <c r="B43" s="36"/>
+      <c r="C43" s="37">
         <v>43199</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D43" s="38">
         <v>34.595</v>
       </c>
       <c r="E43" s="14">
@@ -2402,17 +2411,17 @@
       <c r="G43" s="14">
         <v>12.8</v>
       </c>
-      <c r="H43" s="38">
+      <c r="H43" s="39">
         <v>23.7</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="1:8">
       <c r="A44" s="25"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="36">
+      <c r="B44" s="36"/>
+      <c r="C44" s="37">
         <v>43200</v>
       </c>
-      <c r="D44" s="37">
+      <c r="D44" s="38">
         <v>34.647</v>
       </c>
       <c r="E44" s="14">
@@ -2424,17 +2433,17 @@
       <c r="G44" s="14">
         <v>12.9</v>
       </c>
-      <c r="H44" s="38">
+      <c r="H44" s="39">
         <v>23.6</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="1:8">
       <c r="A45" s="25"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="36">
+      <c r="B45" s="36"/>
+      <c r="C45" s="37">
         <v>43202</v>
       </c>
-      <c r="D45" s="37">
+      <c r="D45" s="38">
         <v>34.645</v>
       </c>
       <c r="E45" s="14">
@@ -2446,17 +2455,17 @@
       <c r="G45" s="14">
         <v>12.9</v>
       </c>
-      <c r="H45" s="38">
+      <c r="H45" s="39">
         <v>23.8</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:8">
       <c r="A46" s="25"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="36">
+      <c r="B46" s="36"/>
+      <c r="C46" s="37">
         <v>43203</v>
       </c>
-      <c r="D46" s="37">
+      <c r="D46" s="38">
         <v>34.639</v>
       </c>
       <c r="E46" s="14">
@@ -2468,36 +2477,36 @@
       <c r="G46" s="14">
         <v>12.9</v>
       </c>
-      <c r="H46" s="38">
+      <c r="H46" s="39">
         <v>23.8</v>
       </c>
     </row>
     <row r="47" ht="24.75" customHeight="1" spans="1:8">
       <c r="A47" s="25"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="36">
+      <c r="B47" s="36"/>
+      <c r="C47" s="37">
         <v>43208</v>
       </c>
-      <c r="D47" s="39">
+      <c r="D47" s="40">
         <v>34.762</v>
       </c>
-      <c r="E47" s="40">
+      <c r="E47" s="41">
         <v>14.4</v>
       </c>
-      <c r="F47" s="40">
+      <c r="F47" s="41">
         <v>21.7</v>
       </c>
-      <c r="G47" s="40">
+      <c r="G47" s="41">
         <v>14</v>
       </c>
-      <c r="H47" s="41">
+      <c r="H47" s="42">
         <v>22.9</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1" spans="1:8">
       <c r="A48" s="25"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="42">
+      <c r="B48" s="36"/>
+      <c r="C48" s="43">
         <v>43311</v>
       </c>
       <c r="D48" s="28">
@@ -2512,17 +2521,17 @@
       <c r="G48" s="26">
         <v>14.6</v>
       </c>
-      <c r="H48" s="43">
+      <c r="H48" s="44">
         <v>24</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1" spans="1:8">
       <c r="A49" s="25"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="42">
+      <c r="B49" s="36"/>
+      <c r="C49" s="43">
         <v>43312</v>
       </c>
-      <c r="D49" s="44">
+      <c r="D49" s="45">
         <v>36.754</v>
       </c>
       <c r="E49" s="30">
@@ -2534,14 +2543,14 @@
       <c r="G49" s="30">
         <v>14.4</v>
       </c>
-      <c r="H49" s="45">
+      <c r="H49" s="46">
         <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1" spans="1:8">
       <c r="A50" s="25"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="42">
+      <c r="B50" s="36"/>
+      <c r="C50" s="43">
         <v>43313</v>
       </c>
       <c r="D50" s="28">
@@ -2556,17 +2565,17 @@
       <c r="G50" s="26">
         <v>14.3</v>
       </c>
-      <c r="H50" s="43">
+      <c r="H50" s="44">
         <v>24.1</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1" spans="1:8">
       <c r="A51" s="25"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="42">
+      <c r="B51" s="36"/>
+      <c r="C51" s="43">
         <v>43319</v>
       </c>
-      <c r="D51" s="46">
+      <c r="D51" s="47">
         <v>36.735</v>
       </c>
       <c r="E51" s="26">
@@ -2578,14 +2587,14 @@
       <c r="G51" s="26">
         <v>13.7</v>
       </c>
-      <c r="H51" s="43">
+      <c r="H51" s="44">
         <v>24.7</v>
       </c>
     </row>
     <row r="52" ht="24.75" customHeight="1" spans="1:8">
       <c r="A52" s="25"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="42">
+      <c r="B52" s="36"/>
+      <c r="C52" s="43">
         <v>43321</v>
       </c>
       <c r="D52" s="28">
@@ -2600,14 +2609,14 @@
       <c r="G52" s="26">
         <v>14</v>
       </c>
-      <c r="H52" s="43">
+      <c r="H52" s="44">
         <v>24.7</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1" spans="1:8">
       <c r="A53" s="25"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="42">
+      <c r="B53" s="36"/>
+      <c r="C53" s="43">
         <v>43322</v>
       </c>
       <c r="D53" s="28">
@@ -2622,17 +2631,17 @@
       <c r="G53" s="26">
         <v>14</v>
       </c>
-      <c r="H53" s="43">
+      <c r="H53" s="44">
         <v>24.6</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1" spans="1:8">
       <c r="A54" s="25"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="42">
+      <c r="B54" s="36"/>
+      <c r="C54" s="43">
         <v>43325</v>
       </c>
-      <c r="D54" s="46">
+      <c r="D54" s="47">
         <v>36.574</v>
       </c>
       <c r="E54" s="26">
@@ -2644,17 +2653,17 @@
       <c r="G54" s="26">
         <v>14.5</v>
       </c>
-      <c r="H54" s="43">
+      <c r="H54" s="44">
         <v>23.7</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1" spans="1:8">
       <c r="A55" s="25"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="42">
+      <c r="B55" s="36"/>
+      <c r="C55" s="43">
         <v>43326</v>
       </c>
-      <c r="D55" s="46">
+      <c r="D55" s="47">
         <v>36.774</v>
       </c>
       <c r="E55" s="26">
@@ -2666,17 +2675,17 @@
       <c r="G55" s="26">
         <v>14.2</v>
       </c>
-      <c r="H55" s="43">
+      <c r="H55" s="44">
         <v>23.7</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1" spans="1:8">
       <c r="A56" s="25"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="42">
+      <c r="B56" s="36"/>
+      <c r="C56" s="43">
         <v>43332</v>
       </c>
-      <c r="D56" s="46">
+      <c r="D56" s="47">
         <v>37.234</v>
       </c>
       <c r="E56" s="26">
@@ -2688,17 +2697,17 @@
       <c r="G56" s="26">
         <v>15</v>
       </c>
-      <c r="H56" s="43">
+      <c r="H56" s="44">
         <v>25.5</v>
       </c>
     </row>
     <row r="57" ht="24.75" customHeight="1" spans="1:8">
       <c r="A57" s="25"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="42">
+      <c r="B57" s="36"/>
+      <c r="C57" s="43">
         <v>43333</v>
       </c>
-      <c r="D57" s="46">
+      <c r="D57" s="47">
         <v>37.338</v>
       </c>
       <c r="E57" s="26">
@@ -2710,17 +2719,17 @@
       <c r="G57" s="26">
         <v>15.4</v>
       </c>
-      <c r="H57" s="43">
+      <c r="H57" s="44">
         <v>25.9</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1" spans="1:8">
       <c r="A58" s="25"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="42">
+      <c r="B58" s="36"/>
+      <c r="C58" s="43">
         <v>43336</v>
       </c>
-      <c r="D58" s="46">
+      <c r="D58" s="47">
         <v>37.277</v>
       </c>
       <c r="E58" s="26">
@@ -2732,17 +2741,17 @@
       <c r="G58" s="26">
         <v>17.8</v>
       </c>
-      <c r="H58" s="43">
+      <c r="H58" s="44">
         <v>25.3</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1" spans="1:8">
       <c r="A59" s="25"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="42">
+      <c r="B59" s="36"/>
+      <c r="C59" s="43">
         <v>43342</v>
       </c>
-      <c r="D59" s="46">
+      <c r="D59" s="47">
         <v>37.68</v>
       </c>
       <c r="E59" s="26">
@@ -2754,17 +2763,17 @@
       <c r="G59" s="26">
         <v>17.3</v>
       </c>
-      <c r="H59" s="43">
+      <c r="H59" s="44">
         <v>25.5</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1" spans="1:8">
       <c r="A60" s="25"/>
-      <c r="B60" s="35"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="22">
         <v>43348</v>
       </c>
-      <c r="D60" s="46">
+      <c r="D60" s="47">
         <v>36.687</v>
       </c>
       <c r="E60" s="26">
@@ -2776,13 +2785,13 @@
       <c r="G60" s="26">
         <v>17.6</v>
       </c>
-      <c r="H60" s="43">
+      <c r="H60" s="44">
         <v>24.4</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1" spans="1:8">
       <c r="A61" s="25"/>
-      <c r="B61" s="35"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="22">
         <v>43368</v>
       </c>
@@ -2798,17 +2807,17 @@
       <c r="G61" s="26">
         <v>14.4</v>
       </c>
-      <c r="H61" s="43">
+      <c r="H61" s="44">
         <v>22.2</v>
       </c>
     </row>
     <row r="62" ht="24.75" customHeight="1" spans="1:8">
       <c r="A62" s="25"/>
-      <c r="B62" s="35"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="22">
         <v>43383</v>
       </c>
-      <c r="D62" s="46">
+      <c r="D62" s="47">
         <v>33.393</v>
       </c>
       <c r="E62" s="26">
@@ -2820,17 +2829,17 @@
       <c r="G62" s="26">
         <v>12</v>
       </c>
-      <c r="H62" s="43">
+      <c r="H62" s="44">
         <v>20.1</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1" spans="1:8">
       <c r="A63" s="25"/>
-      <c r="B63" s="35"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="22">
         <v>43399</v>
       </c>
-      <c r="D63" s="47">
+      <c r="D63" s="48">
         <v>32.082</v>
       </c>
       <c r="E63" s="30">
@@ -2842,13 +2851,13 @@
       <c r="G63" s="30">
         <v>10.1</v>
       </c>
-      <c r="H63" s="45">
+      <c r="H63" s="46">
         <v>18.7</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1" spans="1:8">
       <c r="A64" s="25"/>
-      <c r="B64" s="35"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="22">
         <v>43402</v>
       </c>
@@ -2864,13 +2873,13 @@
       <c r="G64" s="26">
         <v>11.5</v>
       </c>
-      <c r="H64" s="43">
+      <c r="H64" s="44">
         <v>19</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1" spans="1:8">
       <c r="A65" s="25"/>
-      <c r="B65" s="35"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="22">
         <v>43404</v>
       </c>
@@ -2886,13 +2895,13 @@
       <c r="G65" s="26">
         <v>12.3</v>
       </c>
-      <c r="H65" s="43">
+      <c r="H65" s="44">
         <v>19.1</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1" spans="1:8">
       <c r="A66" s="25"/>
-      <c r="B66" s="35"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="22">
         <v>43405</v>
       </c>
@@ -2908,13 +2917,13 @@
       <c r="G66" s="26">
         <v>12.5</v>
       </c>
-      <c r="H66" s="43">
+      <c r="H66" s="44">
         <v>19.2</v>
       </c>
     </row>
     <row r="67" ht="24.75" customHeight="1" spans="1:8">
       <c r="A67" s="25"/>
-      <c r="B67" s="35"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="22">
         <v>43410</v>
       </c>
@@ -2930,13 +2939,13 @@
       <c r="G67" s="26">
         <v>13.3</v>
       </c>
-      <c r="H67" s="43">
+      <c r="H67" s="44">
         <v>19.6</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1" spans="1:8">
       <c r="A68" s="25"/>
-      <c r="B68" s="35"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="22">
         <v>43413</v>
       </c>
@@ -2952,17 +2961,17 @@
       <c r="G68" s="26">
         <v>13.6</v>
       </c>
-      <c r="H68" s="43">
+      <c r="H68" s="44">
         <v>20.1</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1" spans="1:8">
       <c r="A69" s="25"/>
-      <c r="B69" s="35"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="22">
         <v>43430</v>
       </c>
-      <c r="D69" s="46">
+      <c r="D69" s="47">
         <v>34.361</v>
       </c>
       <c r="E69" s="26">
@@ -2974,13 +2983,13 @@
       <c r="G69" s="26">
         <v>13.8</v>
       </c>
-      <c r="H69" s="43">
+      <c r="H69" s="44">
         <v>20.6</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1" spans="1:8">
       <c r="A70" s="25"/>
-      <c r="B70" s="35"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="22">
         <v>43432</v>
       </c>
@@ -2996,105 +3005,117 @@
       <c r="G70" s="26">
         <v>13.8</v>
       </c>
-      <c r="H70" s="43">
+      <c r="H70" s="44">
         <v>20.7</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1" spans="1:8">
       <c r="A71" s="25"/>
-      <c r="B71" s="35"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="22">
         <v>43452</v>
       </c>
-      <c r="D71" s="46">
+      <c r="D71" s="47">
         <v>35.406</v>
       </c>
-      <c r="E71" s="48">
+      <c r="E71" s="26">
         <v>1.9</v>
       </c>
-      <c r="F71" s="48">
+      <c r="F71" s="26">
         <v>17.2</v>
       </c>
-      <c r="G71" s="48">
+      <c r="G71" s="26">
         <v>15.5</v>
       </c>
-      <c r="H71" s="49">
+      <c r="H71" s="44">
         <v>20.5</v>
       </c>
     </row>
     <row r="72" ht="24.75" customHeight="1" spans="1:8">
       <c r="A72" s="25"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="46"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="43"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="22">
+        <v>43461</v>
+      </c>
+      <c r="D72" s="28">
+        <v>35.022</v>
+      </c>
+      <c r="E72" s="32">
+        <v>-0.6</v>
+      </c>
+      <c r="F72" s="32">
+        <v>17.6</v>
+      </c>
+      <c r="G72" s="32">
+        <v>14.7</v>
+      </c>
+      <c r="H72" s="49">
+        <v>19.8</v>
+      </c>
     </row>
     <row r="73" ht="24.75" customHeight="1" spans="1:8">
       <c r="A73" s="25"/>
-      <c r="B73" s="35"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="50"/>
-      <c r="D73" s="46"/>
+      <c r="D73" s="47"/>
       <c r="E73" s="26"/>
       <c r="F73" s="26"/>
       <c r="G73" s="26"/>
-      <c r="H73" s="43"/>
+      <c r="H73" s="44"/>
     </row>
     <row r="74" ht="24.75" customHeight="1" spans="1:8">
       <c r="A74" s="25"/>
-      <c r="B74" s="35"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="50"/>
-      <c r="D74" s="46"/>
+      <c r="D74" s="47"/>
       <c r="E74" s="26"/>
       <c r="F74" s="26"/>
       <c r="G74" s="26"/>
-      <c r="H74" s="43"/>
+      <c r="H74" s="44"/>
     </row>
     <row r="75" ht="24.75" customHeight="1" spans="1:8">
       <c r="A75" s="25"/>
-      <c r="B75" s="35"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="50"/>
-      <c r="D75" s="46"/>
+      <c r="D75" s="47"/>
       <c r="E75" s="26"/>
       <c r="F75" s="26"/>
       <c r="G75" s="26"/>
-      <c r="H75" s="43"/>
+      <c r="H75" s="44"/>
     </row>
     <row r="76" ht="24.75" customHeight="1" spans="1:8">
       <c r="A76" s="25"/>
-      <c r="B76" s="35"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="50"/>
-      <c r="D76" s="46"/>
+      <c r="D76" s="47"/>
       <c r="E76" s="26"/>
       <c r="F76" s="26"/>
       <c r="G76" s="26"/>
-      <c r="H76" s="43"/>
+      <c r="H76" s="44"/>
     </row>
     <row r="77" ht="24.75" customHeight="1" spans="1:8">
       <c r="A77" s="25"/>
-      <c r="B77" s="35"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="50"/>
-      <c r="D77" s="46"/>
+      <c r="D77" s="47"/>
       <c r="E77" s="26"/>
       <c r="F77" s="26"/>
       <c r="G77" s="26"/>
-      <c r="H77" s="43"/>
+      <c r="H77" s="44"/>
     </row>
     <row r="78" ht="24.75" customHeight="1" spans="1:8">
       <c r="A78" s="25"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="46"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="47"/>
       <c r="E78" s="26"/>
       <c r="F78" s="26"/>
       <c r="G78" s="26"/>
-      <c r="H78" s="43"/>
+      <c r="H78" s="44"/>
     </row>
     <row r="79" ht="24.75" customHeight="1" spans="1:2">
       <c r="A79" s="2"/>
-      <c r="B79" s="32"/>
+      <c r="B79" s="33"/>
     </row>
     <row r="80" ht="24.75" customHeight="1" spans="1:8">
       <c r="A80" s="51" t="str">
@@ -4038,7 +4059,7 @@
       <c r="C126" s="22">
         <v>43399</v>
       </c>
-      <c r="D126" s="47">
+      <c r="D126" s="48">
         <v>20.787</v>
       </c>
       <c r="E126" s="30">
@@ -4207,28 +4228,40 @@
       <c r="D134" s="23">
         <v>22.949</v>
       </c>
-      <c r="E134" s="48">
+      <c r="E134" s="26">
         <v>-2.5</v>
       </c>
-      <c r="F134" s="48">
+      <c r="F134" s="26">
         <v>11.6</v>
       </c>
-      <c r="G134" s="48">
+      <c r="G134" s="26">
         <v>10.3</v>
       </c>
-      <c r="H134" s="48">
+      <c r="H134" s="26">
         <v>16.1</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:8">
       <c r="A135" s="25"/>
       <c r="B135" s="21"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="26"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="26"/>
-      <c r="H135" s="26"/>
+      <c r="C135" s="22">
+        <v>43461</v>
+      </c>
+      <c r="D135" s="23">
+        <v>22.567</v>
+      </c>
+      <c r="E135" s="32">
+        <v>-5.3</v>
+      </c>
+      <c r="F135" s="32">
+        <v>12.1</v>
+      </c>
+      <c r="G135" s="32">
+        <v>9.6</v>
+      </c>
+      <c r="H135" s="32">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="136" ht="24.75" customHeight="1" spans="1:8">
       <c r="A136" s="25"/>
@@ -4664,7 +4697,7 @@
       <c r="C159" s="22">
         <v>43402</v>
       </c>
-      <c r="D159" s="47">
+      <c r="D159" s="48">
         <v>37.14</v>
       </c>
       <c r="E159" s="30">
@@ -4818,31 +4851,43 @@
       <c r="C166" s="22">
         <v>43452</v>
       </c>
-      <c r="D166" s="65">
+      <c r="D166" s="31">
         <v>38.24</v>
       </c>
-      <c r="E166" s="48">
+      <c r="E166" s="26">
         <v>-10.1</v>
       </c>
-      <c r="F166" s="48">
+      <c r="F166" s="26">
         <v>18.3</v>
       </c>
-      <c r="G166" s="48">
+      <c r="G166" s="26">
         <v>13.9</v>
       </c>
-      <c r="H166" s="48">
+      <c r="H166" s="26">
         <v>13.5</v>
       </c>
     </row>
     <row r="167" ht="24.75" customHeight="1" spans="1:8">
       <c r="A167" s="25"/>
       <c r="B167" s="21"/>
-      <c r="C167" s="22"/>
-      <c r="D167" s="31"/>
-      <c r="E167" s="26"/>
-      <c r="F167" s="26"/>
-      <c r="G167" s="26"/>
-      <c r="H167" s="26"/>
+      <c r="C167" s="22">
+        <v>43461</v>
+      </c>
+      <c r="D167" s="31">
+        <v>37.6</v>
+      </c>
+      <c r="E167" s="32">
+        <v>-13</v>
+      </c>
+      <c r="F167" s="32">
+        <v>19.2</v>
+      </c>
+      <c r="G167" s="32">
+        <v>12.8</v>
+      </c>
+      <c r="H167" s="32">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="168" ht="24.75" customHeight="1" spans="1:8">
       <c r="A168" s="25"/>
@@ -4920,7 +4965,7 @@
         <f>HYPERLINK("http://www.moneycontrol.com/mutual-funds/nav/hdfc-small-cap-fund-direct-plan/MMS025","HDFC Small Cap Fund - Direct Plan (G)")</f>
         <v>HDFC Small Cap Fund - Direct Plan (G)</v>
       </c>
-      <c r="B176" s="35" t="s">
+      <c r="B176" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C176" s="22">
@@ -4942,7 +4987,7 @@
     </row>
     <row r="177" ht="24.75" customHeight="1" spans="1:8">
       <c r="A177" s="25"/>
-      <c r="B177" s="35"/>
+      <c r="B177" s="36"/>
       <c r="C177" s="22">
         <v>43199</v>
       </c>
@@ -4962,7 +5007,7 @@
     </row>
     <row r="178" ht="24.75" customHeight="1" spans="1:8">
       <c r="A178" s="25"/>
-      <c r="B178" s="35"/>
+      <c r="B178" s="36"/>
       <c r="C178" s="22">
         <v>43200</v>
       </c>
@@ -4982,7 +5027,7 @@
     </row>
     <row r="179" ht="24.75" customHeight="1" spans="1:8">
       <c r="A179" s="25"/>
-      <c r="B179" s="35"/>
+      <c r="B179" s="36"/>
       <c r="C179" s="22">
         <v>43202</v>
       </c>
@@ -5002,7 +5047,7 @@
     </row>
     <row r="180" ht="24.75" customHeight="1" spans="1:8">
       <c r="A180" s="25"/>
-      <c r="B180" s="35"/>
+      <c r="B180" s="36"/>
       <c r="C180" s="22">
         <v>43203</v>
       </c>
@@ -5022,7 +5067,7 @@
     </row>
     <row r="181" ht="25" customHeight="1" spans="1:8">
       <c r="A181" s="25"/>
-      <c r="B181" s="35"/>
+      <c r="B181" s="36"/>
       <c r="C181" s="22">
         <v>43208</v>
       </c>
@@ -5038,13 +5083,13 @@
       <c r="G181" s="63">
         <v>22</v>
       </c>
-      <c r="H181" s="66">
+      <c r="H181" s="65">
         <v>26.8</v>
       </c>
     </row>
     <row r="182" ht="25" customHeight="1" spans="1:8">
       <c r="A182" s="25"/>
-      <c r="B182" s="35"/>
+      <c r="B182" s="36"/>
       <c r="C182" s="22">
         <v>43311</v>
       </c>
@@ -5060,13 +5105,13 @@
       <c r="G182" s="26">
         <v>20.3</v>
       </c>
-      <c r="H182" s="43">
+      <c r="H182" s="44">
         <v>26.2</v>
       </c>
     </row>
     <row r="183" ht="25" customHeight="1" spans="1:8">
       <c r="A183" s="25"/>
-      <c r="B183" s="35"/>
+      <c r="B183" s="36"/>
       <c r="C183" s="22">
         <v>43312</v>
       </c>
@@ -5082,13 +5127,13 @@
       <c r="G183" s="26">
         <v>19.7</v>
       </c>
-      <c r="H183" s="43">
+      <c r="H183" s="44">
         <v>26</v>
       </c>
     </row>
     <row r="184" ht="25" customHeight="1" spans="1:8">
       <c r="A184" s="25"/>
-      <c r="B184" s="35"/>
+      <c r="B184" s="36"/>
       <c r="C184" s="22">
         <v>43313</v>
       </c>
@@ -5104,17 +5149,17 @@
       <c r="G184" s="26">
         <v>19.7</v>
       </c>
-      <c r="H184" s="43">
+      <c r="H184" s="44">
         <v>26.1</v>
       </c>
     </row>
     <row r="185" ht="25" customHeight="1" spans="1:8">
       <c r="A185" s="25"/>
-      <c r="B185" s="35"/>
+      <c r="B185" s="36"/>
       <c r="C185" s="22">
         <v>43319</v>
       </c>
-      <c r="D185" s="67">
+      <c r="D185" s="66">
         <v>47.498</v>
       </c>
       <c r="E185" s="26">
@@ -5126,17 +5171,17 @@
       <c r="G185" s="26">
         <v>19.3</v>
       </c>
-      <c r="H185" s="43">
+      <c r="H185" s="44">
         <v>27.1</v>
       </c>
     </row>
     <row r="186" ht="25" customHeight="1" spans="1:8">
       <c r="A186" s="25"/>
-      <c r="B186" s="35"/>
+      <c r="B186" s="36"/>
       <c r="C186" s="22">
         <v>43321</v>
       </c>
-      <c r="D186" s="67">
+      <c r="D186" s="66">
         <v>47.795</v>
       </c>
       <c r="E186" s="26">
@@ -5148,17 +5193,17 @@
       <c r="G186" s="26">
         <v>19.5</v>
       </c>
-      <c r="H186" s="43">
+      <c r="H186" s="44">
         <v>27</v>
       </c>
     </row>
     <row r="187" ht="25" customHeight="1" spans="1:8">
       <c r="A187" s="25"/>
-      <c r="B187" s="35"/>
+      <c r="B187" s="36"/>
       <c r="C187" s="22">
         <v>43322</v>
       </c>
-      <c r="D187" s="67"/>
+      <c r="D187" s="66"/>
       <c r="E187" s="26">
         <v>26</v>
       </c>
@@ -5168,17 +5213,17 @@
       <c r="G187" s="26">
         <v>19.2</v>
       </c>
-      <c r="H187" s="43">
+      <c r="H187" s="44">
         <v>26.8</v>
       </c>
     </row>
     <row r="188" ht="25" customHeight="1" spans="1:8">
       <c r="A188" s="25"/>
-      <c r="B188" s="35"/>
+      <c r="B188" s="36"/>
       <c r="C188" s="22">
         <v>43325</v>
       </c>
-      <c r="D188" s="67">
+      <c r="D188" s="66">
         <v>47.119</v>
       </c>
       <c r="E188" s="26">
@@ -5190,13 +5235,13 @@
       <c r="G188" s="26">
         <v>20.2</v>
       </c>
-      <c r="H188" s="43">
+      <c r="H188" s="44">
         <v>26</v>
       </c>
     </row>
     <row r="189" ht="25" customHeight="1" spans="1:8">
       <c r="A189" s="25"/>
-      <c r="B189" s="35"/>
+      <c r="B189" s="36"/>
       <c r="C189" s="22">
         <v>43326</v>
       </c>
@@ -5212,39 +5257,39 @@
       <c r="G189" s="26">
         <v>19.4</v>
       </c>
-      <c r="H189" s="43">
+      <c r="H189" s="44">
         <v>25.9</v>
       </c>
     </row>
     <row r="190" ht="25" customHeight="1" spans="1:8">
       <c r="A190" s="25"/>
-      <c r="B190" s="35"/>
+      <c r="B190" s="36"/>
       <c r="C190" s="22">
         <v>43332</v>
       </c>
-      <c r="D190" s="67">
+      <c r="D190" s="66">
         <v>47.649</v>
       </c>
-      <c r="E190" s="68">
+      <c r="E190" s="67">
         <v>23.1</v>
       </c>
-      <c r="F190" s="68">
+      <c r="F190" s="67">
         <v>24</v>
       </c>
-      <c r="G190" s="68">
+      <c r="G190" s="67">
         <v>19.9</v>
       </c>
-      <c r="H190" s="43">
+      <c r="H190" s="44">
         <v>27.6</v>
       </c>
     </row>
     <row r="191" ht="25" customHeight="1" spans="1:8">
       <c r="A191" s="25"/>
-      <c r="B191" s="35"/>
+      <c r="B191" s="36"/>
       <c r="C191" s="22">
         <v>43333</v>
       </c>
-      <c r="D191" s="67">
+      <c r="D191" s="66">
         <v>47.867</v>
       </c>
       <c r="E191" s="26">
@@ -5256,17 +5301,17 @@
       <c r="G191" s="26">
         <v>20.3</v>
       </c>
-      <c r="H191" s="43">
+      <c r="H191" s="44">
         <v>28.1</v>
       </c>
     </row>
     <row r="192" ht="25" customHeight="1" spans="1:8">
       <c r="A192" s="25"/>
-      <c r="B192" s="35"/>
+      <c r="B192" s="36"/>
       <c r="C192" s="22">
         <v>43336</v>
       </c>
-      <c r="D192" s="67">
+      <c r="D192" s="66">
         <v>47.891</v>
       </c>
       <c r="E192" s="26">
@@ -5278,17 +5323,17 @@
       <c r="G192" s="26">
         <v>20.3</v>
       </c>
-      <c r="H192" s="43">
+      <c r="H192" s="44">
         <v>27.5</v>
       </c>
     </row>
     <row r="193" ht="25" customHeight="1" spans="1:8">
       <c r="A193" s="25"/>
-      <c r="B193" s="35"/>
+      <c r="B193" s="36"/>
       <c r="C193" s="22">
         <v>43342</v>
       </c>
-      <c r="D193" s="67">
+      <c r="D193" s="66">
         <v>48.772</v>
       </c>
       <c r="E193" s="26">
@@ -5300,17 +5345,17 @@
       <c r="G193" s="26">
         <v>22.9</v>
       </c>
-      <c r="H193" s="43">
+      <c r="H193" s="44">
         <v>27.8</v>
       </c>
     </row>
     <row r="194" ht="25" customHeight="1" spans="1:8">
       <c r="A194" s="25"/>
-      <c r="B194" s="35"/>
+      <c r="B194" s="36"/>
       <c r="C194" s="22">
         <v>43348</v>
       </c>
-      <c r="D194" s="67">
+      <c r="D194" s="66">
         <v>48.072</v>
       </c>
       <c r="E194" s="26">
@@ -5322,17 +5367,17 @@
       <c r="G194" s="26">
         <v>23.6</v>
       </c>
-      <c r="H194" s="43">
+      <c r="H194" s="44">
         <v>27</v>
       </c>
     </row>
     <row r="195" ht="25" customHeight="1" spans="1:8">
       <c r="A195" s="25"/>
-      <c r="B195" s="35"/>
+      <c r="B195" s="36"/>
       <c r="C195" s="22">
         <v>43368</v>
       </c>
-      <c r="D195" s="67">
+      <c r="D195" s="66">
         <v>45.432</v>
       </c>
       <c r="E195" s="26">
@@ -5344,17 +5389,17 @@
       <c r="G195" s="26">
         <v>20.5</v>
       </c>
-      <c r="H195" s="43">
+      <c r="H195" s="44">
         <v>24.5</v>
       </c>
     </row>
     <row r="196" ht="25" customHeight="1" spans="1:8">
       <c r="A196" s="25"/>
-      <c r="B196" s="35"/>
+      <c r="B196" s="36"/>
       <c r="C196" s="22">
         <v>43383</v>
       </c>
-      <c r="D196" s="67">
+      <c r="D196" s="66">
         <v>43.479</v>
       </c>
       <c r="E196" s="26">
@@ -5366,17 +5411,17 @@
       <c r="G196" s="26">
         <v>17.8</v>
       </c>
-      <c r="H196" s="43">
+      <c r="H196" s="44">
         <v>22.6</v>
       </c>
     </row>
     <row r="197" ht="25" customHeight="1" spans="1:8">
       <c r="A197" s="25"/>
-      <c r="B197" s="35"/>
+      <c r="B197" s="36"/>
       <c r="C197" s="22">
         <v>43399</v>
       </c>
-      <c r="D197" s="47">
+      <c r="D197" s="48">
         <v>42.788</v>
       </c>
       <c r="E197" s="30">
@@ -5388,13 +5433,13 @@
       <c r="G197" s="30">
         <v>16.5</v>
       </c>
-      <c r="H197" s="45">
+      <c r="H197" s="46">
         <v>21.7</v>
       </c>
     </row>
     <row r="198" ht="25" customHeight="1" spans="1:8">
       <c r="A198" s="25"/>
-      <c r="B198" s="35"/>
+      <c r="B198" s="36"/>
       <c r="C198" s="22">
         <v>43402</v>
       </c>
@@ -5410,13 +5455,13 @@
       <c r="G198" s="26">
         <v>17.4</v>
       </c>
-      <c r="H198" s="43">
+      <c r="H198" s="44">
         <v>22.1</v>
       </c>
     </row>
     <row r="199" ht="25" customHeight="1" spans="1:8">
       <c r="A199" s="25"/>
-      <c r="B199" s="35"/>
+      <c r="B199" s="36"/>
       <c r="C199" s="22">
         <v>43404</v>
       </c>
@@ -5432,13 +5477,13 @@
       <c r="G199" s="26">
         <v>18.2</v>
       </c>
-      <c r="H199" s="43">
+      <c r="H199" s="44">
         <v>22.1</v>
       </c>
     </row>
     <row r="200" ht="25" customHeight="1" spans="1:8">
       <c r="A200" s="25"/>
-      <c r="B200" s="35"/>
+      <c r="B200" s="36"/>
       <c r="C200" s="22">
         <v>43405</v>
       </c>
@@ -5454,13 +5499,13 @@
       <c r="G200" s="26">
         <v>18.3</v>
       </c>
-      <c r="H200" s="43">
+      <c r="H200" s="44">
         <v>22.2</v>
       </c>
     </row>
     <row r="201" ht="25" customHeight="1" spans="1:8">
       <c r="A201" s="25"/>
-      <c r="B201" s="35"/>
+      <c r="B201" s="36"/>
       <c r="C201" s="22">
         <v>43410</v>
       </c>
@@ -5476,13 +5521,13 @@
       <c r="G201" s="26">
         <v>18.8</v>
       </c>
-      <c r="H201" s="43">
+      <c r="H201" s="44">
         <v>22.3</v>
       </c>
     </row>
     <row r="202" ht="25" customHeight="1" spans="1:8">
       <c r="A202" s="25"/>
-      <c r="B202" s="35"/>
+      <c r="B202" s="36"/>
       <c r="C202" s="22">
         <v>43413</v>
       </c>
@@ -5498,17 +5543,17 @@
       <c r="G202" s="26">
         <v>18.6</v>
       </c>
-      <c r="H202" s="43">
+      <c r="H202" s="44">
         <v>22.6</v>
       </c>
     </row>
     <row r="203" ht="25" customHeight="1" spans="1:8">
       <c r="A203" s="25"/>
-      <c r="B203" s="35"/>
+      <c r="B203" s="36"/>
       <c r="C203" s="22">
         <v>43430</v>
       </c>
-      <c r="D203" s="67">
+      <c r="D203" s="66">
         <v>44.374</v>
       </c>
       <c r="E203" s="26">
@@ -5520,13 +5565,13 @@
       <c r="G203" s="26">
         <v>17.6</v>
       </c>
-      <c r="H203" s="43">
+      <c r="H203" s="44">
         <v>22.5</v>
       </c>
     </row>
     <row r="204" ht="25" customHeight="1" spans="1:8">
       <c r="A204" s="25"/>
-      <c r="B204" s="35"/>
+      <c r="B204" s="36"/>
       <c r="C204" s="22">
         <v>43432</v>
       </c>
@@ -5542,115 +5587,127 @@
       <c r="G204" s="26">
         <v>17.3</v>
       </c>
-      <c r="H204" s="43">
+      <c r="H204" s="44">
         <v>22.4</v>
       </c>
     </row>
     <row r="205" ht="25" customHeight="1" spans="1:8">
       <c r="A205" s="25"/>
-      <c r="B205" s="35"/>
+      <c r="B205" s="36"/>
       <c r="C205" s="22">
         <v>43452</v>
       </c>
-      <c r="D205" s="67">
+      <c r="D205" s="66">
         <v>45.086</v>
       </c>
-      <c r="E205" s="48">
+      <c r="E205" s="26">
         <v>-2.4</v>
       </c>
-      <c r="F205" s="48">
+      <c r="F205" s="26">
         <v>22.2</v>
       </c>
-      <c r="G205" s="48">
+      <c r="G205" s="26">
         <v>18</v>
       </c>
-      <c r="H205" s="49">
+      <c r="H205" s="44">
         <v>22.1</v>
       </c>
     </row>
     <row r="206" ht="25" customHeight="1" spans="1:8">
       <c r="A206" s="25"/>
-      <c r="B206" s="35"/>
-      <c r="C206" s="22"/>
-      <c r="D206" s="67"/>
-      <c r="E206" s="26"/>
-      <c r="F206" s="26"/>
-      <c r="G206" s="26"/>
-      <c r="H206" s="43"/>
+      <c r="B206" s="36"/>
+      <c r="C206" s="22">
+        <v>43461</v>
+      </c>
+      <c r="D206" s="66">
+        <v>44.788</v>
+      </c>
+      <c r="E206" s="32">
+        <v>-7.2</v>
+      </c>
+      <c r="F206" s="32">
+        <v>23.8</v>
+      </c>
+      <c r="G206" s="32">
+        <v>17</v>
+      </c>
+      <c r="H206" s="49">
+        <v>21.3</v>
+      </c>
     </row>
     <row r="207" ht="25" customHeight="1" spans="1:8">
       <c r="A207" s="25"/>
-      <c r="B207" s="35"/>
+      <c r="B207" s="36"/>
       <c r="C207" s="22"/>
-      <c r="D207" s="67"/>
+      <c r="D207" s="66"/>
       <c r="E207" s="26"/>
       <c r="F207" s="26"/>
       <c r="G207" s="26"/>
-      <c r="H207" s="43"/>
+      <c r="H207" s="44"/>
     </row>
     <row r="208" ht="25" customHeight="1" spans="1:8">
       <c r="A208" s="25"/>
-      <c r="B208" s="35"/>
+      <c r="B208" s="36"/>
       <c r="C208" s="22"/>
-      <c r="D208" s="67"/>
+      <c r="D208" s="66"/>
       <c r="E208" s="26"/>
       <c r="F208" s="26"/>
       <c r="G208" s="26"/>
-      <c r="H208" s="43"/>
+      <c r="H208" s="44"/>
     </row>
     <row r="209" ht="25" customHeight="1" spans="1:8">
       <c r="A209" s="25"/>
-      <c r="B209" s="35"/>
+      <c r="B209" s="36"/>
       <c r="C209" s="22"/>
-      <c r="D209" s="67"/>
+      <c r="D209" s="66"/>
       <c r="E209" s="26"/>
       <c r="F209" s="26"/>
       <c r="G209" s="26"/>
-      <c r="H209" s="43"/>
+      <c r="H209" s="44"/>
     </row>
     <row r="210" ht="25" customHeight="1" spans="1:8">
       <c r="A210" s="25"/>
-      <c r="B210" s="35"/>
+      <c r="B210" s="36"/>
       <c r="C210" s="22"/>
-      <c r="D210" s="67"/>
+      <c r="D210" s="66"/>
       <c r="E210" s="26"/>
       <c r="F210" s="26"/>
       <c r="G210" s="26"/>
-      <c r="H210" s="43"/>
+      <c r="H210" s="44"/>
     </row>
     <row r="211" ht="25" customHeight="1" spans="1:8">
       <c r="A211" s="25"/>
-      <c r="B211" s="35"/>
+      <c r="B211" s="36"/>
       <c r="C211" s="22"/>
-      <c r="D211" s="67"/>
+      <c r="D211" s="66"/>
       <c r="E211" s="26"/>
       <c r="F211" s="26"/>
       <c r="G211" s="26"/>
-      <c r="H211" s="43"/>
+      <c r="H211" s="44"/>
     </row>
     <row r="212" ht="25" customHeight="1" spans="1:8">
       <c r="A212" s="25"/>
-      <c r="B212" s="35"/>
+      <c r="B212" s="36"/>
       <c r="C212" s="22"/>
-      <c r="D212" s="67"/>
+      <c r="D212" s="66"/>
       <c r="E212" s="26"/>
       <c r="F212" s="26"/>
       <c r="G212" s="26"/>
-      <c r="H212" s="43"/>
+      <c r="H212" s="44"/>
     </row>
     <row r="213" ht="25" customHeight="1" spans="1:8">
       <c r="A213" s="25"/>
-      <c r="B213" s="35"/>
-      <c r="C213" s="69"/>
-      <c r="D213" s="69"/>
-      <c r="E213" s="70"/>
-      <c r="F213" s="70"/>
-      <c r="G213" s="70"/>
-      <c r="H213" s="71"/>
+      <c r="B213" s="36"/>
+      <c r="C213" s="68"/>
+      <c r="D213" s="68"/>
+      <c r="E213" s="69"/>
+      <c r="F213" s="69"/>
+      <c r="G213" s="69"/>
+      <c r="H213" s="70"/>
     </row>
     <row r="214" ht="25" customHeight="1"/>
     <row r="215" ht="25" customHeight="1" spans="1:8">
-      <c r="A215" s="72" t="s">
+      <c r="A215" s="71" t="s">
         <v>12</v>
       </c>
       <c r="B215" s="21" t="s">
@@ -5659,29 +5716,29 @@
       <c r="C215" s="22">
         <v>43313</v>
       </c>
-      <c r="D215" s="73">
+      <c r="D215" s="72">
         <v>35.109</v>
       </c>
-      <c r="E215" s="74">
+      <c r="E215" s="73">
         <v>9.4</v>
       </c>
-      <c r="F215" s="74">
+      <c r="F215" s="73">
         <v>17.5</v>
       </c>
-      <c r="G215" s="74">
+      <c r="G215" s="73">
         <v>11.4</v>
       </c>
-      <c r="H215" s="75">
+      <c r="H215" s="74">
         <v>22.4</v>
       </c>
     </row>
     <row r="216" ht="25" customHeight="1" spans="1:8">
-      <c r="A216" s="72"/>
+      <c r="A216" s="71"/>
       <c r="B216" s="21"/>
       <c r="C216" s="22">
         <v>43319</v>
       </c>
-      <c r="D216" s="67">
+      <c r="D216" s="66">
         <v>35.367</v>
       </c>
       <c r="E216" s="26">
@@ -5693,17 +5750,17 @@
       <c r="G216" s="26">
         <v>11.3</v>
       </c>
-      <c r="H216" s="43">
+      <c r="H216" s="44">
         <v>23.1</v>
       </c>
     </row>
     <row r="217" ht="25" customHeight="1" spans="1:8">
-      <c r="A217" s="72"/>
+      <c r="A217" s="71"/>
       <c r="B217" s="21"/>
       <c r="C217" s="22">
         <v>43321</v>
       </c>
-      <c r="D217" s="67">
+      <c r="D217" s="66">
         <v>35.687</v>
       </c>
       <c r="E217" s="26">
@@ -5715,17 +5772,17 @@
       <c r="G217" s="26">
         <v>11.6</v>
       </c>
-      <c r="H217" s="43">
+      <c r="H217" s="44">
         <v>22.9</v>
       </c>
     </row>
     <row r="218" ht="25" customHeight="1" spans="1:8">
-      <c r="A218" s="72"/>
+      <c r="A218" s="71"/>
       <c r="B218" s="21"/>
       <c r="C218" s="22">
         <v>43322</v>
       </c>
-      <c r="D218" s="67">
+      <c r="D218" s="66">
         <v>35.367</v>
       </c>
       <c r="E218" s="26">
@@ -5737,17 +5794,17 @@
       <c r="G218" s="26">
         <v>11.4</v>
       </c>
-      <c r="H218" s="43">
+      <c r="H218" s="44">
         <v>22.7</v>
       </c>
     </row>
     <row r="219" ht="25" customHeight="1" spans="1:8">
-      <c r="A219" s="72"/>
+      <c r="A219" s="71"/>
       <c r="B219" s="21"/>
       <c r="C219" s="22">
         <v>43325</v>
       </c>
-      <c r="D219" s="67">
+      <c r="D219" s="66">
         <v>35.079</v>
       </c>
       <c r="E219" s="26">
@@ -5759,17 +5816,17 @@
       <c r="G219" s="26">
         <v>11.9</v>
       </c>
-      <c r="H219" s="43">
+      <c r="H219" s="44">
         <v>21.9</v>
       </c>
     </row>
     <row r="220" ht="25" customHeight="1" spans="1:8">
-      <c r="A220" s="72"/>
+      <c r="A220" s="71"/>
       <c r="B220" s="21"/>
       <c r="C220" s="22">
         <v>43326</v>
       </c>
-      <c r="D220" s="67">
+      <c r="D220" s="66">
         <v>35.393</v>
       </c>
       <c r="E220" s="26">
@@ -5781,17 +5838,17 @@
       <c r="G220" s="26">
         <v>11.5</v>
       </c>
-      <c r="H220" s="43">
+      <c r="H220" s="44">
         <v>22</v>
       </c>
     </row>
     <row r="221" ht="25" customHeight="1" spans="1:8">
-      <c r="A221" s="72"/>
+      <c r="A221" s="71"/>
       <c r="B221" s="21"/>
       <c r="C221" s="22">
         <v>43332</v>
       </c>
-      <c r="D221" s="67">
+      <c r="D221" s="66">
         <v>36.178</v>
       </c>
       <c r="E221" s="26">
@@ -5803,17 +5860,17 @@
       <c r="G221" s="26">
         <v>12.7</v>
       </c>
-      <c r="H221" s="43">
+      <c r="H221" s="44">
         <v>23.8</v>
       </c>
     </row>
     <row r="222" ht="25" customHeight="1" spans="1:8">
-      <c r="A222" s="72"/>
+      <c r="A222" s="71"/>
       <c r="B222" s="21"/>
       <c r="C222" s="22">
         <v>43333</v>
       </c>
-      <c r="D222" s="67">
+      <c r="D222" s="66">
         <v>36.298</v>
       </c>
       <c r="E222" s="26">
@@ -5825,17 +5882,17 @@
       <c r="G222" s="26">
         <v>13.1</v>
       </c>
-      <c r="H222" s="43">
+      <c r="H222" s="44">
         <v>24.3</v>
       </c>
     </row>
     <row r="223" ht="25" customHeight="1" spans="1:8">
-      <c r="A223" s="72"/>
+      <c r="A223" s="71"/>
       <c r="B223" s="21"/>
       <c r="C223" s="22">
         <v>43336</v>
       </c>
-      <c r="D223" s="67">
+      <c r="D223" s="66">
         <v>36.183</v>
       </c>
       <c r="E223" s="26">
@@ -5847,17 +5904,17 @@
       <c r="G223" s="26">
         <v>15.6</v>
       </c>
-      <c r="H223" s="43">
+      <c r="H223" s="44">
         <v>23.5</v>
       </c>
     </row>
     <row r="224" ht="25" customHeight="1" spans="1:8">
-      <c r="A224" s="72"/>
+      <c r="A224" s="71"/>
       <c r="B224" s="21"/>
       <c r="C224" s="22">
         <v>43342</v>
       </c>
-      <c r="D224" s="67">
+      <c r="D224" s="66">
         <v>36.845</v>
       </c>
       <c r="E224" s="26">
@@ -5869,17 +5926,17 @@
       <c r="G224" s="26">
         <v>15.2</v>
       </c>
-      <c r="H224" s="43">
+      <c r="H224" s="44">
         <v>23.9</v>
       </c>
     </row>
     <row r="225" ht="25" customHeight="1" spans="1:8">
-      <c r="A225" s="72"/>
+      <c r="A225" s="71"/>
       <c r="B225" s="21"/>
       <c r="C225" s="22">
         <v>43348</v>
       </c>
-      <c r="D225" s="67">
+      <c r="D225" s="66">
         <v>36.203</v>
       </c>
       <c r="E225" s="26">
@@ -5891,17 +5948,17 @@
       <c r="G225" s="26">
         <v>16.2</v>
       </c>
-      <c r="H225" s="43">
+      <c r="H225" s="44">
         <v>23.1</v>
       </c>
     </row>
     <row r="226" ht="25" customHeight="1" spans="1:8">
-      <c r="A226" s="72"/>
+      <c r="A226" s="71"/>
       <c r="B226" s="21"/>
       <c r="C226" s="22">
         <v>43368</v>
       </c>
-      <c r="D226" s="67">
+      <c r="D226" s="66">
         <v>34.648</v>
       </c>
       <c r="E226" s="26">
@@ -5913,39 +5970,39 @@
       <c r="G226" s="26">
         <v>13.8</v>
       </c>
-      <c r="H226" s="43">
+      <c r="H226" s="44">
         <v>21</v>
       </c>
     </row>
     <row r="227" ht="25" customHeight="1" spans="1:8">
-      <c r="A227" s="72"/>
+      <c r="A227" s="71"/>
       <c r="B227" s="21"/>
       <c r="C227" s="22">
         <v>43383</v>
       </c>
-      <c r="D227" s="67">
+      <c r="D227" s="66">
         <v>33.023</v>
       </c>
-      <c r="E227" s="76">
+      <c r="E227" s="75">
         <v>3.4</v>
       </c>
-      <c r="F227" s="76">
+      <c r="F227" s="75">
         <v>11.3</v>
       </c>
-      <c r="G227" s="76">
+      <c r="G227" s="75">
         <v>11.2</v>
       </c>
-      <c r="H227" s="77">
+      <c r="H227" s="76">
         <v>19.2</v>
       </c>
     </row>
     <row r="228" ht="25" customHeight="1" spans="1:8">
-      <c r="A228" s="72"/>
+      <c r="A228" s="71"/>
       <c r="B228" s="21"/>
       <c r="C228" s="22">
         <v>43399</v>
       </c>
-      <c r="D228" s="47">
+      <c r="D228" s="48">
         <v>31.994</v>
       </c>
       <c r="E228" s="30">
@@ -5957,12 +6014,12 @@
       <c r="G228" s="30">
         <v>9.5</v>
       </c>
-      <c r="H228" s="45">
+      <c r="H228" s="46">
         <v>18</v>
       </c>
     </row>
     <row r="229" ht="25" customHeight="1" spans="1:8">
-      <c r="A229" s="72"/>
+      <c r="A229" s="71"/>
       <c r="B229" s="21"/>
       <c r="C229" s="22">
         <v>43402</v>
@@ -5979,12 +6036,12 @@
       <c r="G229" s="26">
         <v>11.4</v>
       </c>
-      <c r="H229" s="43">
+      <c r="H229" s="44">
         <v>18.6</v>
       </c>
     </row>
     <row r="230" ht="25" customHeight="1" spans="1:8">
-      <c r="A230" s="72"/>
+      <c r="A230" s="71"/>
       <c r="B230" s="21"/>
       <c r="C230" s="22">
         <v>43404</v>
@@ -6001,12 +6058,12 @@
       <c r="G230" s="26">
         <v>12.1</v>
       </c>
-      <c r="H230" s="43">
+      <c r="H230" s="44">
         <v>18.7</v>
       </c>
     </row>
     <row r="231" ht="25" customHeight="1" spans="1:8">
-      <c r="A231" s="72"/>
+      <c r="A231" s="71"/>
       <c r="B231" s="21"/>
       <c r="C231" s="22">
         <v>43405</v>
@@ -6023,12 +6080,12 @@
       <c r="G231" s="26">
         <v>12.3</v>
       </c>
-      <c r="H231" s="43">
+      <c r="H231" s="44">
         <v>18.7</v>
       </c>
     </row>
     <row r="232" ht="25" customHeight="1" spans="1:8">
-      <c r="A232" s="72"/>
+      <c r="A232" s="71"/>
       <c r="B232" s="21"/>
       <c r="C232" s="22">
         <v>43410</v>
@@ -6045,12 +6102,12 @@
       <c r="G232" s="26">
         <v>12.5</v>
       </c>
-      <c r="H232" s="43">
+      <c r="H232" s="44">
         <v>18.8</v>
       </c>
     </row>
     <row r="233" ht="25" customHeight="1" spans="1:8">
-      <c r="A233" s="72"/>
+      <c r="A233" s="71"/>
       <c r="B233" s="21"/>
       <c r="C233" s="22">
         <v>43413</v>
@@ -6067,12 +6124,12 @@
       <c r="G233" s="26">
         <v>12.6</v>
       </c>
-      <c r="H233" s="43">
+      <c r="H233" s="44">
         <v>19.4</v>
       </c>
     </row>
     <row r="234" ht="25" customHeight="1" spans="1:8">
-      <c r="A234" s="72"/>
+      <c r="A234" s="71"/>
       <c r="B234" s="21"/>
       <c r="C234" s="22">
         <v>43430</v>
@@ -6089,12 +6146,12 @@
       <c r="G234" s="26">
         <v>12.9</v>
       </c>
-      <c r="H234" s="43">
+      <c r="H234" s="44">
         <v>19.6</v>
       </c>
     </row>
     <row r="235" ht="25" customHeight="1" spans="1:8">
-      <c r="A235" s="72"/>
+      <c r="A235" s="71"/>
       <c r="B235" s="21"/>
       <c r="C235" s="22">
         <v>43432</v>
@@ -6111,106 +6168,118 @@
       <c r="G235" s="26">
         <v>12.5</v>
       </c>
-      <c r="H235" s="43">
+      <c r="H235" s="44">
         <v>19.3</v>
       </c>
     </row>
     <row r="236" ht="25" customHeight="1" spans="1:8">
-      <c r="A236" s="72"/>
+      <c r="A236" s="71"/>
       <c r="B236" s="21"/>
       <c r="C236" s="22">
         <v>43452</v>
       </c>
-      <c r="D236" s="67">
+      <c r="D236" s="66">
         <v>34.937</v>
       </c>
-      <c r="E236" s="48">
+      <c r="E236" s="26">
         <v>1.9</v>
       </c>
-      <c r="F236" s="48">
+      <c r="F236" s="26">
         <v>18</v>
       </c>
-      <c r="G236" s="48">
+      <c r="G236" s="26">
         <v>14.1</v>
       </c>
-      <c r="H236" s="49">
+      <c r="H236" s="44">
         <v>18.7</v>
       </c>
     </row>
     <row r="237" ht="25" customHeight="1" spans="1:8">
-      <c r="A237" s="72"/>
+      <c r="A237" s="71"/>
       <c r="B237" s="21"/>
-      <c r="C237" s="22"/>
-      <c r="D237" s="67"/>
-      <c r="E237" s="76"/>
-      <c r="F237" s="76"/>
-      <c r="G237" s="76"/>
-      <c r="H237" s="77"/>
+      <c r="C237" s="22">
+        <v>43461</v>
+      </c>
+      <c r="D237" s="66">
+        <v>34.676</v>
+      </c>
+      <c r="E237" s="32">
+        <v>-0.2</v>
+      </c>
+      <c r="F237" s="32">
+        <v>19.2</v>
+      </c>
+      <c r="G237" s="32">
+        <v>13.2</v>
+      </c>
+      <c r="H237" s="49">
+        <v>18</v>
+      </c>
     </row>
     <row r="238" ht="25" customHeight="1" spans="1:8">
-      <c r="A238" s="72"/>
+      <c r="A238" s="71"/>
       <c r="B238" s="21"/>
       <c r="C238" s="22"/>
-      <c r="D238" s="67"/>
-      <c r="E238" s="76"/>
-      <c r="F238" s="76"/>
-      <c r="G238" s="76"/>
-      <c r="H238" s="77"/>
+      <c r="D238" s="66"/>
+      <c r="E238" s="75"/>
+      <c r="F238" s="75"/>
+      <c r="G238" s="75"/>
+      <c r="H238" s="76"/>
     </row>
     <row r="239" ht="25" customHeight="1" spans="1:8">
-      <c r="A239" s="72"/>
+      <c r="A239" s="71"/>
       <c r="B239" s="21"/>
       <c r="C239" s="22"/>
-      <c r="D239" s="67"/>
-      <c r="E239" s="76"/>
-      <c r="F239" s="76"/>
-      <c r="G239" s="76"/>
-      <c r="H239" s="77"/>
+      <c r="D239" s="66"/>
+      <c r="E239" s="75"/>
+      <c r="F239" s="75"/>
+      <c r="G239" s="75"/>
+      <c r="H239" s="76"/>
     </row>
     <row r="240" ht="25" customHeight="1" spans="1:8">
-      <c r="A240" s="72"/>
+      <c r="A240" s="71"/>
       <c r="B240" s="21"/>
-      <c r="C240" s="69"/>
-      <c r="D240" s="69"/>
-      <c r="E240" s="70"/>
-      <c r="F240" s="70"/>
-      <c r="G240" s="70"/>
-      <c r="H240" s="71"/>
+      <c r="C240" s="68"/>
+      <c r="D240" s="68"/>
+      <c r="E240" s="69"/>
+      <c r="F240" s="69"/>
+      <c r="G240" s="69"/>
+      <c r="H240" s="70"/>
     </row>
     <row r="241" ht="25" customHeight="1"/>
     <row r="242" ht="25" customHeight="1" spans="1:8">
-      <c r="A242" s="72" t="s">
+      <c r="A242" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B242" s="35" t="s">
+      <c r="B242" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C242" s="22">
         <v>43313</v>
       </c>
-      <c r="D242" s="67">
+      <c r="D242" s="66">
         <v>102.22</v>
       </c>
-      <c r="E242" s="78">
+      <c r="E242" s="77">
         <v>11.6</v>
       </c>
-      <c r="F242" s="78">
+      <c r="F242" s="77">
         <v>21.8</v>
       </c>
-      <c r="G242" s="78">
+      <c r="G242" s="77">
         <v>16</v>
       </c>
-      <c r="H242" s="79">
+      <c r="H242" s="78">
         <v>35.2</v>
       </c>
     </row>
     <row r="243" ht="25" customHeight="1" spans="1:8">
-      <c r="A243" s="72"/>
-      <c r="B243" s="35"/>
+      <c r="A243" s="71"/>
+      <c r="B243" s="36"/>
       <c r="C243" s="22">
         <v>43319</v>
       </c>
-      <c r="D243" s="67">
+      <c r="D243" s="66">
         <v>102.43</v>
       </c>
       <c r="E243" s="26">
@@ -6222,17 +6291,17 @@
       <c r="G243" s="26">
         <v>15.6</v>
       </c>
-      <c r="H243" s="43">
+      <c r="H243" s="44">
         <v>35.9</v>
       </c>
     </row>
     <row r="244" ht="25" customHeight="1" spans="1:8">
-      <c r="A244" s="72"/>
-      <c r="B244" s="35"/>
+      <c r="A244" s="71"/>
+      <c r="B244" s="36"/>
       <c r="C244" s="22">
         <v>43321</v>
       </c>
-      <c r="D244" s="67">
+      <c r="D244" s="66">
         <v>102.93</v>
       </c>
       <c r="E244" s="26">
@@ -6244,17 +6313,17 @@
       <c r="G244" s="26">
         <v>15.8</v>
       </c>
-      <c r="H244" s="43">
+      <c r="H244" s="44">
         <v>35.9</v>
       </c>
     </row>
     <row r="245" ht="25" customHeight="1" spans="1:8">
-      <c r="A245" s="72"/>
-      <c r="B245" s="35"/>
+      <c r="A245" s="71"/>
+      <c r="B245" s="36"/>
       <c r="C245" s="22">
         <v>43322</v>
       </c>
-      <c r="D245" s="67">
+      <c r="D245" s="66">
         <v>102.43</v>
       </c>
       <c r="E245" s="26">
@@ -6266,17 +6335,17 @@
       <c r="G245" s="26">
         <v>15.7</v>
       </c>
-      <c r="H245" s="43">
+      <c r="H245" s="44">
         <v>35.8</v>
       </c>
     </row>
     <row r="246" ht="25" customHeight="1" spans="1:8">
-      <c r="A246" s="72"/>
-      <c r="B246" s="35"/>
+      <c r="A246" s="71"/>
+      <c r="B246" s="36"/>
       <c r="C246" s="22">
         <v>43325</v>
       </c>
-      <c r="D246" s="67">
+      <c r="D246" s="66">
         <v>101.44</v>
       </c>
       <c r="E246" s="26">
@@ -6288,17 +6357,17 @@
       <c r="G246" s="26">
         <v>17.1</v>
       </c>
-      <c r="H246" s="43">
+      <c r="H246" s="44">
         <v>34.7</v>
       </c>
     </row>
     <row r="247" ht="25" customHeight="1" spans="1:8">
-      <c r="A247" s="72"/>
-      <c r="B247" s="35"/>
+      <c r="A247" s="71"/>
+      <c r="B247" s="36"/>
       <c r="C247" s="22">
         <v>43326</v>
       </c>
-      <c r="D247" s="67">
+      <c r="D247" s="66">
         <v>102.3</v>
       </c>
       <c r="E247" s="26">
@@ -6310,17 +6379,17 @@
       <c r="G247" s="26">
         <v>16.7</v>
       </c>
-      <c r="H247" s="43">
+      <c r="H247" s="44">
         <v>35.3</v>
       </c>
     </row>
     <row r="248" ht="25" customHeight="1" spans="1:8">
-      <c r="A248" s="72"/>
-      <c r="B248" s="35"/>
+      <c r="A248" s="71"/>
+      <c r="B248" s="36"/>
       <c r="C248" s="22">
         <v>43332</v>
       </c>
-      <c r="D248" s="67">
+      <c r="D248" s="66">
         <v>104.2</v>
       </c>
       <c r="E248" s="26">
@@ -6332,17 +6401,17 @@
       <c r="G248" s="26">
         <v>17.3</v>
       </c>
-      <c r="H248" s="43">
+      <c r="H248" s="44">
         <v>36.5</v>
       </c>
     </row>
     <row r="249" ht="25" customHeight="1" spans="1:8">
-      <c r="A249" s="72"/>
-      <c r="B249" s="35"/>
+      <c r="A249" s="71"/>
+      <c r="B249" s="36"/>
       <c r="C249" s="22">
         <v>43333</v>
       </c>
-      <c r="D249" s="67">
+      <c r="D249" s="66">
         <v>104.68</v>
       </c>
       <c r="E249" s="26">
@@ -6354,17 +6423,17 @@
       <c r="G249" s="26">
         <v>17.6</v>
       </c>
-      <c r="H249" s="43">
+      <c r="H249" s="44">
         <v>36.8</v>
       </c>
     </row>
     <row r="250" ht="25" customHeight="1" spans="1:8">
-      <c r="A250" s="72"/>
-      <c r="B250" s="35"/>
+      <c r="A250" s="71"/>
+      <c r="B250" s="36"/>
       <c r="C250" s="22">
         <v>43336</v>
       </c>
-      <c r="D250" s="67">
+      <c r="D250" s="66">
         <v>104.28</v>
       </c>
       <c r="E250" s="26">
@@ -6376,17 +6445,17 @@
       <c r="G250" s="26">
         <v>20.9</v>
       </c>
-      <c r="H250" s="43">
+      <c r="H250" s="44">
         <v>36.3</v>
       </c>
     </row>
     <row r="251" ht="25" customHeight="1" spans="1:8">
-      <c r="A251" s="72"/>
-      <c r="B251" s="35"/>
+      <c r="A251" s="71"/>
+      <c r="B251" s="36"/>
       <c r="C251" s="22">
         <v>43342</v>
       </c>
-      <c r="D251" s="67">
+      <c r="D251" s="66">
         <v>105.65</v>
       </c>
       <c r="E251" s="26">
@@ -6398,39 +6467,39 @@
       <c r="G251" s="26">
         <v>20.3</v>
       </c>
-      <c r="H251" s="43">
+      <c r="H251" s="44">
         <v>36.9</v>
       </c>
     </row>
     <row r="252" ht="25" customHeight="1" spans="1:8">
-      <c r="A252" s="72"/>
-      <c r="B252" s="35"/>
+      <c r="A252" s="71"/>
+      <c r="B252" s="36"/>
       <c r="C252" s="22">
         <v>43348</v>
       </c>
-      <c r="D252" s="67">
+      <c r="D252" s="66">
         <v>102.34</v>
       </c>
-      <c r="E252" s="68">
+      <c r="E252" s="67">
         <v>10.6</v>
       </c>
-      <c r="F252" s="68">
+      <c r="F252" s="67">
         <v>19.3</v>
       </c>
-      <c r="G252" s="68">
+      <c r="G252" s="67">
         <v>20.4</v>
       </c>
-      <c r="H252" s="43">
+      <c r="H252" s="44">
         <v>35.6</v>
       </c>
     </row>
     <row r="253" ht="25" customHeight="1" spans="1:8">
-      <c r="A253" s="72"/>
-      <c r="B253" s="35"/>
+      <c r="A253" s="71"/>
+      <c r="B253" s="36"/>
       <c r="C253" s="22">
         <v>43368</v>
       </c>
-      <c r="D253" s="67">
+      <c r="D253" s="66">
         <v>95.31</v>
       </c>
       <c r="E253" s="26">
@@ -6442,17 +6511,17 @@
       <c r="G253" s="26">
         <v>16</v>
       </c>
-      <c r="H253" s="43">
+      <c r="H253" s="44">
         <v>32.9</v>
       </c>
     </row>
     <row r="254" ht="25" customHeight="1" spans="1:8">
-      <c r="A254" s="72"/>
-      <c r="B254" s="35"/>
+      <c r="A254" s="71"/>
+      <c r="B254" s="36"/>
       <c r="C254" s="22">
         <v>43383</v>
       </c>
-      <c r="D254" s="67">
+      <c r="D254" s="66">
         <v>89.78</v>
       </c>
       <c r="E254" s="26">
@@ -6464,13 +6533,13 @@
       <c r="G254" s="26">
         <v>12.3</v>
       </c>
-      <c r="H254" s="43">
+      <c r="H254" s="44">
         <v>29.8</v>
       </c>
     </row>
     <row r="255" ht="25" customHeight="1" spans="1:8">
-      <c r="A255" s="72"/>
-      <c r="B255" s="35"/>
+      <c r="A255" s="71"/>
+      <c r="B255" s="36"/>
       <c r="C255" s="22">
         <v>43399</v>
       </c>
@@ -6486,13 +6555,13 @@
       <c r="G255" s="26">
         <v>11.2</v>
       </c>
-      <c r="H255" s="43">
+      <c r="H255" s="44">
         <v>28.5</v>
       </c>
     </row>
     <row r="256" ht="25" customHeight="1" spans="1:8">
-      <c r="A256" s="72"/>
-      <c r="B256" s="35"/>
+      <c r="A256" s="71"/>
+      <c r="B256" s="36"/>
       <c r="C256" s="22">
         <v>43402</v>
       </c>
@@ -6508,13 +6577,13 @@
       <c r="G256" s="26">
         <v>12.4</v>
       </c>
-      <c r="H256" s="43">
+      <c r="H256" s="44">
         <v>28.9</v>
       </c>
     </row>
     <row r="257" ht="25" customHeight="1" spans="1:8">
-      <c r="A257" s="72"/>
-      <c r="B257" s="35"/>
+      <c r="A257" s="71"/>
+      <c r="B257" s="36"/>
       <c r="C257" s="22">
         <v>43404</v>
       </c>
@@ -6530,13 +6599,13 @@
       <c r="G257" s="26">
         <v>13.2</v>
       </c>
-      <c r="H257" s="43">
+      <c r="H257" s="44">
         <v>29</v>
       </c>
     </row>
     <row r="258" ht="25" customHeight="1" spans="1:8">
-      <c r="A258" s="72"/>
-      <c r="B258" s="35"/>
+      <c r="A258" s="71"/>
+      <c r="B258" s="36"/>
       <c r="C258" s="22">
         <v>43405</v>
       </c>
@@ -6552,13 +6621,13 @@
       <c r="G258" s="26">
         <v>13.4</v>
       </c>
-      <c r="H258" s="43">
+      <c r="H258" s="44">
         <v>28.9</v>
       </c>
     </row>
     <row r="259" ht="25" customHeight="1" spans="1:8">
-      <c r="A259" s="72"/>
-      <c r="B259" s="35"/>
+      <c r="A259" s="71"/>
+      <c r="B259" s="36"/>
       <c r="C259" s="22">
         <v>43410</v>
       </c>
@@ -6574,13 +6643,13 @@
       <c r="G259" s="26">
         <v>14.1</v>
       </c>
-      <c r="H259" s="43">
+      <c r="H259" s="44">
         <v>28.4</v>
       </c>
     </row>
     <row r="260" ht="25" customHeight="1" spans="1:8">
-      <c r="A260" s="72"/>
-      <c r="B260" s="35"/>
+      <c r="A260" s="71"/>
+      <c r="B260" s="36"/>
       <c r="C260" s="22">
         <v>43413</v>
       </c>
@@ -6596,13 +6665,13 @@
       <c r="G260" s="26">
         <v>14.3</v>
       </c>
-      <c r="H260" s="43">
+      <c r="H260" s="44">
         <v>29</v>
       </c>
     </row>
     <row r="261" ht="25" customHeight="1" spans="1:8">
-      <c r="A261" s="72"/>
-      <c r="B261" s="35"/>
+      <c r="A261" s="71"/>
+      <c r="B261" s="36"/>
       <c r="C261" s="22">
         <v>43430</v>
       </c>
@@ -6618,13 +6687,13 @@
       <c r="G261" s="26">
         <v>13.2</v>
       </c>
-      <c r="H261" s="43">
+      <c r="H261" s="44">
         <v>29</v>
       </c>
     </row>
     <row r="262" ht="25" customHeight="1" spans="1:8">
-      <c r="A262" s="72"/>
-      <c r="B262" s="35"/>
+      <c r="A262" s="71"/>
+      <c r="B262" s="36"/>
       <c r="C262" s="22">
         <v>43432</v>
       </c>
@@ -6640,190 +6709,268 @@
       <c r="G262" s="26">
         <v>13.1</v>
       </c>
-      <c r="H262" s="43">
+      <c r="H262" s="44">
         <v>28.8</v>
       </c>
     </row>
     <row r="263" ht="25" customHeight="1" spans="1:8">
-      <c r="A263" s="72"/>
-      <c r="B263" s="35"/>
+      <c r="A263" s="71"/>
+      <c r="B263" s="36"/>
       <c r="C263" s="22">
         <v>43452</v>
       </c>
-      <c r="D263" s="67">
+      <c r="D263" s="66">
         <v>94.49</v>
       </c>
-      <c r="E263" s="48">
+      <c r="E263" s="26">
         <v>-5</v>
       </c>
-      <c r="F263" s="48">
+      <c r="F263" s="26">
         <v>18.3</v>
       </c>
-      <c r="G263" s="48">
+      <c r="G263" s="26">
         <v>14.3</v>
       </c>
-      <c r="H263" s="49">
+      <c r="H263" s="44">
         <v>28.3</v>
       </c>
     </row>
     <row r="264" ht="25" customHeight="1" spans="1:8">
-      <c r="A264" s="72"/>
-      <c r="B264" s="35"/>
-      <c r="C264" s="22"/>
-      <c r="D264" s="67"/>
-      <c r="E264" s="26"/>
-      <c r="F264" s="26"/>
-      <c r="G264" s="26"/>
-      <c r="H264" s="43"/>
+      <c r="A264" s="71"/>
+      <c r="B264" s="36"/>
+      <c r="C264" s="22">
+        <v>43461</v>
+      </c>
+      <c r="D264" s="66">
+        <v>93.82</v>
+      </c>
+      <c r="E264" s="32">
+        <v>-8.7</v>
+      </c>
+      <c r="F264" s="32">
+        <v>19.8</v>
+      </c>
+      <c r="G264" s="32">
+        <v>13.3</v>
+      </c>
+      <c r="H264" s="49">
+        <v>27</v>
+      </c>
     </row>
     <row r="265" ht="25" customHeight="1" spans="1:8">
-      <c r="A265" s="72"/>
-      <c r="B265" s="35"/>
-      <c r="C265" s="67"/>
-      <c r="D265" s="67"/>
-      <c r="E265" s="63"/>
-      <c r="F265" s="63"/>
-      <c r="G265" s="63"/>
-      <c r="H265" s="66"/>
-    </row>
-    <row r="266" ht="25" customHeight="1"/>
-    <row r="267" ht="25" customHeight="1"/>
+      <c r="A265" s="71"/>
+      <c r="B265" s="36"/>
+      <c r="C265" s="22"/>
+      <c r="D265" s="66"/>
+      <c r="E265" s="26"/>
+      <c r="F265" s="26"/>
+      <c r="G265" s="26"/>
+      <c r="H265" s="44"/>
+    </row>
+    <row r="266" ht="25" customHeight="1" spans="1:8">
+      <c r="A266" s="71"/>
+      <c r="B266" s="36"/>
+      <c r="C266" s="22"/>
+      <c r="D266" s="66"/>
+      <c r="E266" s="26"/>
+      <c r="F266" s="26"/>
+      <c r="G266" s="26"/>
+      <c r="H266" s="44"/>
+    </row>
+    <row r="267" ht="25" customHeight="1" spans="1:8">
+      <c r="A267" s="71"/>
+      <c r="B267" s="36"/>
+      <c r="C267" s="22"/>
+      <c r="D267" s="66"/>
+      <c r="E267" s="26"/>
+      <c r="F267" s="26"/>
+      <c r="G267" s="26"/>
+      <c r="H267" s="44"/>
+    </row>
     <row r="268" ht="25" customHeight="1" spans="1:8">
-      <c r="A268" s="80" t="s">
+      <c r="A268" s="71"/>
+      <c r="B268" s="36"/>
+      <c r="C268" s="22"/>
+      <c r="D268" s="66"/>
+      <c r="E268" s="26"/>
+      <c r="F268" s="26"/>
+      <c r="G268" s="26"/>
+      <c r="H268" s="44"/>
+    </row>
+    <row r="269" ht="25" customHeight="1" spans="1:8">
+      <c r="A269" s="71"/>
+      <c r="B269" s="36"/>
+      <c r="C269" s="22"/>
+      <c r="D269" s="66"/>
+      <c r="E269" s="26"/>
+      <c r="F269" s="26"/>
+      <c r="G269" s="26"/>
+      <c r="H269" s="44"/>
+    </row>
+    <row r="270" ht="25" customHeight="1" spans="1:8">
+      <c r="A270" s="71"/>
+      <c r="B270" s="36"/>
+      <c r="C270" s="22"/>
+      <c r="D270" s="66"/>
+      <c r="E270" s="26"/>
+      <c r="F270" s="26"/>
+      <c r="G270" s="26"/>
+      <c r="H270" s="44"/>
+    </row>
+    <row r="271" ht="25" customHeight="1" spans="1:8">
+      <c r="A271" s="71"/>
+      <c r="B271" s="36"/>
+      <c r="C271" s="66"/>
+      <c r="D271" s="66"/>
+      <c r="E271" s="63"/>
+      <c r="F271" s="63"/>
+      <c r="G271" s="63"/>
+      <c r="H271" s="65"/>
+    </row>
+    <row r="272" ht="25" customHeight="1"/>
+    <row r="273" ht="25" customHeight="1"/>
+    <row r="274" ht="25" customHeight="1" spans="1:8">
+      <c r="A274" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B268" s="81" t="s">
+      <c r="B274" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C268" s="22">
+      <c r="C274" s="22">
         <v>43430</v>
       </c>
-      <c r="D268" s="82">
+      <c r="D274" s="81">
         <v>227.795</v>
       </c>
-      <c r="E268" s="83">
+      <c r="E274" s="82">
         <v>-1.7</v>
       </c>
-      <c r="F268" s="83">
+      <c r="F274" s="82">
         <v>12.1</v>
       </c>
-      <c r="G268" s="83">
+      <c r="G274" s="82">
         <v>9.5</v>
       </c>
-      <c r="H268" s="83">
+      <c r="H274" s="82">
         <v>15.4</v>
       </c>
     </row>
-    <row r="269" ht="25" customHeight="1" spans="1:8">
-      <c r="A269" s="80"/>
-      <c r="B269" s="81"/>
-      <c r="C269" s="22">
+    <row r="275" ht="25" customHeight="1" spans="1:8">
+      <c r="A275" s="79"/>
+      <c r="B275" s="80"/>
+      <c r="C275" s="22">
         <v>43432</v>
       </c>
-      <c r="D269" s="31">
+      <c r="D275" s="31">
         <v>230.33</v>
       </c>
-      <c r="E269" s="26">
+      <c r="E275" s="26">
         <v>-0.9</v>
       </c>
-      <c r="F269" s="26">
+      <c r="F275" s="26">
         <v>12.6</v>
       </c>
-      <c r="G269" s="26">
+      <c r="G275" s="26">
         <v>9.6</v>
       </c>
-      <c r="H269" s="26">
+      <c r="H275" s="26">
         <v>15.5</v>
       </c>
     </row>
-    <row r="270" ht="25" customHeight="1" spans="1:8">
-      <c r="A270" s="80"/>
-      <c r="B270" s="81"/>
-      <c r="C270" s="22">
+    <row r="276" ht="25" customHeight="1" spans="1:8">
+      <c r="A276" s="79"/>
+      <c r="B276" s="80"/>
+      <c r="C276" s="22">
         <v>43452</v>
       </c>
-      <c r="D270" s="67">
+      <c r="D276" s="66">
         <v>235.831</v>
       </c>
-      <c r="E270" s="48">
+      <c r="E276" s="26">
         <v>0.8</v>
       </c>
-      <c r="F270" s="48">
+      <c r="F276" s="26">
         <v>14.2</v>
       </c>
-      <c r="G270" s="48">
+      <c r="G276" s="26">
         <v>11.4</v>
       </c>
-      <c r="H270" s="48">
+      <c r="H276" s="26">
         <v>15.6</v>
       </c>
     </row>
-    <row r="271" ht="25" customHeight="1" spans="1:8">
-      <c r="A271" s="80"/>
-      <c r="B271" s="81"/>
-      <c r="C271" s="69"/>
-      <c r="D271" s="69"/>
-      <c r="E271" s="70"/>
-      <c r="F271" s="70"/>
-      <c r="G271" s="70"/>
-      <c r="H271" s="70"/>
-    </row>
-    <row r="272" ht="25" customHeight="1" spans="1:8">
-      <c r="A272" s="80"/>
-      <c r="B272" s="81"/>
-      <c r="C272" s="69"/>
-      <c r="D272" s="69"/>
-      <c r="E272" s="70"/>
-      <c r="F272" s="70"/>
-      <c r="G272" s="70"/>
-      <c r="H272" s="70"/>
-    </row>
-    <row r="273" ht="25" customHeight="1" spans="1:8">
-      <c r="A273" s="80"/>
-      <c r="B273" s="81"/>
-      <c r="C273" s="69"/>
-      <c r="D273" s="69"/>
-      <c r="E273" s="70"/>
-      <c r="F273" s="70"/>
-      <c r="G273" s="70"/>
-      <c r="H273" s="70"/>
-    </row>
-    <row r="274" ht="25" customHeight="1" spans="1:8">
-      <c r="A274" s="80"/>
-      <c r="B274" s="81"/>
-      <c r="C274" s="69"/>
-      <c r="D274" s="69"/>
-      <c r="E274" s="70"/>
-      <c r="F274" s="70"/>
-      <c r="G274" s="70"/>
-      <c r="H274" s="70"/>
-    </row>
-    <row r="275" ht="25" customHeight="1" spans="1:8">
-      <c r="A275" s="80"/>
-      <c r="B275" s="81"/>
-      <c r="C275" s="69"/>
-      <c r="D275" s="69"/>
-      <c r="E275" s="70"/>
-      <c r="F275" s="70"/>
-      <c r="G275" s="70"/>
-      <c r="H275" s="70"/>
-    </row>
-    <row r="276" ht="25" customHeight="1" spans="1:8">
-      <c r="A276" s="80"/>
-      <c r="B276" s="81"/>
-      <c r="C276" s="69"/>
-      <c r="D276" s="69"/>
-      <c r="E276" s="70"/>
-      <c r="F276" s="70"/>
-      <c r="G276" s="70"/>
-      <c r="H276" s="70"/>
-    </row>
-    <row r="277" ht="25" customHeight="1"/>
-    <row r="278" ht="25" customHeight="1"/>
-    <row r="279" ht="25" customHeight="1"/>
-    <row r="280" ht="25" customHeight="1"/>
-    <row r="281" ht="25" customHeight="1"/>
-    <row r="282" ht="25" customHeight="1"/>
+    <row r="277" ht="25" customHeight="1" spans="1:8">
+      <c r="A277" s="79"/>
+      <c r="B277" s="80"/>
+      <c r="C277" s="22">
+        <v>43461</v>
+      </c>
+      <c r="D277" s="66">
+        <v>233.486</v>
+      </c>
+      <c r="E277" s="32">
+        <v>-1.6</v>
+      </c>
+      <c r="F277" s="32">
+        <v>14.6</v>
+      </c>
+      <c r="G277" s="32">
+        <v>10.5</v>
+      </c>
+      <c r="H277" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="278" ht="25" customHeight="1" spans="1:8">
+      <c r="A278" s="79"/>
+      <c r="B278" s="80"/>
+      <c r="C278" s="68"/>
+      <c r="D278" s="68"/>
+      <c r="E278" s="69"/>
+      <c r="F278" s="69"/>
+      <c r="G278" s="69"/>
+      <c r="H278" s="69"/>
+    </row>
+    <row r="279" ht="25" customHeight="1" spans="1:8">
+      <c r="A279" s="79"/>
+      <c r="B279" s="80"/>
+      <c r="C279" s="68"/>
+      <c r="D279" s="68"/>
+      <c r="E279" s="69"/>
+      <c r="F279" s="69"/>
+      <c r="G279" s="69"/>
+      <c r="H279" s="69"/>
+    </row>
+    <row r="280" ht="25" customHeight="1" spans="1:8">
+      <c r="A280" s="79"/>
+      <c r="B280" s="80"/>
+      <c r="C280" s="68"/>
+      <c r="D280" s="68"/>
+      <c r="E280" s="69"/>
+      <c r="F280" s="69"/>
+      <c r="G280" s="69"/>
+      <c r="H280" s="69"/>
+    </row>
+    <row r="281" ht="25" customHeight="1" spans="1:8">
+      <c r="A281" s="79"/>
+      <c r="B281" s="80"/>
+      <c r="C281" s="68"/>
+      <c r="D281" s="68"/>
+      <c r="E281" s="69"/>
+      <c r="F281" s="69"/>
+      <c r="G281" s="69"/>
+      <c r="H281" s="69"/>
+    </row>
+    <row r="282" ht="25" customHeight="1" spans="1:8">
+      <c r="A282" s="79"/>
+      <c r="B282" s="80"/>
+      <c r="C282" s="68"/>
+      <c r="D282" s="68"/>
+      <c r="E282" s="69"/>
+      <c r="F282" s="69"/>
+      <c r="G282" s="69"/>
+      <c r="H282" s="69"/>
+    </row>
     <row r="283" ht="25" customHeight="1"/>
     <row r="284" ht="25" customHeight="1"/>
     <row r="285" ht="25" customHeight="1"/>
@@ -6879,12 +7026,12 @@
     <row r="335" ht="25" customHeight="1"/>
     <row r="336" ht="25" customHeight="1"/>
     <row r="337" ht="25" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="338" ht="25" customHeight="1"/>
+    <row r="339" ht="25" customHeight="1"/>
+    <row r="340" ht="25" customHeight="1"/>
+    <row r="341" ht="25" customHeight="1"/>
+    <row r="342" ht="25" customHeight="1"/>
+    <row r="343" ht="25" customHeight="1"/>
     <row r="344" ht="15.75" customHeight="1"/>
     <row r="345" ht="15.75" customHeight="1"/>
     <row r="346" ht="15.75" customHeight="1"/>
@@ -7753,6 +7900,12 @@
     <row r="1209" ht="15.75" customHeight="1"/>
     <row r="1210" ht="15.75" customHeight="1"/>
     <row r="1211" ht="15.75" customHeight="1"/>
+    <row r="1212" ht="15.75" customHeight="1"/>
+    <row r="1213" ht="15.75" customHeight="1"/>
+    <row r="1214" ht="15.75" customHeight="1"/>
+    <row r="1215" ht="15.75" customHeight="1"/>
+    <row r="1216" ht="15.75" customHeight="1"/>
+    <row r="1217" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A2:A40"/>
@@ -7762,8 +7915,8 @@
     <mergeCell ref="A142:A174"/>
     <mergeCell ref="A176:A213"/>
     <mergeCell ref="A215:A240"/>
-    <mergeCell ref="A242:A265"/>
-    <mergeCell ref="A268:A276"/>
+    <mergeCell ref="A242:A271"/>
+    <mergeCell ref="A274:A282"/>
     <mergeCell ref="B2:B40"/>
     <mergeCell ref="B42:B78"/>
     <mergeCell ref="B80:B105"/>
@@ -7771,14 +7924,14 @@
     <mergeCell ref="B142:B174"/>
     <mergeCell ref="B176:B213"/>
     <mergeCell ref="B215:B240"/>
-    <mergeCell ref="B242:B265"/>
-    <mergeCell ref="B268:B276"/>
+    <mergeCell ref="B242:B271"/>
+    <mergeCell ref="B274:B282"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A215:A240" r:id="rId1" display="Reliance Large Cap Fund - Direct Plan (G)"/>
-    <hyperlink ref="A242:A265" r:id="rId2" display="Canara Robeco Emerging Equities - Direct Plan (G)"/>
+    <hyperlink ref="A242:A271" r:id="rId2" display="Canara Robeco Emerging Equities - Direct Plan (G)"/>
     <hyperlink ref="A80:A105" location="Sheet1!A204" display="=HYPERLINK(&quot;http://www.moneycontrol.com/mutual-funds/nav/reliance-top-200-fund-direct-plan/MRC940&quot;,&quot;Reliance Top 200 Fund - Direct Plan (G). New name: Reliance Large Cap Fund - Direct Plan (G)&quot;)"/>
-    <hyperlink ref="A268" r:id="rId3" display="Kotak Bluechip Fund - Direct Plan (G)"/>
+    <hyperlink ref="A274" r:id="rId3" display="Kotak Bluechip Fund - Direct Plan (G)"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/MF-Tracker-online.xlsx
+++ b/MF-Tracker-online.xlsx
@@ -105,15 +105,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d/mmm/yy"/>
-    <numFmt numFmtId="179" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
     <numFmt numFmtId="180" formatCode="0.000"/>
-    <numFmt numFmtId="181" formatCode="0.0"/>
-    <numFmt numFmtId="182" formatCode="0.000_ "/>
+    <numFmt numFmtId="181" formatCode="0.000_ "/>
+    <numFmt numFmtId="182" formatCode="0.0"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -185,7 +185,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,7 +199,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,8 +213,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,8 +258,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,73 +312,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -359,7 +359,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,13 +461,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,157 +539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,6 +710,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -720,6 +740,36 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -739,66 +789,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -810,134 +810,134 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -954,7 +954,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -970,13 +970,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -998,7 +998,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1006,7 +1006,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1015,7 +1015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1033,7 +1033,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1043,14 +1043,14 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1058,20 +1058,20 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1093,17 +1093,20 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1111,7 +1114,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1131,7 +1134,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1543,9 +1546,9 @@
   <dimension ref="A1:H1217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F279" sqref="F279"/>
+      <selection pane="bottomLeft" activeCell="D281" sqref="D281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -2273,28 +2276,40 @@
       <c r="D33" s="23">
         <v>29.91</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="26">
         <v>-3.9</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="26">
         <v>14</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="26">
         <v>10.2</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="26">
         <v>12.7</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1" spans="1:8">
       <c r="A34" s="25"/>
       <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
+      <c r="C34" s="22">
+        <v>43480</v>
+      </c>
+      <c r="D34" s="23">
+        <v>30.06</v>
+      </c>
+      <c r="E34" s="32">
+        <v>-4</v>
+      </c>
+      <c r="F34" s="32">
+        <v>10.9</v>
+      </c>
+      <c r="G34" s="32">
+        <v>11.6</v>
+      </c>
+      <c r="H34" s="32">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:8">
       <c r="A35" s="25"/>
@@ -3040,33 +3055,45 @@
       <c r="D72" s="28">
         <v>35.022</v>
       </c>
-      <c r="E72" s="32">
+      <c r="E72" s="26">
         <v>-0.6</v>
       </c>
-      <c r="F72" s="32">
+      <c r="F72" s="26">
         <v>17.6</v>
       </c>
-      <c r="G72" s="32">
+      <c r="G72" s="26">
         <v>14.7</v>
       </c>
-      <c r="H72" s="49">
+      <c r="H72" s="44">
         <v>19.8</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1" spans="1:8">
       <c r="A73" s="25"/>
       <c r="B73" s="36"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="44"/>
+      <c r="C73" s="22">
+        <v>43480</v>
+      </c>
+      <c r="D73" s="47">
+        <v>35.146</v>
+      </c>
+      <c r="E73" s="49">
+        <v>-1.6</v>
+      </c>
+      <c r="F73" s="49">
+        <v>14.4</v>
+      </c>
+      <c r="G73" s="49">
+        <v>16.8</v>
+      </c>
+      <c r="H73" s="50">
+        <v>19.9</v>
+      </c>
     </row>
     <row r="74" ht="24.75" customHeight="1" spans="1:8">
       <c r="A74" s="25"/>
       <c r="B74" s="36"/>
-      <c r="C74" s="50"/>
+      <c r="C74" s="51"/>
       <c r="D74" s="47"/>
       <c r="E74" s="26"/>
       <c r="F74" s="26"/>
@@ -3076,7 +3103,7 @@
     <row r="75" ht="24.75" customHeight="1" spans="1:8">
       <c r="A75" s="25"/>
       <c r="B75" s="36"/>
-      <c r="C75" s="50"/>
+      <c r="C75" s="51"/>
       <c r="D75" s="47"/>
       <c r="E75" s="26"/>
       <c r="F75" s="26"/>
@@ -3086,7 +3113,7 @@
     <row r="76" ht="24.75" customHeight="1" spans="1:8">
       <c r="A76" s="25"/>
       <c r="B76" s="36"/>
-      <c r="C76" s="50"/>
+      <c r="C76" s="51"/>
       <c r="D76" s="47"/>
       <c r="E76" s="26"/>
       <c r="F76" s="26"/>
@@ -3096,7 +3123,7 @@
     <row r="77" ht="24.75" customHeight="1" spans="1:8">
       <c r="A77" s="25"/>
       <c r="B77" s="36"/>
-      <c r="C77" s="50"/>
+      <c r="C77" s="51"/>
       <c r="D77" s="47"/>
       <c r="E77" s="26"/>
       <c r="F77" s="26"/>
@@ -3118,533 +3145,533 @@
       <c r="B79" s="33"/>
     </row>
     <row r="80" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A80" s="51" t="str">
+      <c r="A80" s="52" t="str">
         <f>HYPERLINK("http://www.moneycontrol.com/mutual-funds/nav/reliance-top-200-fund-direct-plan/MRC940","Reliance Top 200 Fund - Direct Plan (G). New name: Reliance Large Cap Fund - Direct Plan (G)")</f>
         <v>Reliance Top 200 Fund - Direct Plan (G). New name: Reliance Large Cap Fund - Direct Plan (G)</v>
       </c>
       <c r="B80" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="52">
+      <c r="C80" s="53">
         <v>43199</v>
       </c>
-      <c r="D80" s="53">
+      <c r="D80" s="54">
         <v>33.495</v>
       </c>
-      <c r="E80" s="54">
+      <c r="E80" s="55">
         <v>15.7</v>
       </c>
-      <c r="F80" s="54">
+      <c r="F80" s="55">
         <v>23</v>
       </c>
-      <c r="G80" s="54">
+      <c r="G80" s="55">
         <v>9.6</v>
       </c>
-      <c r="H80" s="54"/>
+      <c r="H80" s="55"/>
     </row>
     <row r="81" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A81" s="51"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="21"/>
-      <c r="C81" s="52">
+      <c r="C81" s="53">
         <v>43200</v>
       </c>
-      <c r="D81" s="53">
+      <c r="D81" s="54">
         <v>33.642</v>
       </c>
-      <c r="E81" s="54">
+      <c r="E81" s="55">
         <v>15.9</v>
       </c>
-      <c r="F81" s="54">
+      <c r="F81" s="55">
         <v>23.2</v>
       </c>
-      <c r="G81" s="54">
+      <c r="G81" s="55">
         <v>9.8</v>
       </c>
-      <c r="H81" s="54"/>
+      <c r="H81" s="55"/>
     </row>
     <row r="82" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A82" s="51"/>
+      <c r="A82" s="52"/>
       <c r="B82" s="21"/>
-      <c r="C82" s="52">
+      <c r="C82" s="53">
         <v>43202</v>
       </c>
-      <c r="D82" s="53">
+      <c r="D82" s="54">
         <v>33.521</v>
       </c>
-      <c r="E82" s="55">
+      <c r="E82" s="56">
         <v>14.7</v>
       </c>
-      <c r="F82" s="55">
+      <c r="F82" s="56">
         <v>21.7</v>
       </c>
-      <c r="G82" s="55">
+      <c r="G82" s="56">
         <v>9.6</v>
       </c>
-      <c r="H82" s="55"/>
+      <c r="H82" s="56"/>
     </row>
     <row r="83" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A83" s="51"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="21"/>
-      <c r="C83" s="52">
+      <c r="C83" s="53">
         <v>43203</v>
       </c>
-      <c r="D83" s="53">
+      <c r="D83" s="54">
         <v>33.477</v>
       </c>
-      <c r="E83" s="55">
+      <c r="E83" s="56">
         <v>15.1</v>
       </c>
-      <c r="F83" s="55">
+      <c r="F83" s="56">
         <v>20.7</v>
       </c>
-      <c r="G83" s="55">
+      <c r="G83" s="56">
         <v>9.5</v>
       </c>
-      <c r="H83" s="55"/>
+      <c r="H83" s="56"/>
     </row>
     <row r="84" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A84" s="51"/>
+      <c r="A84" s="52"/>
       <c r="B84" s="21"/>
-      <c r="C84" s="52">
+      <c r="C84" s="53">
         <v>43208</v>
       </c>
-      <c r="D84" s="53">
+      <c r="D84" s="54">
         <v>33.628</v>
       </c>
-      <c r="E84" s="55">
+      <c r="E84" s="56">
         <v>16.9</v>
       </c>
-      <c r="F84" s="55">
+      <c r="F84" s="56">
         <v>20.6</v>
       </c>
-      <c r="G84" s="55">
+      <c r="G84" s="56">
         <v>10.8</v>
       </c>
-      <c r="H84" s="55">
+      <c r="H84" s="56">
         <v>19.3</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A85" s="51"/>
+      <c r="A85" s="52"/>
       <c r="B85" s="21"/>
-      <c r="C85" s="52">
+      <c r="C85" s="53">
         <v>43311</v>
       </c>
-      <c r="D85" s="56">
+      <c r="D85" s="57">
         <v>35.085</v>
       </c>
-      <c r="E85" s="57">
+      <c r="E85" s="58">
         <v>10.3</v>
       </c>
-      <c r="F85" s="57">
+      <c r="F85" s="58">
         <v>17.1</v>
       </c>
-      <c r="G85" s="57">
+      <c r="G85" s="58">
         <v>11.8</v>
       </c>
-      <c r="H85" s="57">
+      <c r="H85" s="58">
         <v>22.4</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A86" s="51"/>
+      <c r="A86" s="52"/>
       <c r="B86" s="21"/>
-      <c r="C86" s="52">
+      <c r="C86" s="53">
         <v>43312</v>
       </c>
-      <c r="D86" s="53">
+      <c r="D86" s="54">
         <v>35.068</v>
       </c>
-      <c r="E86" s="57">
+      <c r="E86" s="58">
         <v>9.4</v>
       </c>
-      <c r="F86" s="57">
+      <c r="F86" s="58">
         <v>17.1</v>
       </c>
-      <c r="G86" s="57">
+      <c r="G86" s="58">
         <v>11.4</v>
       </c>
-      <c r="H86" s="57">
+      <c r="H86" s="58">
         <v>22.1</v>
       </c>
     </row>
     <row r="87" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A87" s="51"/>
+      <c r="A87" s="52"/>
       <c r="B87" s="21"/>
-      <c r="C87" s="52">
+      <c r="C87" s="53">
         <v>43313</v>
       </c>
-      <c r="D87" s="56">
+      <c r="D87" s="57">
         <v>35.109</v>
       </c>
-      <c r="E87" s="57">
+      <c r="E87" s="58">
         <v>9.4</v>
       </c>
-      <c r="F87" s="57">
+      <c r="F87" s="58">
         <v>17.5</v>
       </c>
-      <c r="G87" s="57">
+      <c r="G87" s="58">
         <v>11.4</v>
       </c>
-      <c r="H87" s="57">
+      <c r="H87" s="58">
         <v>22.4</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A88" s="51"/>
+      <c r="A88" s="52"/>
       <c r="B88" s="21"/>
-      <c r="C88" s="52">
+      <c r="C88" s="53">
         <v>43319</v>
       </c>
-      <c r="D88" s="53">
+      <c r="D88" s="54">
         <v>35.367</v>
       </c>
-      <c r="E88" s="57">
+      <c r="E88" s="58">
         <v>10.9</v>
       </c>
-      <c r="F88" s="57">
+      <c r="F88" s="58">
         <v>17.4</v>
       </c>
-      <c r="G88" s="57">
+      <c r="G88" s="58">
         <v>11.3</v>
       </c>
-      <c r="H88" s="57">
+      <c r="H88" s="58">
         <v>23.1</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A89" s="51"/>
+      <c r="A89" s="52"/>
       <c r="B89" s="21"/>
-      <c r="C89" s="52">
+      <c r="C89" s="53">
         <v>43321</v>
       </c>
-      <c r="D89" s="53">
+      <c r="D89" s="54">
         <v>35.687</v>
       </c>
-      <c r="E89" s="57">
+      <c r="E89" s="58">
         <v>14.2</v>
       </c>
-      <c r="F89" s="57">
+      <c r="F89" s="58">
         <v>18</v>
       </c>
-      <c r="G89" s="57">
+      <c r="G89" s="58">
         <v>11.6</v>
       </c>
-      <c r="H89" s="57">
+      <c r="H89" s="58">
         <v>22.9</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A90" s="51"/>
+      <c r="A90" s="52"/>
       <c r="B90" s="21"/>
-      <c r="C90" s="52">
+      <c r="C90" s="53">
         <v>43322</v>
       </c>
-      <c r="D90" s="53">
+      <c r="D90" s="54">
         <v>35.367</v>
       </c>
-      <c r="E90" s="57">
+      <c r="E90" s="58">
         <v>14.4</v>
       </c>
-      <c r="F90" s="57">
+      <c r="F90" s="58">
         <v>18.4</v>
       </c>
-      <c r="G90" s="57">
+      <c r="G90" s="58">
         <v>11.4</v>
       </c>
-      <c r="H90" s="57">
+      <c r="H90" s="58">
         <v>22.7</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A91" s="51"/>
+      <c r="A91" s="52"/>
       <c r="B91" s="21"/>
-      <c r="C91" s="52">
+      <c r="C91" s="53">
         <v>43325</v>
       </c>
-      <c r="D91" s="53">
+      <c r="D91" s="54">
         <v>35.079</v>
       </c>
-      <c r="E91" s="57">
+      <c r="E91" s="58">
         <v>14.4</v>
       </c>
-      <c r="F91" s="57">
+      <c r="F91" s="58">
         <v>17.2</v>
       </c>
-      <c r="G91" s="57">
+      <c r="G91" s="58">
         <v>11.9</v>
       </c>
-      <c r="H91" s="57">
+      <c r="H91" s="58">
         <v>21.9</v>
       </c>
     </row>
     <row r="92" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A92" s="51"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="21"/>
-      <c r="C92" s="52">
+      <c r="C92" s="53">
         <v>43326</v>
       </c>
-      <c r="D92" s="53">
+      <c r="D92" s="54">
         <v>35.393</v>
       </c>
-      <c r="E92" s="57">
+      <c r="E92" s="58">
         <v>14.1</v>
       </c>
-      <c r="F92" s="57">
+      <c r="F92" s="58">
         <v>17.7</v>
       </c>
-      <c r="G92" s="57">
+      <c r="G92" s="58">
         <v>11.5</v>
       </c>
-      <c r="H92" s="57">
+      <c r="H92" s="58">
         <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A93" s="51"/>
+      <c r="A93" s="52"/>
       <c r="B93" s="21"/>
-      <c r="C93" s="52">
+      <c r="C93" s="53">
         <v>43332</v>
       </c>
-      <c r="D93" s="53">
+      <c r="D93" s="54">
         <v>36.178</v>
       </c>
-      <c r="E93" s="57">
+      <c r="E93" s="58">
         <v>16.3</v>
       </c>
-      <c r="F93" s="57">
+      <c r="F93" s="58">
         <v>18</v>
       </c>
-      <c r="G93" s="57">
+      <c r="G93" s="58">
         <v>12.7</v>
       </c>
-      <c r="H93" s="57">
+      <c r="H93" s="58">
         <v>23.8</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A94" s="51"/>
+      <c r="A94" s="52"/>
       <c r="B94" s="21"/>
-      <c r="C94" s="52">
+      <c r="C94" s="53">
         <v>43333</v>
       </c>
-      <c r="D94" s="53">
+      <c r="D94" s="54">
         <v>36.298</v>
       </c>
-      <c r="E94" s="57">
+      <c r="E94" s="58">
         <v>18</v>
       </c>
-      <c r="F94" s="57">
+      <c r="F94" s="58">
         <v>18.2</v>
       </c>
-      <c r="G94" s="57">
+      <c r="G94" s="58">
         <v>13.1</v>
       </c>
-      <c r="H94" s="57">
+      <c r="H94" s="58">
         <v>24.3</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A95" s="51"/>
+      <c r="A95" s="52"/>
       <c r="B95" s="21"/>
-      <c r="C95" s="52">
+      <c r="C95" s="53">
         <v>43336</v>
       </c>
-      <c r="D95" s="53">
+      <c r="D95" s="54">
         <v>36.183</v>
       </c>
-      <c r="E95" s="57">
+      <c r="E95" s="58">
         <v>15.9</v>
       </c>
-      <c r="F95" s="57">
+      <c r="F95" s="58">
         <v>18</v>
       </c>
-      <c r="G95" s="57">
+      <c r="G95" s="58">
         <v>15.6</v>
       </c>
-      <c r="H95" s="57">
+      <c r="H95" s="58">
         <v>23.5</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A96" s="51"/>
+      <c r="A96" s="52"/>
       <c r="B96" s="21"/>
-      <c r="C96" s="52">
+      <c r="C96" s="53">
         <v>43342</v>
       </c>
-      <c r="D96" s="53">
+      <c r="D96" s="54">
         <v>36.845</v>
       </c>
-      <c r="E96" s="57">
+      <c r="E96" s="58">
         <v>17.3</v>
       </c>
-      <c r="F96" s="57">
+      <c r="F96" s="58">
         <v>18.3</v>
       </c>
-      <c r="G96" s="57">
+      <c r="G96" s="58">
         <v>15.2</v>
       </c>
-      <c r="H96" s="57">
+      <c r="H96" s="58">
         <v>23.9</v>
       </c>
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A97" s="51"/>
+      <c r="A97" s="52"/>
       <c r="B97" s="21"/>
-      <c r="C97" s="52">
+      <c r="C97" s="53">
         <v>43348</v>
       </c>
-      <c r="D97" s="53">
+      <c r="D97" s="54">
         <v>36.203</v>
       </c>
-      <c r="E97" s="57">
+      <c r="E97" s="58">
         <v>14.7</v>
       </c>
-      <c r="F97" s="57">
+      <c r="F97" s="58">
         <v>16.8</v>
       </c>
-      <c r="G97" s="57">
+      <c r="G97" s="58">
         <v>16.2</v>
       </c>
-      <c r="H97" s="57">
+      <c r="H97" s="58">
         <v>23.1</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A98" s="51"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="21"/>
-      <c r="C98" s="52">
+      <c r="C98" s="53">
         <v>43368</v>
       </c>
-      <c r="D98" s="53">
+      <c r="D98" s="54">
         <v>34.648</v>
       </c>
-      <c r="E98" s="57">
+      <c r="E98" s="58">
         <v>9.1</v>
       </c>
-      <c r="F98" s="57">
+      <c r="F98" s="58">
         <v>13.7</v>
       </c>
-      <c r="G98" s="57">
+      <c r="G98" s="58">
         <v>13.8</v>
       </c>
-      <c r="H98" s="57">
+      <c r="H98" s="58">
         <v>21</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A99" s="51"/>
+      <c r="A99" s="52"/>
       <c r="B99" s="21"/>
-      <c r="C99" s="52">
+      <c r="C99" s="53">
         <v>43383</v>
       </c>
-      <c r="D99" s="53">
+      <c r="D99" s="54">
         <v>33.023</v>
       </c>
-      <c r="E99" s="57">
+      <c r="E99" s="58">
         <v>3.4</v>
       </c>
-      <c r="F99" s="57">
+      <c r="F99" s="58">
         <v>11.3</v>
       </c>
-      <c r="G99" s="57">
+      <c r="G99" s="58">
         <v>11.2</v>
       </c>
-      <c r="H99" s="57">
+      <c r="H99" s="58">
         <v>19.2</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A100" s="51"/>
+      <c r="A100" s="52"/>
       <c r="B100" s="21"/>
-      <c r="C100" s="52">
+      <c r="C100" s="53">
         <v>43399</v>
       </c>
-      <c r="D100" s="58">
+      <c r="D100" s="59">
         <v>31.994</v>
       </c>
-      <c r="E100" s="59">
+      <c r="E100" s="60">
         <v>-3.3</v>
       </c>
-      <c r="F100" s="59">
+      <c r="F100" s="60">
         <v>9.8</v>
       </c>
-      <c r="G100" s="59">
+      <c r="G100" s="60">
         <v>9.5</v>
       </c>
-      <c r="H100" s="59">
+      <c r="H100" s="60">
         <v>18</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A101" s="51"/>
+      <c r="A101" s="52"/>
       <c r="B101" s="21"/>
-      <c r="C101" s="52">
+      <c r="C101" s="53">
         <v>43402</v>
       </c>
-      <c r="D101" s="56">
+      <c r="D101" s="57">
         <v>33.094</v>
       </c>
-      <c r="E101" s="57">
+      <c r="E101" s="58">
         <v>0.1</v>
       </c>
-      <c r="F101" s="57">
+      <c r="F101" s="58">
         <v>11.7</v>
       </c>
-      <c r="G101" s="57">
+      <c r="G101" s="58">
         <v>11.4</v>
       </c>
-      <c r="H101" s="57">
+      <c r="H101" s="58">
         <v>18.6</v>
       </c>
     </row>
     <row r="102" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A102" s="51"/>
+      <c r="A102" s="52"/>
       <c r="B102" s="21"/>
-      <c r="C102" s="52"/>
-      <c r="D102" s="53"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="57"/>
-      <c r="G102" s="57"/>
-      <c r="H102" s="57"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="58"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="58"/>
     </row>
     <row r="103" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A103" s="51"/>
+      <c r="A103" s="52"/>
       <c r="B103" s="21"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="53"/>
-      <c r="E103" s="57"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="57"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
     </row>
     <row r="104" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A104" s="51"/>
+      <c r="A104" s="52"/>
       <c r="B104" s="21"/>
-      <c r="C104" s="52"/>
-      <c r="D104" s="53"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="57"/>
-      <c r="H104" s="57"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="58"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="58"/>
     </row>
     <row r="105" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A105" s="51"/>
+      <c r="A105" s="52"/>
       <c r="B105" s="21"/>
-      <c r="C105" s="52"/>
-      <c r="D105" s="53"/>
-      <c r="E105" s="57"/>
-      <c r="F105" s="57"/>
-      <c r="G105" s="57"/>
-      <c r="H105" s="57"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="58"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="58"/>
+      <c r="H105" s="58"/>
     </row>
     <row r="106" ht="24.75" customHeight="1" spans="3:8">
-      <c r="C106" s="60"/>
-      <c r="D106" s="61"/>
-      <c r="E106" s="62"/>
-      <c r="F106" s="62"/>
-      <c r="G106" s="62"/>
-      <c r="H106" s="62"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="62"/>
+      <c r="E106" s="63"/>
+      <c r="F106" s="63"/>
+      <c r="G106" s="63"/>
+      <c r="H106" s="63"/>
     </row>
     <row r="107" ht="24.75" customHeight="1" spans="1:8">
       <c r="A107" s="25" t="str">
@@ -3660,16 +3687,16 @@
       <c r="D107" s="23">
         <v>23.422</v>
       </c>
-      <c r="E107" s="63">
+      <c r="E107" s="64">
         <v>10.2</v>
       </c>
-      <c r="F107" s="63">
+      <c r="F107" s="64">
         <v>17.6</v>
       </c>
-      <c r="G107" s="63">
+      <c r="G107" s="64">
         <v>8.4</v>
       </c>
-      <c r="H107" s="63"/>
+      <c r="H107" s="64"/>
     </row>
     <row r="108" ht="24.75" customHeight="1" spans="1:8">
       <c r="A108" s="25"/>
@@ -3680,16 +3707,16 @@
       <c r="D108" s="23">
         <v>23.421</v>
       </c>
-      <c r="E108" s="63">
+      <c r="E108" s="64">
         <v>10.8</v>
       </c>
-      <c r="F108" s="63">
+      <c r="F108" s="64">
         <v>16.8</v>
       </c>
-      <c r="G108" s="63">
+      <c r="G108" s="64">
         <v>8.5</v>
       </c>
-      <c r="H108" s="64"/>
+      <c r="H108" s="65"/>
     </row>
     <row r="109" ht="24.75" customHeight="1" spans="1:8">
       <c r="A109" s="25"/>
@@ -3700,16 +3727,16 @@
       <c r="D109" s="23">
         <v>23.551</v>
       </c>
-      <c r="E109" s="63">
+      <c r="E109" s="64">
         <v>11.8</v>
       </c>
-      <c r="F109" s="63">
+      <c r="F109" s="64">
         <v>17.1</v>
       </c>
-      <c r="G109" s="63">
+      <c r="G109" s="64">
         <v>9.7</v>
       </c>
-      <c r="H109" s="63">
+      <c r="H109" s="64">
         <v>18.4</v>
       </c>
     </row>
@@ -3722,16 +3749,16 @@
       <c r="D110" s="23">
         <v>23.494</v>
       </c>
-      <c r="E110" s="63">
+      <c r="E110" s="64">
         <v>11.9</v>
       </c>
-      <c r="F110" s="63">
+      <c r="F110" s="64">
         <v>16.4</v>
       </c>
-      <c r="G110" s="63">
+      <c r="G110" s="64">
         <v>9.6</v>
       </c>
-      <c r="H110" s="63">
+      <c r="H110" s="64">
         <v>18.2</v>
       </c>
     </row>
@@ -3747,7 +3774,7 @@
       <c r="E111" s="26">
         <v>5.8</v>
       </c>
-      <c r="F111" s="63"/>
+      <c r="F111" s="64"/>
       <c r="G111" s="26">
         <v>10.5</v>
       </c>
@@ -4250,28 +4277,40 @@
       <c r="D135" s="23">
         <v>22.567</v>
       </c>
-      <c r="E135" s="32">
+      <c r="E135" s="26">
         <v>-5.3</v>
       </c>
-      <c r="F135" s="32">
+      <c r="F135" s="26">
         <v>12.1</v>
       </c>
-      <c r="G135" s="32">
+      <c r="G135" s="26">
         <v>9.6</v>
       </c>
-      <c r="H135" s="32">
+      <c r="H135" s="26">
         <v>15.2</v>
       </c>
     </row>
     <row r="136" ht="24.75" customHeight="1" spans="1:8">
       <c r="A136" s="25"/>
       <c r="B136" s="21"/>
-      <c r="C136" s="22"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="26"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="26"/>
-      <c r="H136" s="26"/>
+      <c r="C136" s="22">
+        <v>43480</v>
+      </c>
+      <c r="D136" s="23">
+        <v>22.412</v>
+      </c>
+      <c r="E136" s="49">
+        <v>-7.6</v>
+      </c>
+      <c r="F136" s="49">
+        <v>8.3</v>
+      </c>
+      <c r="G136" s="49">
+        <v>11.3</v>
+      </c>
+      <c r="H136" s="49">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="137" ht="24.75" customHeight="1" spans="1:8">
       <c r="A137" s="25"/>
@@ -4308,10 +4347,10 @@
       <c r="B140" s="21"/>
       <c r="C140" s="22"/>
       <c r="D140" s="23"/>
-      <c r="E140" s="63"/>
-      <c r="F140" s="63"/>
-      <c r="G140" s="63"/>
-      <c r="H140" s="63"/>
+      <c r="E140" s="64"/>
+      <c r="F140" s="64"/>
+      <c r="G140" s="64"/>
+      <c r="H140" s="64"/>
     </row>
     <row r="141" ht="24.75" customHeight="1"/>
     <row r="142" ht="24.75" customHeight="1" spans="1:8">
@@ -4328,16 +4367,16 @@
       <c r="D142" s="23">
         <v>42.529</v>
       </c>
-      <c r="E142" s="63">
+      <c r="E142" s="64">
         <v>29.3</v>
       </c>
-      <c r="F142" s="63">
+      <c r="F142" s="64">
         <v>28.9</v>
       </c>
-      <c r="G142" s="63">
+      <c r="G142" s="64">
         <v>13.1</v>
       </c>
-      <c r="H142" s="63"/>
+      <c r="H142" s="64"/>
     </row>
     <row r="143" ht="24.75" customHeight="1" spans="1:8">
       <c r="A143" s="25"/>
@@ -4348,16 +4387,16 @@
       <c r="D143" s="23">
         <v>42.575</v>
       </c>
-      <c r="E143" s="63">
+      <c r="E143" s="64">
         <v>30.1</v>
       </c>
-      <c r="F143" s="63">
+      <c r="F143" s="64">
         <v>28.5</v>
       </c>
-      <c r="G143" s="63">
+      <c r="G143" s="64">
         <v>14.2</v>
       </c>
-      <c r="H143" s="63">
+      <c r="H143" s="64">
         <v>17.6</v>
       </c>
     </row>
@@ -4876,28 +4915,40 @@
       <c r="D167" s="31">
         <v>37.6</v>
       </c>
-      <c r="E167" s="32">
+      <c r="E167" s="26">
         <v>-13</v>
       </c>
-      <c r="F167" s="32">
+      <c r="F167" s="26">
         <v>19.2</v>
       </c>
-      <c r="G167" s="32">
+      <c r="G167" s="26">
         <v>12.8</v>
       </c>
-      <c r="H167" s="32">
+      <c r="H167" s="26">
         <v>12.9</v>
       </c>
     </row>
     <row r="168" ht="24.75" customHeight="1" spans="1:8">
       <c r="A168" s="25"/>
       <c r="B168" s="21"/>
-      <c r="C168" s="22"/>
-      <c r="D168" s="31"/>
-      <c r="E168" s="26"/>
-      <c r="F168" s="26"/>
-      <c r="G168" s="26"/>
-      <c r="H168" s="26"/>
+      <c r="C168" s="22">
+        <v>43480</v>
+      </c>
+      <c r="D168" s="31">
+        <v>38.46</v>
+      </c>
+      <c r="E168" s="49">
+        <v>-12.6</v>
+      </c>
+      <c r="F168" s="49">
+        <v>16.2</v>
+      </c>
+      <c r="G168" s="49">
+        <v>15.9</v>
+      </c>
+      <c r="H168" s="49">
+        <v>13</v>
+      </c>
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:8">
       <c r="A169" s="25"/>
@@ -5034,16 +5085,16 @@
       <c r="D179" s="23">
         <v>48.617</v>
       </c>
-      <c r="E179" s="63">
+      <c r="E179" s="64">
         <v>35.3</v>
       </c>
-      <c r="F179" s="63">
+      <c r="F179" s="64">
         <v>35.1</v>
       </c>
-      <c r="G179" s="63">
+      <c r="G179" s="64">
         <v>21.2</v>
       </c>
-      <c r="H179" s="63"/>
+      <c r="H179" s="64"/>
     </row>
     <row r="180" ht="24.75" customHeight="1" spans="1:8">
       <c r="A180" s="25"/>
@@ -5054,16 +5105,16 @@
       <c r="D180" s="23">
         <v>48.889</v>
       </c>
-      <c r="E180" s="63">
+      <c r="E180" s="64">
         <v>36.1</v>
       </c>
-      <c r="F180" s="63">
+      <c r="F180" s="64">
         <v>34.6</v>
       </c>
-      <c r="G180" s="63">
+      <c r="G180" s="64">
         <v>21.1</v>
       </c>
-      <c r="H180" s="63"/>
+      <c r="H180" s="64"/>
     </row>
     <row r="181" ht="25" customHeight="1" spans="1:8">
       <c r="A181" s="25"/>
@@ -5074,16 +5125,16 @@
       <c r="D181" s="23">
         <v>49.202</v>
       </c>
-      <c r="E181" s="63">
+      <c r="E181" s="64">
         <v>37.5</v>
       </c>
-      <c r="F181" s="63">
+      <c r="F181" s="64">
         <v>34.4</v>
       </c>
-      <c r="G181" s="63">
+      <c r="G181" s="64">
         <v>22</v>
       </c>
-      <c r="H181" s="65">
+      <c r="H181" s="66">
         <v>26.8</v>
       </c>
     </row>
@@ -5159,7 +5210,7 @@
       <c r="C185" s="22">
         <v>43319</v>
       </c>
-      <c r="D185" s="66">
+      <c r="D185" s="67">
         <v>47.498</v>
       </c>
       <c r="E185" s="26">
@@ -5181,7 +5232,7 @@
       <c r="C186" s="22">
         <v>43321</v>
       </c>
-      <c r="D186" s="66">
+      <c r="D186" s="67">
         <v>47.795</v>
       </c>
       <c r="E186" s="26">
@@ -5203,7 +5254,7 @@
       <c r="C187" s="22">
         <v>43322</v>
       </c>
-      <c r="D187" s="66"/>
+      <c r="D187" s="67"/>
       <c r="E187" s="26">
         <v>26</v>
       </c>
@@ -5223,7 +5274,7 @@
       <c r="C188" s="22">
         <v>43325</v>
       </c>
-      <c r="D188" s="66">
+      <c r="D188" s="67">
         <v>47.119</v>
       </c>
       <c r="E188" s="26">
@@ -5267,16 +5318,16 @@
       <c r="C190" s="22">
         <v>43332</v>
       </c>
-      <c r="D190" s="66">
+      <c r="D190" s="67">
         <v>47.649</v>
       </c>
-      <c r="E190" s="67">
+      <c r="E190" s="68">
         <v>23.1</v>
       </c>
-      <c r="F190" s="67">
+      <c r="F190" s="68">
         <v>24</v>
       </c>
-      <c r="G190" s="67">
+      <c r="G190" s="68">
         <v>19.9</v>
       </c>
       <c r="H190" s="44">
@@ -5289,7 +5340,7 @@
       <c r="C191" s="22">
         <v>43333</v>
       </c>
-      <c r="D191" s="66">
+      <c r="D191" s="67">
         <v>47.867</v>
       </c>
       <c r="E191" s="26">
@@ -5311,7 +5362,7 @@
       <c r="C192" s="22">
         <v>43336</v>
       </c>
-      <c r="D192" s="66">
+      <c r="D192" s="67">
         <v>47.891</v>
       </c>
       <c r="E192" s="26">
@@ -5333,7 +5384,7 @@
       <c r="C193" s="22">
         <v>43342</v>
       </c>
-      <c r="D193" s="66">
+      <c r="D193" s="67">
         <v>48.772</v>
       </c>
       <c r="E193" s="26">
@@ -5355,7 +5406,7 @@
       <c r="C194" s="22">
         <v>43348</v>
       </c>
-      <c r="D194" s="66">
+      <c r="D194" s="67">
         <v>48.072</v>
       </c>
       <c r="E194" s="26">
@@ -5377,7 +5428,7 @@
       <c r="C195" s="22">
         <v>43368</v>
       </c>
-      <c r="D195" s="66">
+      <c r="D195" s="67">
         <v>45.432</v>
       </c>
       <c r="E195" s="26">
@@ -5399,7 +5450,7 @@
       <c r="C196" s="22">
         <v>43383</v>
       </c>
-      <c r="D196" s="66">
+      <c r="D196" s="67">
         <v>43.479</v>
       </c>
       <c r="E196" s="26">
@@ -5553,7 +5604,7 @@
       <c r="C203" s="22">
         <v>43430</v>
       </c>
-      <c r="D203" s="66">
+      <c r="D203" s="67">
         <v>44.374</v>
       </c>
       <c r="E203" s="26">
@@ -5597,7 +5648,7 @@
       <c r="C205" s="22">
         <v>43452</v>
       </c>
-      <c r="D205" s="66">
+      <c r="D205" s="67">
         <v>45.086</v>
       </c>
       <c r="E205" s="26">
@@ -5619,37 +5670,49 @@
       <c r="C206" s="22">
         <v>43461</v>
       </c>
-      <c r="D206" s="66">
+      <c r="D206" s="67">
         <v>44.788</v>
       </c>
-      <c r="E206" s="32">
+      <c r="E206" s="26">
         <v>-7.2</v>
       </c>
-      <c r="F206" s="32">
+      <c r="F206" s="26">
         <v>23.8</v>
       </c>
-      <c r="G206" s="32">
+      <c r="G206" s="26">
         <v>17</v>
       </c>
-      <c r="H206" s="49">
+      <c r="H206" s="44">
         <v>21.3</v>
       </c>
     </row>
     <row r="207" ht="25" customHeight="1" spans="1:8">
       <c r="A207" s="25"/>
       <c r="B207" s="36"/>
-      <c r="C207" s="22"/>
-      <c r="D207" s="66"/>
-      <c r="E207" s="26"/>
-      <c r="F207" s="26"/>
-      <c r="G207" s="26"/>
-      <c r="H207" s="44"/>
+      <c r="C207" s="22">
+        <v>43480</v>
+      </c>
+      <c r="D207" s="67">
+        <v>45.533</v>
+      </c>
+      <c r="E207" s="49">
+        <v>-9.8</v>
+      </c>
+      <c r="F207" s="49">
+        <v>21</v>
+      </c>
+      <c r="G207" s="49">
+        <v>21.1</v>
+      </c>
+      <c r="H207" s="50">
+        <v>21.6</v>
+      </c>
     </row>
     <row r="208" ht="25" customHeight="1" spans="1:8">
       <c r="A208" s="25"/>
       <c r="B208" s="36"/>
       <c r="C208" s="22"/>
-      <c r="D208" s="66"/>
+      <c r="D208" s="67"/>
       <c r="E208" s="26"/>
       <c r="F208" s="26"/>
       <c r="G208" s="26"/>
@@ -5659,7 +5722,7 @@
       <c r="A209" s="25"/>
       <c r="B209" s="36"/>
       <c r="C209" s="22"/>
-      <c r="D209" s="66"/>
+      <c r="D209" s="67"/>
       <c r="E209" s="26"/>
       <c r="F209" s="26"/>
       <c r="G209" s="26"/>
@@ -5669,7 +5732,7 @@
       <c r="A210" s="25"/>
       <c r="B210" s="36"/>
       <c r="C210" s="22"/>
-      <c r="D210" s="66"/>
+      <c r="D210" s="67"/>
       <c r="E210" s="26"/>
       <c r="F210" s="26"/>
       <c r="G210" s="26"/>
@@ -5679,7 +5742,7 @@
       <c r="A211" s="25"/>
       <c r="B211" s="36"/>
       <c r="C211" s="22"/>
-      <c r="D211" s="66"/>
+      <c r="D211" s="67"/>
       <c r="E211" s="26"/>
       <c r="F211" s="26"/>
       <c r="G211" s="26"/>
@@ -5689,7 +5752,7 @@
       <c r="A212" s="25"/>
       <c r="B212" s="36"/>
       <c r="C212" s="22"/>
-      <c r="D212" s="66"/>
+      <c r="D212" s="67"/>
       <c r="E212" s="26"/>
       <c r="F212" s="26"/>
       <c r="G212" s="26"/>
@@ -5698,16 +5761,16 @@
     <row r="213" ht="25" customHeight="1" spans="1:8">
       <c r="A213" s="25"/>
       <c r="B213" s="36"/>
-      <c r="C213" s="68"/>
-      <c r="D213" s="68"/>
-      <c r="E213" s="69"/>
-      <c r="F213" s="69"/>
-      <c r="G213" s="69"/>
-      <c r="H213" s="70"/>
+      <c r="C213" s="69"/>
+      <c r="D213" s="69"/>
+      <c r="E213" s="70"/>
+      <c r="F213" s="70"/>
+      <c r="G213" s="70"/>
+      <c r="H213" s="71"/>
     </row>
     <row r="214" ht="25" customHeight="1"/>
     <row r="215" ht="25" customHeight="1" spans="1:8">
-      <c r="A215" s="71" t="s">
+      <c r="A215" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B215" s="21" t="s">
@@ -5716,29 +5779,29 @@
       <c r="C215" s="22">
         <v>43313</v>
       </c>
-      <c r="D215" s="72">
+      <c r="D215" s="73">
         <v>35.109</v>
       </c>
-      <c r="E215" s="73">
+      <c r="E215" s="74">
         <v>9.4</v>
       </c>
-      <c r="F215" s="73">
+      <c r="F215" s="74">
         <v>17.5</v>
       </c>
-      <c r="G215" s="73">
+      <c r="G215" s="74">
         <v>11.4</v>
       </c>
-      <c r="H215" s="74">
+      <c r="H215" s="75">
         <v>22.4</v>
       </c>
     </row>
     <row r="216" ht="25" customHeight="1" spans="1:8">
-      <c r="A216" s="71"/>
+      <c r="A216" s="72"/>
       <c r="B216" s="21"/>
       <c r="C216" s="22">
         <v>43319</v>
       </c>
-      <c r="D216" s="66">
+      <c r="D216" s="67">
         <v>35.367</v>
       </c>
       <c r="E216" s="26">
@@ -5755,12 +5818,12 @@
       </c>
     </row>
     <row r="217" ht="25" customHeight="1" spans="1:8">
-      <c r="A217" s="71"/>
+      <c r="A217" s="72"/>
       <c r="B217" s="21"/>
       <c r="C217" s="22">
         <v>43321</v>
       </c>
-      <c r="D217" s="66">
+      <c r="D217" s="67">
         <v>35.687</v>
       </c>
       <c r="E217" s="26">
@@ -5777,12 +5840,12 @@
       </c>
     </row>
     <row r="218" ht="25" customHeight="1" spans="1:8">
-      <c r="A218" s="71"/>
+      <c r="A218" s="72"/>
       <c r="B218" s="21"/>
       <c r="C218" s="22">
         <v>43322</v>
       </c>
-      <c r="D218" s="66">
+      <c r="D218" s="67">
         <v>35.367</v>
       </c>
       <c r="E218" s="26">
@@ -5799,12 +5862,12 @@
       </c>
     </row>
     <row r="219" ht="25" customHeight="1" spans="1:8">
-      <c r="A219" s="71"/>
+      <c r="A219" s="72"/>
       <c r="B219" s="21"/>
       <c r="C219" s="22">
         <v>43325</v>
       </c>
-      <c r="D219" s="66">
+      <c r="D219" s="67">
         <v>35.079</v>
       </c>
       <c r="E219" s="26">
@@ -5821,12 +5884,12 @@
       </c>
     </row>
     <row r="220" ht="25" customHeight="1" spans="1:8">
-      <c r="A220" s="71"/>
+      <c r="A220" s="72"/>
       <c r="B220" s="21"/>
       <c r="C220" s="22">
         <v>43326</v>
       </c>
-      <c r="D220" s="66">
+      <c r="D220" s="67">
         <v>35.393</v>
       </c>
       <c r="E220" s="26">
@@ -5843,12 +5906,12 @@
       </c>
     </row>
     <row r="221" ht="25" customHeight="1" spans="1:8">
-      <c r="A221" s="71"/>
+      <c r="A221" s="72"/>
       <c r="B221" s="21"/>
       <c r="C221" s="22">
         <v>43332</v>
       </c>
-      <c r="D221" s="66">
+      <c r="D221" s="67">
         <v>36.178</v>
       </c>
       <c r="E221" s="26">
@@ -5865,12 +5928,12 @@
       </c>
     </row>
     <row r="222" ht="25" customHeight="1" spans="1:8">
-      <c r="A222" s="71"/>
+      <c r="A222" s="72"/>
       <c r="B222" s="21"/>
       <c r="C222" s="22">
         <v>43333</v>
       </c>
-      <c r="D222" s="66">
+      <c r="D222" s="67">
         <v>36.298</v>
       </c>
       <c r="E222" s="26">
@@ -5887,12 +5950,12 @@
       </c>
     </row>
     <row r="223" ht="25" customHeight="1" spans="1:8">
-      <c r="A223" s="71"/>
+      <c r="A223" s="72"/>
       <c r="B223" s="21"/>
       <c r="C223" s="22">
         <v>43336</v>
       </c>
-      <c r="D223" s="66">
+      <c r="D223" s="67">
         <v>36.183</v>
       </c>
       <c r="E223" s="26">
@@ -5909,12 +5972,12 @@
       </c>
     </row>
     <row r="224" ht="25" customHeight="1" spans="1:8">
-      <c r="A224" s="71"/>
+      <c r="A224" s="72"/>
       <c r="B224" s="21"/>
       <c r="C224" s="22">
         <v>43342</v>
       </c>
-      <c r="D224" s="66">
+      <c r="D224" s="67">
         <v>36.845</v>
       </c>
       <c r="E224" s="26">
@@ -5931,12 +5994,12 @@
       </c>
     </row>
     <row r="225" ht="25" customHeight="1" spans="1:8">
-      <c r="A225" s="71"/>
+      <c r="A225" s="72"/>
       <c r="B225" s="21"/>
       <c r="C225" s="22">
         <v>43348</v>
       </c>
-      <c r="D225" s="66">
+      <c r="D225" s="67">
         <v>36.203</v>
       </c>
       <c r="E225" s="26">
@@ -5953,12 +6016,12 @@
       </c>
     </row>
     <row r="226" ht="25" customHeight="1" spans="1:8">
-      <c r="A226" s="71"/>
+      <c r="A226" s="72"/>
       <c r="B226" s="21"/>
       <c r="C226" s="22">
         <v>43368</v>
       </c>
-      <c r="D226" s="66">
+      <c r="D226" s="67">
         <v>34.648</v>
       </c>
       <c r="E226" s="26">
@@ -5975,29 +6038,29 @@
       </c>
     </row>
     <row r="227" ht="25" customHeight="1" spans="1:8">
-      <c r="A227" s="71"/>
+      <c r="A227" s="72"/>
       <c r="B227" s="21"/>
       <c r="C227" s="22">
         <v>43383</v>
       </c>
-      <c r="D227" s="66">
+      <c r="D227" s="67">
         <v>33.023</v>
       </c>
-      <c r="E227" s="75">
+      <c r="E227" s="76">
         <v>3.4</v>
       </c>
-      <c r="F227" s="75">
+      <c r="F227" s="76">
         <v>11.3</v>
       </c>
-      <c r="G227" s="75">
+      <c r="G227" s="76">
         <v>11.2</v>
       </c>
-      <c r="H227" s="76">
+      <c r="H227" s="77">
         <v>19.2</v>
       </c>
     </row>
     <row r="228" ht="25" customHeight="1" spans="1:8">
-      <c r="A228" s="71"/>
+      <c r="A228" s="72"/>
       <c r="B228" s="21"/>
       <c r="C228" s="22">
         <v>43399</v>
@@ -6019,7 +6082,7 @@
       </c>
     </row>
     <row r="229" ht="25" customHeight="1" spans="1:8">
-      <c r="A229" s="71"/>
+      <c r="A229" s="72"/>
       <c r="B229" s="21"/>
       <c r="C229" s="22">
         <v>43402</v>
@@ -6041,7 +6104,7 @@
       </c>
     </row>
     <row r="230" ht="25" customHeight="1" spans="1:8">
-      <c r="A230" s="71"/>
+      <c r="A230" s="72"/>
       <c r="B230" s="21"/>
       <c r="C230" s="22">
         <v>43404</v>
@@ -6063,7 +6126,7 @@
       </c>
     </row>
     <row r="231" ht="25" customHeight="1" spans="1:8">
-      <c r="A231" s="71"/>
+      <c r="A231" s="72"/>
       <c r="B231" s="21"/>
       <c r="C231" s="22">
         <v>43405</v>
@@ -6085,7 +6148,7 @@
       </c>
     </row>
     <row r="232" ht="25" customHeight="1" spans="1:8">
-      <c r="A232" s="71"/>
+      <c r="A232" s="72"/>
       <c r="B232" s="21"/>
       <c r="C232" s="22">
         <v>43410</v>
@@ -6107,7 +6170,7 @@
       </c>
     </row>
     <row r="233" ht="25" customHeight="1" spans="1:8">
-      <c r="A233" s="71"/>
+      <c r="A233" s="72"/>
       <c r="B233" s="21"/>
       <c r="C233" s="22">
         <v>43413</v>
@@ -6129,7 +6192,7 @@
       </c>
     </row>
     <row r="234" ht="25" customHeight="1" spans="1:8">
-      <c r="A234" s="71"/>
+      <c r="A234" s="72"/>
       <c r="B234" s="21"/>
       <c r="C234" s="22">
         <v>43430</v>
@@ -6151,7 +6214,7 @@
       </c>
     </row>
     <row r="235" ht="25" customHeight="1" spans="1:8">
-      <c r="A235" s="71"/>
+      <c r="A235" s="72"/>
       <c r="B235" s="21"/>
       <c r="C235" s="22">
         <v>43432</v>
@@ -6173,12 +6236,12 @@
       </c>
     </row>
     <row r="236" ht="25" customHeight="1" spans="1:8">
-      <c r="A236" s="71"/>
+      <c r="A236" s="72"/>
       <c r="B236" s="21"/>
       <c r="C236" s="22">
         <v>43452</v>
       </c>
-      <c r="D236" s="66">
+      <c r="D236" s="67">
         <v>34.937</v>
       </c>
       <c r="E236" s="26">
@@ -6195,60 +6258,72 @@
       </c>
     </row>
     <row r="237" ht="25" customHeight="1" spans="1:8">
-      <c r="A237" s="71"/>
+      <c r="A237" s="72"/>
       <c r="B237" s="21"/>
       <c r="C237" s="22">
         <v>43461</v>
       </c>
-      <c r="D237" s="66">
+      <c r="D237" s="67">
         <v>34.676</v>
       </c>
-      <c r="E237" s="32">
+      <c r="E237" s="26">
         <v>-0.2</v>
       </c>
-      <c r="F237" s="32">
+      <c r="F237" s="26">
         <v>19.2</v>
       </c>
-      <c r="G237" s="32">
+      <c r="G237" s="26">
         <v>13.2</v>
       </c>
-      <c r="H237" s="49">
+      <c r="H237" s="44">
         <v>18</v>
       </c>
     </row>
     <row r="238" ht="25" customHeight="1" spans="1:8">
-      <c r="A238" s="71"/>
+      <c r="A238" s="72"/>
       <c r="B238" s="21"/>
-      <c r="C238" s="22"/>
-      <c r="D238" s="66"/>
-      <c r="E238" s="75"/>
-      <c r="F238" s="75"/>
-      <c r="G238" s="75"/>
-      <c r="H238" s="76"/>
+      <c r="C238" s="22">
+        <v>43480</v>
+      </c>
+      <c r="D238" s="67">
+        <v>35.366</v>
+      </c>
+      <c r="E238" s="49">
+        <v>-0.1</v>
+      </c>
+      <c r="F238" s="49">
+        <v>17.3</v>
+      </c>
+      <c r="G238" s="49">
+        <v>16.7</v>
+      </c>
+      <c r="H238" s="50">
+        <v>18.7</v>
+      </c>
     </row>
     <row r="239" ht="25" customHeight="1" spans="1:8">
-      <c r="A239" s="71"/>
+      <c r="A239" s="72"/>
       <c r="B239" s="21"/>
       <c r="C239" s="22"/>
-      <c r="D239" s="66"/>
-      <c r="E239" s="75"/>
-      <c r="F239" s="75"/>
-      <c r="G239" s="75"/>
-      <c r="H239" s="76"/>
+      <c r="D239" s="67"/>
+      <c r="E239" s="76"/>
+      <c r="F239" s="76"/>
+      <c r="G239" s="76"/>
+      <c r="H239" s="77"/>
     </row>
     <row r="240" ht="25" customHeight="1" spans="1:8">
-      <c r="A240" s="71"/>
+      <c r="A240" s="72"/>
       <c r="B240" s="21"/>
-      <c r="C240" s="68"/>
-      <c r="D240" s="68"/>
-      <c r="E240" s="69"/>
-      <c r="F240" s="69"/>
-      <c r="G240" s="69"/>
-      <c r="H240" s="70"/>
+      <c r="C240" s="69"/>
+      <c r="D240" s="69"/>
+      <c r="E240" s="70"/>
+      <c r="F240" s="70"/>
+      <c r="G240" s="70"/>
+      <c r="H240" s="71"/>
     </row>
     <row r="241" ht="25" customHeight="1"/>
     <row r="242" ht="25" customHeight="1" spans="1:8">
-      <c r="A242" s="71" t="s">
+      <c r="A242" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B242" s="36" t="s">
@@ -6257,29 +6332,29 @@
       <c r="C242" s="22">
         <v>43313</v>
       </c>
-      <c r="D242" s="66">
+      <c r="D242" s="67">
         <v>102.22</v>
       </c>
-      <c r="E242" s="77">
+      <c r="E242" s="78">
         <v>11.6</v>
       </c>
-      <c r="F242" s="77">
+      <c r="F242" s="78">
         <v>21.8</v>
       </c>
-      <c r="G242" s="77">
+      <c r="G242" s="78">
         <v>16</v>
       </c>
-      <c r="H242" s="78">
+      <c r="H242" s="79">
         <v>35.2</v>
       </c>
     </row>
     <row r="243" ht="25" customHeight="1" spans="1:8">
-      <c r="A243" s="71"/>
+      <c r="A243" s="72"/>
       <c r="B243" s="36"/>
       <c r="C243" s="22">
         <v>43319</v>
       </c>
-      <c r="D243" s="66">
+      <c r="D243" s="67">
         <v>102.43</v>
       </c>
       <c r="E243" s="26">
@@ -6296,12 +6371,12 @@
       </c>
     </row>
     <row r="244" ht="25" customHeight="1" spans="1:8">
-      <c r="A244" s="71"/>
+      <c r="A244" s="72"/>
       <c r="B244" s="36"/>
       <c r="C244" s="22">
         <v>43321</v>
       </c>
-      <c r="D244" s="66">
+      <c r="D244" s="67">
         <v>102.93</v>
       </c>
       <c r="E244" s="26">
@@ -6318,12 +6393,12 @@
       </c>
     </row>
     <row r="245" ht="25" customHeight="1" spans="1:8">
-      <c r="A245" s="71"/>
+      <c r="A245" s="72"/>
       <c r="B245" s="36"/>
       <c r="C245" s="22">
         <v>43322</v>
       </c>
-      <c r="D245" s="66">
+      <c r="D245" s="67">
         <v>102.43</v>
       </c>
       <c r="E245" s="26">
@@ -6340,12 +6415,12 @@
       </c>
     </row>
     <row r="246" ht="25" customHeight="1" spans="1:8">
-      <c r="A246" s="71"/>
+      <c r="A246" s="72"/>
       <c r="B246" s="36"/>
       <c r="C246" s="22">
         <v>43325</v>
       </c>
-      <c r="D246" s="66">
+      <c r="D246" s="67">
         <v>101.44</v>
       </c>
       <c r="E246" s="26">
@@ -6362,12 +6437,12 @@
       </c>
     </row>
     <row r="247" ht="25" customHeight="1" spans="1:8">
-      <c r="A247" s="71"/>
+      <c r="A247" s="72"/>
       <c r="B247" s="36"/>
       <c r="C247" s="22">
         <v>43326</v>
       </c>
-      <c r="D247" s="66">
+      <c r="D247" s="67">
         <v>102.3</v>
       </c>
       <c r="E247" s="26">
@@ -6384,12 +6459,12 @@
       </c>
     </row>
     <row r="248" ht="25" customHeight="1" spans="1:8">
-      <c r="A248" s="71"/>
+      <c r="A248" s="72"/>
       <c r="B248" s="36"/>
       <c r="C248" s="22">
         <v>43332</v>
       </c>
-      <c r="D248" s="66">
+      <c r="D248" s="67">
         <v>104.2</v>
       </c>
       <c r="E248" s="26">
@@ -6406,12 +6481,12 @@
       </c>
     </row>
     <row r="249" ht="25" customHeight="1" spans="1:8">
-      <c r="A249" s="71"/>
+      <c r="A249" s="72"/>
       <c r="B249" s="36"/>
       <c r="C249" s="22">
         <v>43333</v>
       </c>
-      <c r="D249" s="66">
+      <c r="D249" s="67">
         <v>104.68</v>
       </c>
       <c r="E249" s="26">
@@ -6428,12 +6503,12 @@
       </c>
     </row>
     <row r="250" ht="25" customHeight="1" spans="1:8">
-      <c r="A250" s="71"/>
+      <c r="A250" s="72"/>
       <c r="B250" s="36"/>
       <c r="C250" s="22">
         <v>43336</v>
       </c>
-      <c r="D250" s="66">
+      <c r="D250" s="67">
         <v>104.28</v>
       </c>
       <c r="E250" s="26">
@@ -6450,12 +6525,12 @@
       </c>
     </row>
     <row r="251" ht="25" customHeight="1" spans="1:8">
-      <c r="A251" s="71"/>
+      <c r="A251" s="72"/>
       <c r="B251" s="36"/>
       <c r="C251" s="22">
         <v>43342</v>
       </c>
-      <c r="D251" s="66">
+      <c r="D251" s="67">
         <v>105.65</v>
       </c>
       <c r="E251" s="26">
@@ -6472,21 +6547,21 @@
       </c>
     </row>
     <row r="252" ht="25" customHeight="1" spans="1:8">
-      <c r="A252" s="71"/>
+      <c r="A252" s="72"/>
       <c r="B252" s="36"/>
       <c r="C252" s="22">
         <v>43348</v>
       </c>
-      <c r="D252" s="66">
+      <c r="D252" s="67">
         <v>102.34</v>
       </c>
-      <c r="E252" s="67">
+      <c r="E252" s="68">
         <v>10.6</v>
       </c>
-      <c r="F252" s="67">
+      <c r="F252" s="68">
         <v>19.3</v>
       </c>
-      <c r="G252" s="67">
+      <c r="G252" s="68">
         <v>20.4</v>
       </c>
       <c r="H252" s="44">
@@ -6494,12 +6569,12 @@
       </c>
     </row>
     <row r="253" ht="25" customHeight="1" spans="1:8">
-      <c r="A253" s="71"/>
+      <c r="A253" s="72"/>
       <c r="B253" s="36"/>
       <c r="C253" s="22">
         <v>43368</v>
       </c>
-      <c r="D253" s="66">
+      <c r="D253" s="67">
         <v>95.31</v>
       </c>
       <c r="E253" s="26">
@@ -6516,12 +6591,12 @@
       </c>
     </row>
     <row r="254" ht="25" customHeight="1" spans="1:8">
-      <c r="A254" s="71"/>
+      <c r="A254" s="72"/>
       <c r="B254" s="36"/>
       <c r="C254" s="22">
         <v>43383</v>
       </c>
-      <c r="D254" s="66">
+      <c r="D254" s="67">
         <v>89.78</v>
       </c>
       <c r="E254" s="26">
@@ -6538,7 +6613,7 @@
       </c>
     </row>
     <row r="255" ht="25" customHeight="1" spans="1:8">
-      <c r="A255" s="71"/>
+      <c r="A255" s="72"/>
       <c r="B255" s="36"/>
       <c r="C255" s="22">
         <v>43399</v>
@@ -6560,7 +6635,7 @@
       </c>
     </row>
     <row r="256" ht="25" customHeight="1" spans="1:8">
-      <c r="A256" s="71"/>
+      <c r="A256" s="72"/>
       <c r="B256" s="36"/>
       <c r="C256" s="22">
         <v>43402</v>
@@ -6582,7 +6657,7 @@
       </c>
     </row>
     <row r="257" ht="25" customHeight="1" spans="1:8">
-      <c r="A257" s="71"/>
+      <c r="A257" s="72"/>
       <c r="B257" s="36"/>
       <c r="C257" s="22">
         <v>43404</v>
@@ -6604,7 +6679,7 @@
       </c>
     </row>
     <row r="258" ht="25" customHeight="1" spans="1:8">
-      <c r="A258" s="71"/>
+      <c r="A258" s="72"/>
       <c r="B258" s="36"/>
       <c r="C258" s="22">
         <v>43405</v>
@@ -6626,7 +6701,7 @@
       </c>
     </row>
     <row r="259" ht="25" customHeight="1" spans="1:8">
-      <c r="A259" s="71"/>
+      <c r="A259" s="72"/>
       <c r="B259" s="36"/>
       <c r="C259" s="22">
         <v>43410</v>
@@ -6648,7 +6723,7 @@
       </c>
     </row>
     <row r="260" ht="25" customHeight="1" spans="1:8">
-      <c r="A260" s="71"/>
+      <c r="A260" s="72"/>
       <c r="B260" s="36"/>
       <c r="C260" s="22">
         <v>43413</v>
@@ -6670,7 +6745,7 @@
       </c>
     </row>
     <row r="261" ht="25" customHeight="1" spans="1:8">
-      <c r="A261" s="71"/>
+      <c r="A261" s="72"/>
       <c r="B261" s="36"/>
       <c r="C261" s="22">
         <v>43430</v>
@@ -6692,7 +6767,7 @@
       </c>
     </row>
     <row r="262" ht="25" customHeight="1" spans="1:8">
-      <c r="A262" s="71"/>
+      <c r="A262" s="72"/>
       <c r="B262" s="36"/>
       <c r="C262" s="22">
         <v>43432</v>
@@ -6714,12 +6789,12 @@
       </c>
     </row>
     <row r="263" ht="25" customHeight="1" spans="1:8">
-      <c r="A263" s="71"/>
+      <c r="A263" s="72"/>
       <c r="B263" s="36"/>
       <c r="C263" s="22">
         <v>43452</v>
       </c>
-      <c r="D263" s="66">
+      <c r="D263" s="67">
         <v>94.49</v>
       </c>
       <c r="E263" s="26">
@@ -6736,128 +6811,140 @@
       </c>
     </row>
     <row r="264" ht="25" customHeight="1" spans="1:8">
-      <c r="A264" s="71"/>
+      <c r="A264" s="72"/>
       <c r="B264" s="36"/>
       <c r="C264" s="22">
         <v>43461</v>
       </c>
-      <c r="D264" s="66">
+      <c r="D264" s="67">
         <v>93.82</v>
       </c>
-      <c r="E264" s="32">
+      <c r="E264" s="26">
         <v>-8.7</v>
       </c>
-      <c r="F264" s="32">
+      <c r="F264" s="26">
         <v>19.8</v>
       </c>
-      <c r="G264" s="32">
+      <c r="G264" s="26">
         <v>13.3</v>
       </c>
-      <c r="H264" s="49">
+      <c r="H264" s="44">
         <v>27</v>
       </c>
     </row>
     <row r="265" ht="25" customHeight="1" spans="1:8">
-      <c r="A265" s="71"/>
+      <c r="A265" s="72"/>
       <c r="B265" s="36"/>
-      <c r="C265" s="22"/>
-      <c r="D265" s="66"/>
-      <c r="E265" s="26"/>
-      <c r="F265" s="26"/>
-      <c r="G265" s="26"/>
-      <c r="H265" s="44"/>
+      <c r="C265" s="22">
+        <v>43480</v>
+      </c>
+      <c r="D265" s="67">
+        <v>94.7</v>
+      </c>
+      <c r="E265" s="49">
+        <v>-9.2</v>
+      </c>
+      <c r="F265" s="49">
+        <v>16.1</v>
+      </c>
+      <c r="G265" s="49">
+        <v>17.2</v>
+      </c>
+      <c r="H265" s="50">
+        <v>27.2</v>
+      </c>
     </row>
     <row r="266" ht="25" customHeight="1" spans="1:8">
-      <c r="A266" s="71"/>
+      <c r="A266" s="72"/>
       <c r="B266" s="36"/>
       <c r="C266" s="22"/>
-      <c r="D266" s="66"/>
+      <c r="D266" s="67"/>
       <c r="E266" s="26"/>
       <c r="F266" s="26"/>
       <c r="G266" s="26"/>
       <c r="H266" s="44"/>
     </row>
     <row r="267" ht="25" customHeight="1" spans="1:8">
-      <c r="A267" s="71"/>
+      <c r="A267" s="72"/>
       <c r="B267" s="36"/>
       <c r="C267" s="22"/>
-      <c r="D267" s="66"/>
+      <c r="D267" s="67"/>
       <c r="E267" s="26"/>
       <c r="F267" s="26"/>
       <c r="G267" s="26"/>
       <c r="H267" s="44"/>
     </row>
     <row r="268" ht="25" customHeight="1" spans="1:8">
-      <c r="A268" s="71"/>
+      <c r="A268" s="72"/>
       <c r="B268" s="36"/>
       <c r="C268" s="22"/>
-      <c r="D268" s="66"/>
+      <c r="D268" s="67"/>
       <c r="E268" s="26"/>
       <c r="F268" s="26"/>
       <c r="G268" s="26"/>
       <c r="H268" s="44"/>
     </row>
     <row r="269" ht="25" customHeight="1" spans="1:8">
-      <c r="A269" s="71"/>
+      <c r="A269" s="72"/>
       <c r="B269" s="36"/>
       <c r="C269" s="22"/>
-      <c r="D269" s="66"/>
+      <c r="D269" s="67"/>
       <c r="E269" s="26"/>
       <c r="F269" s="26"/>
       <c r="G269" s="26"/>
       <c r="H269" s="44"/>
     </row>
     <row r="270" ht="25" customHeight="1" spans="1:8">
-      <c r="A270" s="71"/>
+      <c r="A270" s="72"/>
       <c r="B270" s="36"/>
       <c r="C270" s="22"/>
-      <c r="D270" s="66"/>
+      <c r="D270" s="67"/>
       <c r="E270" s="26"/>
       <c r="F270" s="26"/>
       <c r="G270" s="26"/>
       <c r="H270" s="44"/>
     </row>
     <row r="271" ht="25" customHeight="1" spans="1:8">
-      <c r="A271" s="71"/>
+      <c r="A271" s="72"/>
       <c r="B271" s="36"/>
-      <c r="C271" s="66"/>
-      <c r="D271" s="66"/>
-      <c r="E271" s="63"/>
-      <c r="F271" s="63"/>
-      <c r="G271" s="63"/>
-      <c r="H271" s="65"/>
+      <c r="C271" s="67"/>
+      <c r="D271" s="67"/>
+      <c r="E271" s="64"/>
+      <c r="F271" s="64"/>
+      <c r="G271" s="64"/>
+      <c r="H271" s="66"/>
     </row>
     <row r="272" ht="25" customHeight="1"/>
     <row r="273" ht="25" customHeight="1"/>
     <row r="274" ht="25" customHeight="1" spans="1:8">
-      <c r="A274" s="79" t="s">
+      <c r="A274" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B274" s="80" t="s">
+      <c r="B274" s="81" t="s">
         <v>16</v>
       </c>
       <c r="C274" s="22">
         <v>43430</v>
       </c>
-      <c r="D274" s="81">
+      <c r="D274" s="82">
         <v>227.795</v>
       </c>
-      <c r="E274" s="82">
+      <c r="E274" s="83">
         <v>-1.7</v>
       </c>
-      <c r="F274" s="82">
+      <c r="F274" s="83">
         <v>12.1</v>
       </c>
-      <c r="G274" s="82">
+      <c r="G274" s="83">
         <v>9.5</v>
       </c>
-      <c r="H274" s="82">
+      <c r="H274" s="83">
         <v>15.4</v>
       </c>
     </row>
     <row r="275" ht="25" customHeight="1" spans="1:8">
-      <c r="A275" s="79"/>
-      <c r="B275" s="80"/>
+      <c r="A275" s="80"/>
+      <c r="B275" s="81"/>
       <c r="C275" s="22">
         <v>43432</v>
       </c>
@@ -6878,12 +6965,12 @@
       </c>
     </row>
     <row r="276" ht="25" customHeight="1" spans="1:8">
-      <c r="A276" s="79"/>
-      <c r="B276" s="80"/>
+      <c r="A276" s="80"/>
+      <c r="B276" s="81"/>
       <c r="C276" s="22">
         <v>43452</v>
       </c>
-      <c r="D276" s="66">
+      <c r="D276" s="67">
         <v>235.831</v>
       </c>
       <c r="E276" s="26">
@@ -6900,76 +6987,88 @@
       </c>
     </row>
     <row r="277" ht="25" customHeight="1" spans="1:8">
-      <c r="A277" s="79"/>
-      <c r="B277" s="80"/>
+      <c r="A277" s="80"/>
+      <c r="B277" s="81"/>
       <c r="C277" s="22">
         <v>43461</v>
       </c>
-      <c r="D277" s="66">
+      <c r="D277" s="67">
         <v>233.486</v>
       </c>
-      <c r="E277" s="32">
+      <c r="E277" s="26">
         <v>-1.6</v>
       </c>
-      <c r="F277" s="32">
+      <c r="F277" s="26">
         <v>14.6</v>
       </c>
-      <c r="G277" s="32">
+      <c r="G277" s="26">
         <v>10.5</v>
       </c>
-      <c r="H277" s="32">
+      <c r="H277" s="26">
         <v>15</v>
       </c>
     </row>
     <row r="278" ht="25" customHeight="1" spans="1:8">
-      <c r="A278" s="79"/>
-      <c r="B278" s="80"/>
-      <c r="C278" s="68"/>
-      <c r="D278" s="68"/>
-      <c r="E278" s="69"/>
-      <c r="F278" s="69"/>
-      <c r="G278" s="69"/>
-      <c r="H278" s="69"/>
+      <c r="A278" s="80"/>
+      <c r="B278" s="81"/>
+      <c r="C278" s="22">
+        <v>43480</v>
+      </c>
+      <c r="D278" s="67">
+        <v>234.424</v>
+      </c>
+      <c r="E278" s="49">
+        <v>-3</v>
+      </c>
+      <c r="F278" s="49">
+        <v>11.9</v>
+      </c>
+      <c r="G278" s="49">
+        <v>12.9</v>
+      </c>
+      <c r="H278" s="49">
+        <v>15</v>
+      </c>
     </row>
     <row r="279" ht="25" customHeight="1" spans="1:8">
-      <c r="A279" s="79"/>
-      <c r="B279" s="80"/>
-      <c r="C279" s="68"/>
-      <c r="D279" s="68"/>
-      <c r="E279" s="69"/>
-      <c r="F279" s="69"/>
-      <c r="G279" s="69"/>
-      <c r="H279" s="69"/>
+      <c r="A279" s="80"/>
+      <c r="B279" s="81"/>
+      <c r="C279" s="69"/>
+      <c r="D279" s="69"/>
+      <c r="E279" s="70"/>
+      <c r="F279" s="70"/>
+      <c r="G279" s="70"/>
+      <c r="H279" s="70"/>
     </row>
     <row r="280" ht="25" customHeight="1" spans="1:8">
-      <c r="A280" s="79"/>
-      <c r="B280" s="80"/>
-      <c r="C280" s="68"/>
-      <c r="D280" s="68"/>
-      <c r="E280" s="69"/>
-      <c r="F280" s="69"/>
-      <c r="G280" s="69"/>
-      <c r="H280" s="69"/>
+      <c r="A280" s="80"/>
+      <c r="B280" s="81"/>
+      <c r="C280" s="69"/>
+      <c r="D280" s="69"/>
+      <c r="E280" s="70"/>
+      <c r="F280" s="70"/>
+      <c r="G280" s="70"/>
+      <c r="H280" s="70"/>
     </row>
     <row r="281" ht="25" customHeight="1" spans="1:8">
-      <c r="A281" s="79"/>
-      <c r="B281" s="80"/>
-      <c r="C281" s="68"/>
-      <c r="D281" s="68"/>
-      <c r="E281" s="69"/>
-      <c r="F281" s="69"/>
-      <c r="G281" s="69"/>
-      <c r="H281" s="69"/>
+      <c r="A281" s="80"/>
+      <c r="B281" s="81"/>
+      <c r="C281" s="69"/>
+      <c r="D281" s="69"/>
+      <c r="E281" s="70"/>
+      <c r="F281" s="70"/>
+      <c r="G281" s="70"/>
+      <c r="H281" s="70"/>
     </row>
     <row r="282" ht="25" customHeight="1" spans="1:8">
-      <c r="A282" s="79"/>
-      <c r="B282" s="80"/>
-      <c r="C282" s="68"/>
-      <c r="D282" s="68"/>
-      <c r="E282" s="69"/>
-      <c r="F282" s="69"/>
-      <c r="G282" s="69"/>
-      <c r="H282" s="69"/>
+      <c r="A282" s="80"/>
+      <c r="B282" s="81"/>
+      <c r="C282" s="69"/>
+      <c r="D282" s="69"/>
+      <c r="E282" s="70"/>
+      <c r="F282" s="70"/>
+      <c r="G282" s="70"/>
+      <c r="H282" s="70"/>
     </row>
     <row r="283" ht="25" customHeight="1"/>
     <row r="284" ht="25" customHeight="1"/>

--- a/MF-Tracker-online.xlsx
+++ b/MF-Tracker-online.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="28695" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,15 +105,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="[$-409]d/mmm/yy"/>
+    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="181" formatCode="0.000_ "/>
-    <numFmt numFmtId="182" formatCode="0.0"/>
+    <numFmt numFmtId="182" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="0.000"/>
+    <numFmt numFmtId="184" formatCode="0.0"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -192,6 +192,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -199,7 +207,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,52 +230,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,19 +282,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,6 +301,22 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -359,43 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,79 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,7 +401,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,7 +485,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,19 +533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,11 +692,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,17 +711,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -746,21 +741,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -771,6 +751,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,155 +778,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -970,13 +970,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -998,15 +998,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1039,46 +1039,46 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1093,28 +1093,22 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1134,11 +1128,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1159,6 +1153,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1175,9 +1175,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1541,14 +1538,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D281" sqref="D281"/>
+      <selection pane="bottomLeft" activeCell="J210" sqref="J210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -3077,23 +3074,23 @@
       <c r="D73" s="47">
         <v>35.146</v>
       </c>
-      <c r="E73" s="49">
+      <c r="E73" s="26">
         <v>-1.6</v>
       </c>
-      <c r="F73" s="49">
+      <c r="F73" s="26">
         <v>14.4</v>
       </c>
-      <c r="G73" s="49">
+      <c r="G73" s="26">
         <v>16.8</v>
       </c>
-      <c r="H73" s="50">
+      <c r="H73" s="44">
         <v>19.9</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1" spans="1:8">
       <c r="A74" s="25"/>
       <c r="B74" s="36"/>
-      <c r="C74" s="51"/>
+      <c r="C74" s="49"/>
       <c r="D74" s="47"/>
       <c r="E74" s="26"/>
       <c r="F74" s="26"/>
@@ -3103,7 +3100,7 @@
     <row r="75" ht="24.75" customHeight="1" spans="1:8">
       <c r="A75" s="25"/>
       <c r="B75" s="36"/>
-      <c r="C75" s="51"/>
+      <c r="C75" s="49"/>
       <c r="D75" s="47"/>
       <c r="E75" s="26"/>
       <c r="F75" s="26"/>
@@ -3113,7 +3110,7 @@
     <row r="76" ht="24.75" customHeight="1" spans="1:8">
       <c r="A76" s="25"/>
       <c r="B76" s="36"/>
-      <c r="C76" s="51"/>
+      <c r="C76" s="49"/>
       <c r="D76" s="47"/>
       <c r="E76" s="26"/>
       <c r="F76" s="26"/>
@@ -3123,7 +3120,7 @@
     <row r="77" ht="24.75" customHeight="1" spans="1:8">
       <c r="A77" s="25"/>
       <c r="B77" s="36"/>
-      <c r="C77" s="51"/>
+      <c r="C77" s="49"/>
       <c r="D77" s="47"/>
       <c r="E77" s="26"/>
       <c r="F77" s="26"/>
@@ -3145,533 +3142,533 @@
       <c r="B79" s="33"/>
     </row>
     <row r="80" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A80" s="52" t="str">
+      <c r="A80" s="50" t="str">
         <f>HYPERLINK("http://www.moneycontrol.com/mutual-funds/nav/reliance-top-200-fund-direct-plan/MRC940","Reliance Top 200 Fund - Direct Plan (G). New name: Reliance Large Cap Fund - Direct Plan (G)")</f>
         <v>Reliance Top 200 Fund - Direct Plan (G). New name: Reliance Large Cap Fund - Direct Plan (G)</v>
       </c>
       <c r="B80" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="53">
+      <c r="C80" s="51">
         <v>43199</v>
       </c>
-      <c r="D80" s="54">
+      <c r="D80" s="52">
         <v>33.495</v>
       </c>
-      <c r="E80" s="55">
+      <c r="E80" s="53">
         <v>15.7</v>
       </c>
-      <c r="F80" s="55">
+      <c r="F80" s="53">
         <v>23</v>
       </c>
-      <c r="G80" s="55">
+      <c r="G80" s="53">
         <v>9.6</v>
       </c>
-      <c r="H80" s="55"/>
+      <c r="H80" s="53"/>
     </row>
     <row r="81" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A81" s="52"/>
+      <c r="A81" s="50"/>
       <c r="B81" s="21"/>
-      <c r="C81" s="53">
+      <c r="C81" s="51">
         <v>43200</v>
       </c>
-      <c r="D81" s="54">
+      <c r="D81" s="52">
         <v>33.642</v>
       </c>
-      <c r="E81" s="55">
+      <c r="E81" s="53">
         <v>15.9</v>
       </c>
-      <c r="F81" s="55">
+      <c r="F81" s="53">
         <v>23.2</v>
       </c>
-      <c r="G81" s="55">
+      <c r="G81" s="53">
         <v>9.8</v>
       </c>
-      <c r="H81" s="55"/>
+      <c r="H81" s="53"/>
     </row>
     <row r="82" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A82" s="52"/>
+      <c r="A82" s="50"/>
       <c r="B82" s="21"/>
-      <c r="C82" s="53">
+      <c r="C82" s="51">
         <v>43202</v>
       </c>
-      <c r="D82" s="54">
+      <c r="D82" s="52">
         <v>33.521</v>
       </c>
-      <c r="E82" s="56">
+      <c r="E82" s="54">
         <v>14.7</v>
       </c>
-      <c r="F82" s="56">
+      <c r="F82" s="54">
         <v>21.7</v>
       </c>
-      <c r="G82" s="56">
+      <c r="G82" s="54">
         <v>9.6</v>
       </c>
-      <c r="H82" s="56"/>
+      <c r="H82" s="54"/>
     </row>
     <row r="83" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A83" s="52"/>
+      <c r="A83" s="50"/>
       <c r="B83" s="21"/>
-      <c r="C83" s="53">
+      <c r="C83" s="51">
         <v>43203</v>
       </c>
-      <c r="D83" s="54">
+      <c r="D83" s="52">
         <v>33.477</v>
       </c>
-      <c r="E83" s="56">
+      <c r="E83" s="54">
         <v>15.1</v>
       </c>
-      <c r="F83" s="56">
+      <c r="F83" s="54">
         <v>20.7</v>
       </c>
-      <c r="G83" s="56">
+      <c r="G83" s="54">
         <v>9.5</v>
       </c>
-      <c r="H83" s="56"/>
+      <c r="H83" s="54"/>
     </row>
     <row r="84" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A84" s="52"/>
+      <c r="A84" s="50"/>
       <c r="B84" s="21"/>
-      <c r="C84" s="53">
+      <c r="C84" s="51">
         <v>43208</v>
       </c>
-      <c r="D84" s="54">
+      <c r="D84" s="52">
         <v>33.628</v>
       </c>
-      <c r="E84" s="56">
+      <c r="E84" s="54">
         <v>16.9</v>
       </c>
-      <c r="F84" s="56">
+      <c r="F84" s="54">
         <v>20.6</v>
       </c>
-      <c r="G84" s="56">
+      <c r="G84" s="54">
         <v>10.8</v>
       </c>
-      <c r="H84" s="56">
+      <c r="H84" s="54">
         <v>19.3</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A85" s="52"/>
+      <c r="A85" s="50"/>
       <c r="B85" s="21"/>
-      <c r="C85" s="53">
+      <c r="C85" s="51">
         <v>43311</v>
       </c>
-      <c r="D85" s="57">
+      <c r="D85" s="55">
         <v>35.085</v>
       </c>
-      <c r="E85" s="58">
+      <c r="E85" s="56">
         <v>10.3</v>
       </c>
-      <c r="F85" s="58">
+      <c r="F85" s="56">
         <v>17.1</v>
       </c>
-      <c r="G85" s="58">
+      <c r="G85" s="56">
         <v>11.8</v>
       </c>
-      <c r="H85" s="58">
+      <c r="H85" s="56">
         <v>22.4</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A86" s="52"/>
+      <c r="A86" s="50"/>
       <c r="B86" s="21"/>
-      <c r="C86" s="53">
+      <c r="C86" s="51">
         <v>43312</v>
       </c>
-      <c r="D86" s="54">
+      <c r="D86" s="52">
         <v>35.068</v>
       </c>
-      <c r="E86" s="58">
+      <c r="E86" s="56">
         <v>9.4</v>
       </c>
-      <c r="F86" s="58">
+      <c r="F86" s="56">
         <v>17.1</v>
       </c>
-      <c r="G86" s="58">
+      <c r="G86" s="56">
         <v>11.4</v>
       </c>
-      <c r="H86" s="58">
+      <c r="H86" s="56">
         <v>22.1</v>
       </c>
     </row>
     <row r="87" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A87" s="52"/>
+      <c r="A87" s="50"/>
       <c r="B87" s="21"/>
-      <c r="C87" s="53">
+      <c r="C87" s="51">
         <v>43313</v>
       </c>
-      <c r="D87" s="57">
+      <c r="D87" s="55">
         <v>35.109</v>
       </c>
-      <c r="E87" s="58">
+      <c r="E87" s="56">
         <v>9.4</v>
       </c>
-      <c r="F87" s="58">
+      <c r="F87" s="56">
         <v>17.5</v>
       </c>
-      <c r="G87" s="58">
+      <c r="G87" s="56">
         <v>11.4</v>
       </c>
-      <c r="H87" s="58">
+      <c r="H87" s="56">
         <v>22.4</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A88" s="52"/>
+      <c r="A88" s="50"/>
       <c r="B88" s="21"/>
-      <c r="C88" s="53">
+      <c r="C88" s="51">
         <v>43319</v>
       </c>
-      <c r="D88" s="54">
+      <c r="D88" s="52">
         <v>35.367</v>
       </c>
-      <c r="E88" s="58">
+      <c r="E88" s="56">
         <v>10.9</v>
       </c>
-      <c r="F88" s="58">
+      <c r="F88" s="56">
         <v>17.4</v>
       </c>
-      <c r="G88" s="58">
+      <c r="G88" s="56">
         <v>11.3</v>
       </c>
-      <c r="H88" s="58">
+      <c r="H88" s="56">
         <v>23.1</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A89" s="52"/>
+      <c r="A89" s="50"/>
       <c r="B89" s="21"/>
-      <c r="C89" s="53">
+      <c r="C89" s="51">
         <v>43321</v>
       </c>
-      <c r="D89" s="54">
+      <c r="D89" s="52">
         <v>35.687</v>
       </c>
-      <c r="E89" s="58">
+      <c r="E89" s="56">
         <v>14.2</v>
       </c>
-      <c r="F89" s="58">
+      <c r="F89" s="56">
         <v>18</v>
       </c>
-      <c r="G89" s="58">
+      <c r="G89" s="56">
         <v>11.6</v>
       </c>
-      <c r="H89" s="58">
+      <c r="H89" s="56">
         <v>22.9</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A90" s="52"/>
+      <c r="A90" s="50"/>
       <c r="B90" s="21"/>
-      <c r="C90" s="53">
+      <c r="C90" s="51">
         <v>43322</v>
       </c>
-      <c r="D90" s="54">
+      <c r="D90" s="52">
         <v>35.367</v>
       </c>
-      <c r="E90" s="58">
+      <c r="E90" s="56">
         <v>14.4</v>
       </c>
-      <c r="F90" s="58">
+      <c r="F90" s="56">
         <v>18.4</v>
       </c>
-      <c r="G90" s="58">
+      <c r="G90" s="56">
         <v>11.4</v>
       </c>
-      <c r="H90" s="58">
+      <c r="H90" s="56">
         <v>22.7</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A91" s="52"/>
+      <c r="A91" s="50"/>
       <c r="B91" s="21"/>
-      <c r="C91" s="53">
+      <c r="C91" s="51">
         <v>43325</v>
       </c>
-      <c r="D91" s="54">
+      <c r="D91" s="52">
         <v>35.079</v>
       </c>
-      <c r="E91" s="58">
+      <c r="E91" s="56">
         <v>14.4</v>
       </c>
-      <c r="F91" s="58">
+      <c r="F91" s="56">
         <v>17.2</v>
       </c>
-      <c r="G91" s="58">
+      <c r="G91" s="56">
         <v>11.9</v>
       </c>
-      <c r="H91" s="58">
+      <c r="H91" s="56">
         <v>21.9</v>
       </c>
     </row>
     <row r="92" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A92" s="52"/>
+      <c r="A92" s="50"/>
       <c r="B92" s="21"/>
-      <c r="C92" s="53">
+      <c r="C92" s="51">
         <v>43326</v>
       </c>
-      <c r="D92" s="54">
+      <c r="D92" s="52">
         <v>35.393</v>
       </c>
-      <c r="E92" s="58">
+      <c r="E92" s="56">
         <v>14.1</v>
       </c>
-      <c r="F92" s="58">
+      <c r="F92" s="56">
         <v>17.7</v>
       </c>
-      <c r="G92" s="58">
+      <c r="G92" s="56">
         <v>11.5</v>
       </c>
-      <c r="H92" s="58">
+      <c r="H92" s="56">
         <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A93" s="52"/>
+      <c r="A93" s="50"/>
       <c r="B93" s="21"/>
-      <c r="C93" s="53">
+      <c r="C93" s="51">
         <v>43332</v>
       </c>
-      <c r="D93" s="54">
+      <c r="D93" s="52">
         <v>36.178</v>
       </c>
-      <c r="E93" s="58">
+      <c r="E93" s="56">
         <v>16.3</v>
       </c>
-      <c r="F93" s="58">
+      <c r="F93" s="56">
         <v>18</v>
       </c>
-      <c r="G93" s="58">
+      <c r="G93" s="56">
         <v>12.7</v>
       </c>
-      <c r="H93" s="58">
+      <c r="H93" s="56">
         <v>23.8</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A94" s="52"/>
+      <c r="A94" s="50"/>
       <c r="B94" s="21"/>
-      <c r="C94" s="53">
+      <c r="C94" s="51">
         <v>43333</v>
       </c>
-      <c r="D94" s="54">
+      <c r="D94" s="52">
         <v>36.298</v>
       </c>
-      <c r="E94" s="58">
+      <c r="E94" s="56">
         <v>18</v>
       </c>
-      <c r="F94" s="58">
+      <c r="F94" s="56">
         <v>18.2</v>
       </c>
-      <c r="G94" s="58">
+      <c r="G94" s="56">
         <v>13.1</v>
       </c>
-      <c r="H94" s="58">
+      <c r="H94" s="56">
         <v>24.3</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A95" s="52"/>
+      <c r="A95" s="50"/>
       <c r="B95" s="21"/>
-      <c r="C95" s="53">
+      <c r="C95" s="51">
         <v>43336</v>
       </c>
-      <c r="D95" s="54">
+      <c r="D95" s="52">
         <v>36.183</v>
       </c>
-      <c r="E95" s="58">
+      <c r="E95" s="56">
         <v>15.9</v>
       </c>
-      <c r="F95" s="58">
+      <c r="F95" s="56">
         <v>18</v>
       </c>
-      <c r="G95" s="58">
+      <c r="G95" s="56">
         <v>15.6</v>
       </c>
-      <c r="H95" s="58">
+      <c r="H95" s="56">
         <v>23.5</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A96" s="52"/>
+      <c r="A96" s="50"/>
       <c r="B96" s="21"/>
-      <c r="C96" s="53">
+      <c r="C96" s="51">
         <v>43342</v>
       </c>
-      <c r="D96" s="54">
+      <c r="D96" s="52">
         <v>36.845</v>
       </c>
-      <c r="E96" s="58">
+      <c r="E96" s="56">
         <v>17.3</v>
       </c>
-      <c r="F96" s="58">
+      <c r="F96" s="56">
         <v>18.3</v>
       </c>
-      <c r="G96" s="58">
+      <c r="G96" s="56">
         <v>15.2</v>
       </c>
-      <c r="H96" s="58">
+      <c r="H96" s="56">
         <v>23.9</v>
       </c>
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A97" s="52"/>
+      <c r="A97" s="50"/>
       <c r="B97" s="21"/>
-      <c r="C97" s="53">
+      <c r="C97" s="51">
         <v>43348</v>
       </c>
-      <c r="D97" s="54">
+      <c r="D97" s="52">
         <v>36.203</v>
       </c>
-      <c r="E97" s="58">
+      <c r="E97" s="56">
         <v>14.7</v>
       </c>
-      <c r="F97" s="58">
+      <c r="F97" s="56">
         <v>16.8</v>
       </c>
-      <c r="G97" s="58">
+      <c r="G97" s="56">
         <v>16.2</v>
       </c>
-      <c r="H97" s="58">
+      <c r="H97" s="56">
         <v>23.1</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A98" s="52"/>
+      <c r="A98" s="50"/>
       <c r="B98" s="21"/>
-      <c r="C98" s="53">
+      <c r="C98" s="51">
         <v>43368</v>
       </c>
-      <c r="D98" s="54">
+      <c r="D98" s="52">
         <v>34.648</v>
       </c>
-      <c r="E98" s="58">
+      <c r="E98" s="56">
         <v>9.1</v>
       </c>
-      <c r="F98" s="58">
+      <c r="F98" s="56">
         <v>13.7</v>
       </c>
-      <c r="G98" s="58">
+      <c r="G98" s="56">
         <v>13.8</v>
       </c>
-      <c r="H98" s="58">
+      <c r="H98" s="56">
         <v>21</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A99" s="52"/>
+      <c r="A99" s="50"/>
       <c r="B99" s="21"/>
-      <c r="C99" s="53">
+      <c r="C99" s="51">
         <v>43383</v>
       </c>
-      <c r="D99" s="54">
+      <c r="D99" s="52">
         <v>33.023</v>
       </c>
-      <c r="E99" s="58">
+      <c r="E99" s="56">
         <v>3.4</v>
       </c>
-      <c r="F99" s="58">
+      <c r="F99" s="56">
         <v>11.3</v>
       </c>
-      <c r="G99" s="58">
+      <c r="G99" s="56">
         <v>11.2</v>
       </c>
-      <c r="H99" s="58">
+      <c r="H99" s="56">
         <v>19.2</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A100" s="52"/>
+      <c r="A100" s="50"/>
       <c r="B100" s="21"/>
-      <c r="C100" s="53">
+      <c r="C100" s="51">
         <v>43399</v>
       </c>
-      <c r="D100" s="59">
+      <c r="D100" s="57">
         <v>31.994</v>
       </c>
-      <c r="E100" s="60">
+      <c r="E100" s="58">
         <v>-3.3</v>
       </c>
-      <c r="F100" s="60">
+      <c r="F100" s="58">
         <v>9.8</v>
       </c>
-      <c r="G100" s="60">
+      <c r="G100" s="58">
         <v>9.5</v>
       </c>
-      <c r="H100" s="60">
+      <c r="H100" s="58">
         <v>18</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A101" s="52"/>
+      <c r="A101" s="50"/>
       <c r="B101" s="21"/>
-      <c r="C101" s="53">
+      <c r="C101" s="51">
         <v>43402</v>
       </c>
-      <c r="D101" s="57">
+      <c r="D101" s="55">
         <v>33.094</v>
       </c>
-      <c r="E101" s="58">
+      <c r="E101" s="56">
         <v>0.1</v>
       </c>
-      <c r="F101" s="58">
+      <c r="F101" s="56">
         <v>11.7</v>
       </c>
-      <c r="G101" s="58">
+      <c r="G101" s="56">
         <v>11.4</v>
       </c>
-      <c r="H101" s="58">
+      <c r="H101" s="56">
         <v>18.6</v>
       </c>
     </row>
     <row r="102" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A102" s="52"/>
+      <c r="A102" s="50"/>
       <c r="B102" s="21"/>
-      <c r="C102" s="53"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="58"/>
-      <c r="F102" s="58"/>
-      <c r="G102" s="58"/>
-      <c r="H102" s="58"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="52"/>
+      <c r="E102" s="56"/>
+      <c r="F102" s="56"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="56"/>
     </row>
     <row r="103" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A103" s="52"/>
+      <c r="A103" s="50"/>
       <c r="B103" s="21"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="58"/>
-      <c r="H103" s="58"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="56"/>
+      <c r="F103" s="56"/>
+      <c r="G103" s="56"/>
+      <c r="H103" s="56"/>
     </row>
     <row r="104" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A104" s="52"/>
+      <c r="A104" s="50"/>
       <c r="B104" s="21"/>
-      <c r="C104" s="53"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="58"/>
-      <c r="F104" s="58"/>
-      <c r="G104" s="58"/>
-      <c r="H104" s="58"/>
+      <c r="C104" s="51"/>
+      <c r="D104" s="52"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="56"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="56"/>
     </row>
     <row r="105" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A105" s="52"/>
+      <c r="A105" s="50"/>
       <c r="B105" s="21"/>
-      <c r="C105" s="53"/>
-      <c r="D105" s="54"/>
-      <c r="E105" s="58"/>
-      <c r="F105" s="58"/>
-      <c r="G105" s="58"/>
-      <c r="H105" s="58"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="52"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="56"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="56"/>
     </row>
     <row r="106" ht="24.75" customHeight="1" spans="3:8">
-      <c r="C106" s="61"/>
-      <c r="D106" s="62"/>
-      <c r="E106" s="63"/>
-      <c r="F106" s="63"/>
-      <c r="G106" s="63"/>
-      <c r="H106" s="63"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="60"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="61"/>
+      <c r="G106" s="61"/>
+      <c r="H106" s="61"/>
     </row>
     <row r="107" ht="24.75" customHeight="1" spans="1:8">
       <c r="A107" s="25" t="str">
@@ -3687,16 +3684,16 @@
       <c r="D107" s="23">
         <v>23.422</v>
       </c>
-      <c r="E107" s="64">
+      <c r="E107" s="62">
         <v>10.2</v>
       </c>
-      <c r="F107" s="64">
+      <c r="F107" s="62">
         <v>17.6</v>
       </c>
-      <c r="G107" s="64">
+      <c r="G107" s="62">
         <v>8.4</v>
       </c>
-      <c r="H107" s="64"/>
+      <c r="H107" s="62"/>
     </row>
     <row r="108" ht="24.75" customHeight="1" spans="1:8">
       <c r="A108" s="25"/>
@@ -3707,16 +3704,16 @@
       <c r="D108" s="23">
         <v>23.421</v>
       </c>
-      <c r="E108" s="64">
+      <c r="E108" s="62">
         <v>10.8</v>
       </c>
-      <c r="F108" s="64">
+      <c r="F108" s="62">
         <v>16.8</v>
       </c>
-      <c r="G108" s="64">
+      <c r="G108" s="62">
         <v>8.5</v>
       </c>
-      <c r="H108" s="65"/>
+      <c r="H108" s="63"/>
     </row>
     <row r="109" ht="24.75" customHeight="1" spans="1:8">
       <c r="A109" s="25"/>
@@ -3727,16 +3724,16 @@
       <c r="D109" s="23">
         <v>23.551</v>
       </c>
-      <c r="E109" s="64">
+      <c r="E109" s="62">
         <v>11.8</v>
       </c>
-      <c r="F109" s="64">
+      <c r="F109" s="62">
         <v>17.1</v>
       </c>
-      <c r="G109" s="64">
+      <c r="G109" s="62">
         <v>9.7</v>
       </c>
-      <c r="H109" s="64">
+      <c r="H109" s="62">
         <v>18.4</v>
       </c>
     </row>
@@ -3749,16 +3746,16 @@
       <c r="D110" s="23">
         <v>23.494</v>
       </c>
-      <c r="E110" s="64">
+      <c r="E110" s="62">
         <v>11.9</v>
       </c>
-      <c r="F110" s="64">
+      <c r="F110" s="62">
         <v>16.4</v>
       </c>
-      <c r="G110" s="64">
+      <c r="G110" s="62">
         <v>9.6</v>
       </c>
-      <c r="H110" s="64">
+      <c r="H110" s="62">
         <v>18.2</v>
       </c>
     </row>
@@ -3774,7 +3771,7 @@
       <c r="E111" s="26">
         <v>5.8</v>
       </c>
-      <c r="F111" s="64"/>
+      <c r="F111" s="62"/>
       <c r="G111" s="26">
         <v>10.5</v>
       </c>
@@ -4299,16 +4296,16 @@
       <c r="D136" s="23">
         <v>22.412</v>
       </c>
-      <c r="E136" s="49">
+      <c r="E136" s="26">
         <v>-7.6</v>
       </c>
-      <c r="F136" s="49">
+      <c r="F136" s="26">
         <v>8.3</v>
       </c>
-      <c r="G136" s="49">
+      <c r="G136" s="26">
         <v>11.3</v>
       </c>
-      <c r="H136" s="49">
+      <c r="H136" s="26">
         <v>15.3</v>
       </c>
     </row>
@@ -4347,10 +4344,10 @@
       <c r="B140" s="21"/>
       <c r="C140" s="22"/>
       <c r="D140" s="23"/>
-      <c r="E140" s="64"/>
-      <c r="F140" s="64"/>
-      <c r="G140" s="64"/>
-      <c r="H140" s="64"/>
+      <c r="E140" s="62"/>
+      <c r="F140" s="62"/>
+      <c r="G140" s="62"/>
+      <c r="H140" s="62"/>
     </row>
     <row r="141" ht="24.75" customHeight="1"/>
     <row r="142" ht="24.75" customHeight="1" spans="1:8">
@@ -4367,16 +4364,16 @@
       <c r="D142" s="23">
         <v>42.529</v>
       </c>
-      <c r="E142" s="64">
+      <c r="E142" s="62">
         <v>29.3</v>
       </c>
-      <c r="F142" s="64">
+      <c r="F142" s="62">
         <v>28.9</v>
       </c>
-      <c r="G142" s="64">
+      <c r="G142" s="62">
         <v>13.1</v>
       </c>
-      <c r="H142" s="64"/>
+      <c r="H142" s="62"/>
     </row>
     <row r="143" ht="24.75" customHeight="1" spans="1:8">
       <c r="A143" s="25"/>
@@ -4387,16 +4384,16 @@
       <c r="D143" s="23">
         <v>42.575</v>
       </c>
-      <c r="E143" s="64">
+      <c r="E143" s="62">
         <v>30.1</v>
       </c>
-      <c r="F143" s="64">
+      <c r="F143" s="62">
         <v>28.5</v>
       </c>
-      <c r="G143" s="64">
+      <c r="G143" s="62">
         <v>14.2</v>
       </c>
-      <c r="H143" s="64">
+      <c r="H143" s="62">
         <v>17.6</v>
       </c>
     </row>
@@ -4937,16 +4934,16 @@
       <c r="D168" s="31">
         <v>38.46</v>
       </c>
-      <c r="E168" s="49">
+      <c r="E168" s="26">
         <v>-12.6</v>
       </c>
-      <c r="F168" s="49">
+      <c r="F168" s="26">
         <v>16.2</v>
       </c>
-      <c r="G168" s="49">
+      <c r="G168" s="26">
         <v>15.9</v>
       </c>
-      <c r="H168" s="49">
+      <c r="H168" s="26">
         <v>13</v>
       </c>
     </row>
@@ -5085,16 +5082,16 @@
       <c r="D179" s="23">
         <v>48.617</v>
       </c>
-      <c r="E179" s="64">
+      <c r="E179" s="62">
         <v>35.3</v>
       </c>
-      <c r="F179" s="64">
+      <c r="F179" s="62">
         <v>35.1</v>
       </c>
-      <c r="G179" s="64">
+      <c r="G179" s="62">
         <v>21.2</v>
       </c>
-      <c r="H179" s="64"/>
+      <c r="H179" s="62"/>
     </row>
     <row r="180" ht="24.75" customHeight="1" spans="1:8">
       <c r="A180" s="25"/>
@@ -5105,16 +5102,16 @@
       <c r="D180" s="23">
         <v>48.889</v>
       </c>
-      <c r="E180" s="64">
+      <c r="E180" s="62">
         <v>36.1</v>
       </c>
-      <c r="F180" s="64">
+      <c r="F180" s="62">
         <v>34.6</v>
       </c>
-      <c r="G180" s="64">
+      <c r="G180" s="62">
         <v>21.1</v>
       </c>
-      <c r="H180" s="64"/>
+      <c r="H180" s="62"/>
     </row>
     <row r="181" ht="25" customHeight="1" spans="1:8">
       <c r="A181" s="25"/>
@@ -5125,16 +5122,16 @@
       <c r="D181" s="23">
         <v>49.202</v>
       </c>
-      <c r="E181" s="64">
+      <c r="E181" s="62">
         <v>37.5</v>
       </c>
-      <c r="F181" s="64">
+      <c r="F181" s="62">
         <v>34.4</v>
       </c>
-      <c r="G181" s="64">
+      <c r="G181" s="62">
         <v>22</v>
       </c>
-      <c r="H181" s="66">
+      <c r="H181" s="64">
         <v>26.8</v>
       </c>
     </row>
@@ -5210,7 +5207,7 @@
       <c r="C185" s="22">
         <v>43319</v>
       </c>
-      <c r="D185" s="67">
+      <c r="D185" s="65">
         <v>47.498</v>
       </c>
       <c r="E185" s="26">
@@ -5232,7 +5229,7 @@
       <c r="C186" s="22">
         <v>43321</v>
       </c>
-      <c r="D186" s="67">
+      <c r="D186" s="65">
         <v>47.795</v>
       </c>
       <c r="E186" s="26">
@@ -5254,7 +5251,7 @@
       <c r="C187" s="22">
         <v>43322</v>
       </c>
-      <c r="D187" s="67"/>
+      <c r="D187" s="65"/>
       <c r="E187" s="26">
         <v>26</v>
       </c>
@@ -5274,7 +5271,7 @@
       <c r="C188" s="22">
         <v>43325</v>
       </c>
-      <c r="D188" s="67">
+      <c r="D188" s="65">
         <v>47.119</v>
       </c>
       <c r="E188" s="26">
@@ -5318,16 +5315,16 @@
       <c r="C190" s="22">
         <v>43332</v>
       </c>
-      <c r="D190" s="67">
+      <c r="D190" s="65">
         <v>47.649</v>
       </c>
-      <c r="E190" s="68">
+      <c r="E190" s="66">
         <v>23.1</v>
       </c>
-      <c r="F190" s="68">
+      <c r="F190" s="66">
         <v>24</v>
       </c>
-      <c r="G190" s="68">
+      <c r="G190" s="66">
         <v>19.9</v>
       </c>
       <c r="H190" s="44">
@@ -5340,7 +5337,7 @@
       <c r="C191" s="22">
         <v>43333</v>
       </c>
-      <c r="D191" s="67">
+      <c r="D191" s="65">
         <v>47.867</v>
       </c>
       <c r="E191" s="26">
@@ -5362,7 +5359,7 @@
       <c r="C192" s="22">
         <v>43336</v>
       </c>
-      <c r="D192" s="67">
+      <c r="D192" s="65">
         <v>47.891</v>
       </c>
       <c r="E192" s="26">
@@ -5384,7 +5381,7 @@
       <c r="C193" s="22">
         <v>43342</v>
       </c>
-      <c r="D193" s="67">
+      <c r="D193" s="65">
         <v>48.772</v>
       </c>
       <c r="E193" s="26">
@@ -5406,7 +5403,7 @@
       <c r="C194" s="22">
         <v>43348</v>
       </c>
-      <c r="D194" s="67">
+      <c r="D194" s="65">
         <v>48.072</v>
       </c>
       <c r="E194" s="26">
@@ -5428,7 +5425,7 @@
       <c r="C195" s="22">
         <v>43368</v>
       </c>
-      <c r="D195" s="67">
+      <c r="D195" s="65">
         <v>45.432</v>
       </c>
       <c r="E195" s="26">
@@ -5450,7 +5447,7 @@
       <c r="C196" s="22">
         <v>43383</v>
       </c>
-      <c r="D196" s="67">
+      <c r="D196" s="65">
         <v>43.479</v>
       </c>
       <c r="E196" s="26">
@@ -5604,7 +5601,7 @@
       <c r="C203" s="22">
         <v>43430</v>
       </c>
-      <c r="D203" s="67">
+      <c r="D203" s="65">
         <v>44.374</v>
       </c>
       <c r="E203" s="26">
@@ -5648,7 +5645,7 @@
       <c r="C205" s="22">
         <v>43452</v>
       </c>
-      <c r="D205" s="67">
+      <c r="D205" s="65">
         <v>45.086</v>
       </c>
       <c r="E205" s="26">
@@ -5670,7 +5667,7 @@
       <c r="C206" s="22">
         <v>43461</v>
       </c>
-      <c r="D206" s="67">
+      <c r="D206" s="65">
         <v>44.788</v>
       </c>
       <c r="E206" s="26">
@@ -5692,37 +5689,49 @@
       <c r="C207" s="22">
         <v>43480</v>
       </c>
-      <c r="D207" s="67">
+      <c r="D207" s="65">
         <v>45.533</v>
       </c>
-      <c r="E207" s="49">
+      <c r="E207" s="26">
         <v>-9.8</v>
       </c>
-      <c r="F207" s="49">
+      <c r="F207" s="26">
         <v>21</v>
       </c>
-      <c r="G207" s="49">
+      <c r="G207" s="26">
         <v>21.1</v>
       </c>
-      <c r="H207" s="50">
+      <c r="H207" s="44">
         <v>21.6</v>
       </c>
     </row>
     <row r="208" ht="25" customHeight="1" spans="1:8">
       <c r="A208" s="25"/>
       <c r="B208" s="36"/>
-      <c r="C208" s="22"/>
-      <c r="D208" s="67"/>
-      <c r="E208" s="26"/>
-      <c r="F208" s="26"/>
-      <c r="G208" s="26"/>
-      <c r="H208" s="44"/>
+      <c r="C208" s="22">
+        <v>43511</v>
+      </c>
+      <c r="D208" s="65">
+        <v>42.503</v>
+      </c>
+      <c r="E208" s="67">
+        <v>-12.5</v>
+      </c>
+      <c r="F208" s="67">
+        <v>14.9</v>
+      </c>
+      <c r="G208" s="67">
+        <v>20.6</v>
+      </c>
+      <c r="H208" s="68">
+        <v>21</v>
+      </c>
     </row>
     <row r="209" ht="25" customHeight="1" spans="1:8">
       <c r="A209" s="25"/>
       <c r="B209" s="36"/>
       <c r="C209" s="22"/>
-      <c r="D209" s="67"/>
+      <c r="D209" s="65"/>
       <c r="E209" s="26"/>
       <c r="F209" s="26"/>
       <c r="G209" s="26"/>
@@ -5732,7 +5741,7 @@
       <c r="A210" s="25"/>
       <c r="B210" s="36"/>
       <c r="C210" s="22"/>
-      <c r="D210" s="67"/>
+      <c r="D210" s="65"/>
       <c r="E210" s="26"/>
       <c r="F210" s="26"/>
       <c r="G210" s="26"/>
@@ -5742,7 +5751,7 @@
       <c r="A211" s="25"/>
       <c r="B211" s="36"/>
       <c r="C211" s="22"/>
-      <c r="D211" s="67"/>
+      <c r="D211" s="65"/>
       <c r="E211" s="26"/>
       <c r="F211" s="26"/>
       <c r="G211" s="26"/>
@@ -5752,7 +5761,7 @@
       <c r="A212" s="25"/>
       <c r="B212" s="36"/>
       <c r="C212" s="22"/>
-      <c r="D212" s="67"/>
+      <c r="D212" s="65"/>
       <c r="E212" s="26"/>
       <c r="F212" s="26"/>
       <c r="G212" s="26"/>
@@ -5801,7 +5810,7 @@
       <c r="C216" s="22">
         <v>43319</v>
       </c>
-      <c r="D216" s="67">
+      <c r="D216" s="65">
         <v>35.367</v>
       </c>
       <c r="E216" s="26">
@@ -5823,7 +5832,7 @@
       <c r="C217" s="22">
         <v>43321</v>
       </c>
-      <c r="D217" s="67">
+      <c r="D217" s="65">
         <v>35.687</v>
       </c>
       <c r="E217" s="26">
@@ -5845,7 +5854,7 @@
       <c r="C218" s="22">
         <v>43322</v>
       </c>
-      <c r="D218" s="67">
+      <c r="D218" s="65">
         <v>35.367</v>
       </c>
       <c r="E218" s="26">
@@ -5867,7 +5876,7 @@
       <c r="C219" s="22">
         <v>43325</v>
       </c>
-      <c r="D219" s="67">
+      <c r="D219" s="65">
         <v>35.079</v>
       </c>
       <c r="E219" s="26">
@@ -5889,7 +5898,7 @@
       <c r="C220" s="22">
         <v>43326</v>
       </c>
-      <c r="D220" s="67">
+      <c r="D220" s="65">
         <v>35.393</v>
       </c>
       <c r="E220" s="26">
@@ -5911,7 +5920,7 @@
       <c r="C221" s="22">
         <v>43332</v>
       </c>
-      <c r="D221" s="67">
+      <c r="D221" s="65">
         <v>36.178</v>
       </c>
       <c r="E221" s="26">
@@ -5933,7 +5942,7 @@
       <c r="C222" s="22">
         <v>43333</v>
       </c>
-      <c r="D222" s="67">
+      <c r="D222" s="65">
         <v>36.298</v>
       </c>
       <c r="E222" s="26">
@@ -5955,7 +5964,7 @@
       <c r="C223" s="22">
         <v>43336</v>
       </c>
-      <c r="D223" s="67">
+      <c r="D223" s="65">
         <v>36.183</v>
       </c>
       <c r="E223" s="26">
@@ -5977,7 +5986,7 @@
       <c r="C224" s="22">
         <v>43342</v>
       </c>
-      <c r="D224" s="67">
+      <c r="D224" s="65">
         <v>36.845</v>
       </c>
       <c r="E224" s="26">
@@ -5999,7 +6008,7 @@
       <c r="C225" s="22">
         <v>43348</v>
       </c>
-      <c r="D225" s="67">
+      <c r="D225" s="65">
         <v>36.203</v>
       </c>
       <c r="E225" s="26">
@@ -6021,7 +6030,7 @@
       <c r="C226" s="22">
         <v>43368</v>
       </c>
-      <c r="D226" s="67">
+      <c r="D226" s="65">
         <v>34.648</v>
       </c>
       <c r="E226" s="26">
@@ -6043,19 +6052,19 @@
       <c r="C227" s="22">
         <v>43383</v>
       </c>
-      <c r="D227" s="67">
+      <c r="D227" s="65">
         <v>33.023</v>
       </c>
-      <c r="E227" s="76">
+      <c r="E227" s="32">
         <v>3.4</v>
       </c>
-      <c r="F227" s="76">
+      <c r="F227" s="32">
         <v>11.3</v>
       </c>
-      <c r="G227" s="76">
+      <c r="G227" s="32">
         <v>11.2</v>
       </c>
-      <c r="H227" s="77">
+      <c r="H227" s="76">
         <v>19.2</v>
       </c>
     </row>
@@ -6241,7 +6250,7 @@
       <c r="C236" s="22">
         <v>43452</v>
       </c>
-      <c r="D236" s="67">
+      <c r="D236" s="65">
         <v>34.937</v>
       </c>
       <c r="E236" s="26">
@@ -6263,7 +6272,7 @@
       <c r="C237" s="22">
         <v>43461</v>
       </c>
-      <c r="D237" s="67">
+      <c r="D237" s="65">
         <v>34.676</v>
       </c>
       <c r="E237" s="26">
@@ -6285,19 +6294,19 @@
       <c r="C238" s="22">
         <v>43480</v>
       </c>
-      <c r="D238" s="67">
+      <c r="D238" s="65">
         <v>35.366</v>
       </c>
-      <c r="E238" s="49">
+      <c r="E238" s="26">
         <v>-0.1</v>
       </c>
-      <c r="F238" s="49">
+      <c r="F238" s="26">
         <v>17.3</v>
       </c>
-      <c r="G238" s="49">
+      <c r="G238" s="26">
         <v>16.7</v>
       </c>
-      <c r="H238" s="50">
+      <c r="H238" s="44">
         <v>18.7</v>
       </c>
     </row>
@@ -6305,11 +6314,11 @@
       <c r="A239" s="72"/>
       <c r="B239" s="21"/>
       <c r="C239" s="22"/>
-      <c r="D239" s="67"/>
-      <c r="E239" s="76"/>
-      <c r="F239" s="76"/>
-      <c r="G239" s="76"/>
-      <c r="H239" s="77"/>
+      <c r="D239" s="65"/>
+      <c r="E239" s="32"/>
+      <c r="F239" s="32"/>
+      <c r="G239" s="32"/>
+      <c r="H239" s="76"/>
     </row>
     <row r="240" ht="25" customHeight="1" spans="1:8">
       <c r="A240" s="72"/>
@@ -6332,19 +6341,19 @@
       <c r="C242" s="22">
         <v>43313</v>
       </c>
-      <c r="D242" s="67">
+      <c r="D242" s="65">
         <v>102.22</v>
       </c>
-      <c r="E242" s="78">
+      <c r="E242" s="77">
         <v>11.6</v>
       </c>
-      <c r="F242" s="78">
+      <c r="F242" s="77">
         <v>21.8</v>
       </c>
-      <c r="G242" s="78">
+      <c r="G242" s="77">
         <v>16</v>
       </c>
-      <c r="H242" s="79">
+      <c r="H242" s="78">
         <v>35.2</v>
       </c>
     </row>
@@ -6354,7 +6363,7 @@
       <c r="C243" s="22">
         <v>43319</v>
       </c>
-      <c r="D243" s="67">
+      <c r="D243" s="65">
         <v>102.43</v>
       </c>
       <c r="E243" s="26">
@@ -6376,7 +6385,7 @@
       <c r="C244" s="22">
         <v>43321</v>
       </c>
-      <c r="D244" s="67">
+      <c r="D244" s="65">
         <v>102.93</v>
       </c>
       <c r="E244" s="26">
@@ -6398,7 +6407,7 @@
       <c r="C245" s="22">
         <v>43322</v>
       </c>
-      <c r="D245" s="67">
+      <c r="D245" s="65">
         <v>102.43</v>
       </c>
       <c r="E245" s="26">
@@ -6420,7 +6429,7 @@
       <c r="C246" s="22">
         <v>43325</v>
       </c>
-      <c r="D246" s="67">
+      <c r="D246" s="65">
         <v>101.44</v>
       </c>
       <c r="E246" s="26">
@@ -6442,7 +6451,7 @@
       <c r="C247" s="22">
         <v>43326</v>
       </c>
-      <c r="D247" s="67">
+      <c r="D247" s="65">
         <v>102.3</v>
       </c>
       <c r="E247" s="26">
@@ -6464,7 +6473,7 @@
       <c r="C248" s="22">
         <v>43332</v>
       </c>
-      <c r="D248" s="67">
+      <c r="D248" s="65">
         <v>104.2</v>
       </c>
       <c r="E248" s="26">
@@ -6486,7 +6495,7 @@
       <c r="C249" s="22">
         <v>43333</v>
       </c>
-      <c r="D249" s="67">
+      <c r="D249" s="65">
         <v>104.68</v>
       </c>
       <c r="E249" s="26">
@@ -6508,7 +6517,7 @@
       <c r="C250" s="22">
         <v>43336</v>
       </c>
-      <c r="D250" s="67">
+      <c r="D250" s="65">
         <v>104.28</v>
       </c>
       <c r="E250" s="26">
@@ -6530,7 +6539,7 @@
       <c r="C251" s="22">
         <v>43342</v>
       </c>
-      <c r="D251" s="67">
+      <c r="D251" s="65">
         <v>105.65</v>
       </c>
       <c r="E251" s="26">
@@ -6552,16 +6561,16 @@
       <c r="C252" s="22">
         <v>43348</v>
       </c>
-      <c r="D252" s="67">
+      <c r="D252" s="65">
         <v>102.34</v>
       </c>
-      <c r="E252" s="68">
+      <c r="E252" s="66">
         <v>10.6</v>
       </c>
-      <c r="F252" s="68">
+      <c r="F252" s="66">
         <v>19.3</v>
       </c>
-      <c r="G252" s="68">
+      <c r="G252" s="66">
         <v>20.4</v>
       </c>
       <c r="H252" s="44">
@@ -6574,7 +6583,7 @@
       <c r="C253" s="22">
         <v>43368</v>
       </c>
-      <c r="D253" s="67">
+      <c r="D253" s="65">
         <v>95.31</v>
       </c>
       <c r="E253" s="26">
@@ -6596,7 +6605,7 @@
       <c r="C254" s="22">
         <v>43383</v>
       </c>
-      <c r="D254" s="67">
+      <c r="D254" s="65">
         <v>89.78</v>
       </c>
       <c r="E254" s="26">
@@ -6794,7 +6803,7 @@
       <c r="C263" s="22">
         <v>43452</v>
       </c>
-      <c r="D263" s="67">
+      <c r="D263" s="65">
         <v>94.49</v>
       </c>
       <c r="E263" s="26">
@@ -6816,7 +6825,7 @@
       <c r="C264" s="22">
         <v>43461</v>
       </c>
-      <c r="D264" s="67">
+      <c r="D264" s="65">
         <v>93.82</v>
       </c>
       <c r="E264" s="26">
@@ -6838,19 +6847,19 @@
       <c r="C265" s="22">
         <v>43480</v>
       </c>
-      <c r="D265" s="67">
+      <c r="D265" s="65">
         <v>94.7</v>
       </c>
-      <c r="E265" s="49">
+      <c r="E265" s="26">
         <v>-9.2</v>
       </c>
-      <c r="F265" s="49">
+      <c r="F265" s="26">
         <v>16.1</v>
       </c>
-      <c r="G265" s="49">
+      <c r="G265" s="26">
         <v>17.2</v>
       </c>
-      <c r="H265" s="50">
+      <c r="H265" s="44">
         <v>27.2</v>
       </c>
     </row>
@@ -6858,7 +6867,7 @@
       <c r="A266" s="72"/>
       <c r="B266" s="36"/>
       <c r="C266" s="22"/>
-      <c r="D266" s="67"/>
+      <c r="D266" s="65"/>
       <c r="E266" s="26"/>
       <c r="F266" s="26"/>
       <c r="G266" s="26"/>
@@ -6868,7 +6877,7 @@
       <c r="A267" s="72"/>
       <c r="B267" s="36"/>
       <c r="C267" s="22"/>
-      <c r="D267" s="67"/>
+      <c r="D267" s="65"/>
       <c r="E267" s="26"/>
       <c r="F267" s="26"/>
       <c r="G267" s="26"/>
@@ -6878,7 +6887,7 @@
       <c r="A268" s="72"/>
       <c r="B268" s="36"/>
       <c r="C268" s="22"/>
-      <c r="D268" s="67"/>
+      <c r="D268" s="65"/>
       <c r="E268" s="26"/>
       <c r="F268" s="26"/>
       <c r="G268" s="26"/>
@@ -6888,7 +6897,7 @@
       <c r="A269" s="72"/>
       <c r="B269" s="36"/>
       <c r="C269" s="22"/>
-      <c r="D269" s="67"/>
+      <c r="D269" s="65"/>
       <c r="E269" s="26"/>
       <c r="F269" s="26"/>
       <c r="G269" s="26"/>
@@ -6898,7 +6907,7 @@
       <c r="A270" s="72"/>
       <c r="B270" s="36"/>
       <c r="C270" s="22"/>
-      <c r="D270" s="67"/>
+      <c r="D270" s="65"/>
       <c r="E270" s="26"/>
       <c r="F270" s="26"/>
       <c r="G270" s="26"/>
@@ -6907,44 +6916,44 @@
     <row r="271" ht="25" customHeight="1" spans="1:8">
       <c r="A271" s="72"/>
       <c r="B271" s="36"/>
-      <c r="C271" s="67"/>
-      <c r="D271" s="67"/>
-      <c r="E271" s="64"/>
-      <c r="F271" s="64"/>
-      <c r="G271" s="64"/>
-      <c r="H271" s="66"/>
+      <c r="C271" s="65"/>
+      <c r="D271" s="65"/>
+      <c r="E271" s="62"/>
+      <c r="F271" s="62"/>
+      <c r="G271" s="62"/>
+      <c r="H271" s="64"/>
     </row>
     <row r="272" ht="25" customHeight="1"/>
     <row r="273" ht="25" customHeight="1"/>
     <row r="274" ht="25" customHeight="1" spans="1:8">
-      <c r="A274" s="80" t="s">
+      <c r="A274" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B274" s="81" t="s">
+      <c r="B274" s="80" t="s">
         <v>16</v>
       </c>
       <c r="C274" s="22">
         <v>43430</v>
       </c>
-      <c r="D274" s="82">
+      <c r="D274" s="81">
         <v>227.795</v>
       </c>
-      <c r="E274" s="83">
+      <c r="E274" s="82">
         <v>-1.7</v>
       </c>
-      <c r="F274" s="83">
+      <c r="F274" s="82">
         <v>12.1</v>
       </c>
-      <c r="G274" s="83">
+      <c r="G274" s="82">
         <v>9.5</v>
       </c>
-      <c r="H274" s="83">
+      <c r="H274" s="82">
         <v>15.4</v>
       </c>
     </row>
     <row r="275" ht="25" customHeight="1" spans="1:8">
-      <c r="A275" s="80"/>
-      <c r="B275" s="81"/>
+      <c r="A275" s="79"/>
+      <c r="B275" s="80"/>
       <c r="C275" s="22">
         <v>43432</v>
       </c>
@@ -6965,12 +6974,12 @@
       </c>
     </row>
     <row r="276" ht="25" customHeight="1" spans="1:8">
-      <c r="A276" s="80"/>
-      <c r="B276" s="81"/>
+      <c r="A276" s="79"/>
+      <c r="B276" s="80"/>
       <c r="C276" s="22">
         <v>43452</v>
       </c>
-      <c r="D276" s="67">
+      <c r="D276" s="65">
         <v>235.831</v>
       </c>
       <c r="E276" s="26">
@@ -6987,12 +6996,12 @@
       </c>
     </row>
     <row r="277" ht="25" customHeight="1" spans="1:8">
-      <c r="A277" s="80"/>
-      <c r="B277" s="81"/>
+      <c r="A277" s="79"/>
+      <c r="B277" s="80"/>
       <c r="C277" s="22">
         <v>43461</v>
       </c>
-      <c r="D277" s="67">
+      <c r="D277" s="65">
         <v>233.486</v>
       </c>
       <c r="E277" s="26">
@@ -7009,30 +7018,30 @@
       </c>
     </row>
     <row r="278" ht="25" customHeight="1" spans="1:8">
-      <c r="A278" s="80"/>
-      <c r="B278" s="81"/>
+      <c r="A278" s="79"/>
+      <c r="B278" s="80"/>
       <c r="C278" s="22">
         <v>43480</v>
       </c>
-      <c r="D278" s="67">
+      <c r="D278" s="65">
         <v>234.424</v>
       </c>
-      <c r="E278" s="49">
+      <c r="E278" s="26">
         <v>-3</v>
       </c>
-      <c r="F278" s="49">
+      <c r="F278" s="26">
         <v>11.9</v>
       </c>
-      <c r="G278" s="49">
+      <c r="G278" s="26">
         <v>12.9</v>
       </c>
-      <c r="H278" s="49">
+      <c r="H278" s="26">
         <v>15</v>
       </c>
     </row>
     <row r="279" ht="25" customHeight="1" spans="1:8">
-      <c r="A279" s="80"/>
-      <c r="B279" s="81"/>
+      <c r="A279" s="79"/>
+      <c r="B279" s="80"/>
       <c r="C279" s="69"/>
       <c r="D279" s="69"/>
       <c r="E279" s="70"/>
@@ -7041,8 +7050,8 @@
       <c r="H279" s="70"/>
     </row>
     <row r="280" ht="25" customHeight="1" spans="1:8">
-      <c r="A280" s="80"/>
-      <c r="B280" s="81"/>
+      <c r="A280" s="79"/>
+      <c r="B280" s="80"/>
       <c r="C280" s="69"/>
       <c r="D280" s="69"/>
       <c r="E280" s="70"/>
@@ -7051,8 +7060,8 @@
       <c r="H280" s="70"/>
     </row>
     <row r="281" ht="25" customHeight="1" spans="1:8">
-      <c r="A281" s="80"/>
-      <c r="B281" s="81"/>
+      <c r="A281" s="79"/>
+      <c r="B281" s="80"/>
       <c r="C281" s="69"/>
       <c r="D281" s="69"/>
       <c r="E281" s="70"/>
@@ -7061,8 +7070,8 @@
       <c r="H281" s="70"/>
     </row>
     <row r="282" ht="25" customHeight="1" spans="1:8">
-      <c r="A282" s="80"/>
-      <c r="B282" s="81"/>
+      <c r="A282" s="79"/>
+      <c r="B282" s="80"/>
       <c r="C282" s="69"/>
       <c r="D282" s="69"/>
       <c r="E282" s="70"/>
@@ -8039,7 +8048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1000"/>
   <sheetViews>
@@ -9387,7 +9396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Z996"/>
   <sheetViews>

--- a/MF-Tracker-online.xlsx
+++ b/MF-Tracker-online.xlsx
@@ -105,15 +105,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="[$-409]d/mmm/yy"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="0.000_ "/>
-    <numFmt numFmtId="182" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="0.000"/>
-    <numFmt numFmtId="184" formatCode="0.0"/>
+    <numFmt numFmtId="180" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
+    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="0.000"/>
+    <numFmt numFmtId="183" formatCode="0.0"/>
+    <numFmt numFmtId="184" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -185,35 +185,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -225,6 +196,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,9 +223,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,20 +285,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -290,31 +307,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,6 +359,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -371,19 +497,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,91 +527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,49 +539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,21 +692,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -721,6 +706,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,6 +740,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -755,6 +766,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -763,177 +789,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -954,7 +954,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -973,10 +973,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1002,11 +1002,11 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1015,7 +1015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1039,11 +1039,11 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1054,21 +1054,21 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1078,7 +1078,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1104,11 +1104,11 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,7 +1132,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1543,9 +1543,9 @@
   <dimension ref="A1:H1217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J210" sqref="J210"/>
+      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -3090,12 +3090,22 @@
     <row r="74" ht="24.75" customHeight="1" spans="1:8">
       <c r="A74" s="25"/>
       <c r="B74" s="36"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
+      <c r="C74" s="22">
+        <v>43522</v>
+      </c>
+      <c r="D74" s="47">
+        <v>34.622</v>
+      </c>
+      <c r="E74" s="26">
+        <v>-0.05</v>
+      </c>
+      <c r="F74" s="26">
+        <v>9.36</v>
+      </c>
       <c r="G74" s="26"/>
-      <c r="H74" s="44"/>
+      <c r="H74" s="44">
+        <v>19.66</v>
+      </c>
     </row>
     <row r="75" ht="24.75" customHeight="1" spans="1:8">
       <c r="A75" s="25"/>

--- a/MF-Tracker-online.xlsx
+++ b/MF-Tracker-online.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13035"/>
+    <workbookView windowWidth="24300" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>Company Name</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Reliance Large Cap Fund - Direct Plan (G)</t>
+  </si>
+  <si>
+    <t>https://www.valueresearchonline.com/funds/newsnapshot.asp?schemecode=16192</t>
   </si>
   <si>
     <t>Canara Robeco Emerging Equities - Direct Plan (G)</t>
@@ -105,14 +108,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="[$-409]d/mmm/yy"/>
     <numFmt numFmtId="180" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
-    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="0.000"/>
-    <numFmt numFmtId="183" formatCode="0.0"/>
+    <numFmt numFmtId="181" formatCode="0.0"/>
+    <numFmt numFmtId="182" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="0.000"/>
     <numFmt numFmtId="184" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="28">
@@ -185,7 +188,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,6 +225,30 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -207,11 +263,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,58 +294,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -298,14 +308,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -313,8 +315,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,7 +362,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,139 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,32 +546,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -683,11 +686,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,15 +713,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,32 +747,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -784,18 +765,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -804,136 +793,139 @@
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,10 +965,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1002,11 +994,11 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1039,11 +1031,11 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1054,21 +1046,21 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1078,7 +1070,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1093,10 +1085,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1104,11 +1092,11 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,7 +1120,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1186,6 +1174,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1540,15 +1529,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1217"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
+      <selection pane="bottomLeft" activeCell="G286" sqref="G286"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="47.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="20.5714285714286" style="17" customWidth="1"/>
@@ -1558,7 +1547,8 @@
     <col min="6" max="6" width="14.8571428571429" customWidth="1"/>
     <col min="7" max="7" width="12.4285714285714" customWidth="1"/>
     <col min="8" max="8" width="13.2857142857143" customWidth="1"/>
-    <col min="9" max="26" width="8.71428571428571" customWidth="1"/>
+    <col min="9" max="9" width="85.5714285714286" customWidth="1"/>
+    <col min="10" max="26" width="8.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customHeight="1" spans="1:8">
@@ -2311,22 +2301,42 @@
     <row r="35" ht="24.75" customHeight="1" spans="1:8">
       <c r="A35" s="25"/>
       <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
+      <c r="C35" s="22">
+        <v>43524</v>
+      </c>
+      <c r="D35" s="23">
+        <v>29.92</v>
+      </c>
+      <c r="E35" s="26">
+        <v>-1.93</v>
+      </c>
+      <c r="F35" s="26">
+        <v>8.32</v>
+      </c>
       <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
+      <c r="H35" s="26">
+        <v>13.6</v>
+      </c>
     </row>
     <row r="36" ht="24.75" customHeight="1" spans="1:8">
       <c r="A36" s="25"/>
       <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
+      <c r="C36" s="22">
+        <v>43550</v>
+      </c>
+      <c r="D36" s="23">
+        <v>31.23</v>
+      </c>
+      <c r="E36" s="26">
+        <v>4.45</v>
+      </c>
+      <c r="F36" s="26">
+        <v>9.17</v>
+      </c>
       <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
+      <c r="H36" s="26">
+        <v>13.42</v>
+      </c>
     </row>
     <row r="37" ht="24.75" customHeight="1" spans="1:8">
       <c r="A37" s="25"/>
@@ -3110,32 +3120,64 @@
     <row r="75" ht="24.75" customHeight="1" spans="1:8">
       <c r="A75" s="25"/>
       <c r="B75" s="36"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
+      <c r="C75" s="22">
+        <v>43523</v>
+      </c>
+      <c r="D75" s="47">
+        <v>34.684</v>
+      </c>
+      <c r="E75" s="26">
+        <v>0.37</v>
+      </c>
+      <c r="F75" s="26">
+        <v>9.58</v>
+      </c>
       <c r="G75" s="26"/>
-      <c r="H75" s="44"/>
+      <c r="H75" s="44">
+        <v>19.69</v>
+      </c>
     </row>
     <row r="76" ht="24.75" customHeight="1" spans="1:8">
       <c r="A76" s="25"/>
       <c r="B76" s="36"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
+      <c r="C76" s="22">
+        <v>43550</v>
+      </c>
+      <c r="D76" s="47">
+        <v>37.145</v>
+      </c>
+      <c r="E76" s="26">
+        <v>11.5</v>
+      </c>
+      <c r="F76" s="26">
+        <v>11.4</v>
+      </c>
       <c r="G76" s="26"/>
-      <c r="H76" s="44"/>
+      <c r="H76" s="44">
+        <v>19.7</v>
+      </c>
     </row>
     <row r="77" ht="24.75" customHeight="1" spans="1:8">
       <c r="A77" s="25"/>
       <c r="B77" s="36"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="44"/>
+      <c r="C77" s="22">
+        <v>43551</v>
+      </c>
+      <c r="D77" s="47">
+        <v>37.088</v>
+      </c>
+      <c r="E77" s="26">
+        <v>10.36</v>
+      </c>
+      <c r="F77" s="26">
+        <v>12.13</v>
+      </c>
+      <c r="G77" s="26">
+        <v>18.56</v>
+      </c>
+      <c r="H77" s="44">
+        <v>19.89</v>
+      </c>
     </row>
     <row r="78" ht="24.75" customHeight="1" spans="1:8">
       <c r="A78" s="25"/>
@@ -3152,533 +3194,533 @@
       <c r="B79" s="33"/>
     </row>
     <row r="80" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A80" s="50" t="str">
+      <c r="A80" s="49" t="str">
         <f>HYPERLINK("http://www.moneycontrol.com/mutual-funds/nav/reliance-top-200-fund-direct-plan/MRC940","Reliance Top 200 Fund - Direct Plan (G). New name: Reliance Large Cap Fund - Direct Plan (G)")</f>
         <v>Reliance Top 200 Fund - Direct Plan (G). New name: Reliance Large Cap Fund - Direct Plan (G)</v>
       </c>
       <c r="B80" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="51">
+      <c r="C80" s="50">
         <v>43199</v>
       </c>
-      <c r="D80" s="52">
+      <c r="D80" s="51">
         <v>33.495</v>
       </c>
-      <c r="E80" s="53">
+      <c r="E80" s="52">
         <v>15.7</v>
       </c>
-      <c r="F80" s="53">
+      <c r="F80" s="52">
         <v>23</v>
       </c>
-      <c r="G80" s="53">
+      <c r="G80" s="52">
         <v>9.6</v>
       </c>
-      <c r="H80" s="53"/>
+      <c r="H80" s="52"/>
     </row>
     <row r="81" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A81" s="50"/>
+      <c r="A81" s="49"/>
       <c r="B81" s="21"/>
-      <c r="C81" s="51">
+      <c r="C81" s="50">
         <v>43200</v>
       </c>
-      <c r="D81" s="52">
+      <c r="D81" s="51">
         <v>33.642</v>
       </c>
-      <c r="E81" s="53">
+      <c r="E81" s="52">
         <v>15.9</v>
       </c>
-      <c r="F81" s="53">
+      <c r="F81" s="52">
         <v>23.2</v>
       </c>
-      <c r="G81" s="53">
+      <c r="G81" s="52">
         <v>9.8</v>
       </c>
-      <c r="H81" s="53"/>
+      <c r="H81" s="52"/>
     </row>
     <row r="82" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A82" s="50"/>
+      <c r="A82" s="49"/>
       <c r="B82" s="21"/>
-      <c r="C82" s="51">
+      <c r="C82" s="50">
         <v>43202</v>
       </c>
-      <c r="D82" s="52">
+      <c r="D82" s="51">
         <v>33.521</v>
       </c>
-      <c r="E82" s="54">
+      <c r="E82" s="53">
         <v>14.7</v>
       </c>
-      <c r="F82" s="54">
+      <c r="F82" s="53">
         <v>21.7</v>
       </c>
-      <c r="G82" s="54">
+      <c r="G82" s="53">
         <v>9.6</v>
       </c>
-      <c r="H82" s="54"/>
+      <c r="H82" s="53"/>
     </row>
     <row r="83" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A83" s="50"/>
+      <c r="A83" s="49"/>
       <c r="B83" s="21"/>
-      <c r="C83" s="51">
+      <c r="C83" s="50">
         <v>43203</v>
       </c>
-      <c r="D83" s="52">
+      <c r="D83" s="51">
         <v>33.477</v>
       </c>
-      <c r="E83" s="54">
+      <c r="E83" s="53">
         <v>15.1</v>
       </c>
-      <c r="F83" s="54">
+      <c r="F83" s="53">
         <v>20.7</v>
       </c>
-      <c r="G83" s="54">
+      <c r="G83" s="53">
         <v>9.5</v>
       </c>
-      <c r="H83" s="54"/>
+      <c r="H83" s="53"/>
     </row>
     <row r="84" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A84" s="50"/>
+      <c r="A84" s="49"/>
       <c r="B84" s="21"/>
-      <c r="C84" s="51">
+      <c r="C84" s="50">
         <v>43208</v>
       </c>
-      <c r="D84" s="52">
+      <c r="D84" s="51">
         <v>33.628</v>
       </c>
-      <c r="E84" s="54">
+      <c r="E84" s="53">
         <v>16.9</v>
       </c>
-      <c r="F84" s="54">
+      <c r="F84" s="53">
         <v>20.6</v>
       </c>
-      <c r="G84" s="54">
+      <c r="G84" s="53">
         <v>10.8</v>
       </c>
-      <c r="H84" s="54">
+      <c r="H84" s="53">
         <v>19.3</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A85" s="50"/>
+      <c r="A85" s="49"/>
       <c r="B85" s="21"/>
-      <c r="C85" s="51">
+      <c r="C85" s="50">
         <v>43311</v>
       </c>
-      <c r="D85" s="55">
+      <c r="D85" s="54">
         <v>35.085</v>
       </c>
-      <c r="E85" s="56">
+      <c r="E85" s="55">
         <v>10.3</v>
       </c>
-      <c r="F85" s="56">
+      <c r="F85" s="55">
         <v>17.1</v>
       </c>
-      <c r="G85" s="56">
+      <c r="G85" s="55">
         <v>11.8</v>
       </c>
-      <c r="H85" s="56">
+      <c r="H85" s="55">
         <v>22.4</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A86" s="50"/>
+      <c r="A86" s="49"/>
       <c r="B86" s="21"/>
-      <c r="C86" s="51">
+      <c r="C86" s="50">
         <v>43312</v>
       </c>
-      <c r="D86" s="52">
+      <c r="D86" s="51">
         <v>35.068</v>
       </c>
-      <c r="E86" s="56">
+      <c r="E86" s="55">
         <v>9.4</v>
       </c>
-      <c r="F86" s="56">
+      <c r="F86" s="55">
         <v>17.1</v>
       </c>
-      <c r="G86" s="56">
+      <c r="G86" s="55">
         <v>11.4</v>
       </c>
-      <c r="H86" s="56">
+      <c r="H86" s="55">
         <v>22.1</v>
       </c>
     </row>
     <row r="87" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A87" s="50"/>
+      <c r="A87" s="49"/>
       <c r="B87" s="21"/>
-      <c r="C87" s="51">
+      <c r="C87" s="50">
         <v>43313</v>
       </c>
-      <c r="D87" s="55">
+      <c r="D87" s="54">
         <v>35.109</v>
       </c>
-      <c r="E87" s="56">
+      <c r="E87" s="55">
         <v>9.4</v>
       </c>
-      <c r="F87" s="56">
+      <c r="F87" s="55">
         <v>17.5</v>
       </c>
-      <c r="G87" s="56">
+      <c r="G87" s="55">
         <v>11.4</v>
       </c>
-      <c r="H87" s="56">
+      <c r="H87" s="55">
         <v>22.4</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A88" s="50"/>
+      <c r="A88" s="49"/>
       <c r="B88" s="21"/>
-      <c r="C88" s="51">
+      <c r="C88" s="50">
         <v>43319</v>
       </c>
-      <c r="D88" s="52">
+      <c r="D88" s="51">
         <v>35.367</v>
       </c>
-      <c r="E88" s="56">
+      <c r="E88" s="55">
         <v>10.9</v>
       </c>
-      <c r="F88" s="56">
+      <c r="F88" s="55">
         <v>17.4</v>
       </c>
-      <c r="G88" s="56">
+      <c r="G88" s="55">
         <v>11.3</v>
       </c>
-      <c r="H88" s="56">
+      <c r="H88" s="55">
         <v>23.1</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A89" s="50"/>
+      <c r="A89" s="49"/>
       <c r="B89" s="21"/>
-      <c r="C89" s="51">
+      <c r="C89" s="50">
         <v>43321</v>
       </c>
-      <c r="D89" s="52">
+      <c r="D89" s="51">
         <v>35.687</v>
       </c>
-      <c r="E89" s="56">
+      <c r="E89" s="55">
         <v>14.2</v>
       </c>
-      <c r="F89" s="56">
+      <c r="F89" s="55">
         <v>18</v>
       </c>
-      <c r="G89" s="56">
+      <c r="G89" s="55">
         <v>11.6</v>
       </c>
-      <c r="H89" s="56">
+      <c r="H89" s="55">
         <v>22.9</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A90" s="50"/>
+      <c r="A90" s="49"/>
       <c r="B90" s="21"/>
-      <c r="C90" s="51">
+      <c r="C90" s="50">
         <v>43322</v>
       </c>
-      <c r="D90" s="52">
+      <c r="D90" s="51">
         <v>35.367</v>
       </c>
-      <c r="E90" s="56">
+      <c r="E90" s="55">
         <v>14.4</v>
       </c>
-      <c r="F90" s="56">
+      <c r="F90" s="55">
         <v>18.4</v>
       </c>
-      <c r="G90" s="56">
+      <c r="G90" s="55">
         <v>11.4</v>
       </c>
-      <c r="H90" s="56">
+      <c r="H90" s="55">
         <v>22.7</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A91" s="50"/>
+      <c r="A91" s="49"/>
       <c r="B91" s="21"/>
-      <c r="C91" s="51">
+      <c r="C91" s="50">
         <v>43325</v>
       </c>
-      <c r="D91" s="52">
+      <c r="D91" s="51">
         <v>35.079</v>
       </c>
-      <c r="E91" s="56">
+      <c r="E91" s="55">
         <v>14.4</v>
       </c>
-      <c r="F91" s="56">
+      <c r="F91" s="55">
         <v>17.2</v>
       </c>
-      <c r="G91" s="56">
+      <c r="G91" s="55">
         <v>11.9</v>
       </c>
-      <c r="H91" s="56">
+      <c r="H91" s="55">
         <v>21.9</v>
       </c>
     </row>
     <row r="92" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A92" s="50"/>
+      <c r="A92" s="49"/>
       <c r="B92" s="21"/>
-      <c r="C92" s="51">
+      <c r="C92" s="50">
         <v>43326</v>
       </c>
-      <c r="D92" s="52">
+      <c r="D92" s="51">
         <v>35.393</v>
       </c>
-      <c r="E92" s="56">
+      <c r="E92" s="55">
         <v>14.1</v>
       </c>
-      <c r="F92" s="56">
+      <c r="F92" s="55">
         <v>17.7</v>
       </c>
-      <c r="G92" s="56">
+      <c r="G92" s="55">
         <v>11.5</v>
       </c>
-      <c r="H92" s="56">
+      <c r="H92" s="55">
         <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A93" s="50"/>
+      <c r="A93" s="49"/>
       <c r="B93" s="21"/>
-      <c r="C93" s="51">
+      <c r="C93" s="50">
         <v>43332</v>
       </c>
-      <c r="D93" s="52">
+      <c r="D93" s="51">
         <v>36.178</v>
       </c>
-      <c r="E93" s="56">
+      <c r="E93" s="55">
         <v>16.3</v>
       </c>
-      <c r="F93" s="56">
+      <c r="F93" s="55">
         <v>18</v>
       </c>
-      <c r="G93" s="56">
+      <c r="G93" s="55">
         <v>12.7</v>
       </c>
-      <c r="H93" s="56">
+      <c r="H93" s="55">
         <v>23.8</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A94" s="50"/>
+      <c r="A94" s="49"/>
       <c r="B94" s="21"/>
-      <c r="C94" s="51">
+      <c r="C94" s="50">
         <v>43333</v>
       </c>
-      <c r="D94" s="52">
+      <c r="D94" s="51">
         <v>36.298</v>
       </c>
-      <c r="E94" s="56">
+      <c r="E94" s="55">
         <v>18</v>
       </c>
-      <c r="F94" s="56">
+      <c r="F94" s="55">
         <v>18.2</v>
       </c>
-      <c r="G94" s="56">
+      <c r="G94" s="55">
         <v>13.1</v>
       </c>
-      <c r="H94" s="56">
+      <c r="H94" s="55">
         <v>24.3</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A95" s="50"/>
+      <c r="A95" s="49"/>
       <c r="B95" s="21"/>
-      <c r="C95" s="51">
+      <c r="C95" s="50">
         <v>43336</v>
       </c>
-      <c r="D95" s="52">
+      <c r="D95" s="51">
         <v>36.183</v>
       </c>
-      <c r="E95" s="56">
+      <c r="E95" s="55">
         <v>15.9</v>
       </c>
-      <c r="F95" s="56">
+      <c r="F95" s="55">
         <v>18</v>
       </c>
-      <c r="G95" s="56">
+      <c r="G95" s="55">
         <v>15.6</v>
       </c>
-      <c r="H95" s="56">
+      <c r="H95" s="55">
         <v>23.5</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A96" s="50"/>
+      <c r="A96" s="49"/>
       <c r="B96" s="21"/>
-      <c r="C96" s="51">
+      <c r="C96" s="50">
         <v>43342</v>
       </c>
-      <c r="D96" s="52">
+      <c r="D96" s="51">
         <v>36.845</v>
       </c>
-      <c r="E96" s="56">
+      <c r="E96" s="55">
         <v>17.3</v>
       </c>
-      <c r="F96" s="56">
+      <c r="F96" s="55">
         <v>18.3</v>
       </c>
-      <c r="G96" s="56">
+      <c r="G96" s="55">
         <v>15.2</v>
       </c>
-      <c r="H96" s="56">
+      <c r="H96" s="55">
         <v>23.9</v>
       </c>
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A97" s="50"/>
+      <c r="A97" s="49"/>
       <c r="B97" s="21"/>
-      <c r="C97" s="51">
+      <c r="C97" s="50">
         <v>43348</v>
       </c>
-      <c r="D97" s="52">
+      <c r="D97" s="51">
         <v>36.203</v>
       </c>
-      <c r="E97" s="56">
+      <c r="E97" s="55">
         <v>14.7</v>
       </c>
-      <c r="F97" s="56">
+      <c r="F97" s="55">
         <v>16.8</v>
       </c>
-      <c r="G97" s="56">
+      <c r="G97" s="55">
         <v>16.2</v>
       </c>
-      <c r="H97" s="56">
+      <c r="H97" s="55">
         <v>23.1</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A98" s="50"/>
+      <c r="A98" s="49"/>
       <c r="B98" s="21"/>
-      <c r="C98" s="51">
+      <c r="C98" s="50">
         <v>43368</v>
       </c>
-      <c r="D98" s="52">
+      <c r="D98" s="51">
         <v>34.648</v>
       </c>
-      <c r="E98" s="56">
+      <c r="E98" s="55">
         <v>9.1</v>
       </c>
-      <c r="F98" s="56">
+      <c r="F98" s="55">
         <v>13.7</v>
       </c>
-      <c r="G98" s="56">
+      <c r="G98" s="55">
         <v>13.8</v>
       </c>
-      <c r="H98" s="56">
+      <c r="H98" s="55">
         <v>21</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A99" s="50"/>
+      <c r="A99" s="49"/>
       <c r="B99" s="21"/>
-      <c r="C99" s="51">
+      <c r="C99" s="50">
         <v>43383</v>
       </c>
-      <c r="D99" s="52">
+      <c r="D99" s="51">
         <v>33.023</v>
       </c>
-      <c r="E99" s="56">
+      <c r="E99" s="55">
         <v>3.4</v>
       </c>
-      <c r="F99" s="56">
+      <c r="F99" s="55">
         <v>11.3</v>
       </c>
-      <c r="G99" s="56">
+      <c r="G99" s="55">
         <v>11.2</v>
       </c>
-      <c r="H99" s="56">
+      <c r="H99" s="55">
         <v>19.2</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A100" s="50"/>
+      <c r="A100" s="49"/>
       <c r="B100" s="21"/>
-      <c r="C100" s="51">
+      <c r="C100" s="50">
         <v>43399</v>
       </c>
-      <c r="D100" s="57">
+      <c r="D100" s="56">
         <v>31.994</v>
       </c>
-      <c r="E100" s="58">
+      <c r="E100" s="57">
         <v>-3.3</v>
       </c>
-      <c r="F100" s="58">
+      <c r="F100" s="57">
         <v>9.8</v>
       </c>
-      <c r="G100" s="58">
+      <c r="G100" s="57">
         <v>9.5</v>
       </c>
-      <c r="H100" s="58">
+      <c r="H100" s="57">
         <v>18</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A101" s="50"/>
+      <c r="A101" s="49"/>
       <c r="B101" s="21"/>
-      <c r="C101" s="51">
+      <c r="C101" s="50">
         <v>43402</v>
       </c>
-      <c r="D101" s="55">
+      <c r="D101" s="54">
         <v>33.094</v>
       </c>
-      <c r="E101" s="56">
+      <c r="E101" s="55">
         <v>0.1</v>
       </c>
-      <c r="F101" s="56">
+      <c r="F101" s="55">
         <v>11.7</v>
       </c>
-      <c r="G101" s="56">
+      <c r="G101" s="55">
         <v>11.4</v>
       </c>
-      <c r="H101" s="56">
+      <c r="H101" s="55">
         <v>18.6</v>
       </c>
     </row>
     <row r="102" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A102" s="50"/>
+      <c r="A102" s="49"/>
       <c r="B102" s="21"/>
-      <c r="C102" s="51"/>
-      <c r="D102" s="52"/>
-      <c r="E102" s="56"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="56"/>
-      <c r="H102" s="56"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="55"/>
     </row>
     <row r="103" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A103" s="50"/>
+      <c r="A103" s="49"/>
       <c r="B103" s="21"/>
-      <c r="C103" s="51"/>
-      <c r="D103" s="52"/>
-      <c r="E103" s="56"/>
-      <c r="F103" s="56"/>
-      <c r="G103" s="56"/>
-      <c r="H103" s="56"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="55"/>
     </row>
     <row r="104" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A104" s="50"/>
+      <c r="A104" s="49"/>
       <c r="B104" s="21"/>
-      <c r="C104" s="51"/>
-      <c r="D104" s="52"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
-      <c r="G104" s="56"/>
-      <c r="H104" s="56"/>
+      <c r="C104" s="50"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="55"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="55"/>
     </row>
     <row r="105" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A105" s="50"/>
+      <c r="A105" s="49"/>
       <c r="B105" s="21"/>
-      <c r="C105" s="51"/>
-      <c r="D105" s="52"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56"/>
-      <c r="G105" s="56"/>
-      <c r="H105" s="56"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="55"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="55"/>
+      <c r="H105" s="55"/>
     </row>
     <row r="106" ht="24.75" customHeight="1" spans="3:8">
-      <c r="C106" s="59"/>
-      <c r="D106" s="60"/>
-      <c r="E106" s="61"/>
-      <c r="F106" s="61"/>
-      <c r="G106" s="61"/>
-      <c r="H106" s="61"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="60"/>
+      <c r="F106" s="60"/>
+      <c r="G106" s="60"/>
+      <c r="H106" s="60"/>
     </row>
     <row r="107" ht="24.75" customHeight="1" spans="1:8">
       <c r="A107" s="25" t="str">
@@ -3694,16 +3736,16 @@
       <c r="D107" s="23">
         <v>23.422</v>
       </c>
-      <c r="E107" s="62">
+      <c r="E107" s="61">
         <v>10.2</v>
       </c>
-      <c r="F107" s="62">
+      <c r="F107" s="61">
         <v>17.6</v>
       </c>
-      <c r="G107" s="62">
+      <c r="G107" s="61">
         <v>8.4</v>
       </c>
-      <c r="H107" s="62"/>
+      <c r="H107" s="61"/>
     </row>
     <row r="108" ht="24.75" customHeight="1" spans="1:8">
       <c r="A108" s="25"/>
@@ -3714,16 +3756,16 @@
       <c r="D108" s="23">
         <v>23.421</v>
       </c>
-      <c r="E108" s="62">
+      <c r="E108" s="61">
         <v>10.8</v>
       </c>
-      <c r="F108" s="62">
+      <c r="F108" s="61">
         <v>16.8</v>
       </c>
-      <c r="G108" s="62">
+      <c r="G108" s="61">
         <v>8.5</v>
       </c>
-      <c r="H108" s="63"/>
+      <c r="H108" s="62"/>
     </row>
     <row r="109" ht="24.75" customHeight="1" spans="1:8">
       <c r="A109" s="25"/>
@@ -3734,16 +3776,16 @@
       <c r="D109" s="23">
         <v>23.551</v>
       </c>
-      <c r="E109" s="62">
+      <c r="E109" s="61">
         <v>11.8</v>
       </c>
-      <c r="F109" s="62">
+      <c r="F109" s="61">
         <v>17.1</v>
       </c>
-      <c r="G109" s="62">
+      <c r="G109" s="61">
         <v>9.7</v>
       </c>
-      <c r="H109" s="62">
+      <c r="H109" s="61">
         <v>18.4</v>
       </c>
     </row>
@@ -3756,16 +3798,16 @@
       <c r="D110" s="23">
         <v>23.494</v>
       </c>
-      <c r="E110" s="62">
+      <c r="E110" s="61">
         <v>11.9</v>
       </c>
-      <c r="F110" s="62">
+      <c r="F110" s="61">
         <v>16.4</v>
       </c>
-      <c r="G110" s="62">
+      <c r="G110" s="61">
         <v>9.6</v>
       </c>
-      <c r="H110" s="62">
+      <c r="H110" s="61">
         <v>18.2</v>
       </c>
     </row>
@@ -3781,7 +3823,7 @@
       <c r="E111" s="26">
         <v>5.8</v>
       </c>
-      <c r="F111" s="62"/>
+      <c r="F111" s="61"/>
       <c r="G111" s="26">
         <v>10.5</v>
       </c>
@@ -4322,22 +4364,42 @@
     <row r="137" ht="24.75" customHeight="1" spans="1:8">
       <c r="A137" s="25"/>
       <c r="B137" s="21"/>
-      <c r="C137" s="22"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="26"/>
-      <c r="F137" s="26"/>
+      <c r="C137" s="22">
+        <v>43524</v>
+      </c>
+      <c r="D137" s="23">
+        <v>22.032</v>
+      </c>
+      <c r="E137" s="26">
+        <v>-5.41</v>
+      </c>
+      <c r="F137" s="26">
+        <v>4.84</v>
+      </c>
       <c r="G137" s="26"/>
-      <c r="H137" s="26"/>
+      <c r="H137" s="26">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="138" ht="24.75" customHeight="1" spans="1:8">
       <c r="A138" s="25"/>
       <c r="B138" s="21"/>
-      <c r="C138" s="22"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="26"/>
-      <c r="F138" s="26"/>
+      <c r="C138" s="22">
+        <v>43550</v>
+      </c>
+      <c r="D138" s="23">
+        <v>23.762</v>
+      </c>
+      <c r="E138" s="26">
+        <v>6.1</v>
+      </c>
+      <c r="F138" s="26">
+        <v>6.42</v>
+      </c>
       <c r="G138" s="26"/>
-      <c r="H138" s="26"/>
+      <c r="H138" s="26">
+        <v>15.67</v>
+      </c>
     </row>
     <row r="139" ht="24.75" customHeight="1" spans="1:8">
       <c r="A139" s="25"/>
@@ -4354,10 +4416,10 @@
       <c r="B140" s="21"/>
       <c r="C140" s="22"/>
       <c r="D140" s="23"/>
-      <c r="E140" s="62"/>
-      <c r="F140" s="62"/>
-      <c r="G140" s="62"/>
-      <c r="H140" s="62"/>
+      <c r="E140" s="61"/>
+      <c r="F140" s="61"/>
+      <c r="G140" s="61"/>
+      <c r="H140" s="61"/>
     </row>
     <row r="141" ht="24.75" customHeight="1"/>
     <row r="142" ht="24.75" customHeight="1" spans="1:8">
@@ -4374,16 +4436,16 @@
       <c r="D142" s="23">
         <v>42.529</v>
       </c>
-      <c r="E142" s="62">
+      <c r="E142" s="61">
         <v>29.3</v>
       </c>
-      <c r="F142" s="62">
+      <c r="F142" s="61">
         <v>28.9</v>
       </c>
-      <c r="G142" s="62">
+      <c r="G142" s="61">
         <v>13.1</v>
       </c>
-      <c r="H142" s="62"/>
+      <c r="H142" s="61"/>
     </row>
     <row r="143" ht="24.75" customHeight="1" spans="1:8">
       <c r="A143" s="25"/>
@@ -4394,16 +4456,16 @@
       <c r="D143" s="23">
         <v>42.575</v>
       </c>
-      <c r="E143" s="62">
+      <c r="E143" s="61">
         <v>30.1</v>
       </c>
-      <c r="F143" s="62">
+      <c r="F143" s="61">
         <v>28.5</v>
       </c>
-      <c r="G143" s="62">
+      <c r="G143" s="61">
         <v>14.2</v>
       </c>
-      <c r="H143" s="62">
+      <c r="H143" s="61">
         <v>17.6</v>
       </c>
     </row>
@@ -4960,22 +5022,42 @@
     <row r="169" ht="24.75" customHeight="1" spans="1:8">
       <c r="A169" s="25"/>
       <c r="B169" s="21"/>
-      <c r="C169" s="22"/>
-      <c r="D169" s="31"/>
-      <c r="E169" s="26"/>
-      <c r="F169" s="26"/>
+      <c r="C169" s="22">
+        <v>43524</v>
+      </c>
+      <c r="D169" s="31">
+        <v>37.05</v>
+      </c>
+      <c r="E169" s="26">
+        <v>-11.48</v>
+      </c>
+      <c r="F169" s="26">
+        <v>10.52</v>
+      </c>
       <c r="G169" s="26"/>
-      <c r="H169" s="26"/>
+      <c r="H169" s="26">
+        <v>12.29</v>
+      </c>
     </row>
     <row r="170" ht="24.75" customHeight="1" spans="1:8">
       <c r="A170" s="25"/>
       <c r="B170" s="21"/>
-      <c r="C170" s="22"/>
-      <c r="D170" s="31"/>
-      <c r="E170" s="26"/>
-      <c r="F170" s="26"/>
+      <c r="C170" s="22">
+        <v>43550</v>
+      </c>
+      <c r="D170" s="31">
+        <v>38.64</v>
+      </c>
+      <c r="E170" s="26">
+        <v>-4.62</v>
+      </c>
+      <c r="F170" s="26">
+        <v>11.53</v>
+      </c>
       <c r="G170" s="26"/>
-      <c r="H170" s="26"/>
+      <c r="H170" s="26">
+        <v>12.56</v>
+      </c>
     </row>
     <row r="171" ht="24.75" customHeight="1" spans="1:8">
       <c r="A171" s="25"/>
@@ -5092,16 +5174,16 @@
       <c r="D179" s="23">
         <v>48.617</v>
       </c>
-      <c r="E179" s="62">
+      <c r="E179" s="61">
         <v>35.3</v>
       </c>
-      <c r="F179" s="62">
+      <c r="F179" s="61">
         <v>35.1</v>
       </c>
-      <c r="G179" s="62">
+      <c r="G179" s="61">
         <v>21.2</v>
       </c>
-      <c r="H179" s="62"/>
+      <c r="H179" s="61"/>
     </row>
     <row r="180" ht="24.75" customHeight="1" spans="1:8">
       <c r="A180" s="25"/>
@@ -5112,16 +5194,16 @@
       <c r="D180" s="23">
         <v>48.889</v>
       </c>
-      <c r="E180" s="62">
+      <c r="E180" s="61">
         <v>36.1</v>
       </c>
-      <c r="F180" s="62">
+      <c r="F180" s="61">
         <v>34.6</v>
       </c>
-      <c r="G180" s="62">
+      <c r="G180" s="61">
         <v>21.1</v>
       </c>
-      <c r="H180" s="62"/>
+      <c r="H180" s="61"/>
     </row>
     <row r="181" ht="25" customHeight="1" spans="1:8">
       <c r="A181" s="25"/>
@@ -5132,16 +5214,16 @@
       <c r="D181" s="23">
         <v>49.202</v>
       </c>
-      <c r="E181" s="62">
+      <c r="E181" s="61">
         <v>37.5</v>
       </c>
-      <c r="F181" s="62">
+      <c r="F181" s="61">
         <v>34.4</v>
       </c>
-      <c r="G181" s="62">
+      <c r="G181" s="61">
         <v>22</v>
       </c>
-      <c r="H181" s="64">
+      <c r="H181" s="63">
         <v>26.8</v>
       </c>
     </row>
@@ -5217,7 +5299,7 @@
       <c r="C185" s="22">
         <v>43319</v>
       </c>
-      <c r="D185" s="65">
+      <c r="D185" s="64">
         <v>47.498</v>
       </c>
       <c r="E185" s="26">
@@ -5239,7 +5321,7 @@
       <c r="C186" s="22">
         <v>43321</v>
       </c>
-      <c r="D186" s="65">
+      <c r="D186" s="64">
         <v>47.795</v>
       </c>
       <c r="E186" s="26">
@@ -5261,7 +5343,7 @@
       <c r="C187" s="22">
         <v>43322</v>
       </c>
-      <c r="D187" s="65"/>
+      <c r="D187" s="64"/>
       <c r="E187" s="26">
         <v>26</v>
       </c>
@@ -5281,7 +5363,7 @@
       <c r="C188" s="22">
         <v>43325</v>
       </c>
-      <c r="D188" s="65">
+      <c r="D188" s="64">
         <v>47.119</v>
       </c>
       <c r="E188" s="26">
@@ -5325,16 +5407,16 @@
       <c r="C190" s="22">
         <v>43332</v>
       </c>
-      <c r="D190" s="65">
+      <c r="D190" s="64">
         <v>47.649</v>
       </c>
-      <c r="E190" s="66">
+      <c r="E190" s="65">
         <v>23.1</v>
       </c>
-      <c r="F190" s="66">
+      <c r="F190" s="65">
         <v>24</v>
       </c>
-      <c r="G190" s="66">
+      <c r="G190" s="65">
         <v>19.9</v>
       </c>
       <c r="H190" s="44">
@@ -5347,7 +5429,7 @@
       <c r="C191" s="22">
         <v>43333</v>
       </c>
-      <c r="D191" s="65">
+      <c r="D191" s="64">
         <v>47.867</v>
       </c>
       <c r="E191" s="26">
@@ -5369,7 +5451,7 @@
       <c r="C192" s="22">
         <v>43336</v>
       </c>
-      <c r="D192" s="65">
+      <c r="D192" s="64">
         <v>47.891</v>
       </c>
       <c r="E192" s="26">
@@ -5391,7 +5473,7 @@
       <c r="C193" s="22">
         <v>43342</v>
       </c>
-      <c r="D193" s="65">
+      <c r="D193" s="64">
         <v>48.772</v>
       </c>
       <c r="E193" s="26">
@@ -5413,7 +5495,7 @@
       <c r="C194" s="22">
         <v>43348</v>
       </c>
-      <c r="D194" s="65">
+      <c r="D194" s="64">
         <v>48.072</v>
       </c>
       <c r="E194" s="26">
@@ -5435,7 +5517,7 @@
       <c r="C195" s="22">
         <v>43368</v>
       </c>
-      <c r="D195" s="65">
+      <c r="D195" s="64">
         <v>45.432</v>
       </c>
       <c r="E195" s="26">
@@ -5457,7 +5539,7 @@
       <c r="C196" s="22">
         <v>43383</v>
       </c>
-      <c r="D196" s="65">
+      <c r="D196" s="64">
         <v>43.479</v>
       </c>
       <c r="E196" s="26">
@@ -5611,7 +5693,7 @@
       <c r="C203" s="22">
         <v>43430</v>
       </c>
-      <c r="D203" s="65">
+      <c r="D203" s="64">
         <v>44.374</v>
       </c>
       <c r="E203" s="26">
@@ -5655,7 +5737,7 @@
       <c r="C205" s="22">
         <v>43452</v>
       </c>
-      <c r="D205" s="65">
+      <c r="D205" s="64">
         <v>45.086</v>
       </c>
       <c r="E205" s="26">
@@ -5677,7 +5759,7 @@
       <c r="C206" s="22">
         <v>43461</v>
       </c>
-      <c r="D206" s="65">
+      <c r="D206" s="64">
         <v>44.788</v>
       </c>
       <c r="E206" s="26">
@@ -5699,7 +5781,7 @@
       <c r="C207" s="22">
         <v>43480</v>
       </c>
-      <c r="D207" s="65">
+      <c r="D207" s="64">
         <v>45.533</v>
       </c>
       <c r="E207" s="26">
@@ -5721,57 +5803,89 @@
       <c r="C208" s="22">
         <v>43511</v>
       </c>
-      <c r="D208" s="65">
+      <c r="D208" s="64">
         <v>42.503</v>
       </c>
-      <c r="E208" s="67">
+      <c r="E208" s="66">
         <v>-12.5</v>
       </c>
-      <c r="F208" s="67">
+      <c r="F208" s="66">
         <v>14.9</v>
       </c>
-      <c r="G208" s="67">
+      <c r="G208" s="66">
         <v>20.6</v>
       </c>
-      <c r="H208" s="68">
+      <c r="H208" s="67">
         <v>21</v>
       </c>
     </row>
     <row r="209" ht="25" customHeight="1" spans="1:8">
       <c r="A209" s="25"/>
       <c r="B209" s="36"/>
-      <c r="C209" s="22"/>
-      <c r="D209" s="65"/>
-      <c r="E209" s="26"/>
-      <c r="F209" s="26"/>
+      <c r="C209" s="22">
+        <v>43524</v>
+      </c>
+      <c r="D209" s="64">
+        <v>43.329</v>
+      </c>
+      <c r="E209" s="26">
+        <v>-9.96</v>
+      </c>
+      <c r="F209" s="26">
+        <v>14.81</v>
+      </c>
       <c r="G209" s="26"/>
-      <c r="H209" s="44"/>
+      <c r="H209" s="44">
+        <v>20.78</v>
+      </c>
     </row>
     <row r="210" ht="25" customHeight="1" spans="1:8">
       <c r="A210" s="25"/>
       <c r="B210" s="36"/>
-      <c r="C210" s="22"/>
-      <c r="D210" s="65"/>
-      <c r="E210" s="26"/>
-      <c r="F210" s="26"/>
+      <c r="C210" s="22">
+        <v>43550</v>
+      </c>
+      <c r="D210" s="64">
+        <v>46.607</v>
+      </c>
+      <c r="E210" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="F210" s="26">
+        <v>16.16</v>
+      </c>
       <c r="G210" s="26"/>
-      <c r="H210" s="44"/>
+      <c r="H210" s="44">
+        <v>20.89</v>
+      </c>
     </row>
     <row r="211" ht="25" customHeight="1" spans="1:8">
       <c r="A211" s="25"/>
       <c r="B211" s="36"/>
-      <c r="C211" s="22"/>
-      <c r="D211" s="65"/>
-      <c r="E211" s="26"/>
-      <c r="F211" s="26"/>
-      <c r="G211" s="26"/>
-      <c r="H211" s="44"/>
+      <c r="C211" s="22">
+        <v>43551</v>
+      </c>
+      <c r="D211" s="64">
+        <v>47.462</v>
+      </c>
+      <c r="E211" s="26">
+        <v>1.8</v>
+      </c>
+      <c r="F211" s="26">
+        <v>17.85</v>
+      </c>
+      <c r="G211" s="26">
+        <v>23.17</v>
+      </c>
+      <c r="H211" s="44">
+        <v>21.15</v>
+      </c>
     </row>
     <row r="212" ht="25" customHeight="1" spans="1:8">
       <c r="A212" s="25"/>
       <c r="B212" s="36"/>
       <c r="C212" s="22"/>
-      <c r="D212" s="65"/>
+      <c r="D212" s="64"/>
       <c r="E212" s="26"/>
       <c r="F212" s="26"/>
       <c r="G212" s="26"/>
@@ -5780,16 +5894,16 @@
     <row r="213" ht="25" customHeight="1" spans="1:8">
       <c r="A213" s="25"/>
       <c r="B213" s="36"/>
-      <c r="C213" s="69"/>
-      <c r="D213" s="69"/>
-      <c r="E213" s="70"/>
-      <c r="F213" s="70"/>
-      <c r="G213" s="70"/>
-      <c r="H213" s="71"/>
+      <c r="C213" s="68"/>
+      <c r="D213" s="68"/>
+      <c r="E213" s="69"/>
+      <c r="F213" s="69"/>
+      <c r="G213" s="69"/>
+      <c r="H213" s="70"/>
     </row>
     <row r="214" ht="25" customHeight="1"/>
-    <row r="215" ht="25" customHeight="1" spans="1:8">
-      <c r="A215" s="72" t="s">
+    <row r="215" ht="25" customHeight="1" spans="1:9">
+      <c r="A215" s="71" t="s">
         <v>12</v>
       </c>
       <c r="B215" s="21" t="s">
@@ -5798,29 +5912,32 @@
       <c r="C215" s="22">
         <v>43313</v>
       </c>
-      <c r="D215" s="73">
+      <c r="D215" s="72">
         <v>35.109</v>
       </c>
-      <c r="E215" s="74">
+      <c r="E215" s="73">
         <v>9.4</v>
       </c>
-      <c r="F215" s="74">
+      <c r="F215" s="73">
         <v>17.5</v>
       </c>
-      <c r="G215" s="74">
+      <c r="G215" s="73">
         <v>11.4</v>
       </c>
-      <c r="H215" s="75">
+      <c r="H215" s="74">
         <v>22.4</v>
       </c>
+      <c r="I215" s="78" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="216" ht="25" customHeight="1" spans="1:8">
-      <c r="A216" s="72"/>
+      <c r="A216" s="71"/>
       <c r="B216" s="21"/>
       <c r="C216" s="22">
         <v>43319</v>
       </c>
-      <c r="D216" s="65">
+      <c r="D216" s="64">
         <v>35.367</v>
       </c>
       <c r="E216" s="26">
@@ -5837,12 +5954,12 @@
       </c>
     </row>
     <row r="217" ht="25" customHeight="1" spans="1:8">
-      <c r="A217" s="72"/>
+      <c r="A217" s="71"/>
       <c r="B217" s="21"/>
       <c r="C217" s="22">
         <v>43321</v>
       </c>
-      <c r="D217" s="65">
+      <c r="D217" s="64">
         <v>35.687</v>
       </c>
       <c r="E217" s="26">
@@ -5859,12 +5976,12 @@
       </c>
     </row>
     <row r="218" ht="25" customHeight="1" spans="1:8">
-      <c r="A218" s="72"/>
+      <c r="A218" s="71"/>
       <c r="B218" s="21"/>
       <c r="C218" s="22">
         <v>43322</v>
       </c>
-      <c r="D218" s="65">
+      <c r="D218" s="64">
         <v>35.367</v>
       </c>
       <c r="E218" s="26">
@@ -5881,12 +5998,12 @@
       </c>
     </row>
     <row r="219" ht="25" customHeight="1" spans="1:8">
-      <c r="A219" s="72"/>
+      <c r="A219" s="71"/>
       <c r="B219" s="21"/>
       <c r="C219" s="22">
         <v>43325</v>
       </c>
-      <c r="D219" s="65">
+      <c r="D219" s="64">
         <v>35.079</v>
       </c>
       <c r="E219" s="26">
@@ -5903,12 +6020,12 @@
       </c>
     </row>
     <row r="220" ht="25" customHeight="1" spans="1:8">
-      <c r="A220" s="72"/>
+      <c r="A220" s="71"/>
       <c r="B220" s="21"/>
       <c r="C220" s="22">
         <v>43326</v>
       </c>
-      <c r="D220" s="65">
+      <c r="D220" s="64">
         <v>35.393</v>
       </c>
       <c r="E220" s="26">
@@ -5925,12 +6042,12 @@
       </c>
     </row>
     <row r="221" ht="25" customHeight="1" spans="1:8">
-      <c r="A221" s="72"/>
+      <c r="A221" s="71"/>
       <c r="B221" s="21"/>
       <c r="C221" s="22">
         <v>43332</v>
       </c>
-      <c r="D221" s="65">
+      <c r="D221" s="64">
         <v>36.178</v>
       </c>
       <c r="E221" s="26">
@@ -5947,12 +6064,12 @@
       </c>
     </row>
     <row r="222" ht="25" customHeight="1" spans="1:8">
-      <c r="A222" s="72"/>
+      <c r="A222" s="71"/>
       <c r="B222" s="21"/>
       <c r="C222" s="22">
         <v>43333</v>
       </c>
-      <c r="D222" s="65">
+      <c r="D222" s="64">
         <v>36.298</v>
       </c>
       <c r="E222" s="26">
@@ -5969,12 +6086,12 @@
       </c>
     </row>
     <row r="223" ht="25" customHeight="1" spans="1:8">
-      <c r="A223" s="72"/>
+      <c r="A223" s="71"/>
       <c r="B223" s="21"/>
       <c r="C223" s="22">
         <v>43336</v>
       </c>
-      <c r="D223" s="65">
+      <c r="D223" s="64">
         <v>36.183</v>
       </c>
       <c r="E223" s="26">
@@ -5991,12 +6108,12 @@
       </c>
     </row>
     <row r="224" ht="25" customHeight="1" spans="1:8">
-      <c r="A224" s="72"/>
+      <c r="A224" s="71"/>
       <c r="B224" s="21"/>
       <c r="C224" s="22">
         <v>43342</v>
       </c>
-      <c r="D224" s="65">
+      <c r="D224" s="64">
         <v>36.845</v>
       </c>
       <c r="E224" s="26">
@@ -6013,12 +6130,12 @@
       </c>
     </row>
     <row r="225" ht="25" customHeight="1" spans="1:8">
-      <c r="A225" s="72"/>
+      <c r="A225" s="71"/>
       <c r="B225" s="21"/>
       <c r="C225" s="22">
         <v>43348</v>
       </c>
-      <c r="D225" s="65">
+      <c r="D225" s="64">
         <v>36.203</v>
       </c>
       <c r="E225" s="26">
@@ -6035,12 +6152,12 @@
       </c>
     </row>
     <row r="226" ht="25" customHeight="1" spans="1:8">
-      <c r="A226" s="72"/>
+      <c r="A226" s="71"/>
       <c r="B226" s="21"/>
       <c r="C226" s="22">
         <v>43368</v>
       </c>
-      <c r="D226" s="65">
+      <c r="D226" s="64">
         <v>34.648</v>
       </c>
       <c r="E226" s="26">
@@ -6057,12 +6174,12 @@
       </c>
     </row>
     <row r="227" ht="25" customHeight="1" spans="1:8">
-      <c r="A227" s="72"/>
+      <c r="A227" s="71"/>
       <c r="B227" s="21"/>
       <c r="C227" s="22">
         <v>43383</v>
       </c>
-      <c r="D227" s="65">
+      <c r="D227" s="64">
         <v>33.023</v>
       </c>
       <c r="E227" s="32">
@@ -6074,12 +6191,12 @@
       <c r="G227" s="32">
         <v>11.2</v>
       </c>
-      <c r="H227" s="76">
+      <c r="H227" s="75">
         <v>19.2</v>
       </c>
     </row>
     <row r="228" ht="25" customHeight="1" spans="1:8">
-      <c r="A228" s="72"/>
+      <c r="A228" s="71"/>
       <c r="B228" s="21"/>
       <c r="C228" s="22">
         <v>43399</v>
@@ -6101,7 +6218,7 @@
       </c>
     </row>
     <row r="229" ht="25" customHeight="1" spans="1:8">
-      <c r="A229" s="72"/>
+      <c r="A229" s="71"/>
       <c r="B229" s="21"/>
       <c r="C229" s="22">
         <v>43402</v>
@@ -6123,7 +6240,7 @@
       </c>
     </row>
     <row r="230" ht="25" customHeight="1" spans="1:8">
-      <c r="A230" s="72"/>
+      <c r="A230" s="71"/>
       <c r="B230" s="21"/>
       <c r="C230" s="22">
         <v>43404</v>
@@ -6145,7 +6262,7 @@
       </c>
     </row>
     <row r="231" ht="25" customHeight="1" spans="1:8">
-      <c r="A231" s="72"/>
+      <c r="A231" s="71"/>
       <c r="B231" s="21"/>
       <c r="C231" s="22">
         <v>43405</v>
@@ -6167,7 +6284,7 @@
       </c>
     </row>
     <row r="232" ht="25" customHeight="1" spans="1:8">
-      <c r="A232" s="72"/>
+      <c r="A232" s="71"/>
       <c r="B232" s="21"/>
       <c r="C232" s="22">
         <v>43410</v>
@@ -6189,7 +6306,7 @@
       </c>
     </row>
     <row r="233" ht="25" customHeight="1" spans="1:8">
-      <c r="A233" s="72"/>
+      <c r="A233" s="71"/>
       <c r="B233" s="21"/>
       <c r="C233" s="22">
         <v>43413</v>
@@ -6211,7 +6328,7 @@
       </c>
     </row>
     <row r="234" ht="25" customHeight="1" spans="1:8">
-      <c r="A234" s="72"/>
+      <c r="A234" s="71"/>
       <c r="B234" s="21"/>
       <c r="C234" s="22">
         <v>43430</v>
@@ -6233,7 +6350,7 @@
       </c>
     </row>
     <row r="235" ht="25" customHeight="1" spans="1:8">
-      <c r="A235" s="72"/>
+      <c r="A235" s="71"/>
       <c r="B235" s="21"/>
       <c r="C235" s="22">
         <v>43432</v>
@@ -6255,12 +6372,12 @@
       </c>
     </row>
     <row r="236" ht="25" customHeight="1" spans="1:8">
-      <c r="A236" s="72"/>
+      <c r="A236" s="71"/>
       <c r="B236" s="21"/>
       <c r="C236" s="22">
         <v>43452</v>
       </c>
-      <c r="D236" s="65">
+      <c r="D236" s="64">
         <v>34.937</v>
       </c>
       <c r="E236" s="26">
@@ -6277,12 +6394,12 @@
       </c>
     </row>
     <row r="237" ht="25" customHeight="1" spans="1:8">
-      <c r="A237" s="72"/>
+      <c r="A237" s="71"/>
       <c r="B237" s="21"/>
       <c r="C237" s="22">
         <v>43461</v>
       </c>
-      <c r="D237" s="65">
+      <c r="D237" s="64">
         <v>34.676</v>
       </c>
       <c r="E237" s="26">
@@ -6299,12 +6416,12 @@
       </c>
     </row>
     <row r="238" ht="25" customHeight="1" spans="1:8">
-      <c r="A238" s="72"/>
+      <c r="A238" s="71"/>
       <c r="B238" s="21"/>
       <c r="C238" s="22">
         <v>43480</v>
       </c>
-      <c r="D238" s="65">
+      <c r="D238" s="64">
         <v>35.366</v>
       </c>
       <c r="E238" s="26">
@@ -6321,779 +6438,912 @@
       </c>
     </row>
     <row r="239" ht="25" customHeight="1" spans="1:8">
-      <c r="A239" s="72"/>
+      <c r="A239" s="71"/>
       <c r="B239" s="21"/>
-      <c r="C239" s="22"/>
-      <c r="D239" s="65"/>
-      <c r="E239" s="32"/>
-      <c r="F239" s="32"/>
-      <c r="G239" s="32"/>
-      <c r="H239" s="76"/>
+      <c r="C239" s="22">
+        <v>43524</v>
+      </c>
+      <c r="D239" s="64">
+        <v>34.3414</v>
+      </c>
+      <c r="E239" s="32">
+        <v>0.87</v>
+      </c>
+      <c r="F239" s="32">
+        <v>11.56</v>
+      </c>
+      <c r="G239" s="32">
+        <v>19.11</v>
+      </c>
+      <c r="H239" s="75">
+        <v>17.64</v>
+      </c>
     </row>
     <row r="240" ht="25" customHeight="1" spans="1:8">
-      <c r="A240" s="72"/>
+      <c r="A240" s="71"/>
       <c r="B240" s="21"/>
-      <c r="C240" s="69"/>
-      <c r="D240" s="69"/>
-      <c r="E240" s="70"/>
-      <c r="F240" s="70"/>
-      <c r="G240" s="70"/>
-      <c r="H240" s="71"/>
-    </row>
-    <row r="241" ht="25" customHeight="1"/>
+      <c r="C240" s="22">
+        <v>43550</v>
+      </c>
+      <c r="D240" s="64">
+        <v>36.7706</v>
+      </c>
+      <c r="E240" s="32">
+        <v>13.88</v>
+      </c>
+      <c r="F240" s="32">
+        <v>13.48</v>
+      </c>
+      <c r="G240" s="32"/>
+      <c r="H240" s="75">
+        <v>17.84</v>
+      </c>
+    </row>
+    <row r="241" ht="25" customHeight="1" spans="1:8">
+      <c r="A241" s="71"/>
+      <c r="B241" s="21"/>
+      <c r="C241" s="22">
+        <v>43551</v>
+      </c>
+      <c r="D241" s="64">
+        <v>37.2335</v>
+      </c>
+      <c r="E241" s="32">
+        <v>14.64</v>
+      </c>
+      <c r="F241" s="32">
+        <v>14.65</v>
+      </c>
+      <c r="G241" s="32">
+        <v>18.7</v>
+      </c>
+      <c r="H241" s="75">
+        <v>17.96</v>
+      </c>
+    </row>
     <row r="242" ht="25" customHeight="1" spans="1:8">
-      <c r="A242" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="B242" s="36" t="s">
+      <c r="A242" s="71"/>
+      <c r="B242" s="21"/>
+      <c r="C242" s="22"/>
+      <c r="D242" s="64"/>
+      <c r="E242" s="32"/>
+      <c r="F242" s="32"/>
+      <c r="G242" s="32"/>
+      <c r="H242" s="75"/>
+    </row>
+    <row r="243" ht="25" customHeight="1" spans="1:8">
+      <c r="A243" s="71"/>
+      <c r="B243" s="21"/>
+      <c r="C243" s="22"/>
+      <c r="D243" s="64"/>
+      <c r="E243" s="32"/>
+      <c r="F243" s="32"/>
+      <c r="G243" s="32"/>
+      <c r="H243" s="75"/>
+    </row>
+    <row r="244" ht="25" customHeight="1" spans="1:8">
+      <c r="A244" s="71"/>
+      <c r="B244" s="21"/>
+      <c r="C244" s="22"/>
+      <c r="D244" s="64"/>
+      <c r="E244" s="32"/>
+      <c r="F244" s="32"/>
+      <c r="G244" s="32"/>
+      <c r="H244" s="75"/>
+    </row>
+    <row r="245" ht="25" customHeight="1" spans="1:8">
+      <c r="A245" s="71"/>
+      <c r="B245" s="21"/>
+      <c r="C245" s="68"/>
+      <c r="D245" s="68"/>
+      <c r="E245" s="69"/>
+      <c r="F245" s="69"/>
+      <c r="G245" s="69"/>
+      <c r="H245" s="70"/>
+    </row>
+    <row r="246" ht="25" customHeight="1"/>
+    <row r="247" ht="25" customHeight="1" spans="1:8">
+      <c r="A247" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C242" s="22">
+      <c r="B247" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C247" s="22">
         <v>43313</v>
       </c>
-      <c r="D242" s="65">
+      <c r="D247" s="64">
         <v>102.22</v>
       </c>
-      <c r="E242" s="77">
+      <c r="E247" s="76">
         <v>11.6</v>
       </c>
-      <c r="F242" s="77">
+      <c r="F247" s="76">
         <v>21.8</v>
       </c>
-      <c r="G242" s="77">
+      <c r="G247" s="76">
         <v>16</v>
       </c>
-      <c r="H242" s="78">
+      <c r="H247" s="77">
         <v>35.2</v>
       </c>
     </row>
-    <row r="243" ht="25" customHeight="1" spans="1:8">
-      <c r="A243" s="72"/>
-      <c r="B243" s="36"/>
-      <c r="C243" s="22">
-        <v>43319</v>
-      </c>
-      <c r="D243" s="65">
-        <v>102.43</v>
-      </c>
-      <c r="E243" s="26">
-        <v>11.7</v>
-      </c>
-      <c r="F243" s="26">
-        <v>21.8</v>
-      </c>
-      <c r="G243" s="26">
-        <v>15.6</v>
-      </c>
-      <c r="H243" s="44">
-        <v>35.9</v>
-      </c>
-    </row>
-    <row r="244" ht="25" customHeight="1" spans="1:8">
-      <c r="A244" s="72"/>
-      <c r="B244" s="36"/>
-      <c r="C244" s="22">
-        <v>43321</v>
-      </c>
-      <c r="D244" s="65">
-        <v>102.93</v>
-      </c>
-      <c r="E244" s="26">
-        <v>14.7</v>
-      </c>
-      <c r="F244" s="26">
-        <v>21.9</v>
-      </c>
-      <c r="G244" s="26">
-        <v>15.8</v>
-      </c>
-      <c r="H244" s="44">
-        <v>35.9</v>
-      </c>
-    </row>
-    <row r="245" ht="25" customHeight="1" spans="1:8">
-      <c r="A245" s="72"/>
-      <c r="B245" s="36"/>
-      <c r="C245" s="22">
-        <v>43322</v>
-      </c>
-      <c r="D245" s="65">
-        <v>102.43</v>
-      </c>
-      <c r="E245" s="26">
-        <v>17.1</v>
-      </c>
-      <c r="F245" s="26">
-        <v>22.4</v>
-      </c>
-      <c r="G245" s="26">
-        <v>15.7</v>
-      </c>
-      <c r="H245" s="44">
-        <v>35.8</v>
-      </c>
-    </row>
-    <row r="246" ht="25" customHeight="1" spans="1:8">
-      <c r="A246" s="72"/>
-      <c r="B246" s="36"/>
-      <c r="C246" s="22">
-        <v>43325</v>
-      </c>
-      <c r="D246" s="65">
-        <v>101.44</v>
-      </c>
-      <c r="E246" s="26">
-        <v>15.9</v>
-      </c>
-      <c r="F246" s="26">
-        <v>21.5</v>
-      </c>
-      <c r="G246" s="26">
-        <v>17.1</v>
-      </c>
-      <c r="H246" s="44">
-        <v>34.7</v>
-      </c>
-    </row>
-    <row r="247" ht="25" customHeight="1" spans="1:8">
-      <c r="A247" s="72"/>
-      <c r="B247" s="36"/>
-      <c r="C247" s="22">
-        <v>43326</v>
-      </c>
-      <c r="D247" s="65">
-        <v>102.3</v>
-      </c>
-      <c r="E247" s="26">
-        <v>13.4</v>
-      </c>
-      <c r="F247" s="26">
-        <v>21.8</v>
-      </c>
-      <c r="G247" s="26">
-        <v>16.7</v>
-      </c>
-      <c r="H247" s="44">
-        <v>35.3</v>
-      </c>
-    </row>
     <row r="248" ht="25" customHeight="1" spans="1:8">
-      <c r="A248" s="72"/>
+      <c r="A248" s="71"/>
       <c r="B248" s="36"/>
       <c r="C248" s="22">
-        <v>43332</v>
-      </c>
-      <c r="D248" s="65">
-        <v>104.2</v>
+        <v>43319</v>
+      </c>
+      <c r="D248" s="64">
+        <v>102.43</v>
       </c>
       <c r="E248" s="26">
-        <v>16</v>
+        <v>11.7</v>
       </c>
       <c r="F248" s="26">
         <v>21.8</v>
       </c>
       <c r="G248" s="26">
-        <v>17.3</v>
+        <v>15.6</v>
       </c>
       <c r="H248" s="44">
-        <v>36.5</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="249" ht="25" customHeight="1" spans="1:8">
-      <c r="A249" s="72"/>
+      <c r="A249" s="71"/>
       <c r="B249" s="36"/>
       <c r="C249" s="22">
-        <v>43333</v>
-      </c>
-      <c r="D249" s="65">
-        <v>104.68</v>
+        <v>43321</v>
+      </c>
+      <c r="D249" s="64">
+        <v>102.93</v>
       </c>
       <c r="E249" s="26">
-        <v>18</v>
+        <v>14.7</v>
       </c>
       <c r="F249" s="26">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="G249" s="26">
-        <v>17.6</v>
+        <v>15.8</v>
       </c>
       <c r="H249" s="44">
-        <v>36.8</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="250" ht="25" customHeight="1" spans="1:8">
-      <c r="A250" s="72"/>
+      <c r="A250" s="71"/>
       <c r="B250" s="36"/>
       <c r="C250" s="22">
-        <v>43336</v>
-      </c>
-      <c r="D250" s="65">
-        <v>104.28</v>
+        <v>43322</v>
+      </c>
+      <c r="D250" s="64">
+        <v>102.43</v>
       </c>
       <c r="E250" s="26">
-        <v>16.8</v>
+        <v>17.1</v>
       </c>
       <c r="F250" s="26">
-        <v>21.4</v>
+        <v>22.4</v>
       </c>
       <c r="G250" s="26">
-        <v>20.9</v>
+        <v>15.7</v>
       </c>
       <c r="H250" s="44">
-        <v>36.3</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="251" ht="25" customHeight="1" spans="1:8">
-      <c r="A251" s="72"/>
+      <c r="A251" s="71"/>
       <c r="B251" s="36"/>
       <c r="C251" s="22">
-        <v>43342</v>
-      </c>
-      <c r="D251" s="65">
-        <v>105.65</v>
+        <v>43325</v>
+      </c>
+      <c r="D251" s="64">
+        <v>101.44</v>
       </c>
       <c r="E251" s="26">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="F251" s="26">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="G251" s="26">
-        <v>20.3</v>
+        <v>17.1</v>
       </c>
       <c r="H251" s="44">
-        <v>36.9</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="252" ht="25" customHeight="1" spans="1:8">
-      <c r="A252" s="72"/>
+      <c r="A252" s="71"/>
       <c r="B252" s="36"/>
       <c r="C252" s="22">
-        <v>43348</v>
-      </c>
-      <c r="D252" s="65">
-        <v>102.34</v>
-      </c>
-      <c r="E252" s="66">
-        <v>10.6</v>
-      </c>
-      <c r="F252" s="66">
-        <v>19.3</v>
-      </c>
-      <c r="G252" s="66">
-        <v>20.4</v>
+        <v>43326</v>
+      </c>
+      <c r="D252" s="64">
+        <v>102.3</v>
+      </c>
+      <c r="E252" s="26">
+        <v>13.4</v>
+      </c>
+      <c r="F252" s="26">
+        <v>21.8</v>
+      </c>
+      <c r="G252" s="26">
+        <v>16.7</v>
       </c>
       <c r="H252" s="44">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="253" ht="25" customHeight="1" spans="1:8">
-      <c r="A253" s="72"/>
+      <c r="A253" s="71"/>
       <c r="B253" s="36"/>
       <c r="C253" s="22">
-        <v>43368</v>
-      </c>
-      <c r="D253" s="65">
-        <v>95.31</v>
+        <v>43332</v>
+      </c>
+      <c r="D253" s="64">
+        <v>104.2</v>
       </c>
       <c r="E253" s="26">
-        <v>3.1</v>
+        <v>16</v>
       </c>
       <c r="F253" s="26">
-        <v>14.1</v>
+        <v>21.8</v>
       </c>
       <c r="G253" s="26">
-        <v>16</v>
+        <v>17.3</v>
       </c>
       <c r="H253" s="44">
-        <v>32.9</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="254" ht="25" customHeight="1" spans="1:8">
-      <c r="A254" s="72"/>
+      <c r="A254" s="71"/>
       <c r="B254" s="36"/>
       <c r="C254" s="22">
-        <v>43383</v>
-      </c>
-      <c r="D254" s="65">
-        <v>89.78</v>
+        <v>43333</v>
+      </c>
+      <c r="D254" s="64">
+        <v>104.68</v>
       </c>
       <c r="E254" s="26">
-        <v>-4.1</v>
+        <v>18</v>
       </c>
       <c r="F254" s="26">
-        <v>9.7</v>
+        <v>22.1</v>
       </c>
       <c r="G254" s="26">
-        <v>12.3</v>
+        <v>17.6</v>
       </c>
       <c r="H254" s="44">
-        <v>29.8</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="255" ht="25" customHeight="1" spans="1:8">
-      <c r="A255" s="72"/>
+      <c r="A255" s="71"/>
       <c r="B255" s="36"/>
       <c r="C255" s="22">
-        <v>43399</v>
-      </c>
-      <c r="D255" s="28">
-        <v>86.73</v>
+        <v>43336</v>
+      </c>
+      <c r="D255" s="64">
+        <v>104.28</v>
       </c>
       <c r="E255" s="26">
-        <v>-8.6</v>
+        <v>16.8</v>
       </c>
       <c r="F255" s="26">
-        <v>7.8</v>
+        <v>21.4</v>
       </c>
       <c r="G255" s="26">
-        <v>11.2</v>
+        <v>20.9</v>
       </c>
       <c r="H255" s="44">
-        <v>28.5</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="256" ht="25" customHeight="1" spans="1:8">
-      <c r="A256" s="72"/>
+      <c r="A256" s="71"/>
       <c r="B256" s="36"/>
       <c r="C256" s="22">
-        <v>43402</v>
-      </c>
-      <c r="D256" s="28">
-        <v>89</v>
+        <v>43342</v>
+      </c>
+      <c r="D256" s="64">
+        <v>105.65</v>
       </c>
       <c r="E256" s="26">
-        <v>-6.7</v>
+        <v>16.5</v>
       </c>
       <c r="F256" s="26">
-        <v>9</v>
+        <v>21.4</v>
       </c>
       <c r="G256" s="26">
-        <v>12.4</v>
+        <v>20.3</v>
       </c>
       <c r="H256" s="44">
-        <v>28.9</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="257" ht="25" customHeight="1" spans="1:8">
-      <c r="A257" s="72"/>
+      <c r="A257" s="71"/>
       <c r="B257" s="36"/>
       <c r="C257" s="22">
-        <v>43404</v>
-      </c>
-      <c r="D257" s="31">
-        <v>90.78</v>
-      </c>
-      <c r="E257" s="26">
-        <v>-5.9</v>
-      </c>
-      <c r="F257" s="26">
-        <v>10.1</v>
-      </c>
-      <c r="G257" s="26">
-        <v>13.2</v>
+        <v>43348</v>
+      </c>
+      <c r="D257" s="64">
+        <v>102.34</v>
+      </c>
+      <c r="E257" s="65">
+        <v>10.6</v>
+      </c>
+      <c r="F257" s="65">
+        <v>19.3</v>
+      </c>
+      <c r="G257" s="65">
+        <v>20.4</v>
       </c>
       <c r="H257" s="44">
-        <v>29</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="258" ht="25" customHeight="1" spans="1:8">
-      <c r="A258" s="72"/>
+      <c r="A258" s="71"/>
       <c r="B258" s="36"/>
       <c r="C258" s="22">
-        <v>43405</v>
-      </c>
-      <c r="D258" s="31">
-        <v>91.15</v>
+        <v>43368</v>
+      </c>
+      <c r="D258" s="64">
+        <v>95.31</v>
       </c>
       <c r="E258" s="26">
-        <v>-6.2</v>
+        <v>3.1</v>
       </c>
       <c r="F258" s="26">
-        <v>9.8</v>
+        <v>14.1</v>
       </c>
       <c r="G258" s="26">
-        <v>13.4</v>
+        <v>16</v>
       </c>
       <c r="H258" s="44">
-        <v>28.9</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="259" ht="25" customHeight="1" spans="1:8">
-      <c r="A259" s="72"/>
+      <c r="A259" s="71"/>
       <c r="B259" s="36"/>
       <c r="C259" s="22">
-        <v>43410</v>
-      </c>
-      <c r="D259" s="31">
-        <v>91.31</v>
+        <v>43383</v>
+      </c>
+      <c r="D259" s="64">
+        <v>89.78</v>
       </c>
       <c r="E259" s="26">
-        <v>-6.8</v>
+        <v>-4.1</v>
       </c>
       <c r="F259" s="26">
-        <v>12.2</v>
+        <v>9.7</v>
       </c>
       <c r="G259" s="26">
-        <v>14.1</v>
+        <v>12.3</v>
       </c>
       <c r="H259" s="44">
-        <v>28.4</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="260" ht="25" customHeight="1" spans="1:8">
-      <c r="A260" s="72"/>
+      <c r="A260" s="71"/>
       <c r="B260" s="36"/>
       <c r="C260" s="22">
-        <v>43413</v>
-      </c>
-      <c r="D260" s="31">
-        <v>92.23</v>
+        <v>43399</v>
+      </c>
+      <c r="D260" s="28">
+        <v>86.73</v>
       </c>
       <c r="E260" s="26">
-        <v>-4.3</v>
+        <v>-8.6</v>
       </c>
       <c r="F260" s="26">
-        <v>13.2</v>
+        <v>7.8</v>
       </c>
       <c r="G260" s="26">
-        <v>14.3</v>
+        <v>11.2</v>
       </c>
       <c r="H260" s="44">
-        <v>29</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="261" ht="25" customHeight="1" spans="1:8">
-      <c r="A261" s="72"/>
+      <c r="A261" s="71"/>
       <c r="B261" s="36"/>
       <c r="C261" s="22">
-        <v>43430</v>
-      </c>
-      <c r="D261" s="31">
-        <v>92.21</v>
+        <v>43402</v>
+      </c>
+      <c r="D261" s="28">
+        <v>89</v>
       </c>
       <c r="E261" s="26">
-        <v>-6.2</v>
+        <v>-6.7</v>
       </c>
       <c r="F261" s="26">
-        <v>17.1</v>
+        <v>9</v>
       </c>
       <c r="G261" s="26">
-        <v>13.2</v>
+        <v>12.4</v>
       </c>
       <c r="H261" s="44">
-        <v>29</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="262" ht="25" customHeight="1" spans="1:8">
-      <c r="A262" s="72"/>
+      <c r="A262" s="71"/>
       <c r="B262" s="36"/>
       <c r="C262" s="22">
-        <v>43432</v>
+        <v>43404</v>
       </c>
       <c r="D262" s="31">
-        <v>92.68</v>
+        <v>90.78</v>
       </c>
       <c r="E262" s="26">
-        <v>-6.4</v>
+        <v>-5.9</v>
       </c>
       <c r="F262" s="26">
-        <v>17</v>
+        <v>10.1</v>
       </c>
       <c r="G262" s="26">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="H262" s="44">
-        <v>28.8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="263" ht="25" customHeight="1" spans="1:8">
-      <c r="A263" s="72"/>
+      <c r="A263" s="71"/>
       <c r="B263" s="36"/>
       <c r="C263" s="22">
-        <v>43452</v>
-      </c>
-      <c r="D263" s="65">
-        <v>94.49</v>
+        <v>43405</v>
+      </c>
+      <c r="D263" s="31">
+        <v>91.15</v>
       </c>
       <c r="E263" s="26">
-        <v>-5</v>
+        <v>-6.2</v>
       </c>
       <c r="F263" s="26">
-        <v>18.3</v>
+        <v>9.8</v>
       </c>
       <c r="G263" s="26">
-        <v>14.3</v>
+        <v>13.4</v>
       </c>
       <c r="H263" s="44">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="264" ht="25" customHeight="1" spans="1:8">
-      <c r="A264" s="72"/>
+      <c r="A264" s="71"/>
       <c r="B264" s="36"/>
       <c r="C264" s="22">
-        <v>43461</v>
-      </c>
-      <c r="D264" s="65">
-        <v>93.82</v>
+        <v>43410</v>
+      </c>
+      <c r="D264" s="31">
+        <v>91.31</v>
       </c>
       <c r="E264" s="26">
-        <v>-8.7</v>
+        <v>-6.8</v>
       </c>
       <c r="F264" s="26">
-        <v>19.8</v>
+        <v>12.2</v>
       </c>
       <c r="G264" s="26">
-        <v>13.3</v>
+        <v>14.1</v>
       </c>
       <c r="H264" s="44">
-        <v>27</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="265" ht="25" customHeight="1" spans="1:8">
-      <c r="A265" s="72"/>
+      <c r="A265" s="71"/>
       <c r="B265" s="36"/>
       <c r="C265" s="22">
+        <v>43413</v>
+      </c>
+      <c r="D265" s="31">
+        <v>92.23</v>
+      </c>
+      <c r="E265" s="26">
+        <v>-4.3</v>
+      </c>
+      <c r="F265" s="26">
+        <v>13.2</v>
+      </c>
+      <c r="G265" s="26">
+        <v>14.3</v>
+      </c>
+      <c r="H265" s="44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="266" ht="25" customHeight="1" spans="1:8">
+      <c r="A266" s="71"/>
+      <c r="B266" s="36"/>
+      <c r="C266" s="22">
+        <v>43430</v>
+      </c>
+      <c r="D266" s="31">
+        <v>92.21</v>
+      </c>
+      <c r="E266" s="26">
+        <v>-6.2</v>
+      </c>
+      <c r="F266" s="26">
+        <v>17.1</v>
+      </c>
+      <c r="G266" s="26">
+        <v>13.2</v>
+      </c>
+      <c r="H266" s="44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="267" ht="25" customHeight="1" spans="1:8">
+      <c r="A267" s="71"/>
+      <c r="B267" s="36"/>
+      <c r="C267" s="22">
+        <v>43432</v>
+      </c>
+      <c r="D267" s="31">
+        <v>92.68</v>
+      </c>
+      <c r="E267" s="26">
+        <v>-6.4</v>
+      </c>
+      <c r="F267" s="26">
+        <v>17</v>
+      </c>
+      <c r="G267" s="26">
+        <v>13.1</v>
+      </c>
+      <c r="H267" s="44">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="268" ht="25" customHeight="1" spans="1:8">
+      <c r="A268" s="71"/>
+      <c r="B268" s="36"/>
+      <c r="C268" s="22">
+        <v>43452</v>
+      </c>
+      <c r="D268" s="64">
+        <v>94.49</v>
+      </c>
+      <c r="E268" s="26">
+        <v>-5</v>
+      </c>
+      <c r="F268" s="26">
+        <v>18.3</v>
+      </c>
+      <c r="G268" s="26">
+        <v>14.3</v>
+      </c>
+      <c r="H268" s="44">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="269" ht="25" customHeight="1" spans="1:8">
+      <c r="A269" s="71"/>
+      <c r="B269" s="36"/>
+      <c r="C269" s="22">
+        <v>43461</v>
+      </c>
+      <c r="D269" s="64">
+        <v>93.82</v>
+      </c>
+      <c r="E269" s="26">
+        <v>-8.7</v>
+      </c>
+      <c r="F269" s="26">
+        <v>19.8</v>
+      </c>
+      <c r="G269" s="26">
+        <v>13.3</v>
+      </c>
+      <c r="H269" s="44">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="270" ht="25" customHeight="1" spans="1:8">
+      <c r="A270" s="71"/>
+      <c r="B270" s="36"/>
+      <c r="C270" s="22">
         <v>43480</v>
       </c>
-      <c r="D265" s="65">
+      <c r="D270" s="64">
         <v>94.7</v>
       </c>
-      <c r="E265" s="26">
+      <c r="E270" s="26">
         <v>-9.2</v>
       </c>
-      <c r="F265" s="26">
+      <c r="F270" s="26">
         <v>16.1</v>
       </c>
-      <c r="G265" s="26">
+      <c r="G270" s="26">
         <v>17.2</v>
       </c>
-      <c r="H265" s="44">
+      <c r="H270" s="44">
         <v>27.2</v>
       </c>
     </row>
-    <row r="266" ht="25" customHeight="1" spans="1:8">
-      <c r="A266" s="72"/>
-      <c r="B266" s="36"/>
-      <c r="C266" s="22"/>
-      <c r="D266" s="65"/>
-      <c r="E266" s="26"/>
-      <c r="F266" s="26"/>
-      <c r="G266" s="26"/>
-      <c r="H266" s="44"/>
-    </row>
-    <row r="267" ht="25" customHeight="1" spans="1:8">
-      <c r="A267" s="72"/>
-      <c r="B267" s="36"/>
-      <c r="C267" s="22"/>
-      <c r="D267" s="65"/>
-      <c r="E267" s="26"/>
-      <c r="F267" s="26"/>
-      <c r="G267" s="26"/>
-      <c r="H267" s="44"/>
-    </row>
-    <row r="268" ht="25" customHeight="1" spans="1:8">
-      <c r="A268" s="72"/>
-      <c r="B268" s="36"/>
-      <c r="C268" s="22"/>
-      <c r="D268" s="65"/>
-      <c r="E268" s="26"/>
-      <c r="F268" s="26"/>
-      <c r="G268" s="26"/>
-      <c r="H268" s="44"/>
-    </row>
-    <row r="269" ht="25" customHeight="1" spans="1:8">
-      <c r="A269" s="72"/>
-      <c r="B269" s="36"/>
-      <c r="C269" s="22"/>
-      <c r="D269" s="65"/>
-      <c r="E269" s="26"/>
-      <c r="F269" s="26"/>
-      <c r="G269" s="26"/>
-      <c r="H269" s="44"/>
-    </row>
-    <row r="270" ht="25" customHeight="1" spans="1:8">
-      <c r="A270" s="72"/>
-      <c r="B270" s="36"/>
-      <c r="C270" s="22"/>
-      <c r="D270" s="65"/>
-      <c r="E270" s="26"/>
-      <c r="F270" s="26"/>
-      <c r="G270" s="26"/>
-      <c r="H270" s="44"/>
-    </row>
     <row r="271" ht="25" customHeight="1" spans="1:8">
-      <c r="A271" s="72"/>
+      <c r="A271" s="71"/>
       <c r="B271" s="36"/>
-      <c r="C271" s="65"/>
-      <c r="D271" s="65"/>
-      <c r="E271" s="62"/>
-      <c r="F271" s="62"/>
-      <c r="G271" s="62"/>
-      <c r="H271" s="64"/>
-    </row>
-    <row r="272" ht="25" customHeight="1"/>
-    <row r="273" ht="25" customHeight="1"/>
+      <c r="C271" s="22">
+        <v>43523</v>
+      </c>
+      <c r="D271" s="64">
+        <v>93.42</v>
+      </c>
+      <c r="E271" s="26">
+        <v>-7.79</v>
+      </c>
+      <c r="F271" s="26">
+        <v>12.64</v>
+      </c>
+      <c r="G271" s="26"/>
+      <c r="H271" s="44">
+        <v>28.04</v>
+      </c>
+    </row>
+    <row r="272" ht="25" customHeight="1" spans="1:8">
+      <c r="A272" s="71"/>
+      <c r="B272" s="36"/>
+      <c r="C272" s="22">
+        <v>43550</v>
+      </c>
+      <c r="D272" s="64">
+        <v>98.81</v>
+      </c>
+      <c r="E272" s="26">
+        <v>4.41</v>
+      </c>
+      <c r="F272" s="26">
+        <v>11.03</v>
+      </c>
+      <c r="G272" s="26"/>
+      <c r="H272" s="44">
+        <v>26.17</v>
+      </c>
+    </row>
+    <row r="273" ht="25" customHeight="1" spans="1:8">
+      <c r="A273" s="71"/>
+      <c r="B273" s="36"/>
+      <c r="C273" s="22">
+        <v>43551</v>
+      </c>
+      <c r="D273" s="64">
+        <v>100.12</v>
+      </c>
+      <c r="E273" s="26">
+        <v>5.27</v>
+      </c>
+      <c r="F273" s="26">
+        <v>11.98</v>
+      </c>
+      <c r="G273" s="26">
+        <v>20.78</v>
+      </c>
+      <c r="H273" s="44">
+        <v>26</v>
+      </c>
+    </row>
     <row r="274" ht="25" customHeight="1" spans="1:8">
-      <c r="A274" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="B274" s="80" t="s">
+      <c r="A274" s="71"/>
+      <c r="B274" s="36"/>
+      <c r="C274" s="22"/>
+      <c r="D274" s="64"/>
+      <c r="E274" s="26"/>
+      <c r="F274" s="26"/>
+      <c r="G274" s="26"/>
+      <c r="H274" s="44"/>
+    </row>
+    <row r="275" ht="25" customHeight="1" spans="1:8">
+      <c r="A275" s="71"/>
+      <c r="B275" s="36"/>
+      <c r="C275" s="22"/>
+      <c r="D275" s="64"/>
+      <c r="E275" s="26"/>
+      <c r="F275" s="26"/>
+      <c r="G275" s="26"/>
+      <c r="H275" s="44"/>
+    </row>
+    <row r="276" ht="25" customHeight="1" spans="1:8">
+      <c r="A276" s="71"/>
+      <c r="B276" s="36"/>
+      <c r="C276" s="64"/>
+      <c r="D276" s="64"/>
+      <c r="E276" s="61"/>
+      <c r="F276" s="61"/>
+      <c r="G276" s="61"/>
+      <c r="H276" s="63"/>
+    </row>
+    <row r="277" ht="25" customHeight="1"/>
+    <row r="278" ht="25" customHeight="1"/>
+    <row r="279" ht="25" customHeight="1" spans="1:8">
+      <c r="A279" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="C274" s="22">
+      <c r="B279" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C279" s="22">
         <v>43430</v>
       </c>
-      <c r="D274" s="81">
+      <c r="D279" s="81">
         <v>227.795</v>
       </c>
-      <c r="E274" s="82">
+      <c r="E279" s="82">
         <v>-1.7</v>
       </c>
-      <c r="F274" s="82">
+      <c r="F279" s="82">
         <v>12.1</v>
       </c>
-      <c r="G274" s="82">
+      <c r="G279" s="82">
         <v>9.5</v>
       </c>
-      <c r="H274" s="82">
+      <c r="H279" s="82">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="275" ht="25" customHeight="1" spans="1:8">
-      <c r="A275" s="79"/>
-      <c r="B275" s="80"/>
-      <c r="C275" s="22">
-        <v>43432</v>
-      </c>
-      <c r="D275" s="31">
-        <v>230.33</v>
-      </c>
-      <c r="E275" s="26">
-        <v>-0.9</v>
-      </c>
-      <c r="F275" s="26">
-        <v>12.6</v>
-      </c>
-      <c r="G275" s="26">
-        <v>9.6</v>
-      </c>
-      <c r="H275" s="26">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="276" ht="25" customHeight="1" spans="1:8">
-      <c r="A276" s="79"/>
-      <c r="B276" s="80"/>
-      <c r="C276" s="22">
-        <v>43452</v>
-      </c>
-      <c r="D276" s="65">
-        <v>235.831</v>
-      </c>
-      <c r="E276" s="26">
-        <v>0.8</v>
-      </c>
-      <c r="F276" s="26">
-        <v>14.2</v>
-      </c>
-      <c r="G276" s="26">
-        <v>11.4</v>
-      </c>
-      <c r="H276" s="26">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="277" ht="25" customHeight="1" spans="1:8">
-      <c r="A277" s="79"/>
-      <c r="B277" s="80"/>
-      <c r="C277" s="22">
-        <v>43461</v>
-      </c>
-      <c r="D277" s="65">
-        <v>233.486</v>
-      </c>
-      <c r="E277" s="26">
-        <v>-1.6</v>
-      </c>
-      <c r="F277" s="26">
-        <v>14.6</v>
-      </c>
-      <c r="G277" s="26">
-        <v>10.5</v>
-      </c>
-      <c r="H277" s="26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="278" ht="25" customHeight="1" spans="1:8">
-      <c r="A278" s="79"/>
-      <c r="B278" s="80"/>
-      <c r="C278" s="22">
-        <v>43480</v>
-      </c>
-      <c r="D278" s="65">
-        <v>234.424</v>
-      </c>
-      <c r="E278" s="26">
-        <v>-3</v>
-      </c>
-      <c r="F278" s="26">
-        <v>11.9</v>
-      </c>
-      <c r="G278" s="26">
-        <v>12.9</v>
-      </c>
-      <c r="H278" s="26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="279" ht="25" customHeight="1" spans="1:8">
-      <c r="A279" s="79"/>
-      <c r="B279" s="80"/>
-      <c r="C279" s="69"/>
-      <c r="D279" s="69"/>
-      <c r="E279" s="70"/>
-      <c r="F279" s="70"/>
-      <c r="G279" s="70"/>
-      <c r="H279" s="70"/>
     </row>
     <row r="280" ht="25" customHeight="1" spans="1:8">
       <c r="A280" s="79"/>
       <c r="B280" s="80"/>
-      <c r="C280" s="69"/>
-      <c r="D280" s="69"/>
-      <c r="E280" s="70"/>
-      <c r="F280" s="70"/>
-      <c r="G280" s="70"/>
-      <c r="H280" s="70"/>
+      <c r="C280" s="22">
+        <v>43432</v>
+      </c>
+      <c r="D280" s="31">
+        <v>230.33</v>
+      </c>
+      <c r="E280" s="26">
+        <v>-0.9</v>
+      </c>
+      <c r="F280" s="26">
+        <v>12.6</v>
+      </c>
+      <c r="G280" s="26">
+        <v>9.6</v>
+      </c>
+      <c r="H280" s="26">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="281" ht="25" customHeight="1" spans="1:8">
       <c r="A281" s="79"/>
       <c r="B281" s="80"/>
-      <c r="C281" s="69"/>
-      <c r="D281" s="69"/>
-      <c r="E281" s="70"/>
-      <c r="F281" s="70"/>
-      <c r="G281" s="70"/>
-      <c r="H281" s="70"/>
+      <c r="C281" s="22">
+        <v>43452</v>
+      </c>
+      <c r="D281" s="64">
+        <v>235.831</v>
+      </c>
+      <c r="E281" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="F281" s="26">
+        <v>14.2</v>
+      </c>
+      <c r="G281" s="26">
+        <v>11.4</v>
+      </c>
+      <c r="H281" s="26">
+        <v>15.6</v>
+      </c>
     </row>
     <row r="282" ht="25" customHeight="1" spans="1:8">
       <c r="A282" s="79"/>
       <c r="B282" s="80"/>
-      <c r="C282" s="69"/>
-      <c r="D282" s="69"/>
-      <c r="E282" s="70"/>
-      <c r="F282" s="70"/>
-      <c r="G282" s="70"/>
-      <c r="H282" s="70"/>
-    </row>
-    <row r="283" ht="25" customHeight="1"/>
-    <row r="284" ht="25" customHeight="1"/>
-    <row r="285" ht="25" customHeight="1"/>
-    <row r="286" ht="25" customHeight="1"/>
-    <row r="287" ht="25" customHeight="1"/>
+      <c r="C282" s="22">
+        <v>43461</v>
+      </c>
+      <c r="D282" s="64">
+        <v>233.486</v>
+      </c>
+      <c r="E282" s="26">
+        <v>-1.6</v>
+      </c>
+      <c r="F282" s="26">
+        <v>14.6</v>
+      </c>
+      <c r="G282" s="26">
+        <v>10.5</v>
+      </c>
+      <c r="H282" s="26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" ht="25" customHeight="1" spans="1:8">
+      <c r="A283" s="79"/>
+      <c r="B283" s="80"/>
+      <c r="C283" s="22">
+        <v>43480</v>
+      </c>
+      <c r="D283" s="64">
+        <v>234.424</v>
+      </c>
+      <c r="E283" s="26">
+        <v>-3</v>
+      </c>
+      <c r="F283" s="26">
+        <v>11.9</v>
+      </c>
+      <c r="G283" s="26">
+        <v>12.9</v>
+      </c>
+      <c r="H283" s="26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" ht="25" customHeight="1" spans="1:8">
+      <c r="A284" s="79"/>
+      <c r="B284" s="80"/>
+      <c r="C284" s="22">
+        <v>43550</v>
+      </c>
+      <c r="D284" s="64">
+        <v>246.301</v>
+      </c>
+      <c r="E284" s="61">
+        <v>9.14</v>
+      </c>
+      <c r="F284" s="61">
+        <v>9.59</v>
+      </c>
+      <c r="G284" s="61"/>
+      <c r="H284" s="61">
+        <v>15.01</v>
+      </c>
+    </row>
+    <row r="285" ht="25" customHeight="1" spans="1:8">
+      <c r="A285" s="79"/>
+      <c r="B285" s="80"/>
+      <c r="C285" s="22">
+        <v>43551</v>
+      </c>
+      <c r="D285" s="64">
+        <v>245.74</v>
+      </c>
+      <c r="E285" s="61">
+        <v>7.65</v>
+      </c>
+      <c r="F285" s="61">
+        <v>10.28</v>
+      </c>
+      <c r="G285" s="61">
+        <v>13.81</v>
+      </c>
+      <c r="H285" s="61">
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="286" ht="25" customHeight="1" spans="1:8">
+      <c r="A286" s="79"/>
+      <c r="B286" s="80"/>
+      <c r="C286" s="64"/>
+      <c r="D286" s="64"/>
+      <c r="E286" s="61"/>
+      <c r="F286" s="61"/>
+      <c r="G286" s="61"/>
+      <c r="H286" s="61"/>
+    </row>
+    <row r="287" ht="25" customHeight="1" spans="1:8">
+      <c r="A287" s="79"/>
+      <c r="B287" s="80"/>
+      <c r="C287" s="64"/>
+      <c r="D287" s="64"/>
+      <c r="E287" s="61"/>
+      <c r="F287" s="61"/>
+      <c r="G287" s="61"/>
+      <c r="H287" s="61"/>
+    </row>
     <row r="288" ht="25" customHeight="1"/>
     <row r="289" ht="25" customHeight="1"/>
     <row r="290" ht="25" customHeight="1"/>
@@ -7150,11 +7400,11 @@
     <row r="341" ht="25" customHeight="1"/>
     <row r="342" ht="25" customHeight="1"/>
     <row r="343" ht="25" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="344" ht="25" customHeight="1"/>
+    <row r="345" ht="25" customHeight="1"/>
+    <row r="346" ht="25" customHeight="1"/>
+    <row r="347" ht="25" customHeight="1"/>
+    <row r="348" ht="25" customHeight="1"/>
     <row r="349" ht="15.75" customHeight="1"/>
     <row r="350" ht="15.75" customHeight="1"/>
     <row r="351" ht="15.75" customHeight="1"/>
@@ -8024,6 +8274,11 @@
     <row r="1215" ht="15.75" customHeight="1"/>
     <row r="1216" ht="15.75" customHeight="1"/>
     <row r="1217" ht="15.75" customHeight="1"/>
+    <row r="1218" ht="15.75" customHeight="1"/>
+    <row r="1219" ht="15.75" customHeight="1"/>
+    <row r="1220" ht="15.75" customHeight="1"/>
+    <row r="1221" ht="15.75" customHeight="1"/>
+    <row r="1222" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A2:A40"/>
@@ -8032,24 +8287,25 @@
     <mergeCell ref="A107:A140"/>
     <mergeCell ref="A142:A174"/>
     <mergeCell ref="A176:A213"/>
-    <mergeCell ref="A215:A240"/>
-    <mergeCell ref="A242:A271"/>
-    <mergeCell ref="A274:A282"/>
+    <mergeCell ref="A215:A245"/>
+    <mergeCell ref="A247:A276"/>
+    <mergeCell ref="A279:A287"/>
     <mergeCell ref="B2:B40"/>
     <mergeCell ref="B42:B78"/>
     <mergeCell ref="B80:B105"/>
     <mergeCell ref="B107:B140"/>
     <mergeCell ref="B142:B174"/>
     <mergeCell ref="B176:B213"/>
-    <mergeCell ref="B215:B240"/>
-    <mergeCell ref="B242:B271"/>
-    <mergeCell ref="B274:B282"/>
+    <mergeCell ref="B215:B245"/>
+    <mergeCell ref="B247:B276"/>
+    <mergeCell ref="B279:B287"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A215:A240" r:id="rId1" display="Reliance Large Cap Fund - Direct Plan (G)"/>
-    <hyperlink ref="A242:A271" r:id="rId2" display="Canara Robeco Emerging Equities - Direct Plan (G)"/>
+    <hyperlink ref="A215:A245" r:id="rId1" display="Reliance Large Cap Fund - Direct Plan (G)"/>
+    <hyperlink ref="A247:A276" r:id="rId2" display="Canara Robeco Emerging Equities - Direct Plan (G)"/>
     <hyperlink ref="A80:A105" location="Sheet1!A204" display="=HYPERLINK(&quot;http://www.moneycontrol.com/mutual-funds/nav/reliance-top-200-fund-direct-plan/MRC940&quot;,&quot;Reliance Top 200 Fund - Direct Plan (G). New name: Reliance Large Cap Fund - Direct Plan (G)&quot;)"/>
-    <hyperlink ref="A274" r:id="rId3" display="Kotak Bluechip Fund - Direct Plan (G)"/>
+    <hyperlink ref="A279" r:id="rId3" display="Kotak Bluechip Fund - Direct Plan (G)"/>
+    <hyperlink ref="I215" r:id="rId4" display="https://www.valueresearchonline.com/funds/newsnapshot.asp?schemecode=16192"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -8111,7 +8367,7 @@
         <v>Aditya Birla Sun Life Tax Relief 96 - Direct Plan (G)</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="12">
         <v>43203</v>
@@ -8197,7 +8453,7 @@
         <v>Tata India Tax Savings Fund - Direct Plan (G)</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="12">
         <v>43203</v>
@@ -8265,7 +8521,7 @@
         <v>Reliance Tax Saver (ELSS) Fund - Direct Plan (G)</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="12">
         <v>43203</v>
@@ -8337,7 +8593,7 @@
         <v>DSP BlackRock Tax Saver Fund - Direct Plan (G)</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="12">
         <v>43203</v>
@@ -9460,35 +9716,35 @@
     </row>
     <row r="2" ht="24.75" customHeight="1" spans="1:26">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -9652,19 +9908,19 @@
     </row>
     <row r="7" ht="24.75" customHeight="1" spans="1:26">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -9854,19 +10110,19 @@
     </row>
     <row r="13" ht="24.75" customHeight="1" spans="1:26">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -10056,19 +10312,19 @@
     </row>
     <row r="19" ht="24.75" customHeight="1" spans="1:26">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -10230,19 +10486,19 @@
     </row>
     <row r="24" ht="24.75" customHeight="1" spans="1:26">
       <c r="A24" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>

--- a/MF-Tracker-online.xlsx
+++ b/MF-Tracker-online.xlsx
@@ -11,12 +11,12 @@
     <sheet name="ELSS" sheetId="2" r:id="rId2"/>
     <sheet name="EQ" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>Company Name</t>
   </si>
@@ -73,6 +73,24 @@
     <t>Large Cap Fund</t>
   </si>
   <si>
+    <t>SBI Equity Hybrid Fund - Direct Plan - Growth</t>
+  </si>
+  <si>
+    <t>Aggressive Hybrid Fund</t>
+  </si>
+  <si>
+    <t>SBI Magnum MultiCap Fund - Direct Plan - Growth</t>
+  </si>
+  <si>
+    <t>Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>SBI Focused Equity Fund - Direct Plan - Growth</t>
+  </si>
+  <si>
+    <t>Focused Fund</t>
+  </si>
+  <si>
     <t>ELSS</t>
   </si>
   <si>
@@ -108,14 +126,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
     <numFmt numFmtId="179" formatCode="[$-409]d/mmm/yy"/>
     <numFmt numFmtId="180" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
-    <numFmt numFmtId="181" formatCode="0.0"/>
-    <numFmt numFmtId="182" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="0.000"/>
+    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="0.0"/>
+    <numFmt numFmtId="183" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="184" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="28">
@@ -195,6 +213,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -209,100 +319,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,9 +334,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,13 +380,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,13 +452,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,19 +488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,43 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,61 +530,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,12 +554,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -686,24 +704,48 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,6 +789,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -762,11 +822,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,152 +850,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -965,10 +1031,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -994,11 +1060,11 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1031,11 +1097,11 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1046,21 +1112,21 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1070,7 +1136,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1085,6 +1151,10 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1092,11 +1162,11 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,7 +1190,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1168,13 +1238,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1186,6 +1256,63 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1529,18 +1656,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G286" sqref="G286"/>
+      <selection pane="bottomLeft" activeCell="G302" sqref="G302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="47.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="20.5714285714286" style="17" customWidth="1"/>
+    <col min="2" max="2" width="25.1428571428571" style="17" customWidth="1"/>
     <col min="3" max="3" width="18.2857142857143" style="17" customWidth="1"/>
     <col min="4" max="4" width="17.4285714285714" style="17" customWidth="1"/>
     <col min="5" max="5" width="13.1428571428571" customWidth="1"/>
@@ -2341,12 +2468,24 @@
     <row r="37" ht="24.75" customHeight="1" spans="1:8">
       <c r="A37" s="25"/>
       <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
+      <c r="C37" s="22">
+        <v>43573</v>
+      </c>
+      <c r="D37" s="23">
+        <v>31.48</v>
+      </c>
+      <c r="E37" s="26">
+        <v>0.96</v>
+      </c>
+      <c r="F37" s="26">
+        <v>8.62</v>
+      </c>
+      <c r="G37" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="H37" s="26">
+        <v>13.56</v>
+      </c>
     </row>
     <row r="38" ht="24.75" customHeight="1" spans="1:8">
       <c r="A38" s="25"/>
@@ -3182,4219 +3321,4758 @@
     <row r="78" ht="24.75" customHeight="1" spans="1:8">
       <c r="A78" s="25"/>
       <c r="B78" s="36"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="44"/>
-    </row>
-    <row r="79" ht="24.75" customHeight="1" spans="1:2">
-      <c r="A79" s="2"/>
-      <c r="B79" s="33"/>
+      <c r="C78" s="22">
+        <v>43573</v>
+      </c>
+      <c r="D78" s="47">
+        <v>37.984</v>
+      </c>
+      <c r="E78" s="26">
+        <v>9.27</v>
+      </c>
+      <c r="F78" s="26">
+        <v>11.8</v>
+      </c>
+      <c r="G78" s="26">
+        <v>17.39</v>
+      </c>
+      <c r="H78" s="44">
+        <v>19.84</v>
+      </c>
+    </row>
+    <row r="79" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A79" s="25"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="44"/>
     </row>
     <row r="80" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A80" s="49" t="str">
+      <c r="A80" s="25"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="44"/>
+    </row>
+    <row r="81" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A81" s="25"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="44"/>
+    </row>
+    <row r="82" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A82" s="25"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="44"/>
+    </row>
+    <row r="83" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A83" s="25"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="44"/>
+    </row>
+    <row r="84" ht="24.75" customHeight="1" spans="1:2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="33"/>
+    </row>
+    <row r="85" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A85" s="50" t="str">
         <f>HYPERLINK("http://www.moneycontrol.com/mutual-funds/nav/reliance-top-200-fund-direct-plan/MRC940","Reliance Top 200 Fund - Direct Plan (G). New name: Reliance Large Cap Fund - Direct Plan (G)")</f>
         <v>Reliance Top 200 Fund - Direct Plan (G). New name: Reliance Large Cap Fund - Direct Plan (G)</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B85" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="50">
+      <c r="C85" s="51">
         <v>43199</v>
       </c>
-      <c r="D80" s="51">
+      <c r="D85" s="52">
         <v>33.495</v>
       </c>
-      <c r="E80" s="52">
+      <c r="E85" s="53">
         <v>15.7</v>
       </c>
-      <c r="F80" s="52">
+      <c r="F85" s="53">
         <v>23</v>
       </c>
-      <c r="G80" s="52">
+      <c r="G85" s="53">
         <v>9.6</v>
       </c>
-      <c r="H80" s="52"/>
-    </row>
-    <row r="81" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A81" s="49"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="50">
+      <c r="H85" s="53"/>
+    </row>
+    <row r="86" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A86" s="50"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="51">
         <v>43200</v>
       </c>
-      <c r="D81" s="51">
+      <c r="D86" s="52">
         <v>33.642</v>
       </c>
-      <c r="E81" s="52">
+      <c r="E86" s="53">
         <v>15.9</v>
       </c>
-      <c r="F81" s="52">
+      <c r="F86" s="53">
         <v>23.2</v>
       </c>
-      <c r="G81" s="52">
+      <c r="G86" s="53">
         <v>9.8</v>
       </c>
-      <c r="H81" s="52"/>
-    </row>
-    <row r="82" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A82" s="49"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="50">
+      <c r="H86" s="53"/>
+    </row>
+    <row r="87" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A87" s="50"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="51">
         <v>43202</v>
       </c>
-      <c r="D82" s="51">
+      <c r="D87" s="52">
         <v>33.521</v>
       </c>
-      <c r="E82" s="53">
+      <c r="E87" s="54">
         <v>14.7</v>
       </c>
-      <c r="F82" s="53">
+      <c r="F87" s="54">
         <v>21.7</v>
       </c>
-      <c r="G82" s="53">
+      <c r="G87" s="54">
         <v>9.6</v>
       </c>
-      <c r="H82" s="53"/>
-    </row>
-    <row r="83" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A83" s="49"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="50">
+      <c r="H87" s="54"/>
+    </row>
+    <row r="88" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A88" s="50"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="51">
         <v>43203</v>
       </c>
-      <c r="D83" s="51">
+      <c r="D88" s="52">
         <v>33.477</v>
       </c>
-      <c r="E83" s="53">
+      <c r="E88" s="54">
         <v>15.1</v>
       </c>
-      <c r="F83" s="53">
+      <c r="F88" s="54">
         <v>20.7</v>
       </c>
-      <c r="G83" s="53">
+      <c r="G88" s="54">
         <v>9.5</v>
       </c>
-      <c r="H83" s="53"/>
-    </row>
-    <row r="84" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A84" s="49"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="50">
+      <c r="H88" s="54"/>
+    </row>
+    <row r="89" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A89" s="50"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="51">
         <v>43208</v>
       </c>
-      <c r="D84" s="51">
+      <c r="D89" s="52">
         <v>33.628</v>
       </c>
-      <c r="E84" s="53">
+      <c r="E89" s="54">
         <v>16.9</v>
       </c>
-      <c r="F84" s="53">
+      <c r="F89" s="54">
         <v>20.6</v>
       </c>
-      <c r="G84" s="53">
+      <c r="G89" s="54">
         <v>10.8</v>
       </c>
-      <c r="H84" s="53">
+      <c r="H89" s="54">
         <v>19.3</v>
       </c>
     </row>
-    <row r="85" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A85" s="49"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="50">
+    <row r="90" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A90" s="50"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="51">
         <v>43311</v>
       </c>
-      <c r="D85" s="54">
+      <c r="D90" s="55">
         <v>35.085</v>
       </c>
-      <c r="E85" s="55">
+      <c r="E90" s="56">
         <v>10.3</v>
       </c>
-      <c r="F85" s="55">
+      <c r="F90" s="56">
         <v>17.1</v>
       </c>
-      <c r="G85" s="55">
+      <c r="G90" s="56">
         <v>11.8</v>
       </c>
-      <c r="H85" s="55">
+      <c r="H90" s="56">
         <v>22.4</v>
       </c>
     </row>
-    <row r="86" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A86" s="49"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="50">
+    <row r="91" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A91" s="50"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="51">
         <v>43312</v>
       </c>
-      <c r="D86" s="51">
+      <c r="D91" s="52">
         <v>35.068</v>
       </c>
-      <c r="E86" s="55">
+      <c r="E91" s="56">
         <v>9.4</v>
       </c>
-      <c r="F86" s="55">
+      <c r="F91" s="56">
         <v>17.1</v>
       </c>
-      <c r="G86" s="55">
+      <c r="G91" s="56">
         <v>11.4</v>
       </c>
-      <c r="H86" s="55">
+      <c r="H91" s="56">
         <v>22.1</v>
       </c>
     </row>
-    <row r="87" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A87" s="49"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="50">
+    <row r="92" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A92" s="50"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="51">
         <v>43313</v>
       </c>
-      <c r="D87" s="54">
+      <c r="D92" s="55">
         <v>35.109</v>
       </c>
-      <c r="E87" s="55">
+      <c r="E92" s="56">
         <v>9.4</v>
       </c>
-      <c r="F87" s="55">
+      <c r="F92" s="56">
         <v>17.5</v>
       </c>
-      <c r="G87" s="55">
+      <c r="G92" s="56">
         <v>11.4</v>
       </c>
-      <c r="H87" s="55">
+      <c r="H92" s="56">
         <v>22.4</v>
       </c>
     </row>
-    <row r="88" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A88" s="49"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="50">
+    <row r="93" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A93" s="50"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="51">
         <v>43319</v>
       </c>
-      <c r="D88" s="51">
+      <c r="D93" s="52">
         <v>35.367</v>
       </c>
-      <c r="E88" s="55">
+      <c r="E93" s="56">
         <v>10.9</v>
       </c>
-      <c r="F88" s="55">
+      <c r="F93" s="56">
         <v>17.4</v>
       </c>
-      <c r="G88" s="55">
+      <c r="G93" s="56">
         <v>11.3</v>
       </c>
-      <c r="H88" s="55">
+      <c r="H93" s="56">
         <v>23.1</v>
       </c>
     </row>
-    <row r="89" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A89" s="49"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="50">
+    <row r="94" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A94" s="50"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="51">
         <v>43321</v>
       </c>
-      <c r="D89" s="51">
+      <c r="D94" s="52">
         <v>35.687</v>
       </c>
-      <c r="E89" s="55">
+      <c r="E94" s="56">
         <v>14.2</v>
       </c>
-      <c r="F89" s="55">
+      <c r="F94" s="56">
         <v>18</v>
       </c>
-      <c r="G89" s="55">
+      <c r="G94" s="56">
         <v>11.6</v>
       </c>
-      <c r="H89" s="55">
+      <c r="H94" s="56">
         <v>22.9</v>
       </c>
     </row>
-    <row r="90" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A90" s="49"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="50">
+    <row r="95" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A95" s="50"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="51">
         <v>43322</v>
       </c>
-      <c r="D90" s="51">
+      <c r="D95" s="52">
         <v>35.367</v>
       </c>
-      <c r="E90" s="55">
+      <c r="E95" s="56">
         <v>14.4</v>
       </c>
-      <c r="F90" s="55">
+      <c r="F95" s="56">
         <v>18.4</v>
       </c>
-      <c r="G90" s="55">
+      <c r="G95" s="56">
         <v>11.4</v>
       </c>
-      <c r="H90" s="55">
+      <c r="H95" s="56">
         <v>22.7</v>
       </c>
     </row>
-    <row r="91" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A91" s="49"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="50">
+    <row r="96" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A96" s="50"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="51">
         <v>43325</v>
       </c>
-      <c r="D91" s="51">
+      <c r="D96" s="52">
         <v>35.079</v>
       </c>
-      <c r="E91" s="55">
+      <c r="E96" s="56">
         <v>14.4</v>
       </c>
-      <c r="F91" s="55">
+      <c r="F96" s="56">
         <v>17.2</v>
       </c>
-      <c r="G91" s="55">
+      <c r="G96" s="56">
         <v>11.9</v>
       </c>
-      <c r="H91" s="55">
+      <c r="H96" s="56">
         <v>21.9</v>
       </c>
     </row>
-    <row r="92" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A92" s="49"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="50">
+    <row r="97" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A97" s="50"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="51">
         <v>43326</v>
       </c>
-      <c r="D92" s="51">
+      <c r="D97" s="52">
         <v>35.393</v>
       </c>
-      <c r="E92" s="55">
+      <c r="E97" s="56">
         <v>14.1</v>
       </c>
-      <c r="F92" s="55">
+      <c r="F97" s="56">
         <v>17.7</v>
       </c>
-      <c r="G92" s="55">
+      <c r="G97" s="56">
         <v>11.5</v>
       </c>
-      <c r="H92" s="55">
+      <c r="H97" s="56">
         <v>22</v>
       </c>
     </row>
-    <row r="93" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A93" s="49"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="50">
+    <row r="98" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A98" s="50"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="51">
         <v>43332</v>
       </c>
-      <c r="D93" s="51">
+      <c r="D98" s="52">
         <v>36.178</v>
       </c>
-      <c r="E93" s="55">
+      <c r="E98" s="56">
         <v>16.3</v>
       </c>
-      <c r="F93" s="55">
+      <c r="F98" s="56">
         <v>18</v>
       </c>
-      <c r="G93" s="55">
+      <c r="G98" s="56">
         <v>12.7</v>
       </c>
-      <c r="H93" s="55">
+      <c r="H98" s="56">
         <v>23.8</v>
       </c>
     </row>
-    <row r="94" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A94" s="49"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="50">
+    <row r="99" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A99" s="50"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="51">
         <v>43333</v>
       </c>
-      <c r="D94" s="51">
+      <c r="D99" s="52">
         <v>36.298</v>
       </c>
-      <c r="E94" s="55">
+      <c r="E99" s="56">
         <v>18</v>
       </c>
-      <c r="F94" s="55">
+      <c r="F99" s="56">
         <v>18.2</v>
       </c>
-      <c r="G94" s="55">
+      <c r="G99" s="56">
         <v>13.1</v>
       </c>
-      <c r="H94" s="55">
+      <c r="H99" s="56">
         <v>24.3</v>
       </c>
     </row>
-    <row r="95" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A95" s="49"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="50">
+    <row r="100" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A100" s="50"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="51">
         <v>43336</v>
       </c>
-      <c r="D95" s="51">
+      <c r="D100" s="52">
         <v>36.183</v>
       </c>
-      <c r="E95" s="55">
+      <c r="E100" s="56">
         <v>15.9</v>
       </c>
-      <c r="F95" s="55">
+      <c r="F100" s="56">
         <v>18</v>
       </c>
-      <c r="G95" s="55">
+      <c r="G100" s="56">
         <v>15.6</v>
       </c>
-      <c r="H95" s="55">
+      <c r="H100" s="56">
         <v>23.5</v>
       </c>
     </row>
-    <row r="96" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A96" s="49"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="50">
+    <row r="101" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A101" s="50"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="51">
         <v>43342</v>
       </c>
-      <c r="D96" s="51">
+      <c r="D101" s="52">
         <v>36.845</v>
       </c>
-      <c r="E96" s="55">
+      <c r="E101" s="56">
         <v>17.3</v>
       </c>
-      <c r="F96" s="55">
+      <c r="F101" s="56">
         <v>18.3</v>
       </c>
-      <c r="G96" s="55">
+      <c r="G101" s="56">
         <v>15.2</v>
       </c>
-      <c r="H96" s="55">
+      <c r="H101" s="56">
         <v>23.9</v>
       </c>
     </row>
-    <row r="97" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A97" s="49"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="50">
+    <row r="102" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A102" s="50"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="51">
         <v>43348</v>
       </c>
-      <c r="D97" s="51">
+      <c r="D102" s="52">
         <v>36.203</v>
       </c>
-      <c r="E97" s="55">
+      <c r="E102" s="56">
         <v>14.7</v>
       </c>
-      <c r="F97" s="55">
+      <c r="F102" s="56">
         <v>16.8</v>
       </c>
-      <c r="G97" s="55">
+      <c r="G102" s="56">
         <v>16.2</v>
       </c>
-      <c r="H97" s="55">
+      <c r="H102" s="56">
         <v>23.1</v>
       </c>
     </row>
-    <row r="98" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A98" s="49"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="50">
+    <row r="103" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A103" s="50"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="51">
         <v>43368</v>
       </c>
-      <c r="D98" s="51">
+      <c r="D103" s="52">
         <v>34.648</v>
       </c>
-      <c r="E98" s="55">
+      <c r="E103" s="56">
         <v>9.1</v>
       </c>
-      <c r="F98" s="55">
+      <c r="F103" s="56">
         <v>13.7</v>
       </c>
-      <c r="G98" s="55">
+      <c r="G103" s="56">
         <v>13.8</v>
       </c>
-      <c r="H98" s="55">
+      <c r="H103" s="56">
         <v>21</v>
       </c>
     </row>
-    <row r="99" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A99" s="49"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="50">
+    <row r="104" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A104" s="50"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="51">
         <v>43383</v>
       </c>
-      <c r="D99" s="51">
+      <c r="D104" s="52">
         <v>33.023</v>
       </c>
-      <c r="E99" s="55">
+      <c r="E104" s="56">
         <v>3.4</v>
       </c>
-      <c r="F99" s="55">
+      <c r="F104" s="56">
         <v>11.3</v>
       </c>
-      <c r="G99" s="55">
+      <c r="G104" s="56">
         <v>11.2</v>
       </c>
-      <c r="H99" s="55">
+      <c r="H104" s="56">
         <v>19.2</v>
       </c>
     </row>
-    <row r="100" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A100" s="49"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="50">
+    <row r="105" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A105" s="50"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="51">
         <v>43399</v>
       </c>
-      <c r="D100" s="56">
+      <c r="D105" s="57">
         <v>31.994</v>
       </c>
-      <c r="E100" s="57">
+      <c r="E105" s="58">
         <v>-3.3</v>
       </c>
-      <c r="F100" s="57">
+      <c r="F105" s="58">
         <v>9.8</v>
       </c>
-      <c r="G100" s="57">
+      <c r="G105" s="58">
         <v>9.5</v>
       </c>
-      <c r="H100" s="57">
+      <c r="H105" s="58">
         <v>18</v>
       </c>
     </row>
-    <row r="101" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A101" s="49"/>
-      <c r="B101" s="21"/>
-      <c r="C101" s="50">
+    <row r="106" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A106" s="50"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="51">
         <v>43402</v>
       </c>
-      <c r="D101" s="54">
+      <c r="D106" s="55">
         <v>33.094</v>
       </c>
-      <c r="E101" s="55">
+      <c r="E106" s="56">
         <v>0.1</v>
       </c>
-      <c r="F101" s="55">
+      <c r="F106" s="56">
         <v>11.7</v>
       </c>
-      <c r="G101" s="55">
+      <c r="G106" s="56">
         <v>11.4</v>
       </c>
-      <c r="H101" s="55">
+      <c r="H106" s="56">
         <v>18.6</v>
       </c>
     </row>
-    <row r="102" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A102" s="49"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="50"/>
-      <c r="D102" s="51"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="55"/>
-      <c r="H102" s="55"/>
-    </row>
-    <row r="103" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A103" s="49"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="50"/>
-      <c r="D103" s="51"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="55"/>
-      <c r="H103" s="55"/>
-    </row>
-    <row r="104" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A104" s="49"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="50"/>
-      <c r="D104" s="51"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="55"/>
-      <c r="G104" s="55"/>
-      <c r="H104" s="55"/>
-    </row>
-    <row r="105" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A105" s="49"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="50"/>
-      <c r="D105" s="51"/>
-      <c r="E105" s="55"/>
-      <c r="F105" s="55"/>
-      <c r="G105" s="55"/>
-      <c r="H105" s="55"/>
-    </row>
-    <row r="106" ht="24.75" customHeight="1" spans="3:8">
-      <c r="C106" s="58"/>
-      <c r="D106" s="59"/>
-      <c r="E106" s="60"/>
-      <c r="F106" s="60"/>
-      <c r="G106" s="60"/>
-      <c r="H106" s="60"/>
-    </row>
     <row r="107" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A107" s="25" t="str">
+      <c r="A107" s="50"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
+      <c r="G107" s="56"/>
+      <c r="H107" s="56"/>
+    </row>
+    <row r="108" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A108" s="50"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="51"/>
+      <c r="D108" s="52"/>
+      <c r="E108" s="56"/>
+      <c r="F108" s="56"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="56"/>
+    </row>
+    <row r="109" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A109" s="50"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="51"/>
+      <c r="D109" s="52"/>
+      <c r="E109" s="56"/>
+      <c r="F109" s="56"/>
+      <c r="G109" s="56"/>
+      <c r="H109" s="56"/>
+    </row>
+    <row r="110" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A110" s="50"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="51"/>
+      <c r="D110" s="52"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="56"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="56"/>
+    </row>
+    <row r="111" ht="24.75" customHeight="1" spans="3:8">
+      <c r="C111" s="59"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="61"/>
+      <c r="F111" s="61"/>
+      <c r="G111" s="61"/>
+      <c r="H111" s="61"/>
+    </row>
+    <row r="112" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A112" s="25" t="str">
         <f>HYPERLINK("http://www.moneycontrol.com/mutual-funds/nav/dsp-br-focus-fund-direct/MDS588","DSP BlackRock Focus Fund - Direct Plan (G)")</f>
         <v>DSP BlackRock Focus Fund - Direct Plan (G)</v>
       </c>
-      <c r="B107" s="21" t="s">
+      <c r="B112" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C107" s="22">
+      <c r="C112" s="22">
         <v>43202</v>
       </c>
-      <c r="D107" s="23">
+      <c r="D112" s="23">
         <v>23.422</v>
       </c>
-      <c r="E107" s="61">
+      <c r="E112" s="62">
         <v>10.2</v>
       </c>
-      <c r="F107" s="61">
+      <c r="F112" s="62">
         <v>17.6</v>
       </c>
-      <c r="G107" s="61">
+      <c r="G112" s="62">
         <v>8.4</v>
       </c>
-      <c r="H107" s="61"/>
-    </row>
-    <row r="108" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A108" s="25"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="22">
-        <v>43203</v>
-      </c>
-      <c r="D108" s="23">
-        <v>23.421</v>
-      </c>
-      <c r="E108" s="61">
-        <v>10.8</v>
-      </c>
-      <c r="F108" s="61">
-        <v>16.8</v>
-      </c>
-      <c r="G108" s="61">
-        <v>8.5</v>
-      </c>
-      <c r="H108" s="62"/>
-    </row>
-    <row r="109" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A109" s="25"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="22">
-        <v>43207</v>
-      </c>
-      <c r="D109" s="23">
-        <v>23.551</v>
-      </c>
-      <c r="E109" s="61">
-        <v>11.8</v>
-      </c>
-      <c r="F109" s="61">
-        <v>17.1</v>
-      </c>
-      <c r="G109" s="61">
-        <v>9.7</v>
-      </c>
-      <c r="H109" s="61">
-        <v>18.4</v>
-      </c>
-    </row>
-    <row r="110" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A110" s="25"/>
-      <c r="B110" s="21"/>
-      <c r="C110" s="22">
-        <v>43208</v>
-      </c>
-      <c r="D110" s="23">
-        <v>23.494</v>
-      </c>
-      <c r="E110" s="61">
-        <v>11.9</v>
-      </c>
-      <c r="F110" s="61">
-        <v>16.4</v>
-      </c>
-      <c r="G110" s="61">
-        <v>9.6</v>
-      </c>
-      <c r="H110" s="61">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="111" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A111" s="25"/>
-      <c r="B111" s="21"/>
-      <c r="C111" s="22">
-        <v>43311</v>
-      </c>
-      <c r="D111" s="28">
-        <v>24.306</v>
-      </c>
-      <c r="E111" s="26">
-        <v>5.8</v>
-      </c>
-      <c r="F111" s="61"/>
-      <c r="G111" s="26">
-        <v>10.5</v>
-      </c>
-      <c r="H111" s="26">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="112" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A112" s="25"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="22">
-        <v>43312</v>
-      </c>
-      <c r="D112" s="23"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="26"/>
+      <c r="H112" s="62"/>
     </row>
     <row r="113" ht="24.75" customHeight="1" spans="1:8">
       <c r="A113" s="25"/>
       <c r="B113" s="21"/>
       <c r="C113" s="22">
-        <v>43313</v>
-      </c>
-      <c r="D113" s="28">
-        <v>24.377</v>
-      </c>
-      <c r="E113" s="26">
-        <v>6.3</v>
-      </c>
-      <c r="F113" s="26">
-        <v>11.6</v>
-      </c>
-      <c r="G113" s="26">
-        <v>9.6</v>
-      </c>
-      <c r="H113" s="26">
-        <v>20</v>
-      </c>
+        <v>43203</v>
+      </c>
+      <c r="D113" s="23">
+        <v>23.421</v>
+      </c>
+      <c r="E113" s="62">
+        <v>10.8</v>
+      </c>
+      <c r="F113" s="62">
+        <v>16.8</v>
+      </c>
+      <c r="G113" s="62">
+        <v>8.5</v>
+      </c>
+      <c r="H113" s="63"/>
     </row>
     <row r="114" ht="24.75" customHeight="1" spans="1:8">
       <c r="A114" s="25"/>
       <c r="B114" s="21"/>
       <c r="C114" s="22">
-        <v>43319</v>
+        <v>43207</v>
       </c>
       <c r="D114" s="23">
-        <v>24.591</v>
-      </c>
-      <c r="E114" s="26">
-        <v>6.8</v>
-      </c>
-      <c r="F114" s="26">
-        <v>12.2</v>
-      </c>
-      <c r="G114" s="26">
-        <v>9.2</v>
-      </c>
-      <c r="H114" s="26">
-        <v>21.4</v>
+        <v>23.551</v>
+      </c>
+      <c r="E114" s="62">
+        <v>11.8</v>
+      </c>
+      <c r="F114" s="62">
+        <v>17.1</v>
+      </c>
+      <c r="G114" s="62">
+        <v>9.7</v>
+      </c>
+      <c r="H114" s="62">
+        <v>18.4</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:8">
       <c r="A115" s="25"/>
       <c r="B115" s="21"/>
       <c r="C115" s="22">
-        <v>43321</v>
+        <v>43208</v>
       </c>
       <c r="D115" s="23">
-        <v>24.763</v>
-      </c>
-      <c r="E115" s="26">
-        <v>9.9</v>
-      </c>
-      <c r="F115" s="26">
-        <v>12.6</v>
-      </c>
-      <c r="G115" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="H115" s="26">
-        <v>21.4</v>
+        <v>23.494</v>
+      </c>
+      <c r="E115" s="62">
+        <v>11.9</v>
+      </c>
+      <c r="F115" s="62">
+        <v>16.4</v>
+      </c>
+      <c r="G115" s="62">
+        <v>9.6</v>
+      </c>
+      <c r="H115" s="62">
+        <v>18.2</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1" spans="1:8">
       <c r="A116" s="25"/>
       <c r="B116" s="21"/>
       <c r="C116" s="22">
-        <v>43322</v>
-      </c>
-      <c r="D116" s="23">
-        <v>24.651</v>
+        <v>43311</v>
+      </c>
+      <c r="D116" s="28">
+        <v>24.306</v>
       </c>
       <c r="E116" s="26">
-        <v>11.3</v>
-      </c>
-      <c r="F116" s="26">
-        <v>13.4</v>
-      </c>
+        <v>5.8</v>
+      </c>
+      <c r="F116" s="62"/>
       <c r="G116" s="26">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="H116" s="26">
-        <v>21.3</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="117" ht="24.75" customHeight="1" spans="1:8">
       <c r="A117" s="25"/>
       <c r="B117" s="21"/>
       <c r="C117" s="22">
-        <v>43325</v>
-      </c>
-      <c r="D117" s="23">
-        <v>24.37</v>
-      </c>
-      <c r="E117" s="26">
-        <v>11.1</v>
-      </c>
-      <c r="F117" s="26">
-        <v>12.3</v>
-      </c>
-      <c r="G117" s="26">
-        <v>9.6</v>
-      </c>
-      <c r="H117" s="26">
-        <v>20.2</v>
-      </c>
+        <v>43312</v>
+      </c>
+      <c r="D117" s="23"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="26"/>
     </row>
     <row r="118" ht="24.75" customHeight="1" spans="1:8">
       <c r="A118" s="25"/>
       <c r="B118" s="21"/>
       <c r="C118" s="22">
-        <v>43326</v>
-      </c>
-      <c r="D118" s="23">
-        <v>24.65</v>
+        <v>43313</v>
+      </c>
+      <c r="D118" s="28">
+        <v>24.377</v>
       </c>
       <c r="E118" s="26">
-        <v>9.2</v>
+        <v>6.3</v>
       </c>
       <c r="F118" s="26">
-        <v>12.6</v>
+        <v>11.6</v>
       </c>
       <c r="G118" s="26">
-        <v>9.2</v>
+        <v>9.6</v>
       </c>
       <c r="H118" s="26">
-        <v>20.8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1" spans="1:8">
       <c r="A119" s="25"/>
       <c r="B119" s="21"/>
       <c r="C119" s="22">
-        <v>43332</v>
+        <v>43319</v>
       </c>
       <c r="D119" s="23">
-        <v>24.933</v>
+        <v>24.591</v>
       </c>
       <c r="E119" s="26">
-        <v>12</v>
+        <v>6.8</v>
       </c>
       <c r="F119" s="26">
-        <v>13</v>
+        <v>12.2</v>
       </c>
       <c r="G119" s="26">
-        <v>10.4</v>
+        <v>9.2</v>
       </c>
       <c r="H119" s="26">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1" spans="1:8">
       <c r="A120" s="25"/>
       <c r="B120" s="21"/>
       <c r="C120" s="22">
-        <v>43333</v>
+        <v>43321</v>
       </c>
       <c r="D120" s="23">
-        <v>24.934</v>
+        <v>24.763</v>
       </c>
       <c r="E120" s="26">
-        <v>13.1</v>
+        <v>9.9</v>
       </c>
       <c r="F120" s="26">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="G120" s="26">
-        <v>10.8</v>
+        <v>9.5</v>
       </c>
       <c r="H120" s="26">
-        <v>22.4</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1" spans="1:8">
       <c r="A121" s="25"/>
       <c r="B121" s="21"/>
       <c r="C121" s="22">
-        <v>43336</v>
+        <v>43322</v>
       </c>
       <c r="D121" s="23">
-        <v>24.864</v>
+        <v>24.651</v>
       </c>
       <c r="E121" s="26">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="F121" s="26">
-        <v>12.9</v>
+        <v>13.4</v>
       </c>
       <c r="G121" s="26">
-        <v>13.1</v>
+        <v>9.4</v>
       </c>
       <c r="H121" s="26">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="122" ht="24.75" customHeight="1" spans="1:8">
       <c r="A122" s="25"/>
       <c r="B122" s="21"/>
       <c r="C122" s="22">
-        <v>43342</v>
+        <v>43325</v>
       </c>
       <c r="D122" s="23">
-        <v>25.049</v>
+        <v>24.37</v>
       </c>
       <c r="E122" s="26">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="F122" s="26">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="G122" s="26">
-        <v>12.6</v>
+        <v>9.6</v>
       </c>
       <c r="H122" s="26">
-        <v>21.9</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1" spans="1:8">
       <c r="A123" s="25"/>
       <c r="B123" s="21"/>
       <c r="C123" s="22">
-        <v>43348</v>
+        <v>43326</v>
       </c>
       <c r="D123" s="23">
-        <v>24.398</v>
+        <v>24.65</v>
       </c>
       <c r="E123" s="26">
-        <v>7.2</v>
+        <v>9.2</v>
       </c>
       <c r="F123" s="26">
-        <v>10.1</v>
+        <v>12.6</v>
       </c>
       <c r="G123" s="26">
-        <v>13</v>
+        <v>9.2</v>
       </c>
       <c r="H123" s="26">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1" spans="1:8">
       <c r="A124" s="25"/>
       <c r="B124" s="21"/>
       <c r="C124" s="22">
-        <v>43368</v>
+        <v>43332</v>
       </c>
       <c r="D124" s="23">
-        <v>22.462</v>
+        <v>24.933</v>
       </c>
       <c r="E124" s="26">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="F124" s="26">
-        <v>5.3</v>
+        <v>13</v>
       </c>
       <c r="G124" s="26">
-        <v>8.9</v>
+        <v>10.4</v>
       </c>
       <c r="H124" s="26">
-        <v>18.1</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1" spans="1:8">
       <c r="A125" s="25"/>
       <c r="B125" s="21"/>
       <c r="C125" s="22">
-        <v>43383</v>
+        <v>43333</v>
       </c>
       <c r="D125" s="23">
-        <v>21.564</v>
+        <v>24.934</v>
       </c>
       <c r="E125" s="26">
-        <v>-6.1</v>
+        <v>13.1</v>
       </c>
       <c r="F125" s="26">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G125" s="26">
-        <v>6.8</v>
+        <v>10.8</v>
       </c>
       <c r="H125" s="26">
-        <v>16</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="126" ht="24.75" customHeight="1" spans="1:8">
       <c r="A126" s="25"/>
       <c r="B126" s="21"/>
       <c r="C126" s="22">
-        <v>43399</v>
-      </c>
-      <c r="D126" s="48">
-        <v>20.787</v>
-      </c>
-      <c r="E126" s="30">
-        <v>-10.5</v>
-      </c>
-      <c r="F126" s="30">
-        <v>1.5</v>
-      </c>
-      <c r="G126" s="30">
-        <v>5</v>
-      </c>
-      <c r="H126" s="30">
-        <v>14.7</v>
+        <v>43336</v>
+      </c>
+      <c r="D126" s="23">
+        <v>24.864</v>
+      </c>
+      <c r="E126" s="26">
+        <v>11.1</v>
+      </c>
+      <c r="F126" s="26">
+        <v>12.9</v>
+      </c>
+      <c r="G126" s="26">
+        <v>13.1</v>
+      </c>
+      <c r="H126" s="26">
+        <v>21.7</v>
       </c>
     </row>
     <row r="127" ht="24.75" customHeight="1" spans="1:8">
       <c r="A127" s="25"/>
       <c r="B127" s="21"/>
       <c r="C127" s="22">
-        <v>43402</v>
-      </c>
-      <c r="D127" s="28">
-        <v>21.216</v>
+        <v>43342</v>
+      </c>
+      <c r="D127" s="23">
+        <v>25.049</v>
       </c>
       <c r="E127" s="26">
-        <v>-8.3</v>
+        <v>11.2</v>
       </c>
       <c r="F127" s="26">
-        <v>2.7</v>
+        <v>12.2</v>
       </c>
       <c r="G127" s="26">
-        <v>6.2</v>
+        <v>12.6</v>
       </c>
       <c r="H127" s="26">
-        <v>14.9</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1" spans="1:8">
       <c r="A128" s="25"/>
       <c r="B128" s="21"/>
       <c r="C128" s="22">
-        <v>43404</v>
-      </c>
-      <c r="D128" s="28">
-        <v>21.357</v>
+        <v>43348</v>
+      </c>
+      <c r="D128" s="23">
+        <v>24.398</v>
       </c>
       <c r="E128" s="26">
-        <v>-8.1</v>
+        <v>7.2</v>
       </c>
       <c r="F128" s="26">
-        <v>3</v>
+        <v>10.1</v>
       </c>
       <c r="G128" s="26">
-        <v>6.6</v>
+        <v>13</v>
       </c>
       <c r="H128" s="26">
-        <v>14.8</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="129" ht="24.75" customHeight="1" spans="1:8">
       <c r="A129" s="25"/>
       <c r="B129" s="21"/>
       <c r="C129" s="22">
-        <v>43405</v>
-      </c>
-      <c r="D129" s="31">
-        <v>21.489</v>
+        <v>43368</v>
+      </c>
+      <c r="D129" s="23">
+        <v>22.462</v>
       </c>
       <c r="E129" s="26">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="F129" s="26">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="G129" s="26">
-        <v>6.8</v>
+        <v>8.9</v>
       </c>
       <c r="H129" s="26">
-        <v>14.8</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1" spans="1:8">
       <c r="A130" s="25"/>
       <c r="B130" s="21"/>
       <c r="C130" s="22">
-        <v>43410</v>
-      </c>
-      <c r="D130" s="31">
-        <v>21.924</v>
+        <v>43383</v>
+      </c>
+      <c r="D130" s="23">
+        <v>21.564</v>
       </c>
       <c r="E130" s="26">
-        <v>-6</v>
+        <v>-6.1</v>
       </c>
       <c r="F130" s="26">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="G130" s="26">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="H130" s="26">
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="24.75" customHeight="1" spans="1:8">
       <c r="A131" s="25"/>
       <c r="B131" s="21"/>
       <c r="C131" s="22">
-        <v>43413</v>
-      </c>
-      <c r="D131" s="31">
-        <v>22.033</v>
-      </c>
-      <c r="E131" s="26">
-        <v>-4.3</v>
-      </c>
-      <c r="F131" s="26">
-        <v>6.4</v>
-      </c>
-      <c r="G131" s="26">
-        <v>8</v>
-      </c>
-      <c r="H131" s="26">
-        <v>15.8</v>
+        <v>43399</v>
+      </c>
+      <c r="D131" s="48">
+        <v>20.787</v>
+      </c>
+      <c r="E131" s="30">
+        <v>-10.5</v>
+      </c>
+      <c r="F131" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="G131" s="30">
+        <v>5</v>
+      </c>
+      <c r="H131" s="30">
+        <v>14.7</v>
       </c>
     </row>
     <row r="132" ht="24.75" customHeight="1" spans="1:8">
       <c r="A132" s="25"/>
       <c r="B132" s="21"/>
       <c r="C132" s="22">
-        <v>43430</v>
-      </c>
-      <c r="D132" s="31">
-        <v>22.239</v>
+        <v>43402</v>
+      </c>
+      <c r="D132" s="28">
+        <v>21.216</v>
       </c>
       <c r="E132" s="26">
-        <v>-4.2</v>
+        <v>-8.3</v>
       </c>
       <c r="F132" s="26">
-        <v>9.5</v>
+        <v>2.7</v>
       </c>
       <c r="G132" s="26">
-        <v>8.6</v>
+        <v>6.2</v>
       </c>
       <c r="H132" s="26">
-        <v>16.5</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1" spans="1:8">
       <c r="A133" s="25"/>
       <c r="B133" s="21"/>
       <c r="C133" s="22">
-        <v>43432</v>
-      </c>
-      <c r="D133" s="23"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="26"/>
+        <v>43404</v>
+      </c>
+      <c r="D133" s="28">
+        <v>21.357</v>
+      </c>
+      <c r="E133" s="26">
+        <v>-8.1</v>
+      </c>
+      <c r="F133" s="26">
+        <v>3</v>
+      </c>
+      <c r="G133" s="26">
+        <v>6.6</v>
+      </c>
+      <c r="H133" s="26">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="134" ht="24.75" customHeight="1" spans="1:8">
       <c r="A134" s="25"/>
       <c r="B134" s="21"/>
       <c r="C134" s="22">
-        <v>43452</v>
-      </c>
-      <c r="D134" s="23">
-        <v>22.949</v>
+        <v>43405</v>
+      </c>
+      <c r="D134" s="31">
+        <v>21.489</v>
       </c>
       <c r="E134" s="26">
-        <v>-2.5</v>
+        <v>-8</v>
       </c>
       <c r="F134" s="26">
-        <v>11.6</v>
+        <v>3.3</v>
       </c>
       <c r="G134" s="26">
-        <v>10.3</v>
+        <v>6.8</v>
       </c>
       <c r="H134" s="26">
-        <v>16.1</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:8">
       <c r="A135" s="25"/>
       <c r="B135" s="21"/>
       <c r="C135" s="22">
-        <v>43461</v>
-      </c>
-      <c r="D135" s="23">
-        <v>22.567</v>
+        <v>43410</v>
+      </c>
+      <c r="D135" s="31">
+        <v>21.924</v>
       </c>
       <c r="E135" s="26">
-        <v>-5.3</v>
+        <v>-6</v>
       </c>
       <c r="F135" s="26">
-        <v>12.1</v>
+        <v>6.2</v>
       </c>
       <c r="G135" s="26">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="H135" s="26">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="136" ht="24.75" customHeight="1" spans="1:8">
       <c r="A136" s="25"/>
       <c r="B136" s="21"/>
       <c r="C136" s="22">
-        <v>43480</v>
-      </c>
-      <c r="D136" s="23">
-        <v>22.412</v>
+        <v>43413</v>
+      </c>
+      <c r="D136" s="31">
+        <v>22.033</v>
       </c>
       <c r="E136" s="26">
-        <v>-7.6</v>
+        <v>-4.3</v>
       </c>
       <c r="F136" s="26">
-        <v>8.3</v>
+        <v>6.4</v>
       </c>
       <c r="G136" s="26">
-        <v>11.3</v>
+        <v>8</v>
       </c>
       <c r="H136" s="26">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="137" ht="24.75" customHeight="1" spans="1:8">
       <c r="A137" s="25"/>
       <c r="B137" s="21"/>
       <c r="C137" s="22">
-        <v>43524</v>
-      </c>
-      <c r="D137" s="23">
-        <v>22.032</v>
+        <v>43430</v>
+      </c>
+      <c r="D137" s="31">
+        <v>22.239</v>
       </c>
       <c r="E137" s="26">
-        <v>-5.41</v>
+        <v>-4.2</v>
       </c>
       <c r="F137" s="26">
-        <v>4.84</v>
-      </c>
-      <c r="G137" s="26"/>
+        <v>9.5</v>
+      </c>
+      <c r="G137" s="26">
+        <v>8.6</v>
+      </c>
       <c r="H137" s="26">
-        <v>15.3</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1" spans="1:8">
       <c r="A138" s="25"/>
       <c r="B138" s="21"/>
       <c r="C138" s="22">
-        <v>43550</v>
-      </c>
-      <c r="D138" s="23">
-        <v>23.762</v>
-      </c>
-      <c r="E138" s="26">
-        <v>6.1</v>
-      </c>
-      <c r="F138" s="26">
-        <v>6.42</v>
-      </c>
+        <v>43432</v>
+      </c>
+      <c r="D138" s="23"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="26"/>
       <c r="G138" s="26"/>
-      <c r="H138" s="26">
-        <v>15.67</v>
-      </c>
+      <c r="H138" s="26"/>
     </row>
     <row r="139" ht="24.75" customHeight="1" spans="1:8">
       <c r="A139" s="25"/>
       <c r="B139" s="21"/>
-      <c r="C139" s="22"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="26"/>
-      <c r="F139" s="26"/>
-      <c r="G139" s="26"/>
-      <c r="H139" s="26"/>
+      <c r="C139" s="22">
+        <v>43452</v>
+      </c>
+      <c r="D139" s="23">
+        <v>22.949</v>
+      </c>
+      <c r="E139" s="26">
+        <v>-2.5</v>
+      </c>
+      <c r="F139" s="26">
+        <v>11.6</v>
+      </c>
+      <c r="G139" s="26">
+        <v>10.3</v>
+      </c>
+      <c r="H139" s="26">
+        <v>16.1</v>
+      </c>
     </row>
     <row r="140" ht="24.75" customHeight="1" spans="1:8">
       <c r="A140" s="25"/>
       <c r="B140" s="21"/>
-      <c r="C140" s="22"/>
-      <c r="D140" s="23"/>
-      <c r="E140" s="61"/>
-      <c r="F140" s="61"/>
-      <c r="G140" s="61"/>
-      <c r="H140" s="61"/>
-    </row>
-    <row r="141" ht="24.75" customHeight="1"/>
+      <c r="C140" s="22">
+        <v>43461</v>
+      </c>
+      <c r="D140" s="23">
+        <v>22.567</v>
+      </c>
+      <c r="E140" s="26">
+        <v>-5.3</v>
+      </c>
+      <c r="F140" s="26">
+        <v>12.1</v>
+      </c>
+      <c r="G140" s="26">
+        <v>9.6</v>
+      </c>
+      <c r="H140" s="26">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="141" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A141" s="25"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="22">
+        <v>43480</v>
+      </c>
+      <c r="D141" s="23">
+        <v>22.412</v>
+      </c>
+      <c r="E141" s="26">
+        <v>-7.6</v>
+      </c>
+      <c r="F141" s="26">
+        <v>8.3</v>
+      </c>
+      <c r="G141" s="26">
+        <v>11.3</v>
+      </c>
+      <c r="H141" s="26">
+        <v>15.3</v>
+      </c>
+    </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A142" s="25" t="str">
-        <f>HYPERLINK("http://www.moneycontrol.com/mutual-funds/nav/idfc-focused-equity-fund-direct-plan/MAG727","IDFC Focused Equity Fund - Direct Plan (G)")</f>
-        <v>IDFC Focused Equity Fund - Direct Plan (G)</v>
-      </c>
-      <c r="B142" s="21" t="s">
-        <v>10</v>
-      </c>
+      <c r="A142" s="25"/>
+      <c r="B142" s="21"/>
       <c r="C142" s="22">
-        <v>43203</v>
+        <v>43524</v>
       </c>
       <c r="D142" s="23">
-        <v>42.529</v>
-      </c>
-      <c r="E142" s="61">
-        <v>29.3</v>
-      </c>
-      <c r="F142" s="61">
-        <v>28.9</v>
-      </c>
-      <c r="G142" s="61">
-        <v>13.1</v>
-      </c>
-      <c r="H142" s="61"/>
+        <v>22.032</v>
+      </c>
+      <c r="E142" s="26">
+        <v>-5.41</v>
+      </c>
+      <c r="F142" s="26">
+        <v>4.84</v>
+      </c>
+      <c r="G142" s="26"/>
+      <c r="H142" s="26">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="143" ht="24.75" customHeight="1" spans="1:8">
       <c r="A143" s="25"/>
       <c r="B143" s="21"/>
       <c r="C143" s="22">
-        <v>43208</v>
+        <v>43550</v>
       </c>
       <c r="D143" s="23">
-        <v>42.575</v>
-      </c>
-      <c r="E143" s="61">
-        <v>30.1</v>
-      </c>
-      <c r="F143" s="61">
-        <v>28.5</v>
-      </c>
-      <c r="G143" s="61">
-        <v>14.2</v>
-      </c>
-      <c r="H143" s="61">
-        <v>17.6</v>
+        <v>23.762</v>
+      </c>
+      <c r="E143" s="26">
+        <v>6.1</v>
+      </c>
+      <c r="F143" s="26">
+        <v>6.42</v>
+      </c>
+      <c r="G143" s="26"/>
+      <c r="H143" s="26">
+        <v>15.67</v>
       </c>
     </row>
     <row r="144" ht="24.75" customHeight="1" spans="1:8">
       <c r="A144" s="25"/>
       <c r="B144" s="21"/>
       <c r="C144" s="22">
-        <v>43311</v>
-      </c>
-      <c r="D144" s="28">
-        <v>42.7</v>
+        <v>43573</v>
+      </c>
+      <c r="D144" s="23">
+        <v>24.304</v>
       </c>
       <c r="E144" s="26">
-        <v>11.4</v>
+        <v>3.45</v>
       </c>
       <c r="F144" s="26">
-        <v>22.4</v>
+        <v>7.58</v>
       </c>
       <c r="G144" s="26">
-        <v>15.1</v>
+        <v>11.92</v>
       </c>
       <c r="H144" s="26">
-        <v>18</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="145" ht="24.75" customHeight="1" spans="1:8">
       <c r="A145" s="25"/>
       <c r="B145" s="21"/>
-      <c r="C145" s="22">
-        <v>43312</v>
-      </c>
-      <c r="D145" s="23">
-        <v>42.84</v>
-      </c>
-      <c r="E145" s="26">
-        <v>11.4</v>
-      </c>
-      <c r="F145" s="26">
-        <v>22.6</v>
-      </c>
-      <c r="G145" s="26">
-        <v>14.8</v>
-      </c>
-      <c r="H145" s="26">
-        <v>18.1</v>
-      </c>
+      <c r="C145" s="22"/>
+      <c r="D145" s="23"/>
+      <c r="E145" s="26"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="26"/>
+      <c r="H145" s="26"/>
     </row>
     <row r="146" ht="24.75" customHeight="1" spans="1:8">
       <c r="A146" s="25"/>
       <c r="B146" s="21"/>
-      <c r="C146" s="22">
-        <v>43313</v>
-      </c>
-      <c r="D146" s="28">
-        <v>42.85</v>
-      </c>
-      <c r="E146" s="26">
-        <v>11.1</v>
-      </c>
-      <c r="F146" s="26">
-        <v>22.4</v>
-      </c>
-      <c r="G146" s="26">
-        <v>14.8</v>
-      </c>
-      <c r="H146" s="26">
-        <v>18.1</v>
-      </c>
+      <c r="C146" s="22"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="26"/>
+      <c r="F146" s="26"/>
+      <c r="G146" s="26"/>
+      <c r="H146" s="26"/>
     </row>
     <row r="147" ht="24.75" customHeight="1" spans="1:8">
       <c r="A147" s="25"/>
       <c r="B147" s="21"/>
-      <c r="C147" s="22">
-        <v>43319</v>
-      </c>
-      <c r="D147" s="28">
-        <v>43.02</v>
-      </c>
-      <c r="E147" s="26">
-        <v>11.8</v>
-      </c>
-      <c r="F147" s="26">
-        <v>22.1</v>
-      </c>
-      <c r="G147" s="26">
-        <v>14.7</v>
-      </c>
-      <c r="H147" s="26">
-        <v>19</v>
-      </c>
+      <c r="C147" s="22"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="26"/>
+      <c r="F147" s="26"/>
+      <c r="G147" s="26"/>
+      <c r="H147" s="26"/>
     </row>
     <row r="148" ht="24.75" customHeight="1" spans="1:8">
       <c r="A148" s="25"/>
       <c r="B148" s="21"/>
-      <c r="C148" s="22">
-        <v>43321</v>
-      </c>
-      <c r="D148" s="28">
-        <v>43.01</v>
-      </c>
-      <c r="E148" s="26">
-        <v>13.5</v>
-      </c>
-      <c r="F148" s="26">
-        <v>21.7</v>
-      </c>
-      <c r="G148" s="26">
-        <v>14.7</v>
-      </c>
-      <c r="H148" s="26">
-        <v>18.9</v>
-      </c>
+      <c r="C148" s="22"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="26"/>
+      <c r="F148" s="26"/>
+      <c r="G148" s="26"/>
+      <c r="H148" s="26"/>
     </row>
     <row r="149" ht="24.75" customHeight="1" spans="1:8">
       <c r="A149" s="25"/>
       <c r="B149" s="21"/>
-      <c r="C149" s="22">
-        <v>43322</v>
-      </c>
-      <c r="D149" s="28">
-        <v>42.81</v>
-      </c>
-      <c r="E149" s="26">
-        <v>15.3</v>
-      </c>
-      <c r="F149" s="26">
-        <v>22.2</v>
-      </c>
-      <c r="G149" s="26">
-        <v>14.6</v>
-      </c>
-      <c r="H149" s="26">
-        <v>18.8</v>
-      </c>
+      <c r="C149" s="22"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="26"/>
+      <c r="F149" s="26"/>
+      <c r="G149" s="26"/>
+      <c r="H149" s="26"/>
     </row>
     <row r="150" ht="24.75" customHeight="1" spans="1:8">
       <c r="A150" s="25"/>
       <c r="B150" s="21"/>
-      <c r="C150" s="22">
-        <v>43325</v>
-      </c>
-      <c r="D150" s="28">
-        <v>42.44</v>
-      </c>
-      <c r="E150" s="26">
-        <v>14.1</v>
-      </c>
-      <c r="F150" s="26">
-        <v>21.3</v>
-      </c>
-      <c r="G150" s="26">
-        <v>15.2</v>
-      </c>
-      <c r="H150" s="26">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A151" s="25"/>
-      <c r="B151" s="21"/>
-      <c r="C151" s="22">
-        <v>43326</v>
-      </c>
-      <c r="D151" s="28">
-        <v>42.79</v>
-      </c>
-      <c r="E151" s="26">
-        <v>12.9</v>
-      </c>
-      <c r="F151" s="26">
-        <v>21.8</v>
-      </c>
-      <c r="G151" s="26">
-        <v>14.7</v>
-      </c>
-      <c r="H151" s="26">
-        <v>18</v>
-      </c>
-    </row>
+      <c r="C150" s="22"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="62"/>
+      <c r="F150" s="62"/>
+      <c r="G150" s="62"/>
+      <c r="H150" s="62"/>
+    </row>
+    <row r="151" ht="24.75" customHeight="1"/>
     <row r="152" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A152" s="25"/>
-      <c r="B152" s="21"/>
+      <c r="A152" s="25" t="str">
+        <f>HYPERLINK("http://www.moneycontrol.com/mutual-funds/nav/idfc-focused-equity-fund-direct-plan/MAG727","IDFC Focused Equity Fund - Direct Plan (G)")</f>
+        <v>IDFC Focused Equity Fund - Direct Plan (G)</v>
+      </c>
+      <c r="B152" s="21" t="s">
+        <v>10</v>
+      </c>
       <c r="C152" s="22">
-        <v>43332</v>
-      </c>
-      <c r="D152" s="28">
-        <v>43.07</v>
-      </c>
-      <c r="E152" s="26">
-        <v>13</v>
-      </c>
-      <c r="F152" s="26">
-        <v>22.1</v>
-      </c>
-      <c r="G152" s="26">
-        <v>15.6</v>
-      </c>
-      <c r="H152" s="26">
-        <v>19.5</v>
-      </c>
+        <v>43203</v>
+      </c>
+      <c r="D152" s="23">
+        <v>42.529</v>
+      </c>
+      <c r="E152" s="62">
+        <v>29.3</v>
+      </c>
+      <c r="F152" s="62">
+        <v>28.9</v>
+      </c>
+      <c r="G152" s="62">
+        <v>13.1</v>
+      </c>
+      <c r="H152" s="62"/>
     </row>
     <row r="153" ht="24.75" customHeight="1" spans="1:8">
       <c r="A153" s="25"/>
       <c r="B153" s="21"/>
       <c r="C153" s="22">
-        <v>43333</v>
-      </c>
-      <c r="D153" s="28">
-        <v>43.38</v>
-      </c>
-      <c r="E153" s="26">
-        <v>14.8</v>
-      </c>
-      <c r="F153" s="26">
-        <v>22.6</v>
-      </c>
-      <c r="G153" s="26">
-        <v>16.2</v>
-      </c>
-      <c r="H153" s="26">
-        <v>20</v>
+        <v>43208</v>
+      </c>
+      <c r="D153" s="23">
+        <v>42.575</v>
+      </c>
+      <c r="E153" s="62">
+        <v>30.1</v>
+      </c>
+      <c r="F153" s="62">
+        <v>28.5</v>
+      </c>
+      <c r="G153" s="62">
+        <v>14.2</v>
+      </c>
+      <c r="H153" s="62">
+        <v>17.6</v>
       </c>
     </row>
     <row r="154" ht="24.75" customHeight="1" spans="1:8">
       <c r="A154" s="25"/>
       <c r="B154" s="21"/>
       <c r="C154" s="22">
-        <v>43336</v>
+        <v>43311</v>
       </c>
       <c r="D154" s="28">
-        <v>43.56</v>
+        <v>42.7</v>
       </c>
       <c r="E154" s="26">
-        <v>13.5</v>
+        <v>11.4</v>
       </c>
       <c r="F154" s="26">
-        <v>23</v>
+        <v>22.4</v>
       </c>
       <c r="G154" s="26">
-        <v>19.1</v>
+        <v>15.1</v>
       </c>
       <c r="H154" s="26">
-        <v>19.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" ht="24.75" customHeight="1" spans="1:8">
       <c r="A155" s="25"/>
       <c r="B155" s="21"/>
       <c r="C155" s="22">
-        <v>43342</v>
-      </c>
-      <c r="D155" s="28">
-        <v>43.79</v>
+        <v>43312</v>
+      </c>
+      <c r="D155" s="23">
+        <v>42.84</v>
       </c>
       <c r="E155" s="26">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="F155" s="26">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="G155" s="26">
+        <v>14.8</v>
+      </c>
+      <c r="H155" s="26">
         <v>18.1</v>
-      </c>
-      <c r="H155" s="26">
-        <v>19.4</v>
       </c>
     </row>
     <row r="156" ht="24.75" customHeight="1" spans="1:8">
       <c r="A156" s="25"/>
       <c r="B156" s="21"/>
       <c r="C156" s="22">
-        <v>43348</v>
+        <v>43313</v>
       </c>
       <c r="D156" s="28">
-        <v>42.87</v>
+        <v>42.85</v>
       </c>
       <c r="E156" s="26">
-        <v>9</v>
+        <v>11.1</v>
       </c>
       <c r="F156" s="26">
-        <v>20.6</v>
+        <v>22.4</v>
       </c>
       <c r="G156" s="26">
-        <v>19.1</v>
+        <v>14.8</v>
       </c>
       <c r="H156" s="26">
-        <v>18.6</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="157" ht="24.75" customHeight="1" spans="1:8">
       <c r="A157" s="25"/>
       <c r="B157" s="21"/>
       <c r="C157" s="22">
-        <v>43368</v>
+        <v>43319</v>
       </c>
       <c r="D157" s="28">
-        <v>40.04</v>
+        <v>43.02</v>
       </c>
       <c r="E157" s="26">
-        <v>1.9</v>
+        <v>11.8</v>
       </c>
       <c r="F157" s="26">
-        <v>16.3</v>
+        <v>22.1</v>
       </c>
       <c r="G157" s="26">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="H157" s="26">
-        <v>15.8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" ht="24.75" customHeight="1" spans="1:8">
       <c r="A158" s="25"/>
       <c r="B158" s="21"/>
       <c r="C158" s="22">
-        <v>43383</v>
+        <v>43321</v>
       </c>
       <c r="D158" s="28">
-        <v>37.99</v>
+        <v>43.01</v>
       </c>
       <c r="E158" s="26">
-        <v>-4.9</v>
+        <v>13.5</v>
       </c>
       <c r="F158" s="26">
-        <v>13.5</v>
+        <v>21.7</v>
       </c>
       <c r="G158" s="26">
-        <v>12.3</v>
+        <v>14.7</v>
       </c>
       <c r="H158" s="26">
-        <v>14</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="159" ht="24.75" customHeight="1" spans="1:8">
       <c r="A159" s="25"/>
       <c r="B159" s="21"/>
       <c r="C159" s="22">
-        <v>43402</v>
-      </c>
-      <c r="D159" s="48">
-        <v>37.14</v>
-      </c>
-      <c r="E159" s="30">
-        <v>-7</v>
-      </c>
-      <c r="F159" s="30">
-        <v>12.6</v>
-      </c>
-      <c r="G159" s="30">
-        <v>11.7</v>
-      </c>
-      <c r="H159" s="30">
-        <v>12.8</v>
+        <v>43322</v>
+      </c>
+      <c r="D159" s="28">
+        <v>42.81</v>
+      </c>
+      <c r="E159" s="26">
+        <v>15.3</v>
+      </c>
+      <c r="F159" s="26">
+        <v>22.2</v>
+      </c>
+      <c r="G159" s="26">
+        <v>14.6</v>
+      </c>
+      <c r="H159" s="26">
+        <v>18.8</v>
       </c>
     </row>
     <row r="160" ht="24.75" customHeight="1" spans="1:8">
       <c r="A160" s="25"/>
       <c r="B160" s="21"/>
       <c r="C160" s="22">
-        <v>43404</v>
+        <v>43325</v>
       </c>
       <c r="D160" s="28">
-        <v>37.68</v>
+        <v>42.44</v>
       </c>
       <c r="E160" s="26">
-        <v>-6.7</v>
+        <v>14.1</v>
       </c>
       <c r="F160" s="26">
-        <v>13.4</v>
+        <v>21.3</v>
       </c>
       <c r="G160" s="26">
-        <v>12.3</v>
+        <v>15.2</v>
       </c>
       <c r="H160" s="26">
-        <v>12.9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" ht="24.75" customHeight="1" spans="1:8">
       <c r="A161" s="25"/>
       <c r="B161" s="21"/>
       <c r="C161" s="22">
-        <v>43405</v>
-      </c>
-      <c r="D161" s="31">
-        <v>37.66</v>
+        <v>43326</v>
+      </c>
+      <c r="D161" s="28">
+        <v>42.79</v>
       </c>
       <c r="E161" s="26">
-        <v>-7.1</v>
+        <v>12.9</v>
       </c>
       <c r="F161" s="26">
-        <v>13.6</v>
+        <v>21.8</v>
       </c>
       <c r="G161" s="26">
-        <v>12.3</v>
+        <v>14.7</v>
       </c>
       <c r="H161" s="26">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:8">
       <c r="A162" s="25"/>
       <c r="B162" s="21"/>
       <c r="C162" s="22">
-        <v>43410</v>
-      </c>
-      <c r="D162" s="31">
-        <v>38.06</v>
+        <v>43332</v>
+      </c>
+      <c r="D162" s="28">
+        <v>43.07</v>
       </c>
       <c r="E162" s="26">
-        <v>-7.1</v>
+        <v>13</v>
       </c>
       <c r="F162" s="26">
-        <v>15.5</v>
+        <v>22.1</v>
       </c>
       <c r="G162" s="26">
-        <v>13</v>
+        <v>15.6</v>
       </c>
       <c r="H162" s="26">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="163" ht="24.75" customHeight="1" spans="1:8">
       <c r="A163" s="25"/>
       <c r="B163" s="21"/>
       <c r="C163" s="22">
-        <v>43413</v>
-      </c>
-      <c r="D163" s="31">
-        <v>38.48</v>
+        <v>43333</v>
+      </c>
+      <c r="D163" s="28">
+        <v>43.38</v>
       </c>
       <c r="E163" s="26">
-        <v>-5.5</v>
+        <v>14.8</v>
       </c>
       <c r="F163" s="26">
-        <v>15.6</v>
+        <v>22.6</v>
       </c>
       <c r="G163" s="26">
-        <v>13.5</v>
+        <v>16.2</v>
       </c>
       <c r="H163" s="26">
-        <v>13.9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164" ht="24.75" customHeight="1" spans="1:8">
       <c r="A164" s="25"/>
       <c r="B164" s="21"/>
       <c r="C164" s="22">
-        <v>43430</v>
-      </c>
-      <c r="D164" s="31">
-        <v>38</v>
+        <v>43336</v>
+      </c>
+      <c r="D164" s="28">
+        <v>43.56</v>
       </c>
       <c r="E164" s="26">
-        <v>-9.7</v>
+        <v>13.5</v>
       </c>
       <c r="F164" s="26">
-        <v>17.8</v>
+        <v>23</v>
       </c>
       <c r="G164" s="26">
-        <v>13.2</v>
+        <v>19.1</v>
       </c>
       <c r="H164" s="26">
-        <v>13.8</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="165" ht="24.75" customHeight="1" spans="1:8">
       <c r="A165" s="25"/>
       <c r="B165" s="21"/>
       <c r="C165" s="22">
-        <v>43432</v>
-      </c>
-      <c r="D165" s="31">
-        <v>38.22</v>
+        <v>43342</v>
+      </c>
+      <c r="D165" s="28">
+        <v>43.79</v>
       </c>
       <c r="E165" s="26">
-        <v>-10</v>
+        <v>11.9</v>
       </c>
       <c r="F165" s="26">
-        <v>17.9</v>
+        <v>22.8</v>
       </c>
       <c r="G165" s="26">
-        <v>13.2</v>
+        <v>18.1</v>
       </c>
       <c r="H165" s="26">
-        <v>13.9</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="166" ht="24.75" customHeight="1" spans="1:8">
       <c r="A166" s="25"/>
       <c r="B166" s="21"/>
       <c r="C166" s="22">
-        <v>43452</v>
-      </c>
-      <c r="D166" s="31">
-        <v>38.24</v>
+        <v>43348</v>
+      </c>
+      <c r="D166" s="28">
+        <v>42.87</v>
       </c>
       <c r="E166" s="26">
-        <v>-10.1</v>
+        <v>9</v>
       </c>
       <c r="F166" s="26">
-        <v>18.3</v>
+        <v>20.6</v>
       </c>
       <c r="G166" s="26">
-        <v>13.9</v>
+        <v>19.1</v>
       </c>
       <c r="H166" s="26">
-        <v>13.5</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="167" ht="24.75" customHeight="1" spans="1:8">
       <c r="A167" s="25"/>
       <c r="B167" s="21"/>
       <c r="C167" s="22">
-        <v>43461</v>
-      </c>
-      <c r="D167" s="31">
-        <v>37.6</v>
+        <v>43368</v>
+      </c>
+      <c r="D167" s="28">
+        <v>40.04</v>
       </c>
       <c r="E167" s="26">
-        <v>-13</v>
+        <v>1.9</v>
       </c>
       <c r="F167" s="26">
-        <v>19.2</v>
+        <v>16.3</v>
       </c>
       <c r="G167" s="26">
-        <v>12.8</v>
+        <v>15.2</v>
       </c>
       <c r="H167" s="26">
-        <v>12.9</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="168" ht="24.75" customHeight="1" spans="1:8">
       <c r="A168" s="25"/>
       <c r="B168" s="21"/>
       <c r="C168" s="22">
-        <v>43480</v>
-      </c>
-      <c r="D168" s="31">
-        <v>38.46</v>
+        <v>43383</v>
+      </c>
+      <c r="D168" s="28">
+        <v>37.99</v>
       </c>
       <c r="E168" s="26">
-        <v>-12.6</v>
+        <v>-4.9</v>
       </c>
       <c r="F168" s="26">
-        <v>16.2</v>
+        <v>13.5</v>
       </c>
       <c r="G168" s="26">
-        <v>15.9</v>
+        <v>12.3</v>
       </c>
       <c r="H168" s="26">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:8">
       <c r="A169" s="25"/>
       <c r="B169" s="21"/>
       <c r="C169" s="22">
-        <v>43524</v>
-      </c>
-      <c r="D169" s="31">
-        <v>37.05</v>
-      </c>
-      <c r="E169" s="26">
-        <v>-11.48</v>
-      </c>
-      <c r="F169" s="26">
-        <v>10.52</v>
-      </c>
-      <c r="G169" s="26"/>
-      <c r="H169" s="26">
-        <v>12.29</v>
+        <v>43402</v>
+      </c>
+      <c r="D169" s="48">
+        <v>37.14</v>
+      </c>
+      <c r="E169" s="30">
+        <v>-7</v>
+      </c>
+      <c r="F169" s="30">
+        <v>12.6</v>
+      </c>
+      <c r="G169" s="30">
+        <v>11.7</v>
+      </c>
+      <c r="H169" s="30">
+        <v>12.8</v>
       </c>
     </row>
     <row r="170" ht="24.75" customHeight="1" spans="1:8">
       <c r="A170" s="25"/>
       <c r="B170" s="21"/>
       <c r="C170" s="22">
-        <v>43550</v>
-      </c>
-      <c r="D170" s="31">
-        <v>38.64</v>
+        <v>43404</v>
+      </c>
+      <c r="D170" s="28">
+        <v>37.68</v>
       </c>
       <c r="E170" s="26">
-        <v>-4.62</v>
+        <v>-6.7</v>
       </c>
       <c r="F170" s="26">
-        <v>11.53</v>
-      </c>
-      <c r="G170" s="26"/>
+        <v>13.4</v>
+      </c>
+      <c r="G170" s="26">
+        <v>12.3</v>
+      </c>
       <c r="H170" s="26">
-        <v>12.56</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="171" ht="24.75" customHeight="1" spans="1:8">
       <c r="A171" s="25"/>
       <c r="B171" s="21"/>
-      <c r="C171" s="22"/>
-      <c r="D171" s="31"/>
-      <c r="E171" s="26"/>
-      <c r="F171" s="26"/>
-      <c r="G171" s="26"/>
-      <c r="H171" s="26"/>
+      <c r="C171" s="22">
+        <v>43405</v>
+      </c>
+      <c r="D171" s="31">
+        <v>37.66</v>
+      </c>
+      <c r="E171" s="26">
+        <v>-7.1</v>
+      </c>
+      <c r="F171" s="26">
+        <v>13.6</v>
+      </c>
+      <c r="G171" s="26">
+        <v>12.3</v>
+      </c>
+      <c r="H171" s="26">
+        <v>13</v>
+      </c>
     </row>
     <row r="172" ht="24.75" customHeight="1" spans="1:8">
       <c r="A172" s="25"/>
       <c r="B172" s="21"/>
-      <c r="C172" s="22"/>
-      <c r="D172" s="31"/>
-      <c r="E172" s="26"/>
-      <c r="F172" s="26"/>
-      <c r="G172" s="26"/>
-      <c r="H172" s="26"/>
+      <c r="C172" s="22">
+        <v>43410</v>
+      </c>
+      <c r="D172" s="31">
+        <v>38.06</v>
+      </c>
+      <c r="E172" s="26">
+        <v>-7.1</v>
+      </c>
+      <c r="F172" s="26">
+        <v>15.5</v>
+      </c>
+      <c r="G172" s="26">
+        <v>13</v>
+      </c>
+      <c r="H172" s="26">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="173" ht="24.75" customHeight="1" spans="1:8">
       <c r="A173" s="25"/>
       <c r="B173" s="21"/>
-      <c r="C173" s="22"/>
-      <c r="D173" s="31"/>
-      <c r="E173" s="26"/>
-      <c r="F173" s="26"/>
-      <c r="G173" s="26"/>
-      <c r="H173" s="26"/>
+      <c r="C173" s="22">
+        <v>43413</v>
+      </c>
+      <c r="D173" s="31">
+        <v>38.48</v>
+      </c>
+      <c r="E173" s="26">
+        <v>-5.5</v>
+      </c>
+      <c r="F173" s="26">
+        <v>15.6</v>
+      </c>
+      <c r="G173" s="26">
+        <v>13.5</v>
+      </c>
+      <c r="H173" s="26">
+        <v>13.9</v>
+      </c>
     </row>
     <row r="174" ht="24.75" customHeight="1" spans="1:8">
       <c r="A174" s="25"/>
       <c r="B174" s="21"/>
-      <c r="C174" s="22"/>
-      <c r="D174" s="28"/>
-      <c r="E174" s="26"/>
-      <c r="F174" s="26"/>
-      <c r="G174" s="26"/>
-      <c r="H174" s="26"/>
-    </row>
-    <row r="175" ht="24.75" customHeight="1"/>
+      <c r="C174" s="22">
+        <v>43430</v>
+      </c>
+      <c r="D174" s="31">
+        <v>38</v>
+      </c>
+      <c r="E174" s="26">
+        <v>-9.7</v>
+      </c>
+      <c r="F174" s="26">
+        <v>17.8</v>
+      </c>
+      <c r="G174" s="26">
+        <v>13.2</v>
+      </c>
+      <c r="H174" s="26">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="175" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A175" s="25"/>
+      <c r="B175" s="21"/>
+      <c r="C175" s="22">
+        <v>43432</v>
+      </c>
+      <c r="D175" s="31">
+        <v>38.22</v>
+      </c>
+      <c r="E175" s="26">
+        <v>-10</v>
+      </c>
+      <c r="F175" s="26">
+        <v>17.9</v>
+      </c>
+      <c r="G175" s="26">
+        <v>13.2</v>
+      </c>
+      <c r="H175" s="26">
+        <v>13.9</v>
+      </c>
+    </row>
     <row r="176" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A176" s="25" t="str">
+      <c r="A176" s="25"/>
+      <c r="B176" s="21"/>
+      <c r="C176" s="22">
+        <v>43452</v>
+      </c>
+      <c r="D176" s="31">
+        <v>38.24</v>
+      </c>
+      <c r="E176" s="26">
+        <v>-10.1</v>
+      </c>
+      <c r="F176" s="26">
+        <v>18.3</v>
+      </c>
+      <c r="G176" s="26">
+        <v>13.9</v>
+      </c>
+      <c r="H176" s="26">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="177" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A177" s="25"/>
+      <c r="B177" s="21"/>
+      <c r="C177" s="22">
+        <v>43461</v>
+      </c>
+      <c r="D177" s="31">
+        <v>37.6</v>
+      </c>
+      <c r="E177" s="26">
+        <v>-13</v>
+      </c>
+      <c r="F177" s="26">
+        <v>19.2</v>
+      </c>
+      <c r="G177" s="26">
+        <v>12.8</v>
+      </c>
+      <c r="H177" s="26">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="178" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A178" s="25"/>
+      <c r="B178" s="21"/>
+      <c r="C178" s="22">
+        <v>43480</v>
+      </c>
+      <c r="D178" s="31">
+        <v>38.46</v>
+      </c>
+      <c r="E178" s="26">
+        <v>-12.6</v>
+      </c>
+      <c r="F178" s="26">
+        <v>16.2</v>
+      </c>
+      <c r="G178" s="26">
+        <v>15.9</v>
+      </c>
+      <c r="H178" s="26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A179" s="25"/>
+      <c r="B179" s="21"/>
+      <c r="C179" s="22">
+        <v>43524</v>
+      </c>
+      <c r="D179" s="31">
+        <v>37.05</v>
+      </c>
+      <c r="E179" s="26">
+        <v>-11.48</v>
+      </c>
+      <c r="F179" s="26">
+        <v>10.52</v>
+      </c>
+      <c r="G179" s="26"/>
+      <c r="H179" s="26">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="180" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A180" s="25"/>
+      <c r="B180" s="21"/>
+      <c r="C180" s="22">
+        <v>43550</v>
+      </c>
+      <c r="D180" s="31">
+        <v>38.64</v>
+      </c>
+      <c r="E180" s="26">
+        <v>-4.62</v>
+      </c>
+      <c r="F180" s="26">
+        <v>11.53</v>
+      </c>
+      <c r="G180" s="26"/>
+      <c r="H180" s="26">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="181" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A181" s="25"/>
+      <c r="B181" s="21"/>
+      <c r="C181" s="22">
+        <v>43573</v>
+      </c>
+      <c r="D181" s="31">
+        <v>40.02</v>
+      </c>
+      <c r="E181" s="26">
+        <v>-6</v>
+      </c>
+      <c r="F181" s="26">
+        <v>10.6</v>
+      </c>
+      <c r="G181" s="26">
+        <v>15.77</v>
+      </c>
+      <c r="H181" s="26">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="182" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A182" s="25"/>
+      <c r="B182" s="21"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="31"/>
+      <c r="E182" s="26"/>
+      <c r="F182" s="26"/>
+      <c r="G182" s="26"/>
+      <c r="H182" s="26"/>
+    </row>
+    <row r="183" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A183" s="25"/>
+      <c r="B183" s="21"/>
+      <c r="C183" s="22"/>
+      <c r="D183" s="31"/>
+      <c r="E183" s="26"/>
+      <c r="F183" s="26"/>
+      <c r="G183" s="26"/>
+      <c r="H183" s="26"/>
+    </row>
+    <row r="184" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A184" s="25"/>
+      <c r="B184" s="21"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="26"/>
+      <c r="F184" s="26"/>
+      <c r="G184" s="26"/>
+      <c r="H184" s="26"/>
+    </row>
+    <row r="185" ht="24.75" customHeight="1"/>
+    <row r="186" ht="24.75" customHeight="1" spans="1:8">
+      <c r="A186" s="25" t="str">
         <f>HYPERLINK("http://www.moneycontrol.com/mutual-funds/nav/hdfc-small-cap-fund-direct-plan/MMS025","HDFC Small Cap Fund - Direct Plan (G)")</f>
         <v>HDFC Small Cap Fund - Direct Plan (G)</v>
       </c>
-      <c r="B176" s="36" t="s">
+      <c r="B186" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C176" s="22">
+      <c r="C186" s="22">
         <v>43196</v>
       </c>
-      <c r="D176" s="23">
+      <c r="D186" s="23">
         <v>48.549</v>
       </c>
-      <c r="E176" s="24">
+      <c r="E186" s="24">
         <v>35.8</v>
       </c>
-      <c r="F176" s="24">
+      <c r="F186" s="24">
         <v>36.6</v>
       </c>
-      <c r="G176" s="24">
+      <c r="G186" s="24">
         <v>22.3</v>
       </c>
-      <c r="H176" s="24"/>
-    </row>
-    <row r="177" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A177" s="25"/>
-      <c r="B177" s="36"/>
-      <c r="C177" s="22">
-        <v>43199</v>
-      </c>
-      <c r="D177" s="23">
-        <v>48.808</v>
-      </c>
-      <c r="E177" s="24">
-        <v>37.2</v>
-      </c>
-      <c r="F177" s="24">
-        <v>36.6</v>
-      </c>
-      <c r="G177" s="24">
-        <v>21.5</v>
-      </c>
-      <c r="H177" s="24"/>
-    </row>
-    <row r="178" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A178" s="25"/>
-      <c r="B178" s="36"/>
-      <c r="C178" s="22">
-        <v>43200</v>
-      </c>
-      <c r="D178" s="23">
-        <v>48.575</v>
-      </c>
-      <c r="E178" s="24">
-        <v>35.8</v>
-      </c>
-      <c r="F178" s="24">
-        <v>36.3</v>
-      </c>
-      <c r="G178" s="24">
-        <v>21.1</v>
-      </c>
-      <c r="H178" s="24"/>
-    </row>
-    <row r="179" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A179" s="25"/>
-      <c r="B179" s="36"/>
-      <c r="C179" s="22">
-        <v>43202</v>
-      </c>
-      <c r="D179" s="23">
-        <v>48.617</v>
-      </c>
-      <c r="E179" s="61">
-        <v>35.3</v>
-      </c>
-      <c r="F179" s="61">
-        <v>35.1</v>
-      </c>
-      <c r="G179" s="61">
-        <v>21.2</v>
-      </c>
-      <c r="H179" s="61"/>
-    </row>
-    <row r="180" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A180" s="25"/>
-      <c r="B180" s="36"/>
-      <c r="C180" s="22">
-        <v>43203</v>
-      </c>
-      <c r="D180" s="23">
-        <v>48.889</v>
-      </c>
-      <c r="E180" s="61">
-        <v>36.1</v>
-      </c>
-      <c r="F180" s="61">
-        <v>34.6</v>
-      </c>
-      <c r="G180" s="61">
-        <v>21.1</v>
-      </c>
-      <c r="H180" s="61"/>
-    </row>
-    <row r="181" ht="25" customHeight="1" spans="1:8">
-      <c r="A181" s="25"/>
-      <c r="B181" s="36"/>
-      <c r="C181" s="22">
-        <v>43208</v>
-      </c>
-      <c r="D181" s="23">
-        <v>49.202</v>
-      </c>
-      <c r="E181" s="61">
-        <v>37.5</v>
-      </c>
-      <c r="F181" s="61">
-        <v>34.4</v>
-      </c>
-      <c r="G181" s="61">
-        <v>22</v>
-      </c>
-      <c r="H181" s="63">
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="182" ht="25" customHeight="1" spans="1:8">
-      <c r="A182" s="25"/>
-      <c r="B182" s="36"/>
-      <c r="C182" s="22">
-        <v>43311</v>
-      </c>
-      <c r="D182" s="28">
-        <v>47.501</v>
-      </c>
-      <c r="E182" s="26">
-        <v>19.5</v>
-      </c>
-      <c r="F182" s="26">
-        <v>25</v>
-      </c>
-      <c r="G182" s="26">
-        <v>20.3</v>
-      </c>
-      <c r="H182" s="44">
-        <v>26.2</v>
-      </c>
-    </row>
-    <row r="183" ht="25" customHeight="1" spans="1:8">
-      <c r="A183" s="25"/>
-      <c r="B183" s="36"/>
-      <c r="C183" s="22">
-        <v>43312</v>
-      </c>
-      <c r="D183" s="23">
-        <v>47.313</v>
-      </c>
-      <c r="E183" s="26">
-        <v>18.9</v>
-      </c>
-      <c r="F183" s="26">
-        <v>24.8</v>
-      </c>
-      <c r="G183" s="26">
-        <v>19.7</v>
-      </c>
-      <c r="H183" s="44">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="184" ht="25" customHeight="1" spans="1:8">
-      <c r="A184" s="25"/>
-      <c r="B184" s="36"/>
-      <c r="C184" s="22">
-        <v>43313</v>
-      </c>
-      <c r="D184" s="28">
-        <v>47.289</v>
-      </c>
-      <c r="E184" s="26">
-        <v>19</v>
-      </c>
-      <c r="F184" s="26">
-        <v>24.6</v>
-      </c>
-      <c r="G184" s="26">
-        <v>19.7</v>
-      </c>
-      <c r="H184" s="44">
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="185" ht="25" customHeight="1" spans="1:8">
-      <c r="A185" s="25"/>
-      <c r="B185" s="36"/>
-      <c r="C185" s="22">
-        <v>43319</v>
-      </c>
-      <c r="D185" s="64">
-        <v>47.498</v>
-      </c>
-      <c r="E185" s="26">
-        <v>20.5</v>
-      </c>
-      <c r="F185" s="26">
-        <v>24.9</v>
-      </c>
-      <c r="G185" s="26">
-        <v>19.3</v>
-      </c>
-      <c r="H185" s="44">
-        <v>27.1</v>
-      </c>
-    </row>
-    <row r="186" ht="25" customHeight="1" spans="1:8">
-      <c r="A186" s="25"/>
-      <c r="B186" s="36"/>
-      <c r="C186" s="22">
-        <v>43321</v>
-      </c>
-      <c r="D186" s="64">
-        <v>47.795</v>
-      </c>
-      <c r="E186" s="26">
-        <v>23.5</v>
-      </c>
-      <c r="F186" s="26">
-        <v>25.3</v>
-      </c>
-      <c r="G186" s="26">
-        <v>19.5</v>
-      </c>
-      <c r="H186" s="44">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="187" ht="25" customHeight="1" spans="1:8">
+      <c r="H186" s="24"/>
+    </row>
+    <row r="187" ht="24.75" customHeight="1" spans="1:8">
       <c r="A187" s="25"/>
       <c r="B187" s="36"/>
       <c r="C187" s="22">
-        <v>43322</v>
-      </c>
-      <c r="D187" s="64"/>
-      <c r="E187" s="26">
-        <v>26</v>
-      </c>
-      <c r="F187" s="26">
-        <v>25.5</v>
-      </c>
-      <c r="G187" s="26">
-        <v>19.2</v>
-      </c>
-      <c r="H187" s="44">
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="188" ht="25" customHeight="1" spans="1:8">
+        <v>43199</v>
+      </c>
+      <c r="D187" s="23">
+        <v>48.808</v>
+      </c>
+      <c r="E187" s="24">
+        <v>37.2</v>
+      </c>
+      <c r="F187" s="24">
+        <v>36.6</v>
+      </c>
+      <c r="G187" s="24">
+        <v>21.5</v>
+      </c>
+      <c r="H187" s="24"/>
+    </row>
+    <row r="188" ht="24.75" customHeight="1" spans="1:8">
       <c r="A188" s="25"/>
       <c r="B188" s="36"/>
       <c r="C188" s="22">
-        <v>43325</v>
-      </c>
-      <c r="D188" s="64">
-        <v>47.119</v>
-      </c>
-      <c r="E188" s="26">
-        <v>25.4</v>
-      </c>
-      <c r="F188" s="26">
-        <v>24.7</v>
-      </c>
-      <c r="G188" s="26">
-        <v>20.2</v>
-      </c>
-      <c r="H188" s="44">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="189" ht="25" customHeight="1" spans="1:8">
+        <v>43200</v>
+      </c>
+      <c r="D188" s="23">
+        <v>48.575</v>
+      </c>
+      <c r="E188" s="24">
+        <v>35.8</v>
+      </c>
+      <c r="F188" s="24">
+        <v>36.3</v>
+      </c>
+      <c r="G188" s="24">
+        <v>21.1</v>
+      </c>
+      <c r="H188" s="24"/>
+    </row>
+    <row r="189" ht="24.75" customHeight="1" spans="1:8">
       <c r="A189" s="25"/>
       <c r="B189" s="36"/>
       <c r="C189" s="22">
-        <v>43326</v>
-      </c>
-      <c r="D189" s="28">
-        <v>47.024</v>
-      </c>
-      <c r="E189" s="26">
-        <v>22.9</v>
-      </c>
-      <c r="F189" s="26">
-        <v>24.6</v>
-      </c>
-      <c r="G189" s="26">
-        <v>19.4</v>
-      </c>
-      <c r="H189" s="44">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="190" ht="25" customHeight="1" spans="1:8">
+        <v>43202</v>
+      </c>
+      <c r="D189" s="23">
+        <v>48.617</v>
+      </c>
+      <c r="E189" s="62">
+        <v>35.3</v>
+      </c>
+      <c r="F189" s="62">
+        <v>35.1</v>
+      </c>
+      <c r="G189" s="62">
+        <v>21.2</v>
+      </c>
+      <c r="H189" s="62"/>
+    </row>
+    <row r="190" ht="24.75" customHeight="1" spans="1:8">
       <c r="A190" s="25"/>
       <c r="B190" s="36"/>
       <c r="C190" s="22">
-        <v>43332</v>
-      </c>
-      <c r="D190" s="64">
-        <v>47.649</v>
-      </c>
-      <c r="E190" s="65">
-        <v>23.1</v>
-      </c>
-      <c r="F190" s="65">
-        <v>24</v>
-      </c>
-      <c r="G190" s="65">
-        <v>19.9</v>
-      </c>
-      <c r="H190" s="44">
-        <v>27.6</v>
-      </c>
+        <v>43203</v>
+      </c>
+      <c r="D190" s="23">
+        <v>48.889</v>
+      </c>
+      <c r="E190" s="62">
+        <v>36.1</v>
+      </c>
+      <c r="F190" s="62">
+        <v>34.6</v>
+      </c>
+      <c r="G190" s="62">
+        <v>21.1</v>
+      </c>
+      <c r="H190" s="62"/>
     </row>
     <row r="191" ht="25" customHeight="1" spans="1:8">
       <c r="A191" s="25"/>
       <c r="B191" s="36"/>
       <c r="C191" s="22">
-        <v>43333</v>
-      </c>
-      <c r="D191" s="64">
-        <v>47.867</v>
-      </c>
-      <c r="E191" s="26">
-        <v>24.4</v>
-      </c>
-      <c r="F191" s="26">
-        <v>24.3</v>
-      </c>
-      <c r="G191" s="26">
-        <v>20.3</v>
-      </c>
-      <c r="H191" s="44">
-        <v>28.1</v>
+        <v>43208</v>
+      </c>
+      <c r="D191" s="23">
+        <v>49.202</v>
+      </c>
+      <c r="E191" s="62">
+        <v>37.5</v>
+      </c>
+      <c r="F191" s="62">
+        <v>34.4</v>
+      </c>
+      <c r="G191" s="62">
+        <v>22</v>
+      </c>
+      <c r="H191" s="64">
+        <v>26.8</v>
       </c>
     </row>
     <row r="192" ht="25" customHeight="1" spans="1:8">
       <c r="A192" s="25"/>
       <c r="B192" s="36"/>
       <c r="C192" s="22">
-        <v>43336</v>
-      </c>
-      <c r="D192" s="64">
-        <v>47.891</v>
+        <v>43311</v>
+      </c>
+      <c r="D192" s="28">
+        <v>47.501</v>
       </c>
       <c r="E192" s="26">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="F192" s="26">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="G192" s="26">
         <v>20.3</v>
       </c>
       <c r="H192" s="44">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="193" ht="25" customHeight="1" spans="1:8">
       <c r="A193" s="25"/>
       <c r="B193" s="36"/>
       <c r="C193" s="22">
-        <v>43342</v>
-      </c>
-      <c r="D193" s="64">
-        <v>48.772</v>
+        <v>43312</v>
+      </c>
+      <c r="D193" s="23">
+        <v>47.313</v>
       </c>
       <c r="E193" s="26">
+        <v>18.9</v>
+      </c>
+      <c r="F193" s="26">
         <v>24.8</v>
       </c>
-      <c r="F193" s="26">
-        <v>24.6</v>
-      </c>
       <c r="G193" s="26">
-        <v>22.9</v>
+        <v>19.7</v>
       </c>
       <c r="H193" s="44">
-        <v>27.8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="194" ht="25" customHeight="1" spans="1:8">
       <c r="A194" s="25"/>
       <c r="B194" s="36"/>
       <c r="C194" s="22">
-        <v>43348</v>
-      </c>
-      <c r="D194" s="64">
-        <v>48.072</v>
+        <v>43313</v>
+      </c>
+      <c r="D194" s="28">
+        <v>47.289</v>
       </c>
       <c r="E194" s="26">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F194" s="26">
-        <v>23.1</v>
+        <v>24.6</v>
       </c>
       <c r="G194" s="26">
-        <v>23.6</v>
+        <v>19.7</v>
       </c>
       <c r="H194" s="44">
-        <v>27</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="195" ht="25" customHeight="1" spans="1:8">
       <c r="A195" s="25"/>
       <c r="B195" s="36"/>
       <c r="C195" s="22">
-        <v>43368</v>
-      </c>
-      <c r="D195" s="64">
-        <v>45.432</v>
+        <v>43319</v>
+      </c>
+      <c r="D195" s="65">
+        <v>47.498</v>
       </c>
       <c r="E195" s="26">
-        <v>14.1</v>
+        <v>20.5</v>
       </c>
       <c r="F195" s="26">
-        <v>19</v>
+        <v>24.9</v>
       </c>
       <c r="G195" s="26">
-        <v>20.5</v>
+        <v>19.3</v>
       </c>
       <c r="H195" s="44">
-        <v>24.5</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="196" ht="25" customHeight="1" spans="1:8">
       <c r="A196" s="25"/>
       <c r="B196" s="36"/>
       <c r="C196" s="22">
-        <v>43383</v>
-      </c>
-      <c r="D196" s="64">
-        <v>43.479</v>
+        <v>43321</v>
+      </c>
+      <c r="D196" s="65">
+        <v>47.795</v>
       </c>
       <c r="E196" s="26">
-        <v>5.5</v>
+        <v>23.5</v>
       </c>
       <c r="F196" s="26">
-        <v>15.6</v>
+        <v>25.3</v>
       </c>
       <c r="G196" s="26">
-        <v>17.8</v>
+        <v>19.5</v>
       </c>
       <c r="H196" s="44">
-        <v>22.6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="197" ht="25" customHeight="1" spans="1:8">
       <c r="A197" s="25"/>
       <c r="B197" s="36"/>
       <c r="C197" s="22">
-        <v>43399</v>
-      </c>
-      <c r="D197" s="48">
-        <v>42.788</v>
-      </c>
-      <c r="E197" s="30">
-        <v>-0.3</v>
-      </c>
-      <c r="F197" s="30">
-        <v>14.3</v>
-      </c>
-      <c r="G197" s="30">
-        <v>16.5</v>
-      </c>
-      <c r="H197" s="46">
-        <v>21.7</v>
+        <v>43322</v>
+      </c>
+      <c r="D197" s="65"/>
+      <c r="E197" s="26">
+        <v>26</v>
+      </c>
+      <c r="F197" s="26">
+        <v>25.5</v>
+      </c>
+      <c r="G197" s="26">
+        <v>19.2</v>
+      </c>
+      <c r="H197" s="44">
+        <v>26.8</v>
       </c>
     </row>
     <row r="198" ht="25" customHeight="1" spans="1:8">
       <c r="A198" s="25"/>
       <c r="B198" s="36"/>
       <c r="C198" s="22">
-        <v>43402</v>
-      </c>
-      <c r="D198" s="28">
-        <v>43.692</v>
+        <v>43325</v>
+      </c>
+      <c r="D198" s="65">
+        <v>47.119</v>
       </c>
       <c r="E198" s="26">
-        <v>1.4</v>
+        <v>25.4</v>
       </c>
       <c r="F198" s="26">
-        <v>15.8</v>
+        <v>24.7</v>
       </c>
       <c r="G198" s="26">
-        <v>17.4</v>
+        <v>20.2</v>
       </c>
       <c r="H198" s="44">
-        <v>22.1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="199" ht="25" customHeight="1" spans="1:8">
       <c r="A199" s="25"/>
       <c r="B199" s="36"/>
       <c r="C199" s="22">
-        <v>43404</v>
+        <v>43326</v>
       </c>
       <c r="D199" s="28">
-        <v>44.41</v>
+        <v>47.024</v>
       </c>
       <c r="E199" s="26">
-        <v>1.9</v>
+        <v>22.9</v>
       </c>
       <c r="F199" s="26">
-        <v>16.8</v>
+        <v>24.6</v>
       </c>
       <c r="G199" s="26">
-        <v>18.2</v>
+        <v>19.4</v>
       </c>
       <c r="H199" s="44">
-        <v>22.1</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="200" ht="25" customHeight="1" spans="1:8">
       <c r="A200" s="25"/>
       <c r="B200" s="36"/>
       <c r="C200" s="22">
-        <v>43405</v>
-      </c>
-      <c r="D200" s="31">
-        <v>44.515</v>
-      </c>
-      <c r="E200" s="26">
-        <v>1.9</v>
-      </c>
-      <c r="F200" s="26">
-        <v>16.8</v>
-      </c>
-      <c r="G200" s="26">
-        <v>18.3</v>
+        <v>43332</v>
+      </c>
+      <c r="D200" s="65">
+        <v>47.649</v>
+      </c>
+      <c r="E200" s="66">
+        <v>23.1</v>
+      </c>
+      <c r="F200" s="66">
+        <v>24</v>
+      </c>
+      <c r="G200" s="66">
+        <v>19.9</v>
       </c>
       <c r="H200" s="44">
-        <v>22.2</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="201" ht="25" customHeight="1" spans="1:8">
       <c r="A201" s="25"/>
       <c r="B201" s="36"/>
       <c r="C201" s="22">
-        <v>43410</v>
-      </c>
-      <c r="D201" s="31">
-        <v>44.527</v>
+        <v>43333</v>
+      </c>
+      <c r="D201" s="65">
+        <v>47.867</v>
       </c>
       <c r="E201" s="26">
-        <v>0.7</v>
+        <v>24.4</v>
       </c>
       <c r="F201" s="26">
-        <v>19.7</v>
+        <v>24.3</v>
       </c>
       <c r="G201" s="26">
-        <v>18.8</v>
+        <v>20.3</v>
       </c>
       <c r="H201" s="44">
-        <v>22.3</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="202" ht="25" customHeight="1" spans="1:8">
       <c r="A202" s="25"/>
       <c r="B202" s="36"/>
       <c r="C202" s="22">
-        <v>43413</v>
-      </c>
-      <c r="D202" s="31">
-        <v>44.799</v>
+        <v>43336</v>
+      </c>
+      <c r="D202" s="65">
+        <v>47.891</v>
       </c>
       <c r="E202" s="26">
-        <v>1.2</v>
+        <v>24</v>
       </c>
       <c r="F202" s="26">
-        <v>20.2</v>
+        <v>24.4</v>
       </c>
       <c r="G202" s="26">
-        <v>18.6</v>
+        <v>20.3</v>
       </c>
       <c r="H202" s="44">
-        <v>22.6</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="203" ht="25" customHeight="1" spans="1:8">
       <c r="A203" s="25"/>
       <c r="B203" s="36"/>
       <c r="C203" s="22">
-        <v>43430</v>
-      </c>
-      <c r="D203" s="64">
-        <v>44.374</v>
+        <v>43342</v>
+      </c>
+      <c r="D203" s="65">
+        <v>48.772</v>
       </c>
       <c r="E203" s="26">
-        <v>-2.5</v>
+        <v>24.8</v>
       </c>
       <c r="F203" s="26">
-        <v>21.4</v>
+        <v>24.6</v>
       </c>
       <c r="G203" s="26">
-        <v>17.6</v>
+        <v>22.9</v>
       </c>
       <c r="H203" s="44">
-        <v>22.5</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="204" ht="25" customHeight="1" spans="1:8">
       <c r="A204" s="25"/>
       <c r="B204" s="36"/>
       <c r="C204" s="22">
-        <v>43432</v>
-      </c>
-      <c r="D204" s="31">
-        <v>44.348</v>
+        <v>43348</v>
+      </c>
+      <c r="D204" s="65">
+        <v>48.072</v>
       </c>
       <c r="E204" s="26">
-        <v>-4</v>
+        <v>22</v>
       </c>
       <c r="F204" s="26">
-        <v>21.3</v>
+        <v>23.1</v>
       </c>
       <c r="G204" s="26">
-        <v>17.3</v>
+        <v>23.6</v>
       </c>
       <c r="H204" s="44">
-        <v>22.4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="205" ht="25" customHeight="1" spans="1:8">
       <c r="A205" s="25"/>
       <c r="B205" s="36"/>
       <c r="C205" s="22">
-        <v>43452</v>
-      </c>
-      <c r="D205" s="64">
-        <v>45.086</v>
+        <v>43368</v>
+      </c>
+      <c r="D205" s="65">
+        <v>45.432</v>
       </c>
       <c r="E205" s="26">
-        <v>-2.4</v>
+        <v>14.1</v>
       </c>
       <c r="F205" s="26">
-        <v>22.2</v>
+        <v>19</v>
       </c>
       <c r="G205" s="26">
-        <v>18</v>
+        <v>20.5</v>
       </c>
       <c r="H205" s="44">
-        <v>22.1</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="206" ht="25" customHeight="1" spans="1:8">
       <c r="A206" s="25"/>
       <c r="B206" s="36"/>
       <c r="C206" s="22">
-        <v>43461</v>
-      </c>
-      <c r="D206" s="64">
-        <v>44.788</v>
+        <v>43383</v>
+      </c>
+      <c r="D206" s="65">
+        <v>43.479</v>
       </c>
       <c r="E206" s="26">
-        <v>-7.2</v>
+        <v>5.5</v>
       </c>
       <c r="F206" s="26">
-        <v>23.8</v>
+        <v>15.6</v>
       </c>
       <c r="G206" s="26">
-        <v>17</v>
+        <v>17.8</v>
       </c>
       <c r="H206" s="44">
-        <v>21.3</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="207" ht="25" customHeight="1" spans="1:8">
       <c r="A207" s="25"/>
       <c r="B207" s="36"/>
       <c r="C207" s="22">
-        <v>43480</v>
-      </c>
-      <c r="D207" s="64">
-        <v>45.533</v>
-      </c>
-      <c r="E207" s="26">
-        <v>-9.8</v>
-      </c>
-      <c r="F207" s="26">
-        <v>21</v>
-      </c>
-      <c r="G207" s="26">
-        <v>21.1</v>
-      </c>
-      <c r="H207" s="44">
-        <v>21.6</v>
+        <v>43399</v>
+      </c>
+      <c r="D207" s="48">
+        <v>42.788</v>
+      </c>
+      <c r="E207" s="30">
+        <v>-0.3</v>
+      </c>
+      <c r="F207" s="30">
+        <v>14.3</v>
+      </c>
+      <c r="G207" s="30">
+        <v>16.5</v>
+      </c>
+      <c r="H207" s="46">
+        <v>21.7</v>
       </c>
     </row>
     <row r="208" ht="25" customHeight="1" spans="1:8">
       <c r="A208" s="25"/>
       <c r="B208" s="36"/>
       <c r="C208" s="22">
-        <v>43511</v>
-      </c>
-      <c r="D208" s="64">
-        <v>42.503</v>
-      </c>
-      <c r="E208" s="66">
-        <v>-12.5</v>
-      </c>
-      <c r="F208" s="66">
-        <v>14.9</v>
-      </c>
-      <c r="G208" s="66">
-        <v>20.6</v>
-      </c>
-      <c r="H208" s="67">
-        <v>21</v>
+        <v>43402</v>
+      </c>
+      <c r="D208" s="28">
+        <v>43.692</v>
+      </c>
+      <c r="E208" s="26">
+        <v>1.4</v>
+      </c>
+      <c r="F208" s="26">
+        <v>15.8</v>
+      </c>
+      <c r="G208" s="26">
+        <v>17.4</v>
+      </c>
+      <c r="H208" s="44">
+        <v>22.1</v>
       </c>
     </row>
     <row r="209" ht="25" customHeight="1" spans="1:8">
       <c r="A209" s="25"/>
       <c r="B209" s="36"/>
       <c r="C209" s="22">
-        <v>43524</v>
-      </c>
-      <c r="D209" s="64">
-        <v>43.329</v>
+        <v>43404</v>
+      </c>
+      <c r="D209" s="28">
+        <v>44.41</v>
       </c>
       <c r="E209" s="26">
-        <v>-9.96</v>
+        <v>1.9</v>
       </c>
       <c r="F209" s="26">
-        <v>14.81</v>
-      </c>
-      <c r="G209" s="26"/>
+        <v>16.8</v>
+      </c>
+      <c r="G209" s="26">
+        <v>18.2</v>
+      </c>
       <c r="H209" s="44">
-        <v>20.78</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="210" ht="25" customHeight="1" spans="1:8">
       <c r="A210" s="25"/>
       <c r="B210" s="36"/>
       <c r="C210" s="22">
-        <v>43550</v>
-      </c>
-      <c r="D210" s="64">
-        <v>46.607</v>
+        <v>43405</v>
+      </c>
+      <c r="D210" s="31">
+        <v>44.515</v>
       </c>
       <c r="E210" s="26">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="F210" s="26">
-        <v>16.16</v>
-      </c>
-      <c r="G210" s="26"/>
+        <v>16.8</v>
+      </c>
+      <c r="G210" s="26">
+        <v>18.3</v>
+      </c>
       <c r="H210" s="44">
-        <v>20.89</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="211" ht="25" customHeight="1" spans="1:8">
       <c r="A211" s="25"/>
       <c r="B211" s="36"/>
       <c r="C211" s="22">
-        <v>43551</v>
-      </c>
-      <c r="D211" s="64">
-        <v>47.462</v>
+        <v>43410</v>
+      </c>
+      <c r="D211" s="31">
+        <v>44.527</v>
       </c>
       <c r="E211" s="26">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="F211" s="26">
-        <v>17.85</v>
+        <v>19.7</v>
       </c>
       <c r="G211" s="26">
-        <v>23.17</v>
+        <v>18.8</v>
       </c>
       <c r="H211" s="44">
-        <v>21.15</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="212" ht="25" customHeight="1" spans="1:8">
       <c r="A212" s="25"/>
       <c r="B212" s="36"/>
-      <c r="C212" s="22"/>
-      <c r="D212" s="64"/>
-      <c r="E212" s="26"/>
-      <c r="F212" s="26"/>
-      <c r="G212" s="26"/>
-      <c r="H212" s="44"/>
+      <c r="C212" s="22">
+        <v>43413</v>
+      </c>
+      <c r="D212" s="31">
+        <v>44.799</v>
+      </c>
+      <c r="E212" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="F212" s="26">
+        <v>20.2</v>
+      </c>
+      <c r="G212" s="26">
+        <v>18.6</v>
+      </c>
+      <c r="H212" s="44">
+        <v>22.6</v>
+      </c>
     </row>
     <row r="213" ht="25" customHeight="1" spans="1:8">
       <c r="A213" s="25"/>
       <c r="B213" s="36"/>
-      <c r="C213" s="68"/>
-      <c r="D213" s="68"/>
-      <c r="E213" s="69"/>
-      <c r="F213" s="69"/>
-      <c r="G213" s="69"/>
-      <c r="H213" s="70"/>
-    </row>
-    <row r="214" ht="25" customHeight="1"/>
-    <row r="215" ht="25" customHeight="1" spans="1:9">
-      <c r="A215" s="71" t="s">
+      <c r="C213" s="22">
+        <v>43430</v>
+      </c>
+      <c r="D213" s="65">
+        <v>44.374</v>
+      </c>
+      <c r="E213" s="26">
+        <v>-2.5</v>
+      </c>
+      <c r="F213" s="26">
+        <v>21.4</v>
+      </c>
+      <c r="G213" s="26">
+        <v>17.6</v>
+      </c>
+      <c r="H213" s="44">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="214" ht="25" customHeight="1" spans="1:8">
+      <c r="A214" s="25"/>
+      <c r="B214" s="36"/>
+      <c r="C214" s="22">
+        <v>43432</v>
+      </c>
+      <c r="D214" s="31">
+        <v>44.348</v>
+      </c>
+      <c r="E214" s="26">
+        <v>-4</v>
+      </c>
+      <c r="F214" s="26">
+        <v>21.3</v>
+      </c>
+      <c r="G214" s="26">
+        <v>17.3</v>
+      </c>
+      <c r="H214" s="44">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="215" ht="25" customHeight="1" spans="1:8">
+      <c r="A215" s="25"/>
+      <c r="B215" s="36"/>
+      <c r="C215" s="22">
+        <v>43452</v>
+      </c>
+      <c r="D215" s="65">
+        <v>45.086</v>
+      </c>
+      <c r="E215" s="26">
+        <v>-2.4</v>
+      </c>
+      <c r="F215" s="26">
+        <v>22.2</v>
+      </c>
+      <c r="G215" s="26">
+        <v>18</v>
+      </c>
+      <c r="H215" s="44">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="216" ht="25" customHeight="1" spans="1:8">
+      <c r="A216" s="25"/>
+      <c r="B216" s="36"/>
+      <c r="C216" s="22">
+        <v>43461</v>
+      </c>
+      <c r="D216" s="65">
+        <v>44.788</v>
+      </c>
+      <c r="E216" s="26">
+        <v>-7.2</v>
+      </c>
+      <c r="F216" s="26">
+        <v>23.8</v>
+      </c>
+      <c r="G216" s="26">
+        <v>17</v>
+      </c>
+      <c r="H216" s="44">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="217" ht="25" customHeight="1" spans="1:8">
+      <c r="A217" s="25"/>
+      <c r="B217" s="36"/>
+      <c r="C217" s="22">
+        <v>43480</v>
+      </c>
+      <c r="D217" s="65">
+        <v>45.533</v>
+      </c>
+      <c r="E217" s="26">
+        <v>-9.8</v>
+      </c>
+      <c r="F217" s="26">
+        <v>21</v>
+      </c>
+      <c r="G217" s="26">
+        <v>21.1</v>
+      </c>
+      <c r="H217" s="44">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="218" ht="25" customHeight="1" spans="1:8">
+      <c r="A218" s="25"/>
+      <c r="B218" s="36"/>
+      <c r="C218" s="22">
+        <v>43511</v>
+      </c>
+      <c r="D218" s="65">
+        <v>42.503</v>
+      </c>
+      <c r="E218" s="67">
+        <v>-12.5</v>
+      </c>
+      <c r="F218" s="67">
+        <v>14.9</v>
+      </c>
+      <c r="G218" s="67">
+        <v>20.6</v>
+      </c>
+      <c r="H218" s="68">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219" ht="25" customHeight="1" spans="1:8">
+      <c r="A219" s="25"/>
+      <c r="B219" s="36"/>
+      <c r="C219" s="22">
+        <v>43524</v>
+      </c>
+      <c r="D219" s="65">
+        <v>43.329</v>
+      </c>
+      <c r="E219" s="26">
+        <v>-9.96</v>
+      </c>
+      <c r="F219" s="26">
+        <v>14.81</v>
+      </c>
+      <c r="G219" s="26"/>
+      <c r="H219" s="44">
+        <v>20.78</v>
+      </c>
+    </row>
+    <row r="220" ht="25" customHeight="1" spans="1:8">
+      <c r="A220" s="25"/>
+      <c r="B220" s="36"/>
+      <c r="C220" s="22">
+        <v>43550</v>
+      </c>
+      <c r="D220" s="65">
+        <v>46.607</v>
+      </c>
+      <c r="E220" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="F220" s="26">
+        <v>16.16</v>
+      </c>
+      <c r="G220" s="26"/>
+      <c r="H220" s="44">
+        <v>20.89</v>
+      </c>
+    </row>
+    <row r="221" ht="25" customHeight="1" spans="1:8">
+      <c r="A221" s="25"/>
+      <c r="B221" s="36"/>
+      <c r="C221" s="22">
+        <v>43551</v>
+      </c>
+      <c r="D221" s="65">
+        <v>47.462</v>
+      </c>
+      <c r="E221" s="26">
+        <v>1.8</v>
+      </c>
+      <c r="F221" s="26">
+        <v>17.85</v>
+      </c>
+      <c r="G221" s="26">
+        <v>23.17</v>
+      </c>
+      <c r="H221" s="44">
+        <v>21.15</v>
+      </c>
+    </row>
+    <row r="222" ht="25" customHeight="1" spans="1:8">
+      <c r="A222" s="25"/>
+      <c r="B222" s="36"/>
+      <c r="C222" s="22">
+        <v>43573</v>
+      </c>
+      <c r="D222" s="65">
+        <v>47.237</v>
+      </c>
+      <c r="E222" s="26">
+        <v>-3.99</v>
+      </c>
+      <c r="F222" s="26">
+        <v>14.91</v>
+      </c>
+      <c r="G222" s="26">
+        <v>20.15</v>
+      </c>
+      <c r="H222" s="44">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="223" ht="25" customHeight="1" spans="1:8">
+      <c r="A223" s="25"/>
+      <c r="B223" s="36"/>
+      <c r="C223" s="22"/>
+      <c r="D223" s="65"/>
+      <c r="E223" s="26"/>
+      <c r="F223" s="26"/>
+      <c r="G223" s="26"/>
+      <c r="H223" s="44"/>
+    </row>
+    <row r="224" ht="25" customHeight="1" spans="1:8">
+      <c r="A224" s="25"/>
+      <c r="B224" s="36"/>
+      <c r="C224" s="22"/>
+      <c r="D224" s="65"/>
+      <c r="E224" s="26"/>
+      <c r="F224" s="26"/>
+      <c r="G224" s="26"/>
+      <c r="H224" s="44"/>
+    </row>
+    <row r="225" ht="25" customHeight="1" spans="1:8">
+      <c r="A225" s="25"/>
+      <c r="B225" s="36"/>
+      <c r="C225" s="22"/>
+      <c r="D225" s="65"/>
+      <c r="E225" s="26"/>
+      <c r="F225" s="26"/>
+      <c r="G225" s="26"/>
+      <c r="H225" s="44"/>
+    </row>
+    <row r="226" ht="25" customHeight="1" spans="1:8">
+      <c r="A226" s="25"/>
+      <c r="B226" s="36"/>
+      <c r="C226" s="22"/>
+      <c r="D226" s="65"/>
+      <c r="E226" s="26"/>
+      <c r="F226" s="26"/>
+      <c r="G226" s="26"/>
+      <c r="H226" s="44"/>
+    </row>
+    <row r="227" ht="25" customHeight="1" spans="1:8">
+      <c r="A227" s="25"/>
+      <c r="B227" s="36"/>
+      <c r="C227" s="69"/>
+      <c r="D227" s="69"/>
+      <c r="E227" s="70"/>
+      <c r="F227" s="70"/>
+      <c r="G227" s="70"/>
+      <c r="H227" s="71"/>
+    </row>
+    <row r="228" ht="25" customHeight="1"/>
+    <row r="229" ht="25" customHeight="1" spans="1:9">
+      <c r="A229" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B215" s="21" t="s">
+      <c r="B229" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C215" s="22">
+      <c r="C229" s="22">
         <v>43313</v>
       </c>
-      <c r="D215" s="72">
+      <c r="D229" s="73">
         <v>35.109</v>
       </c>
-      <c r="E215" s="73">
+      <c r="E229" s="74">
         <v>9.4</v>
       </c>
-      <c r="F215" s="73">
+      <c r="F229" s="74">
         <v>17.5</v>
       </c>
-      <c r="G215" s="73">
+      <c r="G229" s="74">
         <v>11.4</v>
       </c>
-      <c r="H215" s="74">
+      <c r="H229" s="75">
         <v>22.4</v>
       </c>
-      <c r="I215" s="78" t="s">
+      <c r="I229" s="77" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="216" ht="25" customHeight="1" spans="1:8">
-      <c r="A216" s="71"/>
-      <c r="B216" s="21"/>
-      <c r="C216" s="22">
-        <v>43319</v>
-      </c>
-      <c r="D216" s="64">
-        <v>35.367</v>
-      </c>
-      <c r="E216" s="26">
-        <v>10.9</v>
-      </c>
-      <c r="F216" s="26">
-        <v>17.4</v>
-      </c>
-      <c r="G216" s="26">
-        <v>11.3</v>
-      </c>
-      <c r="H216" s="44">
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="217" ht="25" customHeight="1" spans="1:8">
-      <c r="A217" s="71"/>
-      <c r="B217" s="21"/>
-      <c r="C217" s="22">
-        <v>43321</v>
-      </c>
-      <c r="D217" s="64">
-        <v>35.687</v>
-      </c>
-      <c r="E217" s="26">
-        <v>14.2</v>
-      </c>
-      <c r="F217" s="26">
-        <v>18</v>
-      </c>
-      <c r="G217" s="26">
-        <v>11.6</v>
-      </c>
-      <c r="H217" s="44">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="218" ht="25" customHeight="1" spans="1:8">
-      <c r="A218" s="71"/>
-      <c r="B218" s="21"/>
-      <c r="C218" s="22">
-        <v>43322</v>
-      </c>
-      <c r="D218" s="64">
-        <v>35.367</v>
-      </c>
-      <c r="E218" s="26">
-        <v>14.4</v>
-      </c>
-      <c r="F218" s="26">
-        <v>18.4</v>
-      </c>
-      <c r="G218" s="26">
-        <v>11.4</v>
-      </c>
-      <c r="H218" s="44">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="219" ht="25" customHeight="1" spans="1:8">
-      <c r="A219" s="71"/>
-      <c r="B219" s="21"/>
-      <c r="C219" s="22">
-        <v>43325</v>
-      </c>
-      <c r="D219" s="64">
-        <v>35.079</v>
-      </c>
-      <c r="E219" s="26">
-        <v>14.4</v>
-      </c>
-      <c r="F219" s="26">
-        <v>17.2</v>
-      </c>
-      <c r="G219" s="26">
-        <v>11.9</v>
-      </c>
-      <c r="H219" s="44">
-        <v>21.9</v>
-      </c>
-    </row>
-    <row r="220" ht="25" customHeight="1" spans="1:8">
-      <c r="A220" s="71"/>
-      <c r="B220" s="21"/>
-      <c r="C220" s="22">
-        <v>43326</v>
-      </c>
-      <c r="D220" s="64">
-        <v>35.393</v>
-      </c>
-      <c r="E220" s="26">
-        <v>14.1</v>
-      </c>
-      <c r="F220" s="26">
-        <v>17.7</v>
-      </c>
-      <c r="G220" s="26">
-        <v>11.5</v>
-      </c>
-      <c r="H220" s="44">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="221" ht="25" customHeight="1" spans="1:8">
-      <c r="A221" s="71"/>
-      <c r="B221" s="21"/>
-      <c r="C221" s="22">
-        <v>43332</v>
-      </c>
-      <c r="D221" s="64">
-        <v>36.178</v>
-      </c>
-      <c r="E221" s="26">
-        <v>16.3</v>
-      </c>
-      <c r="F221" s="26">
-        <v>18</v>
-      </c>
-      <c r="G221" s="26">
-        <v>12.7</v>
-      </c>
-      <c r="H221" s="44">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="222" ht="25" customHeight="1" spans="1:8">
-      <c r="A222" s="71"/>
-      <c r="B222" s="21"/>
-      <c r="C222" s="22">
-        <v>43333</v>
-      </c>
-      <c r="D222" s="64">
-        <v>36.298</v>
-      </c>
-      <c r="E222" s="26">
-        <v>18</v>
-      </c>
-      <c r="F222" s="26">
-        <v>18.2</v>
-      </c>
-      <c r="G222" s="26">
-        <v>13.1</v>
-      </c>
-      <c r="H222" s="44">
-        <v>24.3</v>
-      </c>
-    </row>
-    <row r="223" ht="25" customHeight="1" spans="1:8">
-      <c r="A223" s="71"/>
-      <c r="B223" s="21"/>
-      <c r="C223" s="22">
-        <v>43336</v>
-      </c>
-      <c r="D223" s="64">
-        <v>36.183</v>
-      </c>
-      <c r="E223" s="26">
-        <v>15.9</v>
-      </c>
-      <c r="F223" s="26">
-        <v>18</v>
-      </c>
-      <c r="G223" s="26">
-        <v>15.6</v>
-      </c>
-      <c r="H223" s="44">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="224" ht="25" customHeight="1" spans="1:8">
-      <c r="A224" s="71"/>
-      <c r="B224" s="21"/>
-      <c r="C224" s="22">
-        <v>43342</v>
-      </c>
-      <c r="D224" s="64">
-        <v>36.845</v>
-      </c>
-      <c r="E224" s="26">
-        <v>17.3</v>
-      </c>
-      <c r="F224" s="26">
-        <v>18.3</v>
-      </c>
-      <c r="G224" s="26">
-        <v>15.2</v>
-      </c>
-      <c r="H224" s="44">
-        <v>23.9</v>
-      </c>
-    </row>
-    <row r="225" ht="25" customHeight="1" spans="1:8">
-      <c r="A225" s="71"/>
-      <c r="B225" s="21"/>
-      <c r="C225" s="22">
-        <v>43348</v>
-      </c>
-      <c r="D225" s="64">
-        <v>36.203</v>
-      </c>
-      <c r="E225" s="26">
-        <v>14.7</v>
-      </c>
-      <c r="F225" s="26">
-        <v>16.8</v>
-      </c>
-      <c r="G225" s="26">
-        <v>16.2</v>
-      </c>
-      <c r="H225" s="44">
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="226" ht="25" customHeight="1" spans="1:8">
-      <c r="A226" s="71"/>
-      <c r="B226" s="21"/>
-      <c r="C226" s="22">
-        <v>43368</v>
-      </c>
-      <c r="D226" s="64">
-        <v>34.648</v>
-      </c>
-      <c r="E226" s="26">
-        <v>9.1</v>
-      </c>
-      <c r="F226" s="26">
-        <v>13.7</v>
-      </c>
-      <c r="G226" s="26">
-        <v>13.8</v>
-      </c>
-      <c r="H226" s="44">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="227" ht="25" customHeight="1" spans="1:8">
-      <c r="A227" s="71"/>
-      <c r="B227" s="21"/>
-      <c r="C227" s="22">
-        <v>43383</v>
-      </c>
-      <c r="D227" s="64">
-        <v>33.023</v>
-      </c>
-      <c r="E227" s="32">
-        <v>3.4</v>
-      </c>
-      <c r="F227" s="32">
-        <v>11.3</v>
-      </c>
-      <c r="G227" s="32">
-        <v>11.2</v>
-      </c>
-      <c r="H227" s="75">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="228" ht="25" customHeight="1" spans="1:8">
-      <c r="A228" s="71"/>
-      <c r="B228" s="21"/>
-      <c r="C228" s="22">
-        <v>43399</v>
-      </c>
-      <c r="D228" s="48">
-        <v>31.994</v>
-      </c>
-      <c r="E228" s="30">
-        <v>-3.3</v>
-      </c>
-      <c r="F228" s="30">
-        <v>9.8</v>
-      </c>
-      <c r="G228" s="30">
-        <v>9.5</v>
-      </c>
-      <c r="H228" s="46">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="229" ht="25" customHeight="1" spans="1:8">
-      <c r="A229" s="71"/>
-      <c r="B229" s="21"/>
-      <c r="C229" s="22">
-        <v>43402</v>
-      </c>
-      <c r="D229" s="28">
-        <v>33.094</v>
-      </c>
-      <c r="E229" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="F229" s="26">
-        <v>11.7</v>
-      </c>
-      <c r="G229" s="26">
-        <v>11.4</v>
-      </c>
-      <c r="H229" s="44">
-        <v>18.6</v>
-      </c>
-    </row>
     <row r="230" ht="25" customHeight="1" spans="1:8">
-      <c r="A230" s="71"/>
+      <c r="A230" s="72"/>
       <c r="B230" s="21"/>
       <c r="C230" s="22">
-        <v>43404</v>
-      </c>
-      <c r="D230" s="28">
-        <v>33.768</v>
+        <v>43319</v>
+      </c>
+      <c r="D230" s="65">
+        <v>35.367</v>
       </c>
       <c r="E230" s="26">
-        <v>1.6</v>
+        <v>10.9</v>
       </c>
       <c r="F230" s="26">
-        <v>12.8</v>
+        <v>17.4</v>
       </c>
       <c r="G230" s="26">
-        <v>12.1</v>
+        <v>11.3</v>
       </c>
       <c r="H230" s="44">
-        <v>18.7</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="231" ht="25" customHeight="1" spans="1:8">
-      <c r="A231" s="71"/>
+      <c r="A231" s="72"/>
       <c r="B231" s="21"/>
       <c r="C231" s="22">
-        <v>43405</v>
-      </c>
-      <c r="D231" s="31">
-        <v>33.958</v>
+        <v>43321</v>
+      </c>
+      <c r="D231" s="65">
+        <v>35.687</v>
       </c>
       <c r="E231" s="26">
-        <v>0.9</v>
+        <v>14.2</v>
       </c>
       <c r="F231" s="26">
-        <v>13.3</v>
+        <v>18</v>
       </c>
       <c r="G231" s="26">
-        <v>12.3</v>
+        <v>11.6</v>
       </c>
       <c r="H231" s="44">
-        <v>18.7</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="232" ht="25" customHeight="1" spans="1:8">
-      <c r="A232" s="71"/>
+      <c r="A232" s="72"/>
       <c r="B232" s="21"/>
       <c r="C232" s="22">
-        <v>43410</v>
-      </c>
-      <c r="D232" s="31">
-        <v>34.135</v>
+        <v>43322</v>
+      </c>
+      <c r="D232" s="65">
+        <v>35.367</v>
       </c>
       <c r="E232" s="26">
-        <v>0.4</v>
+        <v>14.4</v>
       </c>
       <c r="F232" s="26">
-        <v>15.2</v>
+        <v>18.4</v>
       </c>
       <c r="G232" s="26">
-        <v>12.5</v>
+        <v>11.4</v>
       </c>
       <c r="H232" s="44">
-        <v>18.8</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="233" ht="25" customHeight="1" spans="1:8">
-      <c r="A233" s="71"/>
+      <c r="A233" s="72"/>
       <c r="B233" s="21"/>
       <c r="C233" s="22">
-        <v>43413</v>
-      </c>
-      <c r="D233" s="31">
-        <v>34.381</v>
+        <v>43325</v>
+      </c>
+      <c r="D233" s="65">
+        <v>35.079</v>
       </c>
       <c r="E233" s="26">
-        <v>2.8</v>
+        <v>14.4</v>
       </c>
       <c r="F233" s="26">
-        <v>15</v>
+        <v>17.2</v>
       </c>
       <c r="G233" s="26">
-        <v>12.6</v>
+        <v>11.9</v>
       </c>
       <c r="H233" s="44">
-        <v>19.4</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="234" ht="25" customHeight="1" spans="1:8">
-      <c r="A234" s="71"/>
+      <c r="A234" s="72"/>
       <c r="B234" s="21"/>
       <c r="C234" s="22">
-        <v>43430</v>
-      </c>
-      <c r="D234" s="31">
-        <v>34.377</v>
+        <v>43326</v>
+      </c>
+      <c r="D234" s="65">
+        <v>35.393</v>
       </c>
       <c r="E234" s="26">
-        <v>1</v>
+        <v>14.1</v>
       </c>
       <c r="F234" s="26">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="G234" s="26">
-        <v>12.9</v>
+        <v>11.5</v>
       </c>
       <c r="H234" s="44">
-        <v>19.6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="235" ht="25" customHeight="1" spans="1:8">
-      <c r="A235" s="71"/>
+      <c r="A235" s="72"/>
       <c r="B235" s="21"/>
       <c r="C235" s="22">
-        <v>43432</v>
-      </c>
-      <c r="D235" s="31">
-        <v>34.251</v>
+        <v>43332</v>
+      </c>
+      <c r="D235" s="65">
+        <v>36.178</v>
       </c>
       <c r="E235" s="26">
-        <v>0.4</v>
+        <v>16.3</v>
       </c>
       <c r="F235" s="26">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="G235" s="26">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="H235" s="44">
-        <v>19.3</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="236" ht="25" customHeight="1" spans="1:8">
-      <c r="A236" s="71"/>
+      <c r="A236" s="72"/>
       <c r="B236" s="21"/>
       <c r="C236" s="22">
-        <v>43452</v>
-      </c>
-      <c r="D236" s="64">
-        <v>34.937</v>
+        <v>43333</v>
+      </c>
+      <c r="D236" s="65">
+        <v>36.298</v>
       </c>
       <c r="E236" s="26">
-        <v>1.9</v>
+        <v>18</v>
       </c>
       <c r="F236" s="26">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="G236" s="26">
-        <v>14.1</v>
+        <v>13.1</v>
       </c>
       <c r="H236" s="44">
-        <v>18.7</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="237" ht="25" customHeight="1" spans="1:8">
-      <c r="A237" s="71"/>
+      <c r="A237" s="72"/>
       <c r="B237" s="21"/>
       <c r="C237" s="22">
-        <v>43461</v>
-      </c>
-      <c r="D237" s="64">
-        <v>34.676</v>
+        <v>43336</v>
+      </c>
+      <c r="D237" s="65">
+        <v>36.183</v>
       </c>
       <c r="E237" s="26">
-        <v>-0.2</v>
+        <v>15.9</v>
       </c>
       <c r="F237" s="26">
-        <v>19.2</v>
+        <v>18</v>
       </c>
       <c r="G237" s="26">
-        <v>13.2</v>
+        <v>15.6</v>
       </c>
       <c r="H237" s="44">
-        <v>18</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="238" ht="25" customHeight="1" spans="1:8">
-      <c r="A238" s="71"/>
+      <c r="A238" s="72"/>
       <c r="B238" s="21"/>
       <c r="C238" s="22">
-        <v>43480</v>
-      </c>
-      <c r="D238" s="64">
-        <v>35.366</v>
+        <v>43342</v>
+      </c>
+      <c r="D238" s="65">
+        <v>36.845</v>
       </c>
       <c r="E238" s="26">
-        <v>-0.1</v>
+        <v>17.3</v>
       </c>
       <c r="F238" s="26">
-        <v>17.3</v>
+        <v>18.3</v>
       </c>
       <c r="G238" s="26">
-        <v>16.7</v>
+        <v>15.2</v>
       </c>
       <c r="H238" s="44">
-        <v>18.7</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="239" ht="25" customHeight="1" spans="1:8">
-      <c r="A239" s="71"/>
+      <c r="A239" s="72"/>
       <c r="B239" s="21"/>
       <c r="C239" s="22">
-        <v>43524</v>
-      </c>
-      <c r="D239" s="64">
-        <v>34.3414</v>
-      </c>
-      <c r="E239" s="32">
-        <v>0.87</v>
-      </c>
-      <c r="F239" s="32">
-        <v>11.56</v>
-      </c>
-      <c r="G239" s="32">
-        <v>19.11</v>
-      </c>
-      <c r="H239" s="75">
-        <v>17.64</v>
+        <v>43348</v>
+      </c>
+      <c r="D239" s="65">
+        <v>36.203</v>
+      </c>
+      <c r="E239" s="26">
+        <v>14.7</v>
+      </c>
+      <c r="F239" s="26">
+        <v>16.8</v>
+      </c>
+      <c r="G239" s="26">
+        <v>16.2</v>
+      </c>
+      <c r="H239" s="44">
+        <v>23.1</v>
       </c>
     </row>
     <row r="240" ht="25" customHeight="1" spans="1:8">
-      <c r="A240" s="71"/>
+      <c r="A240" s="72"/>
       <c r="B240" s="21"/>
       <c r="C240" s="22">
-        <v>43550</v>
-      </c>
-      <c r="D240" s="64">
-        <v>36.7706</v>
-      </c>
-      <c r="E240" s="32">
-        <v>13.88</v>
-      </c>
-      <c r="F240" s="32">
-        <v>13.48</v>
-      </c>
-      <c r="G240" s="32"/>
-      <c r="H240" s="75">
-        <v>17.84</v>
+        <v>43368</v>
+      </c>
+      <c r="D240" s="65">
+        <v>34.648</v>
+      </c>
+      <c r="E240" s="26">
+        <v>9.1</v>
+      </c>
+      <c r="F240" s="26">
+        <v>13.7</v>
+      </c>
+      <c r="G240" s="26">
+        <v>13.8</v>
+      </c>
+      <c r="H240" s="44">
+        <v>21</v>
       </c>
     </row>
     <row r="241" ht="25" customHeight="1" spans="1:8">
-      <c r="A241" s="71"/>
+      <c r="A241" s="72"/>
       <c r="B241" s="21"/>
       <c r="C241" s="22">
-        <v>43551</v>
-      </c>
-      <c r="D241" s="64">
-        <v>37.2335</v>
+        <v>43383</v>
+      </c>
+      <c r="D241" s="65">
+        <v>33.023</v>
       </c>
       <c r="E241" s="32">
-        <v>14.64</v>
+        <v>3.4</v>
       </c>
       <c r="F241" s="32">
-        <v>14.65</v>
+        <v>11.3</v>
       </c>
       <c r="G241" s="32">
+        <v>11.2</v>
+      </c>
+      <c r="H241" s="76">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="242" ht="25" customHeight="1" spans="1:8">
+      <c r="A242" s="72"/>
+      <c r="B242" s="21"/>
+      <c r="C242" s="22">
+        <v>43399</v>
+      </c>
+      <c r="D242" s="48">
+        <v>31.994</v>
+      </c>
+      <c r="E242" s="30">
+        <v>-3.3</v>
+      </c>
+      <c r="F242" s="30">
+        <v>9.8</v>
+      </c>
+      <c r="G242" s="30">
+        <v>9.5</v>
+      </c>
+      <c r="H242" s="46">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243" ht="25" customHeight="1" spans="1:8">
+      <c r="A243" s="72"/>
+      <c r="B243" s="21"/>
+      <c r="C243" s="22">
+        <v>43402</v>
+      </c>
+      <c r="D243" s="28">
+        <v>33.094</v>
+      </c>
+      <c r="E243" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F243" s="26">
+        <v>11.7</v>
+      </c>
+      <c r="G243" s="26">
+        <v>11.4</v>
+      </c>
+      <c r="H243" s="44">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="244" ht="25" customHeight="1" spans="1:8">
+      <c r="A244" s="72"/>
+      <c r="B244" s="21"/>
+      <c r="C244" s="22">
+        <v>43404</v>
+      </c>
+      <c r="D244" s="28">
+        <v>33.768</v>
+      </c>
+      <c r="E244" s="26">
+        <v>1.6</v>
+      </c>
+      <c r="F244" s="26">
+        <v>12.8</v>
+      </c>
+      <c r="G244" s="26">
+        <v>12.1</v>
+      </c>
+      <c r="H244" s="44">
         <v>18.7</v>
       </c>
-      <c r="H241" s="75">
-        <v>17.96</v>
-      </c>
-    </row>
-    <row r="242" ht="25" customHeight="1" spans="1:8">
-      <c r="A242" s="71"/>
-      <c r="B242" s="21"/>
-      <c r="C242" s="22"/>
-      <c r="D242" s="64"/>
-      <c r="E242" s="32"/>
-      <c r="F242" s="32"/>
-      <c r="G242" s="32"/>
-      <c r="H242" s="75"/>
-    </row>
-    <row r="243" ht="25" customHeight="1" spans="1:8">
-      <c r="A243" s="71"/>
-      <c r="B243" s="21"/>
-      <c r="C243" s="22"/>
-      <c r="D243" s="64"/>
-      <c r="E243" s="32"/>
-      <c r="F243" s="32"/>
-      <c r="G243" s="32"/>
-      <c r="H243" s="75"/>
-    </row>
-    <row r="244" ht="25" customHeight="1" spans="1:8">
-      <c r="A244" s="71"/>
-      <c r="B244" s="21"/>
-      <c r="C244" s="22"/>
-      <c r="D244" s="64"/>
-      <c r="E244" s="32"/>
-      <c r="F244" s="32"/>
-      <c r="G244" s="32"/>
-      <c r="H244" s="75"/>
     </row>
     <row r="245" ht="25" customHeight="1" spans="1:8">
-      <c r="A245" s="71"/>
+      <c r="A245" s="72"/>
       <c r="B245" s="21"/>
-      <c r="C245" s="68"/>
-      <c r="D245" s="68"/>
-      <c r="E245" s="69"/>
-      <c r="F245" s="69"/>
-      <c r="G245" s="69"/>
-      <c r="H245" s="70"/>
-    </row>
-    <row r="246" ht="25" customHeight="1"/>
+      <c r="C245" s="22">
+        <v>43405</v>
+      </c>
+      <c r="D245" s="31">
+        <v>33.958</v>
+      </c>
+      <c r="E245" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="F245" s="26">
+        <v>13.3</v>
+      </c>
+      <c r="G245" s="26">
+        <v>12.3</v>
+      </c>
+      <c r="H245" s="44">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="246" ht="25" customHeight="1" spans="1:8">
+      <c r="A246" s="72"/>
+      <c r="B246" s="21"/>
+      <c r="C246" s="22">
+        <v>43410</v>
+      </c>
+      <c r="D246" s="31">
+        <v>34.135</v>
+      </c>
+      <c r="E246" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="F246" s="26">
+        <v>15.2</v>
+      </c>
+      <c r="G246" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="H246" s="44">
+        <v>18.8</v>
+      </c>
+    </row>
     <row r="247" ht="25" customHeight="1" spans="1:8">
-      <c r="A247" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="B247" s="36" t="s">
+      <c r="A247" s="72"/>
+      <c r="B247" s="21"/>
+      <c r="C247" s="22">
+        <v>43413</v>
+      </c>
+      <c r="D247" s="31">
+        <v>34.381</v>
+      </c>
+      <c r="E247" s="26">
+        <v>2.8</v>
+      </c>
+      <c r="F247" s="26">
         <v>15</v>
       </c>
-      <c r="C247" s="22">
-        <v>43313</v>
-      </c>
-      <c r="D247" s="64">
-        <v>102.22</v>
-      </c>
-      <c r="E247" s="76">
-        <v>11.6</v>
-      </c>
-      <c r="F247" s="76">
-        <v>21.8</v>
-      </c>
-      <c r="G247" s="76">
-        <v>16</v>
-      </c>
-      <c r="H247" s="77">
-        <v>35.2</v>
+      <c r="G247" s="26">
+        <v>12.6</v>
+      </c>
+      <c r="H247" s="44">
+        <v>19.4</v>
       </c>
     </row>
     <row r="248" ht="25" customHeight="1" spans="1:8">
-      <c r="A248" s="71"/>
-      <c r="B248" s="36"/>
+      <c r="A248" s="72"/>
+      <c r="B248" s="21"/>
       <c r="C248" s="22">
-        <v>43319</v>
-      </c>
-      <c r="D248" s="64">
-        <v>102.43</v>
+        <v>43430</v>
+      </c>
+      <c r="D248" s="31">
+        <v>34.377</v>
       </c>
       <c r="E248" s="26">
-        <v>11.7</v>
+        <v>1</v>
       </c>
       <c r="F248" s="26">
-        <v>21.8</v>
+        <v>17.6</v>
       </c>
       <c r="G248" s="26">
-        <v>15.6</v>
+        <v>12.9</v>
       </c>
       <c r="H248" s="44">
-        <v>35.9</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="249" ht="25" customHeight="1" spans="1:8">
-      <c r="A249" s="71"/>
-      <c r="B249" s="36"/>
+      <c r="A249" s="72"/>
+      <c r="B249" s="21"/>
       <c r="C249" s="22">
-        <v>43321</v>
-      </c>
-      <c r="D249" s="64">
-        <v>102.93</v>
+        <v>43432</v>
+      </c>
+      <c r="D249" s="31">
+        <v>34.251</v>
       </c>
       <c r="E249" s="26">
-        <v>14.7</v>
+        <v>0.4</v>
       </c>
       <c r="F249" s="26">
-        <v>21.9</v>
+        <v>17.5</v>
       </c>
       <c r="G249" s="26">
-        <v>15.8</v>
+        <v>12.5</v>
       </c>
       <c r="H249" s="44">
-        <v>35.9</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="250" ht="25" customHeight="1" spans="1:8">
-      <c r="A250" s="71"/>
-      <c r="B250" s="36"/>
+      <c r="A250" s="72"/>
+      <c r="B250" s="21"/>
       <c r="C250" s="22">
-        <v>43322</v>
-      </c>
-      <c r="D250" s="64">
-        <v>102.43</v>
+        <v>43452</v>
+      </c>
+      <c r="D250" s="65">
+        <v>34.937</v>
       </c>
       <c r="E250" s="26">
-        <v>17.1</v>
+        <v>1.9</v>
       </c>
       <c r="F250" s="26">
-        <v>22.4</v>
+        <v>18</v>
       </c>
       <c r="G250" s="26">
-        <v>15.7</v>
+        <v>14.1</v>
       </c>
       <c r="H250" s="44">
-        <v>35.8</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="251" ht="25" customHeight="1" spans="1:8">
-      <c r="A251" s="71"/>
-      <c r="B251" s="36"/>
+      <c r="A251" s="72"/>
+      <c r="B251" s="21"/>
       <c r="C251" s="22">
-        <v>43325</v>
-      </c>
-      <c r="D251" s="64">
-        <v>101.44</v>
+        <v>43461</v>
+      </c>
+      <c r="D251" s="65">
+        <v>34.676</v>
       </c>
       <c r="E251" s="26">
-        <v>15.9</v>
+        <v>-0.2</v>
       </c>
       <c r="F251" s="26">
-        <v>21.5</v>
+        <v>19.2</v>
       </c>
       <c r="G251" s="26">
-        <v>17.1</v>
+        <v>13.2</v>
       </c>
       <c r="H251" s="44">
-        <v>34.7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="252" ht="25" customHeight="1" spans="1:8">
-      <c r="A252" s="71"/>
-      <c r="B252" s="36"/>
+      <c r="A252" s="72"/>
+      <c r="B252" s="21"/>
       <c r="C252" s="22">
-        <v>43326</v>
-      </c>
-      <c r="D252" s="64">
-        <v>102.3</v>
+        <v>43480</v>
+      </c>
+      <c r="D252" s="65">
+        <v>35.366</v>
       </c>
       <c r="E252" s="26">
-        <v>13.4</v>
+        <v>-0.1</v>
       </c>
       <c r="F252" s="26">
-        <v>21.8</v>
+        <v>17.3</v>
       </c>
       <c r="G252" s="26">
         <v>16.7</v>
       </c>
       <c r="H252" s="44">
-        <v>35.3</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="253" ht="25" customHeight="1" spans="1:8">
-      <c r="A253" s="71"/>
-      <c r="B253" s="36"/>
+      <c r="A253" s="72"/>
+      <c r="B253" s="21"/>
       <c r="C253" s="22">
-        <v>43332</v>
-      </c>
-      <c r="D253" s="64">
-        <v>104.2</v>
-      </c>
-      <c r="E253" s="26">
+        <v>43524</v>
+      </c>
+      <c r="D253" s="65">
+        <v>34.3414</v>
+      </c>
+      <c r="E253" s="32">
+        <v>0.87</v>
+      </c>
+      <c r="F253" s="32">
+        <v>11.56</v>
+      </c>
+      <c r="G253" s="32">
+        <v>19.11</v>
+      </c>
+      <c r="H253" s="76">
+        <v>17.64</v>
+      </c>
+    </row>
+    <row r="254" ht="25" customHeight="1" spans="1:8">
+      <c r="A254" s="72"/>
+      <c r="B254" s="21"/>
+      <c r="C254" s="22">
+        <v>43550</v>
+      </c>
+      <c r="D254" s="65">
+        <v>36.7706</v>
+      </c>
+      <c r="E254" s="32">
+        <v>13.88</v>
+      </c>
+      <c r="F254" s="32">
+        <v>13.48</v>
+      </c>
+      <c r="G254" s="32"/>
+      <c r="H254" s="76">
+        <v>17.84</v>
+      </c>
+    </row>
+    <row r="255" ht="25" customHeight="1" spans="1:8">
+      <c r="A255" s="72"/>
+      <c r="B255" s="21"/>
+      <c r="C255" s="22">
+        <v>43551</v>
+      </c>
+      <c r="D255" s="65">
+        <v>37.2335</v>
+      </c>
+      <c r="E255" s="32">
+        <v>14.64</v>
+      </c>
+      <c r="F255" s="32">
+        <v>14.65</v>
+      </c>
+      <c r="G255" s="32">
+        <v>18.7</v>
+      </c>
+      <c r="H255" s="76">
+        <v>17.96</v>
+      </c>
+    </row>
+    <row r="256" ht="25" customHeight="1" spans="1:8">
+      <c r="A256" s="72"/>
+      <c r="B256" s="21"/>
+      <c r="C256" s="22">
+        <v>43573</v>
+      </c>
+      <c r="D256" s="65">
+        <v>37.723</v>
+      </c>
+      <c r="E256" s="32">
+        <v>12.18</v>
+      </c>
+      <c r="F256" s="32">
+        <v>14.51</v>
+      </c>
+      <c r="G256" s="32">
+        <v>17.71</v>
+      </c>
+      <c r="H256" s="76">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="257" ht="25" customHeight="1" spans="1:8">
+      <c r="A257" s="72"/>
+      <c r="B257" s="21"/>
+      <c r="C257" s="22"/>
+      <c r="D257" s="65"/>
+      <c r="E257" s="32"/>
+      <c r="F257" s="32"/>
+      <c r="G257" s="32"/>
+      <c r="H257" s="76"/>
+    </row>
+    <row r="258" ht="25" customHeight="1" spans="1:8">
+      <c r="A258" s="72"/>
+      <c r="B258" s="21"/>
+      <c r="C258" s="22"/>
+      <c r="D258" s="65"/>
+      <c r="E258" s="32"/>
+      <c r="F258" s="32"/>
+      <c r="G258" s="32"/>
+      <c r="H258" s="76"/>
+    </row>
+    <row r="259" ht="25" customHeight="1" spans="1:8">
+      <c r="A259" s="72"/>
+      <c r="B259" s="21"/>
+      <c r="C259" s="69"/>
+      <c r="D259" s="69"/>
+      <c r="E259" s="70"/>
+      <c r="F259" s="70"/>
+      <c r="G259" s="70"/>
+      <c r="H259" s="71"/>
+    </row>
+    <row r="260" ht="25" customHeight="1"/>
+    <row r="261" ht="25" customHeight="1" spans="1:8">
+      <c r="A261" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B261" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C261" s="22">
+        <v>43313</v>
+      </c>
+      <c r="D261" s="65">
+        <v>102.22</v>
+      </c>
+      <c r="E261" s="78">
+        <v>11.6</v>
+      </c>
+      <c r="F261" s="78">
+        <v>21.8</v>
+      </c>
+      <c r="G261" s="78">
         <v>16</v>
       </c>
-      <c r="F253" s="26">
-        <v>21.8</v>
-      </c>
-      <c r="G253" s="26">
-        <v>17.3</v>
-      </c>
-      <c r="H253" s="44">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="254" ht="25" customHeight="1" spans="1:8">
-      <c r="A254" s="71"/>
-      <c r="B254" s="36"/>
-      <c r="C254" s="22">
-        <v>43333</v>
-      </c>
-      <c r="D254" s="64">
-        <v>104.68</v>
-      </c>
-      <c r="E254" s="26">
-        <v>18</v>
-      </c>
-      <c r="F254" s="26">
-        <v>22.1</v>
-      </c>
-      <c r="G254" s="26">
-        <v>17.6</v>
-      </c>
-      <c r="H254" s="44">
-        <v>36.8</v>
-      </c>
-    </row>
-    <row r="255" ht="25" customHeight="1" spans="1:8">
-      <c r="A255" s="71"/>
-      <c r="B255" s="36"/>
-      <c r="C255" s="22">
-        <v>43336</v>
-      </c>
-      <c r="D255" s="64">
-        <v>104.28</v>
-      </c>
-      <c r="E255" s="26">
-        <v>16.8</v>
-      </c>
-      <c r="F255" s="26">
-        <v>21.4</v>
-      </c>
-      <c r="G255" s="26">
-        <v>20.9</v>
-      </c>
-      <c r="H255" s="44">
-        <v>36.3</v>
-      </c>
-    </row>
-    <row r="256" ht="25" customHeight="1" spans="1:8">
-      <c r="A256" s="71"/>
-      <c r="B256" s="36"/>
-      <c r="C256" s="22">
-        <v>43342</v>
-      </c>
-      <c r="D256" s="64">
-        <v>105.65</v>
-      </c>
-      <c r="E256" s="26">
-        <v>16.5</v>
-      </c>
-      <c r="F256" s="26">
-        <v>21.4</v>
-      </c>
-      <c r="G256" s="26">
-        <v>20.3</v>
-      </c>
-      <c r="H256" s="44">
-        <v>36.9</v>
-      </c>
-    </row>
-    <row r="257" ht="25" customHeight="1" spans="1:8">
-      <c r="A257" s="71"/>
-      <c r="B257" s="36"/>
-      <c r="C257" s="22">
-        <v>43348</v>
-      </c>
-      <c r="D257" s="64">
-        <v>102.34</v>
-      </c>
-      <c r="E257" s="65">
-        <v>10.6</v>
-      </c>
-      <c r="F257" s="65">
-        <v>19.3</v>
-      </c>
-      <c r="G257" s="65">
-        <v>20.4</v>
-      </c>
-      <c r="H257" s="44">
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="258" ht="25" customHeight="1" spans="1:8">
-      <c r="A258" s="71"/>
-      <c r="B258" s="36"/>
-      <c r="C258" s="22">
-        <v>43368</v>
-      </c>
-      <c r="D258" s="64">
-        <v>95.31</v>
-      </c>
-      <c r="E258" s="26">
-        <v>3.1</v>
-      </c>
-      <c r="F258" s="26">
-        <v>14.1</v>
-      </c>
-      <c r="G258" s="26">
-        <v>16</v>
-      </c>
-      <c r="H258" s="44">
-        <v>32.9</v>
-      </c>
-    </row>
-    <row r="259" ht="25" customHeight="1" spans="1:8">
-      <c r="A259" s="71"/>
-      <c r="B259" s="36"/>
-      <c r="C259" s="22">
-        <v>43383</v>
-      </c>
-      <c r="D259" s="64">
-        <v>89.78</v>
-      </c>
-      <c r="E259" s="26">
-        <v>-4.1</v>
-      </c>
-      <c r="F259" s="26">
-        <v>9.7</v>
-      </c>
-      <c r="G259" s="26">
-        <v>12.3</v>
-      </c>
-      <c r="H259" s="44">
-        <v>29.8</v>
-      </c>
-    </row>
-    <row r="260" ht="25" customHeight="1" spans="1:8">
-      <c r="A260" s="71"/>
-      <c r="B260" s="36"/>
-      <c r="C260" s="22">
-        <v>43399</v>
-      </c>
-      <c r="D260" s="28">
-        <v>86.73</v>
-      </c>
-      <c r="E260" s="26">
-        <v>-8.6</v>
-      </c>
-      <c r="F260" s="26">
-        <v>7.8</v>
-      </c>
-      <c r="G260" s="26">
-        <v>11.2</v>
-      </c>
-      <c r="H260" s="44">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="261" ht="25" customHeight="1" spans="1:8">
-      <c r="A261" s="71"/>
-      <c r="B261" s="36"/>
-      <c r="C261" s="22">
-        <v>43402</v>
-      </c>
-      <c r="D261" s="28">
-        <v>89</v>
-      </c>
-      <c r="E261" s="26">
-        <v>-6.7</v>
-      </c>
-      <c r="F261" s="26">
-        <v>9</v>
-      </c>
-      <c r="G261" s="26">
-        <v>12.4</v>
-      </c>
-      <c r="H261" s="44">
-        <v>28.9</v>
+      <c r="H261" s="79">
+        <v>35.2</v>
       </c>
     </row>
     <row r="262" ht="25" customHeight="1" spans="1:8">
-      <c r="A262" s="71"/>
+      <c r="A262" s="72"/>
       <c r="B262" s="36"/>
       <c r="C262" s="22">
-        <v>43404</v>
-      </c>
-      <c r="D262" s="31">
-        <v>90.78</v>
+        <v>43319</v>
+      </c>
+      <c r="D262" s="65">
+        <v>102.43</v>
       </c>
       <c r="E262" s="26">
-        <v>-5.9</v>
+        <v>11.7</v>
       </c>
       <c r="F262" s="26">
-        <v>10.1</v>
+        <v>21.8</v>
       </c>
       <c r="G262" s="26">
-        <v>13.2</v>
+        <v>15.6</v>
       </c>
       <c r="H262" s="44">
-        <v>29</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="263" ht="25" customHeight="1" spans="1:8">
-      <c r="A263" s="71"/>
+      <c r="A263" s="72"/>
       <c r="B263" s="36"/>
       <c r="C263" s="22">
-        <v>43405</v>
-      </c>
-      <c r="D263" s="31">
-        <v>91.15</v>
+        <v>43321</v>
+      </c>
+      <c r="D263" s="65">
+        <v>102.93</v>
       </c>
       <c r="E263" s="26">
-        <v>-6.2</v>
+        <v>14.7</v>
       </c>
       <c r="F263" s="26">
-        <v>9.8</v>
+        <v>21.9</v>
       </c>
       <c r="G263" s="26">
-        <v>13.4</v>
+        <v>15.8</v>
       </c>
       <c r="H263" s="44">
-        <v>28.9</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="264" ht="25" customHeight="1" spans="1:8">
-      <c r="A264" s="71"/>
+      <c r="A264" s="72"/>
       <c r="B264" s="36"/>
       <c r="C264" s="22">
-        <v>43410</v>
-      </c>
-      <c r="D264" s="31">
-        <v>91.31</v>
+        <v>43322</v>
+      </c>
+      <c r="D264" s="65">
+        <v>102.43</v>
       </c>
       <c r="E264" s="26">
-        <v>-6.8</v>
+        <v>17.1</v>
       </c>
       <c r="F264" s="26">
-        <v>12.2</v>
+        <v>22.4</v>
       </c>
       <c r="G264" s="26">
-        <v>14.1</v>
+        <v>15.7</v>
       </c>
       <c r="H264" s="44">
-        <v>28.4</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="265" ht="25" customHeight="1" spans="1:8">
-      <c r="A265" s="71"/>
+      <c r="A265" s="72"/>
       <c r="B265" s="36"/>
       <c r="C265" s="22">
-        <v>43413</v>
-      </c>
-      <c r="D265" s="31">
-        <v>92.23</v>
+        <v>43325</v>
+      </c>
+      <c r="D265" s="65">
+        <v>101.44</v>
       </c>
       <c r="E265" s="26">
-        <v>-4.3</v>
+        <v>15.9</v>
       </c>
       <c r="F265" s="26">
-        <v>13.2</v>
+        <v>21.5</v>
       </c>
       <c r="G265" s="26">
-        <v>14.3</v>
+        <v>17.1</v>
       </c>
       <c r="H265" s="44">
-        <v>29</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="266" ht="25" customHeight="1" spans="1:8">
-      <c r="A266" s="71"/>
+      <c r="A266" s="72"/>
       <c r="B266" s="36"/>
       <c r="C266" s="22">
-        <v>43430</v>
-      </c>
-      <c r="D266" s="31">
-        <v>92.21</v>
+        <v>43326</v>
+      </c>
+      <c r="D266" s="65">
+        <v>102.3</v>
       </c>
       <c r="E266" s="26">
-        <v>-6.2</v>
+        <v>13.4</v>
       </c>
       <c r="F266" s="26">
-        <v>17.1</v>
+        <v>21.8</v>
       </c>
       <c r="G266" s="26">
-        <v>13.2</v>
+        <v>16.7</v>
       </c>
       <c r="H266" s="44">
-        <v>29</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="267" ht="25" customHeight="1" spans="1:8">
-      <c r="A267" s="71"/>
+      <c r="A267" s="72"/>
       <c r="B267" s="36"/>
       <c r="C267" s="22">
-        <v>43432</v>
-      </c>
-      <c r="D267" s="31">
-        <v>92.68</v>
+        <v>43332</v>
+      </c>
+      <c r="D267" s="65">
+        <v>104.2</v>
       </c>
       <c r="E267" s="26">
-        <v>-6.4</v>
+        <v>16</v>
       </c>
       <c r="F267" s="26">
-        <v>17</v>
+        <v>21.8</v>
       </c>
       <c r="G267" s="26">
-        <v>13.1</v>
+        <v>17.3</v>
       </c>
       <c r="H267" s="44">
-        <v>28.8</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="268" ht="25" customHeight="1" spans="1:8">
-      <c r="A268" s="71"/>
+      <c r="A268" s="72"/>
       <c r="B268" s="36"/>
       <c r="C268" s="22">
-        <v>43452</v>
-      </c>
-      <c r="D268" s="64">
-        <v>94.49</v>
+        <v>43333</v>
+      </c>
+      <c r="D268" s="65">
+        <v>104.68</v>
       </c>
       <c r="E268" s="26">
-        <v>-5</v>
+        <v>18</v>
       </c>
       <c r="F268" s="26">
-        <v>18.3</v>
+        <v>22.1</v>
       </c>
       <c r="G268" s="26">
-        <v>14.3</v>
+        <v>17.6</v>
       </c>
       <c r="H268" s="44">
-        <v>28.3</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="269" ht="25" customHeight="1" spans="1:8">
-      <c r="A269" s="71"/>
+      <c r="A269" s="72"/>
       <c r="B269" s="36"/>
       <c r="C269" s="22">
-        <v>43461</v>
-      </c>
-      <c r="D269" s="64">
-        <v>93.82</v>
+        <v>43336</v>
+      </c>
+      <c r="D269" s="65">
+        <v>104.28</v>
       </c>
       <c r="E269" s="26">
-        <v>-8.7</v>
+        <v>16.8</v>
       </c>
       <c r="F269" s="26">
-        <v>19.8</v>
+        <v>21.4</v>
       </c>
       <c r="G269" s="26">
-        <v>13.3</v>
+        <v>20.9</v>
       </c>
       <c r="H269" s="44">
-        <v>27</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="270" ht="25" customHeight="1" spans="1:8">
-      <c r="A270" s="71"/>
+      <c r="A270" s="72"/>
       <c r="B270" s="36"/>
       <c r="C270" s="22">
-        <v>43480</v>
-      </c>
-      <c r="D270" s="64">
-        <v>94.7</v>
+        <v>43342</v>
+      </c>
+      <c r="D270" s="65">
+        <v>105.65</v>
       </c>
       <c r="E270" s="26">
-        <v>-9.2</v>
+        <v>16.5</v>
       </c>
       <c r="F270" s="26">
-        <v>16.1</v>
+        <v>21.4</v>
       </c>
       <c r="G270" s="26">
-        <v>17.2</v>
+        <v>20.3</v>
       </c>
       <c r="H270" s="44">
-        <v>27.2</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="271" ht="25" customHeight="1" spans="1:8">
-      <c r="A271" s="71"/>
+      <c r="A271" s="72"/>
       <c r="B271" s="36"/>
       <c r="C271" s="22">
-        <v>43523</v>
-      </c>
-      <c r="D271" s="64">
-        <v>93.42</v>
-      </c>
-      <c r="E271" s="26">
-        <v>-7.79</v>
-      </c>
-      <c r="F271" s="26">
-        <v>12.64</v>
-      </c>
-      <c r="G271" s="26"/>
+        <v>43348</v>
+      </c>
+      <c r="D271" s="65">
+        <v>102.34</v>
+      </c>
+      <c r="E271" s="66">
+        <v>10.6</v>
+      </c>
+      <c r="F271" s="66">
+        <v>19.3</v>
+      </c>
+      <c r="G271" s="66">
+        <v>20.4</v>
+      </c>
       <c r="H271" s="44">
-        <v>28.04</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="272" ht="25" customHeight="1" spans="1:8">
-      <c r="A272" s="71"/>
+      <c r="A272" s="72"/>
       <c r="B272" s="36"/>
       <c r="C272" s="22">
-        <v>43550</v>
-      </c>
-      <c r="D272" s="64">
-        <v>98.81</v>
+        <v>43368</v>
+      </c>
+      <c r="D272" s="65">
+        <v>95.31</v>
       </c>
       <c r="E272" s="26">
-        <v>4.41</v>
+        <v>3.1</v>
       </c>
       <c r="F272" s="26">
-        <v>11.03</v>
-      </c>
-      <c r="G272" s="26"/>
+        <v>14.1</v>
+      </c>
+      <c r="G272" s="26">
+        <v>16</v>
+      </c>
       <c r="H272" s="44">
-        <v>26.17</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="273" ht="25" customHeight="1" spans="1:8">
-      <c r="A273" s="71"/>
+      <c r="A273" s="72"/>
       <c r="B273" s="36"/>
       <c r="C273" s="22">
+        <v>43383</v>
+      </c>
+      <c r="D273" s="65">
+        <v>89.78</v>
+      </c>
+      <c r="E273" s="26">
+        <v>-4.1</v>
+      </c>
+      <c r="F273" s="26">
+        <v>9.7</v>
+      </c>
+      <c r="G273" s="26">
+        <v>12.3</v>
+      </c>
+      <c r="H273" s="44">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="274" ht="25" customHeight="1" spans="1:8">
+      <c r="A274" s="72"/>
+      <c r="B274" s="36"/>
+      <c r="C274" s="22">
+        <v>43399</v>
+      </c>
+      <c r="D274" s="28">
+        <v>86.73</v>
+      </c>
+      <c r="E274" s="26">
+        <v>-8.6</v>
+      </c>
+      <c r="F274" s="26">
+        <v>7.8</v>
+      </c>
+      <c r="G274" s="26">
+        <v>11.2</v>
+      </c>
+      <c r="H274" s="44">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="275" ht="25" customHeight="1" spans="1:8">
+      <c r="A275" s="72"/>
+      <c r="B275" s="36"/>
+      <c r="C275" s="22">
+        <v>43402</v>
+      </c>
+      <c r="D275" s="28">
+        <v>89</v>
+      </c>
+      <c r="E275" s="26">
+        <v>-6.7</v>
+      </c>
+      <c r="F275" s="26">
+        <v>9</v>
+      </c>
+      <c r="G275" s="26">
+        <v>12.4</v>
+      </c>
+      <c r="H275" s="44">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="276" ht="25" customHeight="1" spans="1:8">
+      <c r="A276" s="72"/>
+      <c r="B276" s="36"/>
+      <c r="C276" s="22">
+        <v>43404</v>
+      </c>
+      <c r="D276" s="31">
+        <v>90.78</v>
+      </c>
+      <c r="E276" s="26">
+        <v>-5.9</v>
+      </c>
+      <c r="F276" s="26">
+        <v>10.1</v>
+      </c>
+      <c r="G276" s="26">
+        <v>13.2</v>
+      </c>
+      <c r="H276" s="44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="277" ht="25" customHeight="1" spans="1:8">
+      <c r="A277" s="72"/>
+      <c r="B277" s="36"/>
+      <c r="C277" s="22">
+        <v>43405</v>
+      </c>
+      <c r="D277" s="31">
+        <v>91.15</v>
+      </c>
+      <c r="E277" s="26">
+        <v>-6.2</v>
+      </c>
+      <c r="F277" s="26">
+        <v>9.8</v>
+      </c>
+      <c r="G277" s="26">
+        <v>13.4</v>
+      </c>
+      <c r="H277" s="44">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="278" ht="25" customHeight="1" spans="1:8">
+      <c r="A278" s="72"/>
+      <c r="B278" s="36"/>
+      <c r="C278" s="22">
+        <v>43410</v>
+      </c>
+      <c r="D278" s="31">
+        <v>91.31</v>
+      </c>
+      <c r="E278" s="26">
+        <v>-6.8</v>
+      </c>
+      <c r="F278" s="26">
+        <v>12.2</v>
+      </c>
+      <c r="G278" s="26">
+        <v>14.1</v>
+      </c>
+      <c r="H278" s="44">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="279" ht="25" customHeight="1" spans="1:8">
+      <c r="A279" s="72"/>
+      <c r="B279" s="36"/>
+      <c r="C279" s="22">
+        <v>43413</v>
+      </c>
+      <c r="D279" s="31">
+        <v>92.23</v>
+      </c>
+      <c r="E279" s="26">
+        <v>-4.3</v>
+      </c>
+      <c r="F279" s="26">
+        <v>13.2</v>
+      </c>
+      <c r="G279" s="26">
+        <v>14.3</v>
+      </c>
+      <c r="H279" s="44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="280" ht="25" customHeight="1" spans="1:8">
+      <c r="A280" s="72"/>
+      <c r="B280" s="36"/>
+      <c r="C280" s="22">
+        <v>43430</v>
+      </c>
+      <c r="D280" s="31">
+        <v>92.21</v>
+      </c>
+      <c r="E280" s="26">
+        <v>-6.2</v>
+      </c>
+      <c r="F280" s="26">
+        <v>17.1</v>
+      </c>
+      <c r="G280" s="26">
+        <v>13.2</v>
+      </c>
+      <c r="H280" s="44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="281" ht="25" customHeight="1" spans="1:8">
+      <c r="A281" s="72"/>
+      <c r="B281" s="36"/>
+      <c r="C281" s="22">
+        <v>43432</v>
+      </c>
+      <c r="D281" s="31">
+        <v>92.68</v>
+      </c>
+      <c r="E281" s="26">
+        <v>-6.4</v>
+      </c>
+      <c r="F281" s="26">
+        <v>17</v>
+      </c>
+      <c r="G281" s="26">
+        <v>13.1</v>
+      </c>
+      <c r="H281" s="44">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="282" ht="25" customHeight="1" spans="1:8">
+      <c r="A282" s="72"/>
+      <c r="B282" s="36"/>
+      <c r="C282" s="22">
+        <v>43452</v>
+      </c>
+      <c r="D282" s="65">
+        <v>94.49</v>
+      </c>
+      <c r="E282" s="26">
+        <v>-5</v>
+      </c>
+      <c r="F282" s="26">
+        <v>18.3</v>
+      </c>
+      <c r="G282" s="26">
+        <v>14.3</v>
+      </c>
+      <c r="H282" s="44">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="283" ht="25" customHeight="1" spans="1:8">
+      <c r="A283" s="72"/>
+      <c r="B283" s="36"/>
+      <c r="C283" s="22">
+        <v>43461</v>
+      </c>
+      <c r="D283" s="65">
+        <v>93.82</v>
+      </c>
+      <c r="E283" s="26">
+        <v>-8.7</v>
+      </c>
+      <c r="F283" s="26">
+        <v>19.8</v>
+      </c>
+      <c r="G283" s="26">
+        <v>13.3</v>
+      </c>
+      <c r="H283" s="44">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="284" ht="25" customHeight="1" spans="1:8">
+      <c r="A284" s="72"/>
+      <c r="B284" s="36"/>
+      <c r="C284" s="22">
+        <v>43480</v>
+      </c>
+      <c r="D284" s="65">
+        <v>94.7</v>
+      </c>
+      <c r="E284" s="26">
+        <v>-9.2</v>
+      </c>
+      <c r="F284" s="26">
+        <v>16.1</v>
+      </c>
+      <c r="G284" s="26">
+        <v>17.2</v>
+      </c>
+      <c r="H284" s="44">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="285" ht="25" customHeight="1" spans="1:8">
+      <c r="A285" s="72"/>
+      <c r="B285" s="36"/>
+      <c r="C285" s="22">
+        <v>43523</v>
+      </c>
+      <c r="D285" s="65">
+        <v>93.42</v>
+      </c>
+      <c r="E285" s="26">
+        <v>-7.79</v>
+      </c>
+      <c r="F285" s="26">
+        <v>12.64</v>
+      </c>
+      <c r="G285" s="26"/>
+      <c r="H285" s="44">
+        <v>28.04</v>
+      </c>
+    </row>
+    <row r="286" ht="25" customHeight="1" spans="1:8">
+      <c r="A286" s="72"/>
+      <c r="B286" s="36"/>
+      <c r="C286" s="22">
+        <v>43550</v>
+      </c>
+      <c r="D286" s="65">
+        <v>98.81</v>
+      </c>
+      <c r="E286" s="26">
+        <v>4.41</v>
+      </c>
+      <c r="F286" s="26">
+        <v>11.03</v>
+      </c>
+      <c r="G286" s="26"/>
+      <c r="H286" s="44">
+        <v>26.17</v>
+      </c>
+    </row>
+    <row r="287" ht="25" customHeight="1" spans="1:8">
+      <c r="A287" s="72"/>
+      <c r="B287" s="36"/>
+      <c r="C287" s="22">
         <v>43551</v>
       </c>
-      <c r="D273" s="64">
+      <c r="D287" s="65">
         <v>100.12</v>
       </c>
-      <c r="E273" s="26">
+      <c r="E287" s="26">
         <v>5.27</v>
       </c>
-      <c r="F273" s="26">
+      <c r="F287" s="26">
         <v>11.98</v>
       </c>
-      <c r="G273" s="26">
+      <c r="G287" s="26">
         <v>20.78</v>
       </c>
-      <c r="H273" s="44">
+      <c r="H287" s="44">
         <v>26</v>
       </c>
     </row>
-    <row r="274" ht="25" customHeight="1" spans="1:8">
-      <c r="A274" s="71"/>
-      <c r="B274" s="36"/>
-      <c r="C274" s="22"/>
-      <c r="D274" s="64"/>
-      <c r="E274" s="26"/>
-      <c r="F274" s="26"/>
-      <c r="G274" s="26"/>
-      <c r="H274" s="44"/>
-    </row>
-    <row r="275" ht="25" customHeight="1" spans="1:8">
-      <c r="A275" s="71"/>
-      <c r="B275" s="36"/>
-      <c r="C275" s="22"/>
-      <c r="D275" s="64"/>
-      <c r="E275" s="26"/>
-      <c r="F275" s="26"/>
-      <c r="G275" s="26"/>
-      <c r="H275" s="44"/>
-    </row>
-    <row r="276" ht="25" customHeight="1" spans="1:8">
-      <c r="A276" s="71"/>
-      <c r="B276" s="36"/>
-      <c r="C276" s="64"/>
-      <c r="D276" s="64"/>
-      <c r="E276" s="61"/>
-      <c r="F276" s="61"/>
-      <c r="G276" s="61"/>
-      <c r="H276" s="63"/>
-    </row>
-    <row r="277" ht="25" customHeight="1"/>
-    <row r="278" ht="25" customHeight="1"/>
-    <row r="279" ht="25" customHeight="1" spans="1:8">
-      <c r="A279" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="B279" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="C279" s="22">
-        <v>43430</v>
-      </c>
-      <c r="D279" s="81">
-        <v>227.795</v>
-      </c>
-      <c r="E279" s="82">
-        <v>-1.7</v>
-      </c>
-      <c r="F279" s="82">
-        <v>12.1</v>
-      </c>
-      <c r="G279" s="82">
-        <v>9.5</v>
-      </c>
-      <c r="H279" s="82">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="280" ht="25" customHeight="1" spans="1:8">
-      <c r="A280" s="79"/>
-      <c r="B280" s="80"/>
-      <c r="C280" s="22">
-        <v>43432</v>
-      </c>
-      <c r="D280" s="31">
-        <v>230.33</v>
-      </c>
-      <c r="E280" s="26">
-        <v>-0.9</v>
-      </c>
-      <c r="F280" s="26">
-        <v>12.6</v>
-      </c>
-      <c r="G280" s="26">
-        <v>9.6</v>
-      </c>
-      <c r="H280" s="26">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="281" ht="25" customHeight="1" spans="1:8">
-      <c r="A281" s="79"/>
-      <c r="B281" s="80"/>
-      <c r="C281" s="22">
-        <v>43452</v>
-      </c>
-      <c r="D281" s="64">
-        <v>235.831</v>
-      </c>
-      <c r="E281" s="26">
-        <v>0.8</v>
-      </c>
-      <c r="F281" s="26">
-        <v>14.2</v>
-      </c>
-      <c r="G281" s="26">
-        <v>11.4</v>
-      </c>
-      <c r="H281" s="26">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="282" ht="25" customHeight="1" spans="1:8">
-      <c r="A282" s="79"/>
-      <c r="B282" s="80"/>
-      <c r="C282" s="22">
-        <v>43461</v>
-      </c>
-      <c r="D282" s="64">
-        <v>233.486</v>
-      </c>
-      <c r="E282" s="26">
-        <v>-1.6</v>
-      </c>
-      <c r="F282" s="26">
-        <v>14.6</v>
-      </c>
-      <c r="G282" s="26">
-        <v>10.5</v>
-      </c>
-      <c r="H282" s="26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="283" ht="25" customHeight="1" spans="1:8">
-      <c r="A283" s="79"/>
-      <c r="B283" s="80"/>
-      <c r="C283" s="22">
-        <v>43480</v>
-      </c>
-      <c r="D283" s="64">
-        <v>234.424</v>
-      </c>
-      <c r="E283" s="26">
-        <v>-3</v>
-      </c>
-      <c r="F283" s="26">
-        <v>11.9</v>
-      </c>
-      <c r="G283" s="26">
-        <v>12.9</v>
-      </c>
-      <c r="H283" s="26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="284" ht="25" customHeight="1" spans="1:8">
-      <c r="A284" s="79"/>
-      <c r="B284" s="80"/>
-      <c r="C284" s="22">
-        <v>43550</v>
-      </c>
-      <c r="D284" s="64">
-        <v>246.301</v>
-      </c>
-      <c r="E284" s="61">
-        <v>9.14</v>
-      </c>
-      <c r="F284" s="61">
-        <v>9.59</v>
-      </c>
-      <c r="G284" s="61"/>
-      <c r="H284" s="61">
-        <v>15.01</v>
-      </c>
-    </row>
-    <row r="285" ht="25" customHeight="1" spans="1:8">
-      <c r="A285" s="79"/>
-      <c r="B285" s="80"/>
-      <c r="C285" s="22">
-        <v>43551</v>
-      </c>
-      <c r="D285" s="64">
-        <v>245.74</v>
-      </c>
-      <c r="E285" s="61">
-        <v>7.65</v>
-      </c>
-      <c r="F285" s="61">
-        <v>10.28</v>
-      </c>
-      <c r="G285" s="61">
-        <v>13.81</v>
-      </c>
-      <c r="H285" s="61">
-        <v>15.08</v>
-      </c>
-    </row>
-    <row r="286" ht="25" customHeight="1" spans="1:8">
-      <c r="A286" s="79"/>
-      <c r="B286" s="80"/>
-      <c r="C286" s="64"/>
-      <c r="D286" s="64"/>
-      <c r="E286" s="61"/>
-      <c r="F286" s="61"/>
-      <c r="G286" s="61"/>
-      <c r="H286" s="61"/>
-    </row>
-    <row r="287" ht="25" customHeight="1" spans="1:8">
-      <c r="A287" s="79"/>
-      <c r="B287" s="80"/>
-      <c r="C287" s="64"/>
-      <c r="D287" s="64"/>
-      <c r="E287" s="61"/>
-      <c r="F287" s="61"/>
-      <c r="G287" s="61"/>
-      <c r="H287" s="61"/>
-    </row>
-    <row r="288" ht="25" customHeight="1"/>
-    <row r="289" ht="25" customHeight="1"/>
-    <row r="290" ht="25" customHeight="1"/>
+    <row r="288" ht="25" customHeight="1" spans="1:8">
+      <c r="A288" s="72"/>
+      <c r="B288" s="36"/>
+      <c r="C288" s="22">
+        <v>43573</v>
+      </c>
+      <c r="D288" s="65">
+        <v>100.9</v>
+      </c>
+      <c r="E288" s="26">
+        <v>1.05</v>
+      </c>
+      <c r="F288" s="26">
+        <v>9.24</v>
+      </c>
+      <c r="G288" s="26">
+        <v>18.37</v>
+      </c>
+      <c r="H288" s="44">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="289" ht="25" customHeight="1" spans="1:8">
+      <c r="A289" s="72"/>
+      <c r="B289" s="36"/>
+      <c r="C289" s="22"/>
+      <c r="D289" s="65"/>
+      <c r="E289" s="26"/>
+      <c r="F289" s="26"/>
+      <c r="G289" s="26"/>
+      <c r="H289" s="44"/>
+    </row>
+    <row r="290" ht="25" customHeight="1" spans="1:8">
+      <c r="A290" s="72"/>
+      <c r="B290" s="36"/>
+      <c r="C290" s="65"/>
+      <c r="D290" s="65"/>
+      <c r="E290" s="62"/>
+      <c r="F290" s="62"/>
+      <c r="G290" s="62"/>
+      <c r="H290" s="64"/>
+    </row>
     <row r="291" ht="25" customHeight="1"/>
     <row r="292" ht="25" customHeight="1"/>
-    <row r="293" ht="25" customHeight="1"/>
-    <row r="294" ht="25" customHeight="1"/>
-    <row r="295" ht="25" customHeight="1"/>
-    <row r="296" ht="25" customHeight="1"/>
-    <row r="297" ht="25" customHeight="1"/>
-    <row r="298" ht="25" customHeight="1"/>
-    <row r="299" ht="25" customHeight="1"/>
-    <row r="300" ht="25" customHeight="1"/>
-    <row r="301" ht="25" customHeight="1"/>
-    <row r="302" ht="25" customHeight="1"/>
-    <row r="303" ht="25" customHeight="1"/>
-    <row r="304" ht="25" customHeight="1"/>
-    <row r="305" ht="25" customHeight="1"/>
-    <row r="306" ht="25" customHeight="1"/>
+    <row r="293" ht="25" customHeight="1" spans="1:8">
+      <c r="A293" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B293" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C293" s="22">
+        <v>43430</v>
+      </c>
+      <c r="D293" s="82">
+        <v>227.795</v>
+      </c>
+      <c r="E293" s="83">
+        <v>-1.7</v>
+      </c>
+      <c r="F293" s="83">
+        <v>12.1</v>
+      </c>
+      <c r="G293" s="83">
+        <v>9.5</v>
+      </c>
+      <c r="H293" s="83">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="294" ht="25" customHeight="1" spans="1:8">
+      <c r="A294" s="80"/>
+      <c r="B294" s="81"/>
+      <c r="C294" s="22">
+        <v>43432</v>
+      </c>
+      <c r="D294" s="31">
+        <v>230.33</v>
+      </c>
+      <c r="E294" s="26">
+        <v>-0.9</v>
+      </c>
+      <c r="F294" s="26">
+        <v>12.6</v>
+      </c>
+      <c r="G294" s="26">
+        <v>9.6</v>
+      </c>
+      <c r="H294" s="26">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="295" ht="25" customHeight="1" spans="1:8">
+      <c r="A295" s="80"/>
+      <c r="B295" s="81"/>
+      <c r="C295" s="22">
+        <v>43452</v>
+      </c>
+      <c r="D295" s="65">
+        <v>235.831</v>
+      </c>
+      <c r="E295" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="F295" s="26">
+        <v>14.2</v>
+      </c>
+      <c r="G295" s="26">
+        <v>11.4</v>
+      </c>
+      <c r="H295" s="26">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="296" ht="25" customHeight="1" spans="1:8">
+      <c r="A296" s="80"/>
+      <c r="B296" s="81"/>
+      <c r="C296" s="22">
+        <v>43461</v>
+      </c>
+      <c r="D296" s="65">
+        <v>233.486</v>
+      </c>
+      <c r="E296" s="26">
+        <v>-1.6</v>
+      </c>
+      <c r="F296" s="26">
+        <v>14.6</v>
+      </c>
+      <c r="G296" s="26">
+        <v>10.5</v>
+      </c>
+      <c r="H296" s="26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="297" ht="25" customHeight="1" spans="1:8">
+      <c r="A297" s="80"/>
+      <c r="B297" s="81"/>
+      <c r="C297" s="22">
+        <v>43480</v>
+      </c>
+      <c r="D297" s="65">
+        <v>234.424</v>
+      </c>
+      <c r="E297" s="26">
+        <v>-3</v>
+      </c>
+      <c r="F297" s="26">
+        <v>11.9</v>
+      </c>
+      <c r="G297" s="26">
+        <v>12.9</v>
+      </c>
+      <c r="H297" s="26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298" ht="25" customHeight="1" spans="1:8">
+      <c r="A298" s="80"/>
+      <c r="B298" s="81"/>
+      <c r="C298" s="22">
+        <v>43550</v>
+      </c>
+      <c r="D298" s="65">
+        <v>246.301</v>
+      </c>
+      <c r="E298" s="62">
+        <v>9.14</v>
+      </c>
+      <c r="F298" s="62">
+        <v>9.59</v>
+      </c>
+      <c r="G298" s="62"/>
+      <c r="H298" s="62">
+        <v>15.01</v>
+      </c>
+    </row>
+    <row r="299" ht="25" customHeight="1" spans="1:8">
+      <c r="A299" s="80"/>
+      <c r="B299" s="81"/>
+      <c r="C299" s="22">
+        <v>43551</v>
+      </c>
+      <c r="D299" s="65">
+        <v>245.74</v>
+      </c>
+      <c r="E299" s="62">
+        <v>7.65</v>
+      </c>
+      <c r="F299" s="62">
+        <v>10.28</v>
+      </c>
+      <c r="G299" s="62">
+        <v>13.81</v>
+      </c>
+      <c r="H299" s="62">
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="300" ht="25" customHeight="1" spans="1:8">
+      <c r="A300" s="80"/>
+      <c r="B300" s="81"/>
+      <c r="C300" s="22">
+        <v>43573</v>
+      </c>
+      <c r="D300" s="65">
+        <v>252.546</v>
+      </c>
+      <c r="E300" s="62">
+        <v>7.55</v>
+      </c>
+      <c r="F300" s="62">
+        <v>10.98</v>
+      </c>
+      <c r="G300" s="62">
+        <v>13.09</v>
+      </c>
+      <c r="H300" s="62">
+        <v>15.24</v>
+      </c>
+    </row>
+    <row r="301" ht="25" customHeight="1" spans="1:8">
+      <c r="A301" s="80"/>
+      <c r="B301" s="81"/>
+      <c r="C301" s="65"/>
+      <c r="D301" s="65"/>
+      <c r="E301" s="62"/>
+      <c r="F301" s="62"/>
+      <c r="G301" s="62"/>
+      <c r="H301" s="62"/>
+    </row>
+    <row r="302" ht="25" customHeight="1" spans="1:8">
+      <c r="A302" s="80"/>
+      <c r="B302" s="81"/>
+      <c r="C302" s="65"/>
+      <c r="D302" s="65"/>
+      <c r="E302" s="62"/>
+      <c r="F302" s="62"/>
+      <c r="G302" s="62"/>
+      <c r="H302" s="62"/>
+    </row>
+    <row r="303" ht="25" customHeight="1" spans="1:8">
+      <c r="A303" s="80"/>
+      <c r="B303" s="81"/>
+      <c r="C303" s="65"/>
+      <c r="D303" s="65"/>
+      <c r="E303" s="62"/>
+      <c r="F303" s="62"/>
+      <c r="G303" s="62"/>
+      <c r="H303" s="62"/>
+    </row>
+    <row r="304" ht="25" customHeight="1" spans="1:8">
+      <c r="A304" s="80"/>
+      <c r="B304" s="81"/>
+      <c r="C304" s="65"/>
+      <c r="D304" s="65"/>
+      <c r="E304" s="62"/>
+      <c r="F304" s="62"/>
+      <c r="G304" s="62"/>
+      <c r="H304" s="62"/>
+    </row>
+    <row r="305" ht="25" customHeight="1" spans="1:8">
+      <c r="A305" s="80"/>
+      <c r="B305" s="81"/>
+      <c r="C305" s="65"/>
+      <c r="D305" s="65"/>
+      <c r="E305" s="62"/>
+      <c r="F305" s="62"/>
+      <c r="G305" s="62"/>
+      <c r="H305" s="62"/>
+    </row>
+    <row r="306" ht="25" customHeight="1" spans="1:8">
+      <c r="A306" s="84"/>
+      <c r="B306" s="85"/>
+      <c r="C306" s="33"/>
+      <c r="D306" s="33"/>
+      <c r="E306" s="2"/>
+      <c r="F306" s="2"/>
+      <c r="G306" s="2"/>
+      <c r="H306" s="2"/>
+    </row>
     <row r="307" ht="25" customHeight="1"/>
-    <row r="308" ht="25" customHeight="1"/>
-    <row r="309" ht="25" customHeight="1"/>
-    <row r="310" ht="25" customHeight="1"/>
-    <row r="311" ht="25" customHeight="1"/>
-    <row r="312" ht="25" customHeight="1"/>
-    <row r="313" ht="25" customHeight="1"/>
-    <row r="314" ht="25" customHeight="1"/>
-    <row r="315" ht="25" customHeight="1"/>
-    <row r="316" ht="25" customHeight="1"/>
-    <row r="317" ht="25" customHeight="1"/>
-    <row r="318" ht="25" customHeight="1"/>
+    <row r="308" ht="25" customHeight="1" spans="1:8">
+      <c r="A308" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="B308" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C308" s="22">
+        <v>43573</v>
+      </c>
+      <c r="D308" s="88">
+        <v>142.8547</v>
+      </c>
+      <c r="E308" s="89">
+        <v>7.6</v>
+      </c>
+      <c r="F308" s="89">
+        <v>12.09</v>
+      </c>
+      <c r="G308" s="89">
+        <v>12.93</v>
+      </c>
+      <c r="H308" s="89">
+        <v>15.89</v>
+      </c>
+    </row>
+    <row r="309" ht="25" customHeight="1" spans="1:8">
+      <c r="A309" s="90"/>
+      <c r="B309" s="87"/>
+      <c r="C309" s="88"/>
+      <c r="D309" s="88"/>
+      <c r="E309" s="89"/>
+      <c r="F309" s="89"/>
+      <c r="G309" s="89"/>
+      <c r="H309" s="89"/>
+    </row>
+    <row r="310" ht="25" customHeight="1" spans="1:8">
+      <c r="A310" s="90"/>
+      <c r="B310" s="87"/>
+      <c r="C310" s="88"/>
+      <c r="D310" s="88"/>
+      <c r="E310" s="89"/>
+      <c r="F310" s="89"/>
+      <c r="G310" s="89"/>
+      <c r="H310" s="89"/>
+    </row>
+    <row r="311" ht="25" customHeight="1" spans="1:8">
+      <c r="A311" s="90"/>
+      <c r="B311" s="87"/>
+      <c r="C311" s="88"/>
+      <c r="D311" s="88"/>
+      <c r="E311" s="89"/>
+      <c r="F311" s="89"/>
+      <c r="G311" s="89"/>
+      <c r="H311" s="89"/>
+    </row>
+    <row r="312" ht="25" customHeight="1" spans="1:8">
+      <c r="A312" s="90"/>
+      <c r="B312" s="87"/>
+      <c r="C312" s="88"/>
+      <c r="D312" s="88"/>
+      <c r="E312" s="89"/>
+      <c r="F312" s="89"/>
+      <c r="G312" s="89"/>
+      <c r="H312" s="89"/>
+    </row>
+    <row r="313" ht="25" customHeight="1" spans="1:8">
+      <c r="A313" s="90"/>
+      <c r="B313" s="87"/>
+      <c r="C313" s="88"/>
+      <c r="D313" s="88"/>
+      <c r="E313" s="89"/>
+      <c r="F313" s="89"/>
+      <c r="G313" s="89"/>
+      <c r="H313" s="89"/>
+    </row>
+    <row r="314" ht="25" customHeight="1" spans="1:8">
+      <c r="A314" s="90"/>
+      <c r="B314" s="87"/>
+      <c r="C314" s="88"/>
+      <c r="D314" s="88"/>
+      <c r="E314" s="89"/>
+      <c r="F314" s="89"/>
+      <c r="G314" s="89"/>
+      <c r="H314" s="89"/>
+    </row>
+    <row r="315" ht="25" customHeight="1" spans="1:8">
+      <c r="A315" s="90"/>
+      <c r="B315" s="87"/>
+      <c r="C315" s="88"/>
+      <c r="D315" s="88"/>
+      <c r="E315" s="89"/>
+      <c r="F315" s="89"/>
+      <c r="G315" s="89"/>
+      <c r="H315" s="89"/>
+    </row>
+    <row r="316" ht="25" customHeight="1" spans="1:8">
+      <c r="A316" s="90"/>
+      <c r="B316" s="87"/>
+      <c r="C316" s="88"/>
+      <c r="D316" s="88"/>
+      <c r="E316" s="89"/>
+      <c r="F316" s="89"/>
+      <c r="G316" s="89"/>
+      <c r="H316" s="89"/>
+    </row>
+    <row r="317" ht="25" customHeight="1" spans="1:8">
+      <c r="A317" s="90"/>
+      <c r="B317" s="87"/>
+      <c r="C317" s="88"/>
+      <c r="D317" s="88"/>
+      <c r="E317" s="89"/>
+      <c r="F317" s="89"/>
+      <c r="G317" s="89"/>
+      <c r="H317" s="89"/>
+    </row>
+    <row r="318" ht="25" customHeight="1" spans="1:8">
+      <c r="A318" s="90"/>
+      <c r="B318" s="87"/>
+      <c r="C318" s="88"/>
+      <c r="D318" s="88"/>
+      <c r="E318" s="89"/>
+      <c r="F318" s="89"/>
+      <c r="G318" s="89"/>
+      <c r="H318" s="89"/>
+    </row>
     <row r="319" ht="25" customHeight="1"/>
     <row r="320" ht="25" customHeight="1"/>
-    <row r="321" ht="25" customHeight="1"/>
-    <row r="322" ht="25" customHeight="1"/>
-    <row r="323" ht="25" customHeight="1"/>
-    <row r="324" ht="25" customHeight="1"/>
-    <row r="325" ht="25" customHeight="1"/>
-    <row r="326" ht="25" customHeight="1"/>
-    <row r="327" ht="25" customHeight="1"/>
-    <row r="328" ht="25" customHeight="1"/>
+    <row r="321" ht="25" customHeight="1" spans="1:8">
+      <c r="A321" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B321" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C321" s="22">
+        <v>43573</v>
+      </c>
+      <c r="D321" s="88">
+        <v>51.6274</v>
+      </c>
+      <c r="E321" s="88">
+        <v>3.66</v>
+      </c>
+      <c r="F321" s="89">
+        <v>10.7</v>
+      </c>
+      <c r="G321" s="89">
+        <v>14.77</v>
+      </c>
+      <c r="H321" s="89">
+        <v>19.39</v>
+      </c>
+    </row>
+    <row r="322" ht="25" customHeight="1" spans="1:8">
+      <c r="A322" s="90"/>
+      <c r="B322" s="87"/>
+      <c r="C322" s="88"/>
+      <c r="D322" s="88"/>
+      <c r="E322" s="89"/>
+      <c r="F322" s="89"/>
+      <c r="G322" s="89"/>
+      <c r="H322" s="89"/>
+    </row>
+    <row r="323" ht="25" customHeight="1" spans="1:8">
+      <c r="A323" s="90"/>
+      <c r="B323" s="87"/>
+      <c r="C323" s="88"/>
+      <c r="D323" s="88"/>
+      <c r="E323" s="89"/>
+      <c r="F323" s="89"/>
+      <c r="G323" s="89"/>
+      <c r="H323" s="89"/>
+    </row>
+    <row r="324" ht="25" customHeight="1" spans="1:8">
+      <c r="A324" s="90"/>
+      <c r="B324" s="87"/>
+      <c r="C324" s="88"/>
+      <c r="D324" s="88"/>
+      <c r="E324" s="89"/>
+      <c r="F324" s="89"/>
+      <c r="G324" s="89"/>
+      <c r="H324" s="89"/>
+    </row>
+    <row r="325" ht="25" customHeight="1" spans="1:8">
+      <c r="A325" s="90"/>
+      <c r="B325" s="87"/>
+      <c r="C325" s="88"/>
+      <c r="D325" s="88"/>
+      <c r="E325" s="89"/>
+      <c r="F325" s="89"/>
+      <c r="G325" s="89"/>
+      <c r="H325" s="89"/>
+    </row>
+    <row r="326" ht="25" customHeight="1" spans="1:8">
+      <c r="A326" s="90"/>
+      <c r="B326" s="87"/>
+      <c r="C326" s="88"/>
+      <c r="D326" s="88"/>
+      <c r="E326" s="89"/>
+      <c r="F326" s="89"/>
+      <c r="G326" s="89"/>
+      <c r="H326" s="89"/>
+    </row>
+    <row r="327" ht="25" customHeight="1" spans="1:8">
+      <c r="A327" s="90"/>
+      <c r="B327" s="87"/>
+      <c r="C327" s="88"/>
+      <c r="D327" s="88"/>
+      <c r="E327" s="89"/>
+      <c r="F327" s="89"/>
+      <c r="G327" s="89"/>
+      <c r="H327" s="89"/>
+    </row>
+    <row r="328" ht="25" customHeight="1" spans="1:8">
+      <c r="A328" s="90"/>
+      <c r="B328" s="87"/>
+      <c r="C328" s="88"/>
+      <c r="D328" s="88"/>
+      <c r="E328" s="89"/>
+      <c r="F328" s="89"/>
+      <c r="G328" s="89"/>
+      <c r="H328" s="89"/>
+    </row>
     <row r="329" ht="25" customHeight="1"/>
     <row r="330" ht="25" customHeight="1"/>
-    <row r="331" ht="25" customHeight="1"/>
-    <row r="332" ht="25" customHeight="1"/>
-    <row r="333" ht="25" customHeight="1"/>
-    <row r="334" ht="25" customHeight="1"/>
-    <row r="335" ht="25" customHeight="1"/>
-    <row r="336" ht="25" customHeight="1"/>
-    <row r="337" ht="25" customHeight="1"/>
-    <row r="338" ht="25" customHeight="1"/>
+    <row r="331" ht="25" customHeight="1" spans="1:8">
+      <c r="A331" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="B331" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C331" s="22">
+        <v>43573</v>
+      </c>
+      <c r="D331" s="88">
+        <v>151.2273</v>
+      </c>
+      <c r="E331" s="89">
+        <v>6.13</v>
+      </c>
+      <c r="F331" s="89">
+        <v>16.09</v>
+      </c>
+      <c r="G331" s="89">
+        <v>16.02</v>
+      </c>
+      <c r="H331" s="92">
+        <v>19.86</v>
+      </c>
+    </row>
+    <row r="332" ht="25" customHeight="1" spans="1:8">
+      <c r="A332" s="90"/>
+      <c r="B332" s="93"/>
+      <c r="C332" s="88"/>
+      <c r="D332" s="88"/>
+      <c r="E332" s="89"/>
+      <c r="F332" s="89"/>
+      <c r="G332" s="89"/>
+      <c r="H332" s="92"/>
+    </row>
+    <row r="333" ht="25" customHeight="1" spans="1:8">
+      <c r="A333" s="90"/>
+      <c r="B333" s="93"/>
+      <c r="C333" s="88"/>
+      <c r="D333" s="88"/>
+      <c r="E333" s="89"/>
+      <c r="F333" s="89"/>
+      <c r="G333" s="89"/>
+      <c r="H333" s="92"/>
+    </row>
+    <row r="334" ht="25" customHeight="1" spans="1:8">
+      <c r="A334" s="90"/>
+      <c r="B334" s="93"/>
+      <c r="C334" s="88"/>
+      <c r="D334" s="88"/>
+      <c r="E334" s="89"/>
+      <c r="F334" s="89"/>
+      <c r="G334" s="89"/>
+      <c r="H334" s="92"/>
+    </row>
+    <row r="335" ht="25" customHeight="1" spans="1:8">
+      <c r="A335" s="90"/>
+      <c r="B335" s="93"/>
+      <c r="C335" s="88"/>
+      <c r="D335" s="88"/>
+      <c r="E335" s="89"/>
+      <c r="F335" s="89"/>
+      <c r="G335" s="89"/>
+      <c r="H335" s="92"/>
+    </row>
+    <row r="336" ht="25" customHeight="1" spans="1:8">
+      <c r="A336" s="90"/>
+      <c r="B336" s="93"/>
+      <c r="C336" s="88"/>
+      <c r="D336" s="94"/>
+      <c r="E336" s="89"/>
+      <c r="F336" s="89"/>
+      <c r="G336" s="89"/>
+      <c r="H336" s="92"/>
+    </row>
+    <row r="337" ht="25" customHeight="1" spans="1:8">
+      <c r="A337" s="90"/>
+      <c r="B337" s="95"/>
+      <c r="C337" s="96"/>
+      <c r="D337" s="97"/>
+      <c r="E337" s="98"/>
+      <c r="F337" s="89"/>
+      <c r="G337" s="89"/>
+      <c r="H337" s="92"/>
+    </row>
+    <row r="338" ht="25" customHeight="1" spans="4:4">
+      <c r="D338" s="99"/>
+    </row>
     <row r="339" ht="25" customHeight="1"/>
     <row r="340" ht="25" customHeight="1"/>
     <row r="341" ht="25" customHeight="1"/>
@@ -7405,25 +8083,25 @@
     <row r="346" ht="25" customHeight="1"/>
     <row r="347" ht="25" customHeight="1"/>
     <row r="348" ht="25" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="349" ht="25" customHeight="1"/>
+    <row r="350" ht="25" customHeight="1"/>
+    <row r="351" ht="25" customHeight="1"/>
+    <row r="352" ht="25" customHeight="1"/>
+    <row r="353" ht="25" customHeight="1"/>
+    <row r="354" ht="25" customHeight="1"/>
+    <row r="355" ht="25" customHeight="1"/>
+    <row r="356" ht="25" customHeight="1"/>
+    <row r="357" ht="25" customHeight="1"/>
+    <row r="358" ht="25" customHeight="1"/>
+    <row r="359" ht="25" customHeight="1"/>
+    <row r="360" ht="25" customHeight="1"/>
+    <row r="361" ht="25" customHeight="1"/>
+    <row r="362" ht="25" customHeight="1"/>
+    <row r="363" ht="25" customHeight="1"/>
+    <row r="364" ht="25" customHeight="1"/>
+    <row r="365" ht="25" customHeight="1"/>
+    <row r="366" ht="25" customHeight="1"/>
+    <row r="367" ht="25" customHeight="1"/>
     <row r="368" ht="15.75" customHeight="1"/>
     <row r="369" ht="15.75" customHeight="1"/>
     <row r="370" ht="15.75" customHeight="1"/>
@@ -8279,33 +8957,61 @@
     <row r="1220" ht="15.75" customHeight="1"/>
     <row r="1221" ht="15.75" customHeight="1"/>
     <row r="1222" ht="15.75" customHeight="1"/>
+    <row r="1223" ht="15.75" customHeight="1"/>
+    <row r="1224" ht="15.75" customHeight="1"/>
+    <row r="1225" ht="15.75" customHeight="1"/>
+    <row r="1226" ht="15.75" customHeight="1"/>
+    <row r="1227" ht="15.75" customHeight="1"/>
+    <row r="1228" ht="15.75" customHeight="1"/>
+    <row r="1229" ht="15.75" customHeight="1"/>
+    <row r="1230" ht="15.75" customHeight="1"/>
+    <row r="1231" ht="15.75" customHeight="1"/>
+    <row r="1232" ht="15.75" customHeight="1"/>
+    <row r="1233" ht="15.75" customHeight="1"/>
+    <row r="1234" ht="15.75" customHeight="1"/>
+    <row r="1235" ht="15.75" customHeight="1"/>
+    <row r="1236" ht="15.75" customHeight="1"/>
+    <row r="1237" ht="15.75" customHeight="1"/>
+    <row r="1238" ht="15.75" customHeight="1"/>
+    <row r="1239" ht="15.75" customHeight="1"/>
+    <row r="1240" ht="15.75" customHeight="1"/>
+    <row r="1241" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="24">
     <mergeCell ref="A2:A40"/>
-    <mergeCell ref="A42:A78"/>
-    <mergeCell ref="A80:A105"/>
-    <mergeCell ref="A107:A140"/>
-    <mergeCell ref="A142:A174"/>
-    <mergeCell ref="A176:A213"/>
-    <mergeCell ref="A215:A245"/>
-    <mergeCell ref="A247:A276"/>
-    <mergeCell ref="A279:A287"/>
+    <mergeCell ref="A42:A83"/>
+    <mergeCell ref="A85:A110"/>
+    <mergeCell ref="A112:A150"/>
+    <mergeCell ref="A152:A184"/>
+    <mergeCell ref="A186:A227"/>
+    <mergeCell ref="A229:A259"/>
+    <mergeCell ref="A261:A290"/>
+    <mergeCell ref="A293:A305"/>
+    <mergeCell ref="A308:A318"/>
+    <mergeCell ref="A321:A328"/>
+    <mergeCell ref="A331:A337"/>
     <mergeCell ref="B2:B40"/>
-    <mergeCell ref="B42:B78"/>
-    <mergeCell ref="B80:B105"/>
-    <mergeCell ref="B107:B140"/>
-    <mergeCell ref="B142:B174"/>
-    <mergeCell ref="B176:B213"/>
-    <mergeCell ref="B215:B245"/>
-    <mergeCell ref="B247:B276"/>
-    <mergeCell ref="B279:B287"/>
+    <mergeCell ref="B42:B83"/>
+    <mergeCell ref="B85:B110"/>
+    <mergeCell ref="B112:B150"/>
+    <mergeCell ref="B152:B184"/>
+    <mergeCell ref="B186:B227"/>
+    <mergeCell ref="B229:B259"/>
+    <mergeCell ref="B261:B290"/>
+    <mergeCell ref="B293:B305"/>
+    <mergeCell ref="B308:B318"/>
+    <mergeCell ref="B321:B328"/>
+    <mergeCell ref="B331:B337"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A215:A245" r:id="rId1" display="Reliance Large Cap Fund - Direct Plan (G)"/>
-    <hyperlink ref="A247:A276" r:id="rId2" display="Canara Robeco Emerging Equities - Direct Plan (G)"/>
-    <hyperlink ref="A80:A105" location="Sheet1!A204" display="=HYPERLINK(&quot;http://www.moneycontrol.com/mutual-funds/nav/reliance-top-200-fund-direct-plan/MRC940&quot;,&quot;Reliance Top 200 Fund - Direct Plan (G). New name: Reliance Large Cap Fund - Direct Plan (G)&quot;)"/>
-    <hyperlink ref="A279" r:id="rId3" display="Kotak Bluechip Fund - Direct Plan (G)"/>
-    <hyperlink ref="I215" r:id="rId4" display="https://www.valueresearchonline.com/funds/newsnapshot.asp?schemecode=16192"/>
+    <hyperlink ref="A229:A259" r:id="rId1" display="Reliance Large Cap Fund - Direct Plan (G)"/>
+    <hyperlink ref="A261:A290" r:id="rId2" display="Canara Robeco Emerging Equities - Direct Plan (G)"/>
+    <hyperlink ref="A85:A110" location="Sheet1!A204" display="=HYPERLINK(&quot;http://www.moneycontrol.com/mutual-funds/nav/reliance-top-200-fund-direct-plan/MRC940&quot;,&quot;Reliance Top 200 Fund - Direct Plan (G). New name: Reliance Large Cap Fund - Direct Plan (G)&quot;)"/>
+    <hyperlink ref="A293" r:id="rId3" display="Kotak Bluechip Fund - Direct Plan (G)"/>
+    <hyperlink ref="I229" r:id="rId4" display="https://www.valueresearchonline.com/funds/newsnapshot.asp?schemecode=16192"/>
+    <hyperlink ref="A308:A318" r:id="rId5" display="SBI Equity Hybrid Fund - Direct Plan - Growth"/>
+    <hyperlink ref="A321:A328" r:id="rId6" display="SBI Magnum MultiCap Fund - Direct Plan - Growth"/>
+    <hyperlink ref="A331:A337" r:id="rId7" display="SBI Focused Equity Fund - Direct Plan - Growth"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -8367,7 +9073,7 @@
         <v>Aditya Birla Sun Life Tax Relief 96 - Direct Plan (G)</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C2" s="12">
         <v>43203</v>
@@ -8453,7 +9159,7 @@
         <v>Tata India Tax Savings Fund - Direct Plan (G)</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C8" s="12">
         <v>43203</v>
@@ -8521,7 +9227,7 @@
         <v>Reliance Tax Saver (ELSS) Fund - Direct Plan (G)</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C14" s="12">
         <v>43203</v>
@@ -8593,7 +9299,7 @@
         <v>DSP BlackRock Tax Saver Fund - Direct Plan (G)</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C20" s="12">
         <v>43203</v>
@@ -9716,35 +10422,35 @@
     </row>
     <row r="2" ht="24.75" customHeight="1" spans="1:26">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -9908,19 +10614,19 @@
     </row>
     <row r="7" ht="24.75" customHeight="1" spans="1:26">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -10110,19 +10816,19 @@
     </row>
     <row r="13" ht="24.75" customHeight="1" spans="1:26">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -10312,19 +11018,19 @@
     </row>
     <row r="19" ht="24.75" customHeight="1" spans="1:26">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -10486,19 +11192,19 @@
     </row>
     <row r="24" ht="24.75" customHeight="1" spans="1:26">
       <c r="A24" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>

--- a/MF-Tracker-online.xlsx
+++ b/MF-Tracker-online.xlsx
@@ -127,13 +127,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000"/>
-    <numFmt numFmtId="179" formatCode="[$-409]d/mmm/yy"/>
-    <numFmt numFmtId="180" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
-    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="0.0"/>
-    <numFmt numFmtId="183" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yy"/>
+    <numFmt numFmtId="182" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
+    <numFmt numFmtId="183" formatCode="0.000"/>
     <numFmt numFmtId="184" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="28">
@@ -206,13 +206,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -220,10 +213,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,7 +243,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +259,44 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,15 +319,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -296,48 +333,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -380,43 +380,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,25 +470,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,7 +536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,25 +548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,43 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,11 +750,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,6 +780,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -785,39 +800,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,155 +829,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1012,7 +1012,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1028,13 +1028,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1056,15 +1056,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1097,46 +1097,46 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1151,22 +1151,22 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1186,11 +1186,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1263,29 +1263,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1300,10 +1280,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1659,9 +1635,9 @@
   <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G302" sqref="G302"/>
+      <selection pane="bottomLeft" activeCell="F334" sqref="F334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -2490,12 +2466,24 @@
     <row r="38" ht="24.75" customHeight="1" spans="1:8">
       <c r="A38" s="25"/>
       <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
+      <c r="C38" s="22">
+        <v>43588</v>
+      </c>
+      <c r="D38" s="23">
+        <v>31.55</v>
+      </c>
+      <c r="E38" s="26">
+        <v>0.38</v>
+      </c>
+      <c r="F38" s="26">
+        <v>7.68</v>
+      </c>
+      <c r="G38" s="26">
+        <v>12.86</v>
+      </c>
+      <c r="H38" s="26">
+        <v>13.74</v>
+      </c>
     </row>
     <row r="39" ht="24.75" customHeight="1" spans="1:8">
       <c r="A39" s="25"/>
@@ -3343,12 +3331,24 @@
     <row r="79" ht="24.75" customHeight="1" spans="1:8">
       <c r="A79" s="25"/>
       <c r="B79" s="36"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="44"/>
+      <c r="C79" s="22">
+        <v>43588</v>
+      </c>
+      <c r="D79" s="47">
+        <v>37.922</v>
+      </c>
+      <c r="E79" s="26">
+        <v>8.1</v>
+      </c>
+      <c r="F79" s="26">
+        <v>10.06</v>
+      </c>
+      <c r="G79" s="26">
+        <v>17.76</v>
+      </c>
+      <c r="H79" s="44">
+        <v>19.89</v>
+      </c>
     </row>
     <row r="80" ht="24.75" customHeight="1" spans="1:8">
       <c r="A80" s="25"/>
@@ -4627,12 +4627,24 @@
     <row r="145" ht="24.75" customHeight="1" spans="1:8">
       <c r="A145" s="25"/>
       <c r="B145" s="21"/>
-      <c r="C145" s="22"/>
-      <c r="D145" s="23"/>
-      <c r="E145" s="26"/>
-      <c r="F145" s="26"/>
-      <c r="G145" s="26"/>
-      <c r="H145" s="26"/>
+      <c r="C145" s="22">
+        <v>43588</v>
+      </c>
+      <c r="D145" s="23">
+        <v>24.274</v>
+      </c>
+      <c r="E145" s="26">
+        <v>3.39</v>
+      </c>
+      <c r="F145" s="26">
+        <v>6.42</v>
+      </c>
+      <c r="G145" s="26">
+        <v>11.98</v>
+      </c>
+      <c r="H145" s="26">
+        <v>15.95</v>
+      </c>
     </row>
     <row r="146" ht="24.75" customHeight="1" spans="1:8">
       <c r="A146" s="25"/>
@@ -5347,12 +5359,24 @@
     <row r="182" ht="24.75" customHeight="1" spans="1:8">
       <c r="A182" s="25"/>
       <c r="B182" s="21"/>
-      <c r="C182" s="22"/>
-      <c r="D182" s="31"/>
-      <c r="E182" s="26"/>
-      <c r="F182" s="26"/>
-      <c r="G182" s="26"/>
-      <c r="H182" s="26"/>
+      <c r="C182" s="22">
+        <v>43588</v>
+      </c>
+      <c r="D182" s="31">
+        <v>39.43</v>
+      </c>
+      <c r="E182" s="26">
+        <v>-7.9</v>
+      </c>
+      <c r="F182" s="26">
+        <v>7.72</v>
+      </c>
+      <c r="G182" s="26">
+        <v>15.32</v>
+      </c>
+      <c r="H182" s="26">
+        <v>12.76</v>
+      </c>
     </row>
     <row r="183" ht="24.75" customHeight="1" spans="1:8">
       <c r="A183" s="25"/>
@@ -6181,12 +6205,24 @@
     <row r="223" ht="25" customHeight="1" spans="1:8">
       <c r="A223" s="25"/>
       <c r="B223" s="36"/>
-      <c r="C223" s="22"/>
-      <c r="D223" s="65"/>
-      <c r="E223" s="26"/>
-      <c r="F223" s="26"/>
-      <c r="G223" s="26"/>
-      <c r="H223" s="44"/>
+      <c r="C223" s="22">
+        <v>43588</v>
+      </c>
+      <c r="D223" s="65">
+        <v>46.165</v>
+      </c>
+      <c r="E223" s="26">
+        <v>-8.08</v>
+      </c>
+      <c r="F223" s="26">
+        <v>10.77</v>
+      </c>
+      <c r="G223" s="26">
+        <v>19.58</v>
+      </c>
+      <c r="H223" s="44">
+        <v>20.28</v>
+      </c>
     </row>
     <row r="224" ht="25" customHeight="1" spans="1:8">
       <c r="A224" s="25"/>
@@ -6853,12 +6889,24 @@
     <row r="257" ht="25" customHeight="1" spans="1:8">
       <c r="A257" s="72"/>
       <c r="B257" s="21"/>
-      <c r="C257" s="22"/>
-      <c r="D257" s="65"/>
-      <c r="E257" s="32"/>
-      <c r="F257" s="32"/>
-      <c r="G257" s="32"/>
-      <c r="H257" s="76"/>
+      <c r="C257" s="22">
+        <v>43588</v>
+      </c>
+      <c r="D257" s="65">
+        <v>37.2702</v>
+      </c>
+      <c r="E257" s="32">
+        <v>8.9</v>
+      </c>
+      <c r="F257" s="32">
+        <v>12.48</v>
+      </c>
+      <c r="G257" s="32">
+        <v>18.03</v>
+      </c>
+      <c r="H257" s="76">
+        <v>17.82</v>
+      </c>
     </row>
     <row r="258" ht="25" customHeight="1" spans="1:8">
       <c r="A258" s="72"/>
@@ -7500,12 +7548,24 @@
     <row r="289" ht="25" customHeight="1" spans="1:8">
       <c r="A289" s="72"/>
       <c r="B289" s="36"/>
-      <c r="C289" s="22"/>
-      <c r="D289" s="65"/>
-      <c r="E289" s="26"/>
-      <c r="F289" s="26"/>
-      <c r="G289" s="26"/>
-      <c r="H289" s="44"/>
+      <c r="C289" s="22">
+        <v>43588</v>
+      </c>
+      <c r="D289" s="65">
+        <v>99.81</v>
+      </c>
+      <c r="E289" s="26">
+        <v>-1.63</v>
+      </c>
+      <c r="F289" s="26">
+        <v>6.52</v>
+      </c>
+      <c r="G289" s="26">
+        <v>17.89</v>
+      </c>
+      <c r="H289" s="44">
+        <v>25.32</v>
+      </c>
     </row>
     <row r="290" ht="25" customHeight="1" spans="1:8">
       <c r="A290" s="72"/>
@@ -7700,12 +7760,24 @@
     <row r="301" ht="25" customHeight="1" spans="1:8">
       <c r="A301" s="80"/>
       <c r="B301" s="81"/>
-      <c r="C301" s="65"/>
-      <c r="D301" s="65"/>
-      <c r="E301" s="62"/>
-      <c r="F301" s="62"/>
-      <c r="G301" s="62"/>
-      <c r="H301" s="62"/>
+      <c r="C301" s="22">
+        <v>43588</v>
+      </c>
+      <c r="D301" s="65">
+        <v>251.167</v>
+      </c>
+      <c r="E301" s="62">
+        <v>6.12</v>
+      </c>
+      <c r="F301" s="62">
+        <v>9.17</v>
+      </c>
+      <c r="G301" s="62">
+        <v>13.29</v>
+      </c>
+      <c r="H301" s="62">
+        <v>15.24</v>
+      </c>
     </row>
     <row r="302" ht="25" customHeight="1" spans="1:8">
       <c r="A302" s="80"/>
@@ -7759,319 +7831,355 @@
     </row>
     <row r="307" ht="25" customHeight="1"/>
     <row r="308" ht="25" customHeight="1" spans="1:8">
-      <c r="A308" s="86" t="s">
+      <c r="A308" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B308" s="87" t="s">
+      <c r="B308" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C308" s="22">
         <v>43573</v>
       </c>
-      <c r="D308" s="88">
+      <c r="D308" s="65">
         <v>142.8547</v>
       </c>
-      <c r="E308" s="89">
+      <c r="E308" s="62">
         <v>7.6</v>
       </c>
-      <c r="F308" s="89">
+      <c r="F308" s="62">
         <v>12.09</v>
       </c>
-      <c r="G308" s="89">
+      <c r="G308" s="62">
         <v>12.93</v>
       </c>
-      <c r="H308" s="89">
+      <c r="H308" s="62">
         <v>15.89</v>
       </c>
     </row>
     <row r="309" ht="25" customHeight="1" spans="1:8">
-      <c r="A309" s="90"/>
-      <c r="B309" s="87"/>
-      <c r="C309" s="88"/>
-      <c r="D309" s="88"/>
-      <c r="E309" s="89"/>
-      <c r="F309" s="89"/>
-      <c r="G309" s="89"/>
-      <c r="H309" s="89"/>
+      <c r="A309" s="72"/>
+      <c r="B309" s="21"/>
+      <c r="C309" s="22">
+        <v>43588</v>
+      </c>
+      <c r="D309" s="65">
+        <v>142.5815</v>
+      </c>
+      <c r="E309" s="62">
+        <v>6.21</v>
+      </c>
+      <c r="F309" s="62">
+        <v>11.56</v>
+      </c>
+      <c r="G309" s="62">
+        <v>13.06</v>
+      </c>
+      <c r="H309" s="62">
+        <v>15.82</v>
+      </c>
     </row>
     <row r="310" ht="25" customHeight="1" spans="1:8">
-      <c r="A310" s="90"/>
-      <c r="B310" s="87"/>
-      <c r="C310" s="88"/>
-      <c r="D310" s="88"/>
-      <c r="E310" s="89"/>
-      <c r="F310" s="89"/>
-      <c r="G310" s="89"/>
-      <c r="H310" s="89"/>
+      <c r="A310" s="72"/>
+      <c r="B310" s="21"/>
+      <c r="C310" s="65"/>
+      <c r="D310" s="65"/>
+      <c r="E310" s="62"/>
+      <c r="F310" s="62"/>
+      <c r="G310" s="62"/>
+      <c r="H310" s="62"/>
     </row>
     <row r="311" ht="25" customHeight="1" spans="1:8">
-      <c r="A311" s="90"/>
-      <c r="B311" s="87"/>
-      <c r="C311" s="88"/>
-      <c r="D311" s="88"/>
-      <c r="E311" s="89"/>
-      <c r="F311" s="89"/>
-      <c r="G311" s="89"/>
-      <c r="H311" s="89"/>
+      <c r="A311" s="72"/>
+      <c r="B311" s="21"/>
+      <c r="C311" s="65"/>
+      <c r="D311" s="65"/>
+      <c r="E311" s="62"/>
+      <c r="F311" s="62"/>
+      <c r="G311" s="62"/>
+      <c r="H311" s="62"/>
     </row>
     <row r="312" ht="25" customHeight="1" spans="1:8">
-      <c r="A312" s="90"/>
-      <c r="B312" s="87"/>
-      <c r="C312" s="88"/>
-      <c r="D312" s="88"/>
-      <c r="E312" s="89"/>
-      <c r="F312" s="89"/>
-      <c r="G312" s="89"/>
-      <c r="H312" s="89"/>
+      <c r="A312" s="72"/>
+      <c r="B312" s="21"/>
+      <c r="C312" s="65"/>
+      <c r="D312" s="65"/>
+      <c r="E312" s="62"/>
+      <c r="F312" s="62"/>
+      <c r="G312" s="62"/>
+      <c r="H312" s="62"/>
     </row>
     <row r="313" ht="25" customHeight="1" spans="1:8">
-      <c r="A313" s="90"/>
-      <c r="B313" s="87"/>
-      <c r="C313" s="88"/>
-      <c r="D313" s="88"/>
-      <c r="E313" s="89"/>
-      <c r="F313" s="89"/>
-      <c r="G313" s="89"/>
-      <c r="H313" s="89"/>
+      <c r="A313" s="72"/>
+      <c r="B313" s="21"/>
+      <c r="C313" s="65"/>
+      <c r="D313" s="65"/>
+      <c r="E313" s="62"/>
+      <c r="F313" s="62"/>
+      <c r="G313" s="62"/>
+      <c r="H313" s="62"/>
     </row>
     <row r="314" ht="25" customHeight="1" spans="1:8">
-      <c r="A314" s="90"/>
-      <c r="B314" s="87"/>
-      <c r="C314" s="88"/>
-      <c r="D314" s="88"/>
-      <c r="E314" s="89"/>
-      <c r="F314" s="89"/>
-      <c r="G314" s="89"/>
-      <c r="H314" s="89"/>
+      <c r="A314" s="72"/>
+      <c r="B314" s="21"/>
+      <c r="C314" s="65"/>
+      <c r="D314" s="65"/>
+      <c r="E314" s="62"/>
+      <c r="F314" s="62"/>
+      <c r="G314" s="62"/>
+      <c r="H314" s="62"/>
     </row>
     <row r="315" ht="25" customHeight="1" spans="1:8">
-      <c r="A315" s="90"/>
-      <c r="B315" s="87"/>
-      <c r="C315" s="88"/>
-      <c r="D315" s="88"/>
-      <c r="E315" s="89"/>
-      <c r="F315" s="89"/>
-      <c r="G315" s="89"/>
-      <c r="H315" s="89"/>
+      <c r="A315" s="72"/>
+      <c r="B315" s="21"/>
+      <c r="C315" s="65"/>
+      <c r="D315" s="65"/>
+      <c r="E315" s="62"/>
+      <c r="F315" s="62"/>
+      <c r="G315" s="62"/>
+      <c r="H315" s="62"/>
     </row>
     <row r="316" ht="25" customHeight="1" spans="1:8">
-      <c r="A316" s="90"/>
-      <c r="B316" s="87"/>
-      <c r="C316" s="88"/>
-      <c r="D316" s="88"/>
-      <c r="E316" s="89"/>
-      <c r="F316" s="89"/>
-      <c r="G316" s="89"/>
-      <c r="H316" s="89"/>
+      <c r="A316" s="72"/>
+      <c r="B316" s="21"/>
+      <c r="C316" s="65"/>
+      <c r="D316" s="65"/>
+      <c r="E316" s="62"/>
+      <c r="F316" s="62"/>
+      <c r="G316" s="62"/>
+      <c r="H316" s="62"/>
     </row>
     <row r="317" ht="25" customHeight="1" spans="1:8">
-      <c r="A317" s="90"/>
-      <c r="B317" s="87"/>
-      <c r="C317" s="88"/>
-      <c r="D317" s="88"/>
-      <c r="E317" s="89"/>
-      <c r="F317" s="89"/>
-      <c r="G317" s="89"/>
-      <c r="H317" s="89"/>
+      <c r="A317" s="72"/>
+      <c r="B317" s="21"/>
+      <c r="C317" s="65"/>
+      <c r="D317" s="65"/>
+      <c r="E317" s="62"/>
+      <c r="F317" s="62"/>
+      <c r="G317" s="62"/>
+      <c r="H317" s="62"/>
     </row>
     <row r="318" ht="25" customHeight="1" spans="1:8">
-      <c r="A318" s="90"/>
-      <c r="B318" s="87"/>
-      <c r="C318" s="88"/>
-      <c r="D318" s="88"/>
-      <c r="E318" s="89"/>
-      <c r="F318" s="89"/>
-      <c r="G318" s="89"/>
-      <c r="H318" s="89"/>
+      <c r="A318" s="72"/>
+      <c r="B318" s="21"/>
+      <c r="C318" s="65"/>
+      <c r="D318" s="65"/>
+      <c r="E318" s="62"/>
+      <c r="F318" s="62"/>
+      <c r="G318" s="62"/>
+      <c r="H318" s="62"/>
     </row>
     <row r="319" ht="25" customHeight="1"/>
     <row r="320" ht="25" customHeight="1"/>
     <row r="321" ht="25" customHeight="1" spans="1:8">
-      <c r="A321" s="86" t="s">
+      <c r="A321" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B321" s="87" t="s">
+      <c r="B321" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C321" s="22">
         <v>43573</v>
       </c>
-      <c r="D321" s="88">
+      <c r="D321" s="65">
         <v>51.6274</v>
       </c>
-      <c r="E321" s="88">
+      <c r="E321" s="65">
         <v>3.66</v>
       </c>
-      <c r="F321" s="89">
+      <c r="F321" s="62">
         <v>10.7</v>
       </c>
-      <c r="G321" s="89">
+      <c r="G321" s="62">
         <v>14.77</v>
       </c>
-      <c r="H321" s="89">
+      <c r="H321" s="62">
         <v>19.39</v>
       </c>
     </row>
     <row r="322" ht="25" customHeight="1" spans="1:8">
-      <c r="A322" s="90"/>
-      <c r="B322" s="87"/>
-      <c r="C322" s="88"/>
-      <c r="D322" s="88"/>
-      <c r="E322" s="89"/>
-      <c r="F322" s="89"/>
-      <c r="G322" s="89"/>
-      <c r="H322" s="89"/>
+      <c r="A322" s="72"/>
+      <c r="B322" s="21"/>
+      <c r="C322" s="22">
+        <v>43588</v>
+      </c>
+      <c r="D322" s="65">
+        <v>51.6773</v>
+      </c>
+      <c r="E322" s="62">
+        <v>2.75</v>
+      </c>
+      <c r="F322" s="62">
+        <v>9.43</v>
+      </c>
+      <c r="G322" s="62">
+        <v>14.96</v>
+      </c>
+      <c r="H322" s="62">
+        <v>19.42</v>
+      </c>
     </row>
     <row r="323" ht="25" customHeight="1" spans="1:8">
-      <c r="A323" s="90"/>
-      <c r="B323" s="87"/>
-      <c r="C323" s="88"/>
-      <c r="D323" s="88"/>
-      <c r="E323" s="89"/>
-      <c r="F323" s="89"/>
-      <c r="G323" s="89"/>
-      <c r="H323" s="89"/>
+      <c r="A323" s="72"/>
+      <c r="B323" s="21"/>
+      <c r="C323" s="65"/>
+      <c r="D323" s="65"/>
+      <c r="E323" s="62"/>
+      <c r="F323" s="62"/>
+      <c r="G323" s="62"/>
+      <c r="H323" s="62"/>
     </row>
     <row r="324" ht="25" customHeight="1" spans="1:8">
-      <c r="A324" s="90"/>
-      <c r="B324" s="87"/>
-      <c r="C324" s="88"/>
-      <c r="D324" s="88"/>
-      <c r="E324" s="89"/>
-      <c r="F324" s="89"/>
-      <c r="G324" s="89"/>
-      <c r="H324" s="89"/>
+      <c r="A324" s="72"/>
+      <c r="B324" s="21"/>
+      <c r="C324" s="65"/>
+      <c r="D324" s="65"/>
+      <c r="E324" s="62"/>
+      <c r="F324" s="62"/>
+      <c r="G324" s="62"/>
+      <c r="H324" s="62"/>
     </row>
     <row r="325" ht="25" customHeight="1" spans="1:8">
-      <c r="A325" s="90"/>
-      <c r="B325" s="87"/>
-      <c r="C325" s="88"/>
-      <c r="D325" s="88"/>
-      <c r="E325" s="89"/>
-      <c r="F325" s="89"/>
-      <c r="G325" s="89"/>
-      <c r="H325" s="89"/>
+      <c r="A325" s="72"/>
+      <c r="B325" s="21"/>
+      <c r="C325" s="65"/>
+      <c r="D325" s="65"/>
+      <c r="E325" s="62"/>
+      <c r="F325" s="62"/>
+      <c r="G325" s="62"/>
+      <c r="H325" s="62"/>
     </row>
     <row r="326" ht="25" customHeight="1" spans="1:8">
-      <c r="A326" s="90"/>
-      <c r="B326" s="87"/>
-      <c r="C326" s="88"/>
-      <c r="D326" s="88"/>
-      <c r="E326" s="89"/>
-      <c r="F326" s="89"/>
-      <c r="G326" s="89"/>
-      <c r="H326" s="89"/>
+      <c r="A326" s="72"/>
+      <c r="B326" s="21"/>
+      <c r="C326" s="65"/>
+      <c r="D326" s="65"/>
+      <c r="E326" s="62"/>
+      <c r="F326" s="62"/>
+      <c r="G326" s="62"/>
+      <c r="H326" s="62"/>
     </row>
     <row r="327" ht="25" customHeight="1" spans="1:8">
-      <c r="A327" s="90"/>
-      <c r="B327" s="87"/>
-      <c r="C327" s="88"/>
-      <c r="D327" s="88"/>
-      <c r="E327" s="89"/>
-      <c r="F327" s="89"/>
-      <c r="G327" s="89"/>
-      <c r="H327" s="89"/>
+      <c r="A327" s="72"/>
+      <c r="B327" s="21"/>
+      <c r="C327" s="65"/>
+      <c r="D327" s="65"/>
+      <c r="E327" s="62"/>
+      <c r="F327" s="62"/>
+      <c r="G327" s="62"/>
+      <c r="H327" s="62"/>
     </row>
     <row r="328" ht="25" customHeight="1" spans="1:8">
-      <c r="A328" s="90"/>
-      <c r="B328" s="87"/>
-      <c r="C328" s="88"/>
-      <c r="D328" s="88"/>
-      <c r="E328" s="89"/>
-      <c r="F328" s="89"/>
-      <c r="G328" s="89"/>
-      <c r="H328" s="89"/>
+      <c r="A328" s="72"/>
+      <c r="B328" s="21"/>
+      <c r="C328" s="65"/>
+      <c r="D328" s="65"/>
+      <c r="E328" s="62"/>
+      <c r="F328" s="62"/>
+      <c r="G328" s="62"/>
+      <c r="H328" s="62"/>
     </row>
     <row r="329" ht="25" customHeight="1"/>
     <row r="330" ht="25" customHeight="1"/>
     <row r="331" ht="25" customHeight="1" spans="1:8">
-      <c r="A331" s="86" t="s">
+      <c r="A331" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B331" s="91" t="s">
+      <c r="B331" s="86" t="s">
         <v>23</v>
       </c>
       <c r="C331" s="22">
         <v>43573</v>
       </c>
-      <c r="D331" s="88">
+      <c r="D331" s="65">
         <v>151.2273</v>
       </c>
-      <c r="E331" s="89">
+      <c r="E331" s="62">
         <v>6.13</v>
       </c>
-      <c r="F331" s="89">
+      <c r="F331" s="62">
         <v>16.09</v>
       </c>
-      <c r="G331" s="89">
+      <c r="G331" s="62">
         <v>16.02</v>
       </c>
-      <c r="H331" s="92">
+      <c r="H331" s="64">
         <v>19.86</v>
       </c>
     </row>
     <row r="332" ht="25" customHeight="1" spans="1:8">
-      <c r="A332" s="90"/>
-      <c r="B332" s="93"/>
-      <c r="C332" s="88"/>
-      <c r="D332" s="88"/>
-      <c r="E332" s="89"/>
-      <c r="F332" s="89"/>
-      <c r="G332" s="89"/>
-      <c r="H332" s="92"/>
+      <c r="A332" s="72"/>
+      <c r="B332" s="87"/>
+      <c r="C332" s="22">
+        <v>43588</v>
+      </c>
+      <c r="D332" s="65">
+        <v>150.1831</v>
+      </c>
+      <c r="E332" s="62">
+        <v>3.57</v>
+      </c>
+      <c r="F332" s="62">
+        <v>15.48</v>
+      </c>
+      <c r="G332" s="62">
+        <v>15.27</v>
+      </c>
+      <c r="H332" s="64">
+        <v>19.64</v>
+      </c>
     </row>
     <row r="333" ht="25" customHeight="1" spans="1:8">
-      <c r="A333" s="90"/>
-      <c r="B333" s="93"/>
-      <c r="C333" s="88"/>
-      <c r="D333" s="88"/>
-      <c r="E333" s="89"/>
-      <c r="F333" s="89"/>
-      <c r="G333" s="89"/>
-      <c r="H333" s="92"/>
+      <c r="A333" s="72"/>
+      <c r="B333" s="87"/>
+      <c r="C333" s="65"/>
+      <c r="D333" s="65"/>
+      <c r="E333" s="62"/>
+      <c r="F333" s="62"/>
+      <c r="G333" s="62"/>
+      <c r="H333" s="64"/>
     </row>
     <row r="334" ht="25" customHeight="1" spans="1:8">
-      <c r="A334" s="90"/>
-      <c r="B334" s="93"/>
-      <c r="C334" s="88"/>
-      <c r="D334" s="88"/>
-      <c r="E334" s="89"/>
-      <c r="F334" s="89"/>
-      <c r="G334" s="89"/>
-      <c r="H334" s="92"/>
+      <c r="A334" s="72"/>
+      <c r="B334" s="87"/>
+      <c r="C334" s="65"/>
+      <c r="D334" s="65"/>
+      <c r="E334" s="62"/>
+      <c r="F334" s="62"/>
+      <c r="G334" s="62"/>
+      <c r="H334" s="64"/>
     </row>
     <row r="335" ht="25" customHeight="1" spans="1:8">
-      <c r="A335" s="90"/>
-      <c r="B335" s="93"/>
-      <c r="C335" s="88"/>
-      <c r="D335" s="88"/>
-      <c r="E335" s="89"/>
-      <c r="F335" s="89"/>
-      <c r="G335" s="89"/>
-      <c r="H335" s="92"/>
+      <c r="A335" s="72"/>
+      <c r="B335" s="87"/>
+      <c r="C335" s="65"/>
+      <c r="D335" s="65"/>
+      <c r="E335" s="62"/>
+      <c r="F335" s="62"/>
+      <c r="G335" s="62"/>
+      <c r="H335" s="64"/>
     </row>
     <row r="336" ht="25" customHeight="1" spans="1:8">
-      <c r="A336" s="90"/>
-      <c r="B336" s="93"/>
-      <c r="C336" s="88"/>
-      <c r="D336" s="94"/>
-      <c r="E336" s="89"/>
-      <c r="F336" s="89"/>
-      <c r="G336" s="89"/>
-      <c r="H336" s="92"/>
+      <c r="A336" s="72"/>
+      <c r="B336" s="87"/>
+      <c r="C336" s="65"/>
+      <c r="D336" s="88"/>
+      <c r="E336" s="62"/>
+      <c r="F336" s="62"/>
+      <c r="G336" s="62"/>
+      <c r="H336" s="64"/>
     </row>
     <row r="337" ht="25" customHeight="1" spans="1:8">
-      <c r="A337" s="90"/>
-      <c r="B337" s="95"/>
-      <c r="C337" s="96"/>
-      <c r="D337" s="97"/>
-      <c r="E337" s="98"/>
-      <c r="F337" s="89"/>
-      <c r="G337" s="89"/>
-      <c r="H337" s="92"/>
+      <c r="A337" s="72"/>
+      <c r="B337" s="89"/>
+      <c r="C337" s="90"/>
+      <c r="D337" s="65"/>
+      <c r="E337" s="91"/>
+      <c r="F337" s="62"/>
+      <c r="G337" s="62"/>
+      <c r="H337" s="64"/>
     </row>
     <row r="338" ht="25" customHeight="1" spans="4:4">
-      <c r="D338" s="99"/>
+      <c r="D338" s="92"/>
     </row>
     <row r="339" ht="25" customHeight="1"/>
     <row r="340" ht="25" customHeight="1"/>

--- a/MF-Tracker-online.xlsx
+++ b/MF-Tracker-online.xlsx
@@ -126,12 +126,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yy"/>
+    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="0.0"/>
     <numFmt numFmtId="182" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
     <numFmt numFmtId="183" formatCode="0.000"/>
     <numFmt numFmtId="184" formatCode="0.000_ "/>
@@ -206,7 +206,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,62 +321,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,57 +334,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -380,7 +380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,13 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,7 +416,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,19 +524,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,85 +548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,31 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,17 +750,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,15 +774,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -800,6 +785,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,22 +824,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,148 +850,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,13 +1028,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1056,7 +1056,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1064,7 +1064,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1101,14 +1101,14 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1116,20 +1116,20 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1151,14 +1151,14 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1166,7 +1166,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1186,7 +1186,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1632,12 +1632,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1241"/>
+  <dimension ref="A1:I1244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F334" sqref="F334"/>
+      <selection pane="bottomLeft" activeCell="G338" sqref="G338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -2488,12 +2488,24 @@
     <row r="39" ht="24.75" customHeight="1" spans="1:8">
       <c r="A39" s="25"/>
       <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
+      <c r="C39" s="22">
+        <v>43592</v>
+      </c>
+      <c r="D39" s="23">
+        <v>31.28</v>
+      </c>
+      <c r="E39" s="26">
+        <v>-0.29</v>
+      </c>
+      <c r="F39" s="26">
+        <v>7.83</v>
+      </c>
+      <c r="G39" s="26">
+        <v>12.92</v>
+      </c>
+      <c r="H39" s="26">
+        <v>13.68</v>
+      </c>
     </row>
     <row r="40" ht="24.75" customHeight="1" spans="1:8">
       <c r="A40" s="25"/>
@@ -3353,12 +3365,24 @@
     <row r="80" ht="24.75" customHeight="1" spans="1:8">
       <c r="A80" s="25"/>
       <c r="B80" s="36"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="47"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="44"/>
+      <c r="C80" s="22">
+        <v>43592</v>
+      </c>
+      <c r="D80" s="47">
+        <v>37.153</v>
+      </c>
+      <c r="E80" s="26">
+        <v>6.54</v>
+      </c>
+      <c r="F80" s="26">
+        <v>9.12</v>
+      </c>
+      <c r="G80" s="26">
+        <v>17.23</v>
+      </c>
+      <c r="H80" s="44">
+        <v>19.4</v>
+      </c>
     </row>
     <row r="81" ht="24.75" customHeight="1" spans="1:8">
       <c r="A81" s="25"/>
@@ -4649,12 +4673,24 @@
     <row r="146" ht="24.75" customHeight="1" spans="1:8">
       <c r="A146" s="25"/>
       <c r="B146" s="21"/>
-      <c r="C146" s="22"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="26"/>
-      <c r="F146" s="26"/>
-      <c r="G146" s="26"/>
-      <c r="H146" s="26"/>
+      <c r="C146" s="22">
+        <v>43592</v>
+      </c>
+      <c r="D146" s="23">
+        <v>23.776</v>
+      </c>
+      <c r="E146" s="26">
+        <v>1.23</v>
+      </c>
+      <c r="F146" s="26">
+        <v>5.62</v>
+      </c>
+      <c r="G146" s="26">
+        <v>11.56</v>
+      </c>
+      <c r="H146" s="26">
+        <v>15.48</v>
+      </c>
     </row>
     <row r="147" ht="24.75" customHeight="1" spans="1:8">
       <c r="A147" s="25"/>
@@ -5381,12 +5417,24 @@
     <row r="183" ht="24.75" customHeight="1" spans="1:8">
       <c r="A183" s="25"/>
       <c r="B183" s="21"/>
-      <c r="C183" s="22"/>
-      <c r="D183" s="31"/>
-      <c r="E183" s="26"/>
-      <c r="F183" s="26"/>
-      <c r="G183" s="26"/>
-      <c r="H183" s="26"/>
+      <c r="C183" s="22">
+        <v>43592</v>
+      </c>
+      <c r="D183" s="31">
+        <v>39.19</v>
+      </c>
+      <c r="E183" s="26">
+        <v>-8.35</v>
+      </c>
+      <c r="F183" s="26">
+        <v>7.17</v>
+      </c>
+      <c r="G183" s="26">
+        <v>15.46</v>
+      </c>
+      <c r="H183" s="26">
+        <v>12.79</v>
+      </c>
     </row>
     <row r="184" ht="24.75" customHeight="1" spans="1:8">
       <c r="A184" s="25"/>
@@ -6227,12 +6275,24 @@
     <row r="224" ht="25" customHeight="1" spans="1:8">
       <c r="A224" s="25"/>
       <c r="B224" s="36"/>
-      <c r="C224" s="22"/>
-      <c r="D224" s="65"/>
-      <c r="E224" s="26"/>
-      <c r="F224" s="26"/>
-      <c r="G224" s="26"/>
-      <c r="H224" s="44"/>
+      <c r="C224" s="22">
+        <v>43592</v>
+      </c>
+      <c r="D224" s="65">
+        <v>45.447</v>
+      </c>
+      <c r="E224" s="26">
+        <v>-8.96</v>
+      </c>
+      <c r="F224" s="26">
+        <v>9.8</v>
+      </c>
+      <c r="G224" s="26">
+        <v>19.2</v>
+      </c>
+      <c r="H224" s="44">
+        <v>20.09</v>
+      </c>
     </row>
     <row r="225" ht="25" customHeight="1" spans="1:8">
       <c r="A225" s="25"/>
@@ -6911,12 +6971,24 @@
     <row r="258" ht="25" customHeight="1" spans="1:8">
       <c r="A258" s="72"/>
       <c r="B258" s="21"/>
-      <c r="C258" s="22"/>
-      <c r="D258" s="65"/>
-      <c r="E258" s="32"/>
-      <c r="F258" s="32"/>
-      <c r="G258" s="32"/>
-      <c r="H258" s="76"/>
+      <c r="C258" s="22">
+        <v>43592</v>
+      </c>
+      <c r="D258" s="65">
+        <v>36.7143</v>
+      </c>
+      <c r="E258" s="32">
+        <v>7.39</v>
+      </c>
+      <c r="F258" s="32">
+        <v>11.69</v>
+      </c>
+      <c r="G258" s="32">
+        <v>17.89</v>
+      </c>
+      <c r="H258" s="76">
+        <v>17.61</v>
+      </c>
     </row>
     <row r="259" ht="25" customHeight="1" spans="1:8">
       <c r="A259" s="72"/>
@@ -7570,353 +7642,389 @@
     <row r="290" ht="25" customHeight="1" spans="1:8">
       <c r="A290" s="72"/>
       <c r="B290" s="36"/>
-      <c r="C290" s="65"/>
-      <c r="D290" s="65"/>
-      <c r="E290" s="62"/>
-      <c r="F290" s="62"/>
-      <c r="G290" s="62"/>
-      <c r="H290" s="64"/>
-    </row>
-    <row r="291" ht="25" customHeight="1"/>
-    <row r="292" ht="25" customHeight="1"/>
+      <c r="C290" s="22">
+        <v>43592</v>
+      </c>
+      <c r="D290" s="65">
+        <v>98.39</v>
+      </c>
+      <c r="E290" s="26">
+        <v>-2.39</v>
+      </c>
+      <c r="F290" s="26">
+        <v>5.87</v>
+      </c>
+      <c r="G290" s="26">
+        <v>17.83</v>
+      </c>
+      <c r="H290" s="44">
+        <v>24.71</v>
+      </c>
+    </row>
+    <row r="291" ht="25" customHeight="1" spans="1:8">
+      <c r="A291" s="72"/>
+      <c r="B291" s="36"/>
+      <c r="C291" s="22"/>
+      <c r="D291" s="65"/>
+      <c r="E291" s="26"/>
+      <c r="F291" s="26"/>
+      <c r="G291" s="26"/>
+      <c r="H291" s="44"/>
+    </row>
+    <row r="292" ht="25" customHeight="1" spans="1:8">
+      <c r="A292" s="72"/>
+      <c r="B292" s="36"/>
+      <c r="C292" s="22"/>
+      <c r="D292" s="65"/>
+      <c r="E292" s="26"/>
+      <c r="F292" s="26"/>
+      <c r="G292" s="26"/>
+      <c r="H292" s="44"/>
+    </row>
     <row r="293" ht="25" customHeight="1" spans="1:8">
-      <c r="A293" s="80" t="s">
+      <c r="A293" s="72"/>
+      <c r="B293" s="36"/>
+      <c r="C293" s="65"/>
+      <c r="D293" s="65"/>
+      <c r="E293" s="62"/>
+      <c r="F293" s="62"/>
+      <c r="G293" s="62"/>
+      <c r="H293" s="64"/>
+    </row>
+    <row r="294" ht="25" customHeight="1"/>
+    <row r="295" ht="25" customHeight="1"/>
+    <row r="296" ht="25" customHeight="1" spans="1:8">
+      <c r="A296" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B293" s="81" t="s">
+      <c r="B296" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C293" s="22">
+      <c r="C296" s="22">
         <v>43430</v>
       </c>
-      <c r="D293" s="82">
+      <c r="D296" s="82">
         <v>227.795</v>
       </c>
-      <c r="E293" s="83">
+      <c r="E296" s="83">
         <v>-1.7</v>
       </c>
-      <c r="F293" s="83">
+      <c r="F296" s="83">
         <v>12.1</v>
       </c>
-      <c r="G293" s="83">
+      <c r="G296" s="83">
         <v>9.5</v>
       </c>
-      <c r="H293" s="83">
+      <c r="H296" s="83">
         <v>15.4</v>
-      </c>
-    </row>
-    <row r="294" ht="25" customHeight="1" spans="1:8">
-      <c r="A294" s="80"/>
-      <c r="B294" s="81"/>
-      <c r="C294" s="22">
-        <v>43432</v>
-      </c>
-      <c r="D294" s="31">
-        <v>230.33</v>
-      </c>
-      <c r="E294" s="26">
-        <v>-0.9</v>
-      </c>
-      <c r="F294" s="26">
-        <v>12.6</v>
-      </c>
-      <c r="G294" s="26">
-        <v>9.6</v>
-      </c>
-      <c r="H294" s="26">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="295" ht="25" customHeight="1" spans="1:8">
-      <c r="A295" s="80"/>
-      <c r="B295" s="81"/>
-      <c r="C295" s="22">
-        <v>43452</v>
-      </c>
-      <c r="D295" s="65">
-        <v>235.831</v>
-      </c>
-      <c r="E295" s="26">
-        <v>0.8</v>
-      </c>
-      <c r="F295" s="26">
-        <v>14.2</v>
-      </c>
-      <c r="G295" s="26">
-        <v>11.4</v>
-      </c>
-      <c r="H295" s="26">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="296" ht="25" customHeight="1" spans="1:8">
-      <c r="A296" s="80"/>
-      <c r="B296" s="81"/>
-      <c r="C296" s="22">
-        <v>43461</v>
-      </c>
-      <c r="D296" s="65">
-        <v>233.486</v>
-      </c>
-      <c r="E296" s="26">
-        <v>-1.6</v>
-      </c>
-      <c r="F296" s="26">
-        <v>14.6</v>
-      </c>
-      <c r="G296" s="26">
-        <v>10.5</v>
-      </c>
-      <c r="H296" s="26">
-        <v>15</v>
       </c>
     </row>
     <row r="297" ht="25" customHeight="1" spans="1:8">
       <c r="A297" s="80"/>
       <c r="B297" s="81"/>
       <c r="C297" s="22">
-        <v>43480</v>
-      </c>
-      <c r="D297" s="65">
-        <v>234.424</v>
+        <v>43432</v>
+      </c>
+      <c r="D297" s="31">
+        <v>230.33</v>
       </c>
       <c r="E297" s="26">
-        <v>-3</v>
+        <v>-0.9</v>
       </c>
       <c r="F297" s="26">
-        <v>11.9</v>
+        <v>12.6</v>
       </c>
       <c r="G297" s="26">
-        <v>12.9</v>
+        <v>9.6</v>
       </c>
       <c r="H297" s="26">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="298" ht="25" customHeight="1" spans="1:8">
       <c r="A298" s="80"/>
       <c r="B298" s="81"/>
       <c r="C298" s="22">
-        <v>43550</v>
+        <v>43452</v>
       </c>
       <c r="D298" s="65">
-        <v>246.301</v>
-      </c>
-      <c r="E298" s="62">
-        <v>9.14</v>
-      </c>
-      <c r="F298" s="62">
-        <v>9.59</v>
-      </c>
-      <c r="G298" s="62"/>
-      <c r="H298" s="62">
-        <v>15.01</v>
+        <v>235.831</v>
+      </c>
+      <c r="E298" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="F298" s="26">
+        <v>14.2</v>
+      </c>
+      <c r="G298" s="26">
+        <v>11.4</v>
+      </c>
+      <c r="H298" s="26">
+        <v>15.6</v>
       </c>
     </row>
     <row r="299" ht="25" customHeight="1" spans="1:8">
       <c r="A299" s="80"/>
       <c r="B299" s="81"/>
       <c r="C299" s="22">
-        <v>43551</v>
+        <v>43461</v>
       </c>
       <c r="D299" s="65">
-        <v>245.74</v>
-      </c>
-      <c r="E299" s="62">
-        <v>7.65</v>
-      </c>
-      <c r="F299" s="62">
-        <v>10.28</v>
-      </c>
-      <c r="G299" s="62">
-        <v>13.81</v>
-      </c>
-      <c r="H299" s="62">
-        <v>15.08</v>
+        <v>233.486</v>
+      </c>
+      <c r="E299" s="26">
+        <v>-1.6</v>
+      </c>
+      <c r="F299" s="26">
+        <v>14.6</v>
+      </c>
+      <c r="G299" s="26">
+        <v>10.5</v>
+      </c>
+      <c r="H299" s="26">
+        <v>15</v>
       </c>
     </row>
     <row r="300" ht="25" customHeight="1" spans="1:8">
       <c r="A300" s="80"/>
       <c r="B300" s="81"/>
       <c r="C300" s="22">
-        <v>43573</v>
+        <v>43480</v>
       </c>
       <c r="D300" s="65">
-        <v>252.546</v>
-      </c>
-      <c r="E300" s="62">
-        <v>7.55</v>
-      </c>
-      <c r="F300" s="62">
-        <v>10.98</v>
-      </c>
-      <c r="G300" s="62">
-        <v>13.09</v>
-      </c>
-      <c r="H300" s="62">
-        <v>15.24</v>
+        <v>234.424</v>
+      </c>
+      <c r="E300" s="26">
+        <v>-3</v>
+      </c>
+      <c r="F300" s="26">
+        <v>11.9</v>
+      </c>
+      <c r="G300" s="26">
+        <v>12.9</v>
+      </c>
+      <c r="H300" s="26">
+        <v>15</v>
       </c>
     </row>
     <row r="301" ht="25" customHeight="1" spans="1:8">
       <c r="A301" s="80"/>
       <c r="B301" s="81"/>
       <c r="C301" s="22">
-        <v>43588</v>
+        <v>43550</v>
       </c>
       <c r="D301" s="65">
-        <v>251.167</v>
+        <v>246.301</v>
       </c>
       <c r="E301" s="62">
-        <v>6.12</v>
+        <v>9.14</v>
       </c>
       <c r="F301" s="62">
-        <v>9.17</v>
-      </c>
-      <c r="G301" s="62">
-        <v>13.29</v>
-      </c>
+        <v>9.59</v>
+      </c>
+      <c r="G301" s="62"/>
       <c r="H301" s="62">
-        <v>15.24</v>
+        <v>15.01</v>
       </c>
     </row>
     <row r="302" ht="25" customHeight="1" spans="1:8">
       <c r="A302" s="80"/>
       <c r="B302" s="81"/>
-      <c r="C302" s="65"/>
-      <c r="D302" s="65"/>
-      <c r="E302" s="62"/>
-      <c r="F302" s="62"/>
-      <c r="G302" s="62"/>
-      <c r="H302" s="62"/>
+      <c r="C302" s="22">
+        <v>43551</v>
+      </c>
+      <c r="D302" s="65">
+        <v>245.74</v>
+      </c>
+      <c r="E302" s="62">
+        <v>7.65</v>
+      </c>
+      <c r="F302" s="62">
+        <v>10.28</v>
+      </c>
+      <c r="G302" s="62">
+        <v>13.81</v>
+      </c>
+      <c r="H302" s="62">
+        <v>15.08</v>
+      </c>
     </row>
     <row r="303" ht="25" customHeight="1" spans="1:8">
       <c r="A303" s="80"/>
       <c r="B303" s="81"/>
-      <c r="C303" s="65"/>
-      <c r="D303" s="65"/>
-      <c r="E303" s="62"/>
-      <c r="F303" s="62"/>
-      <c r="G303" s="62"/>
-      <c r="H303" s="62"/>
+      <c r="C303" s="22">
+        <v>43573</v>
+      </c>
+      <c r="D303" s="65">
+        <v>252.546</v>
+      </c>
+      <c r="E303" s="62">
+        <v>7.55</v>
+      </c>
+      <c r="F303" s="62">
+        <v>10.98</v>
+      </c>
+      <c r="G303" s="62">
+        <v>13.09</v>
+      </c>
+      <c r="H303" s="62">
+        <v>15.24</v>
+      </c>
     </row>
     <row r="304" ht="25" customHeight="1" spans="1:8">
       <c r="A304" s="80"/>
       <c r="B304" s="81"/>
-      <c r="C304" s="65"/>
-      <c r="D304" s="65"/>
-      <c r="E304" s="62"/>
-      <c r="F304" s="62"/>
-      <c r="G304" s="62"/>
-      <c r="H304" s="62"/>
+      <c r="C304" s="22">
+        <v>43588</v>
+      </c>
+      <c r="D304" s="65">
+        <v>251.167</v>
+      </c>
+      <c r="E304" s="62">
+        <v>6.12</v>
+      </c>
+      <c r="F304" s="62">
+        <v>9.17</v>
+      </c>
+      <c r="G304" s="62">
+        <v>13.29</v>
+      </c>
+      <c r="H304" s="62">
+        <v>15.24</v>
+      </c>
     </row>
     <row r="305" ht="25" customHeight="1" spans="1:8">
       <c r="A305" s="80"/>
       <c r="B305" s="81"/>
-      <c r="C305" s="65"/>
-      <c r="D305" s="65"/>
-      <c r="E305" s="62"/>
-      <c r="F305" s="62"/>
-      <c r="G305" s="62"/>
-      <c r="H305" s="62"/>
+      <c r="C305" s="22">
+        <v>43592</v>
+      </c>
+      <c r="D305" s="65">
+        <v>245.877</v>
+      </c>
+      <c r="E305" s="62">
+        <v>3.88</v>
+      </c>
+      <c r="F305" s="62">
+        <v>8.2</v>
+      </c>
+      <c r="G305" s="62">
+        <v>12.8</v>
+      </c>
+      <c r="H305" s="62">
+        <v>14.9</v>
+      </c>
     </row>
     <row r="306" ht="25" customHeight="1" spans="1:8">
-      <c r="A306" s="84"/>
-      <c r="B306" s="85"/>
-      <c r="C306" s="33"/>
-      <c r="D306" s="33"/>
-      <c r="E306" s="2"/>
-      <c r="F306" s="2"/>
-      <c r="G306" s="2"/>
-      <c r="H306" s="2"/>
-    </row>
-    <row r="307" ht="25" customHeight="1"/>
+      <c r="A306" s="80"/>
+      <c r="B306" s="81"/>
+      <c r="C306" s="65"/>
+      <c r="D306" s="65"/>
+      <c r="E306" s="62"/>
+      <c r="F306" s="62"/>
+      <c r="G306" s="62"/>
+      <c r="H306" s="62"/>
+    </row>
+    <row r="307" ht="25" customHeight="1" spans="1:8">
+      <c r="A307" s="80"/>
+      <c r="B307" s="81"/>
+      <c r="C307" s="65"/>
+      <c r="D307" s="65"/>
+      <c r="E307" s="62"/>
+      <c r="F307" s="62"/>
+      <c r="G307" s="62"/>
+      <c r="H307" s="62"/>
+    </row>
     <row r="308" ht="25" customHeight="1" spans="1:8">
-      <c r="A308" s="72" t="s">
+      <c r="A308" s="80"/>
+      <c r="B308" s="81"/>
+      <c r="C308" s="65"/>
+      <c r="D308" s="65"/>
+      <c r="E308" s="62"/>
+      <c r="F308" s="62"/>
+      <c r="G308" s="62"/>
+      <c r="H308" s="62"/>
+    </row>
+    <row r="309" ht="25" customHeight="1" spans="1:8">
+      <c r="A309" s="84"/>
+      <c r="B309" s="85"/>
+      <c r="C309" s="33"/>
+      <c r="D309" s="33"/>
+      <c r="E309" s="2"/>
+      <c r="F309" s="2"/>
+      <c r="G309" s="2"/>
+      <c r="H309" s="2"/>
+    </row>
+    <row r="310" ht="25" customHeight="1"/>
+    <row r="311" ht="25" customHeight="1" spans="1:8">
+      <c r="A311" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B308" s="21" t="s">
+      <c r="B311" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C308" s="22">
+      <c r="C311" s="22">
         <v>43573</v>
       </c>
-      <c r="D308" s="65">
+      <c r="D311" s="65">
         <v>142.8547</v>
       </c>
-      <c r="E308" s="62">
+      <c r="E311" s="62">
         <v>7.6</v>
       </c>
-      <c r="F308" s="62">
+      <c r="F311" s="62">
         <v>12.09</v>
       </c>
-      <c r="G308" s="62">
+      <c r="G311" s="62">
         <v>12.93</v>
       </c>
-      <c r="H308" s="62">
+      <c r="H311" s="62">
         <v>15.89</v>
       </c>
-    </row>
-    <row r="309" ht="25" customHeight="1" spans="1:8">
-      <c r="A309" s="72"/>
-      <c r="B309" s="21"/>
-      <c r="C309" s="22">
-        <v>43588</v>
-      </c>
-      <c r="D309" s="65">
-        <v>142.5815</v>
-      </c>
-      <c r="E309" s="62">
-        <v>6.21</v>
-      </c>
-      <c r="F309" s="62">
-        <v>11.56</v>
-      </c>
-      <c r="G309" s="62">
-        <v>13.06</v>
-      </c>
-      <c r="H309" s="62">
-        <v>15.82</v>
-      </c>
-    </row>
-    <row r="310" ht="25" customHeight="1" spans="1:8">
-      <c r="A310" s="72"/>
-      <c r="B310" s="21"/>
-      <c r="C310" s="65"/>
-      <c r="D310" s="65"/>
-      <c r="E310" s="62"/>
-      <c r="F310" s="62"/>
-      <c r="G310" s="62"/>
-      <c r="H310" s="62"/>
-    </row>
-    <row r="311" ht="25" customHeight="1" spans="1:8">
-      <c r="A311" s="72"/>
-      <c r="B311" s="21"/>
-      <c r="C311" s="65"/>
-      <c r="D311" s="65"/>
-      <c r="E311" s="62"/>
-      <c r="F311" s="62"/>
-      <c r="G311" s="62"/>
-      <c r="H311" s="62"/>
     </row>
     <row r="312" ht="25" customHeight="1" spans="1:8">
       <c r="A312" s="72"/>
       <c r="B312" s="21"/>
-      <c r="C312" s="65"/>
-      <c r="D312" s="65"/>
-      <c r="E312" s="62"/>
-      <c r="F312" s="62"/>
-      <c r="G312" s="62"/>
-      <c r="H312" s="62"/>
+      <c r="C312" s="22">
+        <v>43588</v>
+      </c>
+      <c r="D312" s="65">
+        <v>142.5815</v>
+      </c>
+      <c r="E312" s="62">
+        <v>6.21</v>
+      </c>
+      <c r="F312" s="62">
+        <v>11.56</v>
+      </c>
+      <c r="G312" s="62">
+        <v>13.06</v>
+      </c>
+      <c r="H312" s="62">
+        <v>15.82</v>
+      </c>
     </row>
     <row r="313" ht="25" customHeight="1" spans="1:8">
       <c r="A313" s="72"/>
       <c r="B313" s="21"/>
-      <c r="C313" s="65"/>
-      <c r="D313" s="65"/>
-      <c r="E313" s="62"/>
-      <c r="F313" s="62"/>
-      <c r="G313" s="62"/>
-      <c r="H313" s="62"/>
+      <c r="C313" s="22">
+        <v>43592</v>
+      </c>
+      <c r="D313" s="65">
+        <v>141.3871</v>
+      </c>
+      <c r="E313" s="62">
+        <v>6.08</v>
+      </c>
+      <c r="F313" s="62">
+        <v>10.98</v>
+      </c>
+      <c r="G313" s="62">
+        <v>13.15</v>
+      </c>
+      <c r="H313" s="62">
+        <v>15.6</v>
+      </c>
     </row>
     <row r="314" ht="25" customHeight="1" spans="1:8">
       <c r="A314" s="72"/>
@@ -7968,95 +8076,107 @@
       <c r="G318" s="62"/>
       <c r="H318" s="62"/>
     </row>
-    <row r="319" ht="25" customHeight="1"/>
-    <row r="320" ht="25" customHeight="1"/>
+    <row r="319" ht="25" customHeight="1" spans="1:8">
+      <c r="A319" s="72"/>
+      <c r="B319" s="21"/>
+      <c r="C319" s="65"/>
+      <c r="D319" s="65"/>
+      <c r="E319" s="62"/>
+      <c r="F319" s="62"/>
+      <c r="G319" s="62"/>
+      <c r="H319" s="62"/>
+    </row>
+    <row r="320" ht="25" customHeight="1" spans="1:8">
+      <c r="A320" s="72"/>
+      <c r="B320" s="21"/>
+      <c r="C320" s="65"/>
+      <c r="D320" s="65"/>
+      <c r="E320" s="62"/>
+      <c r="F320" s="62"/>
+      <c r="G320" s="62"/>
+      <c r="H320" s="62"/>
+    </row>
     <row r="321" ht="25" customHeight="1" spans="1:8">
-      <c r="A321" s="72" t="s">
+      <c r="A321" s="72"/>
+      <c r="B321" s="21"/>
+      <c r="C321" s="65"/>
+      <c r="D321" s="65"/>
+      <c r="E321" s="62"/>
+      <c r="F321" s="62"/>
+      <c r="G321" s="62"/>
+      <c r="H321" s="62"/>
+    </row>
+    <row r="322" ht="25" customHeight="1"/>
+    <row r="323" ht="25" customHeight="1"/>
+    <row r="324" ht="25" customHeight="1" spans="1:8">
+      <c r="A324" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B321" s="21" t="s">
+      <c r="B324" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C321" s="22">
+      <c r="C324" s="22">
         <v>43573</v>
       </c>
-      <c r="D321" s="65">
+      <c r="D324" s="65">
         <v>51.6274</v>
       </c>
-      <c r="E321" s="65">
+      <c r="E324" s="65">
         <v>3.66</v>
       </c>
-      <c r="F321" s="62">
+      <c r="F324" s="62">
         <v>10.7</v>
       </c>
-      <c r="G321" s="62">
+      <c r="G324" s="62">
         <v>14.77</v>
       </c>
-      <c r="H321" s="62">
+      <c r="H324" s="62">
         <v>19.39</v>
       </c>
-    </row>
-    <row r="322" ht="25" customHeight="1" spans="1:8">
-      <c r="A322" s="72"/>
-      <c r="B322" s="21"/>
-      <c r="C322" s="22">
-        <v>43588</v>
-      </c>
-      <c r="D322" s="65">
-        <v>51.6773</v>
-      </c>
-      <c r="E322" s="62">
-        <v>2.75</v>
-      </c>
-      <c r="F322" s="62">
-        <v>9.43</v>
-      </c>
-      <c r="G322" s="62">
-        <v>14.96</v>
-      </c>
-      <c r="H322" s="62">
-        <v>19.42</v>
-      </c>
-    </row>
-    <row r="323" ht="25" customHeight="1" spans="1:8">
-      <c r="A323" s="72"/>
-      <c r="B323" s="21"/>
-      <c r="C323" s="65"/>
-      <c r="D323" s="65"/>
-      <c r="E323" s="62"/>
-      <c r="F323" s="62"/>
-      <c r="G323" s="62"/>
-      <c r="H323" s="62"/>
-    </row>
-    <row r="324" ht="25" customHeight="1" spans="1:8">
-      <c r="A324" s="72"/>
-      <c r="B324" s="21"/>
-      <c r="C324" s="65"/>
-      <c r="D324" s="65"/>
-      <c r="E324" s="62"/>
-      <c r="F324" s="62"/>
-      <c r="G324" s="62"/>
-      <c r="H324" s="62"/>
     </row>
     <row r="325" ht="25" customHeight="1" spans="1:8">
       <c r="A325" s="72"/>
       <c r="B325" s="21"/>
-      <c r="C325" s="65"/>
-      <c r="D325" s="65"/>
-      <c r="E325" s="62"/>
-      <c r="F325" s="62"/>
-      <c r="G325" s="62"/>
-      <c r="H325" s="62"/>
+      <c r="C325" s="22">
+        <v>43588</v>
+      </c>
+      <c r="D325" s="65">
+        <v>51.6773</v>
+      </c>
+      <c r="E325" s="62">
+        <v>2.75</v>
+      </c>
+      <c r="F325" s="62">
+        <v>9.43</v>
+      </c>
+      <c r="G325" s="62">
+        <v>14.96</v>
+      </c>
+      <c r="H325" s="62">
+        <v>19.42</v>
+      </c>
     </row>
     <row r="326" ht="25" customHeight="1" spans="1:8">
       <c r="A326" s="72"/>
       <c r="B326" s="21"/>
-      <c r="C326" s="65"/>
-      <c r="D326" s="65"/>
-      <c r="E326" s="62"/>
-      <c r="F326" s="62"/>
-      <c r="G326" s="62"/>
-      <c r="H326" s="62"/>
+      <c r="C326" s="22">
+        <v>43592</v>
+      </c>
+      <c r="D326" s="65">
+        <v>50.7195</v>
+      </c>
+      <c r="E326" s="62">
+        <v>1.22</v>
+      </c>
+      <c r="F326" s="62">
+        <v>8.77</v>
+      </c>
+      <c r="G326" s="62">
+        <v>14.47</v>
+      </c>
+      <c r="H326" s="62">
+        <v>19.01</v>
+      </c>
     </row>
     <row r="327" ht="25" customHeight="1" spans="1:8">
       <c r="A327" s="72"/>
@@ -8078,112 +8198,151 @@
       <c r="G328" s="62"/>
       <c r="H328" s="62"/>
     </row>
-    <row r="329" ht="25" customHeight="1"/>
-    <row r="330" ht="25" customHeight="1"/>
+    <row r="329" ht="25" customHeight="1" spans="1:8">
+      <c r="A329" s="72"/>
+      <c r="B329" s="21"/>
+      <c r="C329" s="65"/>
+      <c r="D329" s="65"/>
+      <c r="E329" s="62"/>
+      <c r="F329" s="62"/>
+      <c r="G329" s="62"/>
+      <c r="H329" s="62"/>
+    </row>
+    <row r="330" ht="25" customHeight="1" spans="1:8">
+      <c r="A330" s="72"/>
+      <c r="B330" s="21"/>
+      <c r="C330" s="65"/>
+      <c r="D330" s="65"/>
+      <c r="E330" s="62"/>
+      <c r="F330" s="62"/>
+      <c r="G330" s="62"/>
+      <c r="H330" s="62"/>
+    </row>
     <row r="331" ht="25" customHeight="1" spans="1:8">
-      <c r="A331" s="72" t="s">
+      <c r="A331" s="72"/>
+      <c r="B331" s="21"/>
+      <c r="C331" s="65"/>
+      <c r="D331" s="65"/>
+      <c r="E331" s="62"/>
+      <c r="F331" s="62"/>
+      <c r="G331" s="62"/>
+      <c r="H331" s="62"/>
+    </row>
+    <row r="332" ht="25" customHeight="1"/>
+    <row r="333" ht="25" customHeight="1"/>
+    <row r="334" ht="25" customHeight="1" spans="1:8">
+      <c r="A334" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B331" s="86" t="s">
+      <c r="B334" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="C331" s="22">
+      <c r="C334" s="22">
         <v>43573</v>
       </c>
-      <c r="D331" s="65">
+      <c r="D334" s="65">
         <v>151.2273</v>
       </c>
-      <c r="E331" s="62">
+      <c r="E334" s="62">
         <v>6.13</v>
       </c>
-      <c r="F331" s="62">
+      <c r="F334" s="62">
         <v>16.09</v>
       </c>
-      <c r="G331" s="62">
+      <c r="G334" s="62">
         <v>16.02</v>
       </c>
-      <c r="H331" s="64">
+      <c r="H334" s="64">
         <v>19.86</v>
       </c>
-    </row>
-    <row r="332" ht="25" customHeight="1" spans="1:8">
-      <c r="A332" s="72"/>
-      <c r="B332" s="87"/>
-      <c r="C332" s="22">
-        <v>43588</v>
-      </c>
-      <c r="D332" s="65">
-        <v>150.1831</v>
-      </c>
-      <c r="E332" s="62">
-        <v>3.57</v>
-      </c>
-      <c r="F332" s="62">
-        <v>15.48</v>
-      </c>
-      <c r="G332" s="62">
-        <v>15.27</v>
-      </c>
-      <c r="H332" s="64">
-        <v>19.64</v>
-      </c>
-    </row>
-    <row r="333" ht="25" customHeight="1" spans="1:8">
-      <c r="A333" s="72"/>
-      <c r="B333" s="87"/>
-      <c r="C333" s="65"/>
-      <c r="D333" s="65"/>
-      <c r="E333" s="62"/>
-      <c r="F333" s="62"/>
-      <c r="G333" s="62"/>
-      <c r="H333" s="64"/>
-    </row>
-    <row r="334" ht="25" customHeight="1" spans="1:8">
-      <c r="A334" s="72"/>
-      <c r="B334" s="87"/>
-      <c r="C334" s="65"/>
-      <c r="D334" s="65"/>
-      <c r="E334" s="62"/>
-      <c r="F334" s="62"/>
-      <c r="G334" s="62"/>
-      <c r="H334" s="64"/>
     </row>
     <row r="335" ht="25" customHeight="1" spans="1:8">
       <c r="A335" s="72"/>
       <c r="B335" s="87"/>
-      <c r="C335" s="65"/>
-      <c r="D335" s="65"/>
-      <c r="E335" s="62"/>
-      <c r="F335" s="62"/>
-      <c r="G335" s="62"/>
-      <c r="H335" s="64"/>
+      <c r="C335" s="22">
+        <v>43588</v>
+      </c>
+      <c r="D335" s="65">
+        <v>150.1831</v>
+      </c>
+      <c r="E335" s="62">
+        <v>3.57</v>
+      </c>
+      <c r="F335" s="62">
+        <v>15.48</v>
+      </c>
+      <c r="G335" s="62">
+        <v>15.27</v>
+      </c>
+      <c r="H335" s="64">
+        <v>19.64</v>
+      </c>
     </row>
     <row r="336" ht="25" customHeight="1" spans="1:8">
       <c r="A336" s="72"/>
       <c r="B336" s="87"/>
-      <c r="C336" s="65"/>
-      <c r="D336" s="88"/>
-      <c r="E336" s="62"/>
-      <c r="F336" s="62"/>
-      <c r="G336" s="62"/>
-      <c r="H336" s="64"/>
+      <c r="C336" s="22">
+        <v>43592</v>
+      </c>
+      <c r="D336" s="65">
+        <v>148.8087</v>
+      </c>
+      <c r="E336" s="62">
+        <v>3.46</v>
+      </c>
+      <c r="F336" s="62">
+        <v>14.66</v>
+      </c>
+      <c r="G336" s="62">
+        <v>15.72</v>
+      </c>
+      <c r="H336" s="64">
+        <v>19.41</v>
+      </c>
     </row>
     <row r="337" ht="25" customHeight="1" spans="1:8">
       <c r="A337" s="72"/>
-      <c r="B337" s="89"/>
-      <c r="C337" s="90"/>
+      <c r="B337" s="87"/>
+      <c r="C337" s="65"/>
       <c r="D337" s="65"/>
-      <c r="E337" s="91"/>
+      <c r="E337" s="62"/>
       <c r="F337" s="62"/>
       <c r="G337" s="62"/>
       <c r="H337" s="64"/>
     </row>
-    <row r="338" ht="25" customHeight="1" spans="4:4">
-      <c r="D338" s="92"/>
-    </row>
-    <row r="339" ht="25" customHeight="1"/>
-    <row r="340" ht="25" customHeight="1"/>
-    <row r="341" ht="25" customHeight="1"/>
+    <row r="338" ht="25" customHeight="1" spans="1:8">
+      <c r="A338" s="72"/>
+      <c r="B338" s="87"/>
+      <c r="C338" s="65"/>
+      <c r="D338" s="65"/>
+      <c r="E338" s="62"/>
+      <c r="F338" s="62"/>
+      <c r="G338" s="62"/>
+      <c r="H338" s="64"/>
+    </row>
+    <row r="339" ht="25" customHeight="1" spans="1:8">
+      <c r="A339" s="72"/>
+      <c r="B339" s="87"/>
+      <c r="C339" s="65"/>
+      <c r="D339" s="88"/>
+      <c r="E339" s="62"/>
+      <c r="F339" s="62"/>
+      <c r="G339" s="62"/>
+      <c r="H339" s="64"/>
+    </row>
+    <row r="340" ht="25" customHeight="1" spans="1:8">
+      <c r="A340" s="72"/>
+      <c r="B340" s="89"/>
+      <c r="C340" s="90"/>
+      <c r="D340" s="65"/>
+      <c r="E340" s="91"/>
+      <c r="F340" s="62"/>
+      <c r="G340" s="62"/>
+      <c r="H340" s="64"/>
+    </row>
+    <row r="341" ht="25" customHeight="1" spans="4:4">
+      <c r="D341" s="92"/>
+    </row>
     <row r="342" ht="25" customHeight="1"/>
     <row r="343" ht="25" customHeight="1"/>
     <row r="344" ht="25" customHeight="1"/>
@@ -8210,9 +8369,9 @@
     <row r="365" ht="25" customHeight="1"/>
     <row r="366" ht="25" customHeight="1"/>
     <row r="367" ht="25" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="368" ht="25" customHeight="1"/>
+    <row r="369" ht="25" customHeight="1"/>
+    <row r="370" ht="25" customHeight="1"/>
     <row r="371" ht="15.75" customHeight="1"/>
     <row r="372" ht="15.75" customHeight="1"/>
     <row r="373" ht="15.75" customHeight="1"/>
@@ -9084,6 +9243,9 @@
     <row r="1239" ht="15.75" customHeight="1"/>
     <row r="1240" ht="15.75" customHeight="1"/>
     <row r="1241" ht="15.75" customHeight="1"/>
+    <row r="1242" ht="15.75" customHeight="1"/>
+    <row r="1243" ht="15.75" customHeight="1"/>
+    <row r="1244" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="A2:A40"/>
@@ -9093,11 +9255,11 @@
     <mergeCell ref="A152:A184"/>
     <mergeCell ref="A186:A227"/>
     <mergeCell ref="A229:A259"/>
-    <mergeCell ref="A261:A290"/>
-    <mergeCell ref="A293:A305"/>
-    <mergeCell ref="A308:A318"/>
-    <mergeCell ref="A321:A328"/>
-    <mergeCell ref="A331:A337"/>
+    <mergeCell ref="A261:A293"/>
+    <mergeCell ref="A296:A308"/>
+    <mergeCell ref="A311:A321"/>
+    <mergeCell ref="A324:A331"/>
+    <mergeCell ref="A334:A340"/>
     <mergeCell ref="B2:B40"/>
     <mergeCell ref="B42:B83"/>
     <mergeCell ref="B85:B110"/>
@@ -9105,21 +9267,21 @@
     <mergeCell ref="B152:B184"/>
     <mergeCell ref="B186:B227"/>
     <mergeCell ref="B229:B259"/>
-    <mergeCell ref="B261:B290"/>
-    <mergeCell ref="B293:B305"/>
-    <mergeCell ref="B308:B318"/>
-    <mergeCell ref="B321:B328"/>
-    <mergeCell ref="B331:B337"/>
+    <mergeCell ref="B261:B293"/>
+    <mergeCell ref="B296:B308"/>
+    <mergeCell ref="B311:B321"/>
+    <mergeCell ref="B324:B331"/>
+    <mergeCell ref="B334:B340"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A229:A259" r:id="rId1" display="Reliance Large Cap Fund - Direct Plan (G)"/>
-    <hyperlink ref="A261:A290" r:id="rId2" display="Canara Robeco Emerging Equities - Direct Plan (G)"/>
+    <hyperlink ref="A261:A293" r:id="rId2" display="Canara Robeco Emerging Equities - Direct Plan (G)"/>
     <hyperlink ref="A85:A110" location="Sheet1!A204" display="=HYPERLINK(&quot;http://www.moneycontrol.com/mutual-funds/nav/reliance-top-200-fund-direct-plan/MRC940&quot;,&quot;Reliance Top 200 Fund - Direct Plan (G). New name: Reliance Large Cap Fund - Direct Plan (G)&quot;)"/>
-    <hyperlink ref="A293" r:id="rId3" display="Kotak Bluechip Fund - Direct Plan (G)"/>
+    <hyperlink ref="A296" r:id="rId3" display="Kotak Bluechip Fund - Direct Plan (G)"/>
     <hyperlink ref="I229" r:id="rId4" display="https://www.valueresearchonline.com/funds/newsnapshot.asp?schemecode=16192"/>
-    <hyperlink ref="A308:A318" r:id="rId5" display="SBI Equity Hybrid Fund - Direct Plan - Growth"/>
-    <hyperlink ref="A321:A328" r:id="rId6" display="SBI Magnum MultiCap Fund - Direct Plan - Growth"/>
-    <hyperlink ref="A331:A337" r:id="rId7" display="SBI Focused Equity Fund - Direct Plan - Growth"/>
+    <hyperlink ref="A311:A321" r:id="rId5" display="SBI Equity Hybrid Fund - Direct Plan - Growth"/>
+    <hyperlink ref="A324:A331" r:id="rId6" display="SBI Magnum MultiCap Fund - Direct Plan - Growth"/>
+    <hyperlink ref="A334:A340" r:id="rId7" display="SBI Focused Equity Fund - Direct Plan - Growth"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="portrait"/>
